--- a/DSA for PLACEMENTS.xlsx
+++ b/DSA for PLACEMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5FB50A-629F-4B54-9944-41E4BBB252A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8072A5-672F-4E0D-8503-674CDB5E7C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="421">
   <si>
     <t>Do NOT send any edit request to this sheet. Instead, make a copy of your own.</t>
   </si>
@@ -1294,6 +1294,12 @@
   </si>
   <si>
     <t>Good Nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     TRUE</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
   </si>
 </sst>
 </file>
@@ -1592,10 +1598,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1603,19 +1621,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1839,8 +1845,8 @@
   <dimension ref="A1:Y1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1851,19 +1857,19 @@
     <col min="4" max="4" width="36.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="39.109375" customWidth="1"/>
+    <col min="8" max="8" width="70.5546875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -1888,16 +1894,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1915,7 +1921,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1942,7 +1948,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -1983,7 +1989,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -2011,11 +2017,11 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2035,7 +2041,9 @@
       <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2054,9 +2062,9 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -2097,7 +2105,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3" t="b">
         <v>0</v>
       </c>
@@ -2140,7 +2148,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3" t="b">
         <v>0</v>
       </c>
@@ -2179,7 +2187,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3" t="b">
         <v>0</v>
       </c>
@@ -2220,12 +2228,22 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="10"/>
       <c r="I11" s="3"/>
@@ -2247,7 +2265,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3" t="b">
         <v>0</v>
       </c>
@@ -2288,7 +2306,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3" t="b">
         <v>0</v>
       </c>
@@ -2327,7 +2345,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3" t="b">
         <v>0</v>
       </c>
@@ -2368,7 +2386,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3" t="b">
         <v>0</v>
       </c>
@@ -2411,7 +2429,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3" t="b">
         <v>0</v>
       </c>
@@ -2454,7 +2472,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3" t="b">
         <v>0</v>
       </c>
@@ -2495,9 +2513,9 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>12</v>
@@ -2536,7 +2554,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3" t="b">
         <v>0</v>
       </c>
@@ -2579,7 +2597,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3" t="b">
         <v>0</v>
       </c>
@@ -2620,7 +2638,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3" t="b">
         <v>0</v>
       </c>
@@ -2661,7 +2679,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="3" t="b">
         <v>0</v>
       </c>
@@ -2702,7 +2720,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="3" t="b">
         <v>0</v>
       </c>
@@ -2743,7 +2761,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="3" t="b">
         <v>0</v>
       </c>
@@ -2784,7 +2802,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="3" t="b">
         <v>0</v>
       </c>
@@ -2823,9 +2841,9 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2">
         <v>20</v>
@@ -2866,7 +2884,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -2893,7 +2911,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="3" t="b">
         <v>0</v>
       </c>
@@ -2934,7 +2952,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="3" t="b">
         <v>0</v>
       </c>
@@ -2975,7 +2993,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="32"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="3" t="b">
         <v>0</v>
       </c>
@@ -3018,7 +3036,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="32"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="3" t="b">
         <v>0</v>
       </c>
@@ -3057,7 +3075,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="3" t="b">
         <v>0</v>
       </c>
@@ -3150,7 +3168,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="39" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="3" t="b">
@@ -3193,7 +3211,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="3" t="b">
         <v>0</v>
       </c>
@@ -3232,7 +3250,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="32"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="3" t="b">
         <v>0</v>
       </c>
@@ -3271,7 +3289,7 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="3" t="b">
         <v>0</v>
       </c>
@@ -3312,7 +3330,7 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="3" t="b">
         <v>0</v>
       </c>
@@ -3351,7 +3369,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="32"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="3" t="b">
         <v>0</v>
       </c>
@@ -3392,7 +3410,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="3" t="b">
         <v>0</v>
       </c>
@@ -3485,7 +3503,7 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="3" t="b">
@@ -3528,7 +3546,7 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="32"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="3" t="b">
         <v>0</v>
       </c>
@@ -3567,7 +3585,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="32"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="3" t="b">
         <v>0</v>
       </c>
@@ -3606,7 +3624,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="3" t="b">
         <v>0</v>
       </c>
@@ -3645,7 +3663,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="3" t="b">
         <v>0</v>
       </c>
@@ -3684,7 +3702,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="3" t="b">
         <v>0</v>
       </c>
@@ -3725,7 +3743,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="3" t="b">
         <v>0</v>
       </c>
@@ -3764,7 +3782,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="3" t="b">
         <v>0</v>
       </c>
@@ -3803,7 +3821,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52" s="32"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="3" t="b">
         <v>0</v>
       </c>
@@ -3842,7 +3860,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="3" t="b">
         <v>0</v>
       </c>
@@ -3879,7 +3897,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="3" t="b">
         <v>0</v>
       </c>
@@ -3966,7 +3984,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="34" t="s">
         <v>98</v>
       </c>
       <c r="B57" s="3" t="b">
@@ -4009,7 +4027,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="32"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="3" t="b">
         <v>0</v>
       </c>
@@ -4048,7 +4066,7 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A59" s="32"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="3" t="b">
         <v>0</v>
       </c>
@@ -4089,7 +4107,7 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="32"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="3" t="b">
         <v>0</v>
       </c>
@@ -4128,7 +4146,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="32"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="3" t="b">
         <v>0</v>
       </c>
@@ -4167,7 +4185,7 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="32"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="3" t="b">
         <v>0</v>
       </c>
@@ -4208,7 +4226,7 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="3" t="b">
         <v>0</v>
       </c>
@@ -4249,7 +4267,7 @@
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="32"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="3" t="b">
         <v>0</v>
       </c>
@@ -4288,7 +4306,7 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="32"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="3" t="b">
         <v>0</v>
       </c>
@@ -4329,7 +4347,7 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="3" t="b">
         <v>0</v>
       </c>
@@ -4370,7 +4388,7 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="3" t="b">
         <v>0</v>
       </c>
@@ -4463,11 +4481,11 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="34" t="s">
         <v>118</v>
       </c>
       <c r="B70" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -4506,9 +4524,9 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="32"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="2">
         <v>2</v>
@@ -4547,7 +4565,7 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A72" s="32"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="3" t="b">
         <v>0</v>
       </c>
@@ -4588,7 +4606,7 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A73" s="32"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="3" t="b">
         <v>0</v>
       </c>
@@ -4627,7 +4645,7 @@
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="32"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="3" t="b">
         <v>0</v>
       </c>
@@ -4668,7 +4686,7 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A75" s="32"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="3" t="b">
         <v>0</v>
       </c>
@@ -4709,7 +4727,7 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="3" t="b">
         <v>0</v>
       </c>
@@ -4750,7 +4768,7 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A77" s="32"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="3" t="b">
         <v>0</v>
       </c>
@@ -4791,7 +4809,7 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="3" t="b">
         <v>0</v>
       </c>
@@ -4830,7 +4848,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A79" s="32"/>
+      <c r="A79" s="33"/>
       <c r="B79" s="3" t="b">
         <v>0</v>
       </c>
@@ -4869,7 +4887,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="3" t="b">
         <v>0</v>
       </c>
@@ -4910,7 +4928,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="3" t="b">
         <v>0</v>
       </c>
@@ -4949,7 +4967,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="3" t="b">
         <v>0</v>
       </c>
@@ -5044,7 +5062,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="35" t="s">
         <v>145</v>
       </c>
       <c r="B85" s="3" t="b">
@@ -5087,7 +5105,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="3" t="b">
         <v>0</v>
       </c>
@@ -5128,7 +5146,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A87" s="32"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="3" t="b">
         <v>0</v>
       </c>
@@ -5169,7 +5187,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A88" s="32"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="3" t="b">
         <v>0</v>
       </c>
@@ -5210,7 +5228,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A89" s="32"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="3" t="b">
         <v>0</v>
       </c>
@@ -5251,7 +5269,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A90" s="32"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="3" t="b">
         <v>0</v>
       </c>
@@ -5290,7 +5308,7 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="3" t="b">
         <v>0</v>
       </c>
@@ -5329,7 +5347,7 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A92" s="32"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="3" t="b">
         <v>0</v>
       </c>
@@ -5370,7 +5388,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A93" s="32"/>
+      <c r="A93" s="33"/>
       <c r="B93" s="3" t="b">
         <v>0</v>
       </c>
@@ -5411,7 +5429,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A94" s="32"/>
+      <c r="A94" s="33"/>
       <c r="B94" s="3" t="b">
         <v>0</v>
       </c>
@@ -5452,7 +5470,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="3" t="b">
         <v>0</v>
       </c>
@@ -5493,7 +5511,7 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A96" s="32"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="3" t="b">
         <v>0</v>
       </c>
@@ -5534,7 +5552,7 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A97" s="32"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="3" t="b">
         <v>0</v>
       </c>
@@ -5573,7 +5591,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A98" s="32"/>
+      <c r="A98" s="33"/>
       <c r="B98" s="3" t="b">
         <v>0</v>
       </c>
@@ -5614,7 +5632,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
+      <c r="A99" s="33"/>
       <c r="B99" s="3" t="b">
         <v>0</v>
       </c>
@@ -5709,7 +5727,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="35" t="s">
         <v>176</v>
       </c>
       <c r="B102" s="3" t="b">
@@ -5752,7 +5770,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
+      <c r="A103" s="33"/>
       <c r="B103" s="3" t="b">
         <v>1</v>
       </c>
@@ -5793,7 +5811,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
+      <c r="A104" s="33"/>
       <c r="B104" s="3" t="b">
         <v>1</v>
       </c>
@@ -5834,7 +5852,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A105" s="32"/>
+      <c r="A105" s="33"/>
       <c r="B105" s="3" t="b">
         <v>0</v>
       </c>
@@ -5873,7 +5891,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
+      <c r="A106" s="33"/>
       <c r="B106" s="3" t="b">
         <v>0</v>
       </c>
@@ -5914,7 +5932,7 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A107" s="32"/>
+      <c r="A107" s="33"/>
       <c r="B107" s="3" t="b">
         <v>1</v>
       </c>
@@ -5955,7 +5973,7 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
+      <c r="A108" s="33"/>
       <c r="B108" s="3" t="b">
         <v>0</v>
       </c>
@@ -5996,7 +6014,7 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
+      <c r="A109" s="33"/>
       <c r="B109" s="3" t="b">
         <v>0</v>
       </c>
@@ -6037,7 +6055,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A110" s="32"/>
+      <c r="A110" s="33"/>
       <c r="B110" s="3" t="b">
         <v>0</v>
       </c>
@@ -6076,7 +6094,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A111" s="32"/>
+      <c r="A111" s="33"/>
       <c r="B111" s="3" t="b">
         <v>1</v>
       </c>
@@ -6117,7 +6135,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A112" s="32"/>
+      <c r="A112" s="33"/>
       <c r="B112" s="3" t="b">
         <v>0</v>
       </c>
@@ -6156,7 +6174,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A113" s="32"/>
+      <c r="A113" s="33"/>
       <c r="B113" s="3" t="b">
         <v>1</v>
       </c>
@@ -6197,7 +6215,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A114" s="32"/>
+      <c r="A114" s="33"/>
       <c r="B114" s="3" t="b">
         <v>1</v>
       </c>
@@ -6236,9 +6254,9 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A115" s="32"/>
+      <c r="A115" s="33"/>
       <c r="B115" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="2">
         <v>14</v>
@@ -6275,9 +6293,9 @@
       <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A116" s="32"/>
+      <c r="A116" s="33"/>
       <c r="B116" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="2">
         <v>15</v>
@@ -6316,7 +6334,7 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A117" s="32"/>
+      <c r="A117" s="33"/>
       <c r="B117" s="3" t="b">
         <v>0</v>
       </c>
@@ -6357,7 +6375,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A118" s="32"/>
+      <c r="A118" s="33"/>
       <c r="B118" s="3" t="b">
         <v>0</v>
       </c>
@@ -6398,7 +6416,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A119" s="32"/>
+      <c r="A119" s="33"/>
       <c r="B119" s="3" t="b">
         <v>0</v>
       </c>
@@ -6439,7 +6457,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
+      <c r="A120" s="33"/>
       <c r="B120" s="3" t="b">
         <v>0</v>
       </c>
@@ -6478,7 +6496,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="32"/>
+      <c r="A121" s="33"/>
       <c r="B121" s="3" t="b">
         <v>0</v>
       </c>
@@ -6519,7 +6537,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="32"/>
+      <c r="A122" s="33"/>
       <c r="B122" s="3" t="b">
         <v>0</v>
       </c>
@@ -6560,7 +6578,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A123" s="32"/>
+      <c r="A123" s="33"/>
       <c r="B123" s="3" t="b">
         <v>1</v>
       </c>
@@ -6599,7 +6617,7 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A124" s="32"/>
+      <c r="A124" s="33"/>
       <c r="B124" s="3" t="b">
         <v>0</v>
       </c>
@@ -6638,7 +6656,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A125" s="32"/>
+      <c r="A125" s="33"/>
       <c r="B125" s="3" t="b">
         <v>0</v>
       </c>
@@ -6687,7 +6705,7 @@
       <c r="D126" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E126" s="39" t="s">
+      <c r="E126" s="31" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="13" t="s">
@@ -6741,7 +6759,7 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A128" s="38" t="s">
+      <c r="A128" s="35" t="s">
         <v>226</v>
       </c>
       <c r="B128" s="3" t="b">
@@ -6782,7 +6800,7 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="32"/>
+      <c r="A129" s="33"/>
       <c r="B129" s="3" t="b">
         <v>0</v>
       </c>
@@ -6823,7 +6841,7 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A130" s="32"/>
+      <c r="A130" s="33"/>
       <c r="B130" s="3" t="b">
         <v>0</v>
       </c>
@@ -6864,7 +6882,7 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A131" s="32"/>
+      <c r="A131" s="33"/>
       <c r="B131" s="3" t="b">
         <v>0</v>
       </c>
@@ -6905,7 +6923,7 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A132" s="32"/>
+      <c r="A132" s="33"/>
       <c r="B132" s="3" t="b">
         <v>0</v>
       </c>
@@ -6946,7 +6964,7 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="32"/>
+      <c r="A133" s="33"/>
       <c r="B133" s="3" t="b">
         <v>0</v>
       </c>
@@ -6987,7 +7005,7 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="32"/>
+      <c r="A134" s="33"/>
       <c r="B134" s="3" t="b">
         <v>0</v>
       </c>
@@ -7028,7 +7046,7 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A135" s="32"/>
+      <c r="A135" s="33"/>
       <c r="B135" s="3" t="b">
         <v>0</v>
       </c>
@@ -7069,7 +7087,7 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="32"/>
+      <c r="A136" s="33"/>
       <c r="B136" s="3" t="b">
         <v>0</v>
       </c>
@@ -7110,7 +7128,7 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A137" s="32"/>
+      <c r="A137" s="33"/>
       <c r="B137" s="3" t="b">
         <v>0</v>
       </c>
@@ -7149,7 +7167,7 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A138" s="32"/>
+      <c r="A138" s="33"/>
       <c r="B138" s="3" t="b">
         <v>0</v>
       </c>
@@ -7190,7 +7208,7 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A139" s="32"/>
+      <c r="A139" s="33"/>
       <c r="B139" s="3" t="b">
         <v>0</v>
       </c>
@@ -7231,7 +7249,7 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A140" s="32"/>
+      <c r="A140" s="33"/>
       <c r="B140" s="3" t="b">
         <v>0</v>
       </c>
@@ -7272,7 +7290,7 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="32"/>
+      <c r="A141" s="33"/>
       <c r="B141" s="3" t="b">
         <v>0</v>
       </c>
@@ -7311,7 +7329,7 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A142" s="32"/>
+      <c r="A142" s="33"/>
       <c r="B142" s="3" t="b">
         <v>0</v>
       </c>
@@ -7406,7 +7424,7 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A145" s="38" t="s">
+      <c r="A145" s="35" t="s">
         <v>257</v>
       </c>
       <c r="B145" s="3" t="b">
@@ -7447,7 +7465,7 @@
       <c r="Y145" s="1"/>
     </row>
     <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A146" s="32"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="3" t="b">
         <v>0</v>
       </c>
@@ -7486,7 +7504,7 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="32"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="3" t="b">
         <v>0</v>
       </c>
@@ -7525,7 +7543,7 @@
       <c r="Y147" s="1"/>
     </row>
     <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" s="32"/>
+      <c r="A148" s="33"/>
       <c r="B148" s="3" t="b">
         <v>0</v>
       </c>
@@ -7564,7 +7582,7 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A149" s="32"/>
+      <c r="A149" s="33"/>
       <c r="B149" s="3" t="b">
         <v>0</v>
       </c>
@@ -7603,7 +7621,7 @@
       <c r="Y149" s="1"/>
     </row>
     <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="32"/>
+      <c r="A150" s="33"/>
       <c r="B150" s="3" t="b">
         <v>0</v>
       </c>
@@ -7696,7 +7714,7 @@
       <c r="Y152" s="1"/>
     </row>
     <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A153" s="38" t="s">
+      <c r="A153" s="35" t="s">
         <v>276</v>
       </c>
       <c r="B153" s="3" t="b">
@@ -7737,7 +7755,7 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A154" s="32"/>
+      <c r="A154" s="33"/>
       <c r="B154" s="3" t="b">
         <v>0</v>
       </c>
@@ -7776,7 +7794,7 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="32"/>
+      <c r="A155" s="33"/>
       <c r="B155" s="3" t="b">
         <v>0</v>
       </c>
@@ -7815,7 +7833,7 @@
       <c r="Y155" s="1"/>
     </row>
     <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A156" s="32"/>
+      <c r="A156" s="33"/>
       <c r="B156" s="3" t="b">
         <v>0</v>
       </c>
@@ -7854,7 +7872,7 @@
       <c r="Y156" s="1"/>
     </row>
     <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="32"/>
+      <c r="A157" s="33"/>
       <c r="B157" s="3" t="b">
         <v>0</v>
       </c>
@@ -7947,7 +7965,7 @@
       <c r="Y159" s="1"/>
     </row>
     <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A160" s="38" t="s">
+      <c r="A160" s="35" t="s">
         <v>290</v>
       </c>
       <c r="B160" s="3" t="b">
@@ -7988,7 +8006,7 @@
       <c r="Y160" s="1"/>
     </row>
     <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A161" s="32"/>
+      <c r="A161" s="33"/>
       <c r="B161" s="3" t="b">
         <v>0</v>
       </c>
@@ -8027,7 +8045,7 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="32"/>
+      <c r="A162" s="33"/>
       <c r="B162" s="3" t="b">
         <v>0</v>
       </c>
@@ -8066,7 +8084,7 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="32"/>
+      <c r="A163" s="33"/>
       <c r="B163" s="3" t="b">
         <v>0</v>
       </c>
@@ -8105,7 +8123,7 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A164" s="32"/>
+      <c r="A164" s="33"/>
       <c r="B164" s="3" t="b">
         <v>0</v>
       </c>
@@ -8144,7 +8162,7 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="32"/>
+      <c r="A165" s="33"/>
       <c r="B165" s="3" t="b">
         <v>0</v>
       </c>
@@ -8183,7 +8201,7 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A166" s="32"/>
+      <c r="A166" s="33"/>
       <c r="B166" s="3" t="b">
         <v>0</v>
       </c>
@@ -8222,7 +8240,7 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A167" s="32"/>
+      <c r="A167" s="33"/>
       <c r="B167" s="3" t="b">
         <v>0</v>
       </c>
@@ -8261,7 +8279,7 @@
       <c r="Y167" s="1"/>
     </row>
     <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A168" s="32"/>
+      <c r="A168" s="33"/>
       <c r="B168" s="3" t="b">
         <v>0</v>
       </c>
@@ -8300,7 +8318,7 @@
       <c r="Y168" s="1"/>
     </row>
     <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="32"/>
+      <c r="A169" s="33"/>
       <c r="B169" s="3" t="b">
         <v>0</v>
       </c>
@@ -8339,7 +8357,7 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="32"/>
+      <c r="A170" s="33"/>
       <c r="B170" s="3" t="b">
         <v>0</v>
       </c>
@@ -8378,7 +8396,7 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="32"/>
+      <c r="A171" s="33"/>
       <c r="B171" s="3" t="b">
         <v>0</v>
       </c>
@@ -8417,7 +8435,7 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A172" s="32"/>
+      <c r="A172" s="33"/>
       <c r="B172" s="3" t="b">
         <v>0</v>
       </c>
@@ -8456,7 +8474,7 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A173" s="32"/>
+      <c r="A173" s="33"/>
       <c r="B173" s="3" t="b">
         <v>0</v>
       </c>
@@ -8495,7 +8513,7 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A174" s="32"/>
+      <c r="A174" s="33"/>
       <c r="B174" s="3" t="b">
         <v>0</v>
       </c>
@@ -8534,7 +8552,7 @@
       <c r="Y174" s="1"/>
     </row>
     <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A175" s="32"/>
+      <c r="A175" s="33"/>
       <c r="B175" s="3" t="b">
         <v>0</v>
       </c>
@@ -8573,7 +8591,7 @@
       <c r="Y175" s="1"/>
     </row>
     <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A176" s="32"/>
+      <c r="A176" s="33"/>
       <c r="B176" s="3" t="b">
         <v>0</v>
       </c>
@@ -8612,7 +8630,7 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="32"/>
+      <c r="A177" s="33"/>
       <c r="B177" s="3" t="b">
         <v>0</v>
       </c>
@@ -8651,7 +8669,7 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="32"/>
+      <c r="A178" s="33"/>
       <c r="B178" s="3" t="b">
         <v>0</v>
       </c>
@@ -8690,7 +8708,7 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="32"/>
+      <c r="A179" s="33"/>
       <c r="B179" s="3" t="b">
         <v>0</v>
       </c>
@@ -8729,7 +8747,7 @@
       <c r="Y179" s="1"/>
     </row>
     <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A180" s="32"/>
+      <c r="A180" s="33"/>
       <c r="B180" s="3" t="b">
         <v>0</v>
       </c>
@@ -8768,7 +8786,7 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="32"/>
+      <c r="A181" s="33"/>
       <c r="B181" s="3" t="b">
         <v>0</v>
       </c>
@@ -8807,7 +8825,7 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A182" s="32"/>
+      <c r="A182" s="33"/>
       <c r="B182" s="3" t="b">
         <v>0</v>
       </c>
@@ -8846,7 +8864,7 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A183" s="32"/>
+      <c r="A183" s="33"/>
       <c r="B183" s="3" t="b">
         <v>0</v>
       </c>
@@ -8885,7 +8903,7 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A184" s="32"/>
+      <c r="A184" s="33"/>
       <c r="B184" s="3" t="b">
         <v>0</v>
       </c>
@@ -8924,7 +8942,7 @@
       <c r="Y184" s="1"/>
     </row>
     <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A185" s="32"/>
+      <c r="A185" s="33"/>
       <c r="B185" s="3" t="b">
         <v>0</v>
       </c>
@@ -9017,7 +9035,7 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A188" s="38" t="s">
+      <c r="A188" s="35" t="s">
         <v>362</v>
       </c>
       <c r="B188" s="3" t="b">
@@ -9058,7 +9076,7 @@
       <c r="Y188" s="1"/>
     </row>
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" s="32"/>
+      <c r="A189" s="33"/>
       <c r="B189" s="3" t="b">
         <v>0</v>
       </c>
@@ -9097,7 +9115,7 @@
       <c r="Y189" s="1"/>
     </row>
     <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A190" s="32"/>
+      <c r="A190" s="33"/>
       <c r="B190" s="3" t="b">
         <v>0</v>
       </c>
@@ -9136,7 +9154,7 @@
       <c r="Y190" s="1"/>
     </row>
     <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A191" s="32"/>
+      <c r="A191" s="33"/>
       <c r="B191" s="3" t="b">
         <v>0</v>
       </c>
@@ -9175,7 +9193,7 @@
       <c r="Y191" s="1"/>
     </row>
     <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A192" s="32"/>
+      <c r="A192" s="33"/>
       <c r="B192" s="3" t="b">
         <v>0</v>
       </c>
@@ -9214,7 +9232,7 @@
       <c r="Y192" s="1"/>
     </row>
     <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A193" s="32"/>
+      <c r="A193" s="33"/>
       <c r="B193" s="3" t="b">
         <v>0</v>
       </c>
@@ -9253,7 +9271,7 @@
       <c r="Y193" s="1"/>
     </row>
     <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A194" s="32"/>
+      <c r="A194" s="33"/>
       <c r="B194" s="3" t="b">
         <v>0</v>
       </c>
@@ -9292,7 +9310,7 @@
       <c r="Y194" s="1"/>
     </row>
     <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="32"/>
+      <c r="A195" s="33"/>
       <c r="B195" s="3" t="b">
         <v>0</v>
       </c>
@@ -9331,7 +9349,7 @@
       <c r="Y195" s="1"/>
     </row>
     <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A196" s="32"/>
+      <c r="A196" s="33"/>
       <c r="B196" s="3" t="b">
         <v>0</v>
       </c>
@@ -9370,7 +9388,7 @@
       <c r="Y196" s="1"/>
     </row>
     <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A197" s="32"/>
+      <c r="A197" s="33"/>
       <c r="B197" s="3" t="b">
         <v>0</v>
       </c>
@@ -9409,7 +9427,7 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A198" s="32"/>
+      <c r="A198" s="33"/>
       <c r="B198" s="3" t="b">
         <v>0</v>
       </c>
@@ -9448,7 +9466,7 @@
       <c r="Y198" s="1"/>
     </row>
     <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A199" s="32"/>
+      <c r="A199" s="33"/>
       <c r="B199" s="3" t="b">
         <v>0</v>
       </c>
@@ -9487,7 +9505,7 @@
       <c r="Y199" s="1"/>
     </row>
     <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A200" s="32"/>
+      <c r="A200" s="33"/>
       <c r="B200" s="3" t="b">
         <v>0</v>
       </c>
@@ -9526,7 +9544,7 @@
       <c r="Y200" s="1"/>
     </row>
     <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A201" s="32"/>
+      <c r="A201" s="33"/>
       <c r="B201" s="3" t="b">
         <v>0</v>
       </c>
@@ -9565,7 +9583,7 @@
       <c r="Y201" s="1"/>
     </row>
     <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A202" s="32"/>
+      <c r="A202" s="33"/>
       <c r="B202" s="3" t="b">
         <v>0</v>
       </c>
@@ -9604,7 +9622,7 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A203" s="32"/>
+      <c r="A203" s="33"/>
       <c r="B203" s="3" t="b">
         <v>0</v>
       </c>
@@ -9643,7 +9661,7 @@
       <c r="Y203" s="1"/>
     </row>
     <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="32"/>
+      <c r="A204" s="33"/>
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
@@ -9682,7 +9700,7 @@
       <c r="Y204" s="1"/>
     </row>
     <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A205" s="32"/>
+      <c r="A205" s="33"/>
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
@@ -9721,7 +9739,7 @@
       <c r="Y205" s="1"/>
     </row>
     <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A206" s="32"/>
+      <c r="A206" s="33"/>
       <c r="B206" s="3" t="b">
         <v>0</v>
       </c>
@@ -9760,7 +9778,7 @@
       <c r="Y206" s="1"/>
     </row>
     <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A207" s="32"/>
+      <c r="A207" s="33"/>
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
@@ -9799,7 +9817,7 @@
       <c r="Y207" s="1"/>
     </row>
     <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A208" s="32"/>
+      <c r="A208" s="33"/>
       <c r="B208" s="3" t="b">
         <v>0</v>
       </c>
@@ -9892,7 +9910,7 @@
       <c r="Y210" s="1"/>
     </row>
     <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="38" t="s">
+      <c r="A211" s="35" t="s">
         <v>405</v>
       </c>
       <c r="B211" s="3" t="b">
@@ -9933,7 +9951,7 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A212" s="32"/>
+      <c r="A212" s="33"/>
       <c r="B212" s="3" t="b">
         <v>0</v>
       </c>
@@ -9972,7 +9990,7 @@
       <c r="Y212" s="1"/>
     </row>
     <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A213" s="32"/>
+      <c r="A213" s="33"/>
       <c r="B213" s="3" t="b">
         <v>0</v>
       </c>
@@ -10011,7 +10029,7 @@
       <c r="Y213" s="1"/>
     </row>
     <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A214" s="32"/>
+      <c r="A214" s="33"/>
       <c r="B214" s="3" t="b">
         <v>0</v>
       </c>
@@ -10050,7 +10068,7 @@
       <c r="Y214" s="1"/>
     </row>
     <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A215" s="32"/>
+      <c r="A215" s="33"/>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
@@ -10089,7 +10107,7 @@
       <c r="Y215" s="1"/>
     </row>
     <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A216" s="32"/>
+      <c r="A216" s="33"/>
       <c r="B216" s="3" t="b">
         <v>0</v>
       </c>
@@ -31351,6 +31369,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:A32"/>
+    <mergeCell ref="A35:A41"/>
     <mergeCell ref="A44:A54"/>
     <mergeCell ref="A57:A67"/>
     <mergeCell ref="A188:A208"/>
@@ -31362,11 +31385,6 @@
     <mergeCell ref="A145:A150"/>
     <mergeCell ref="A153:A157"/>
     <mergeCell ref="A160:A185"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:A32"/>
-    <mergeCell ref="A35:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -31638,6 +31656,7 @@
     <hyperlink ref="E215" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
     <hyperlink ref="E216" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
     <hyperlink ref="E126" r:id="rId269" xr:uid="{304B3192-5D45-4E72-B240-29A291F35573}"/>
+    <hyperlink ref="E11" r:id="rId270" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA for PLACEMENTS.xlsx
+++ b/DSA for PLACEMENTS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8072A5-672F-4E0D-8503-674CDB5E7C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE40FB-1830-4F46-ACE8-7CECC2A87253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1845,8 +1845,8 @@
   <dimension ref="A1:Y1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B127" sqref="B127"/>
+      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2107,7 +2107,7 @@
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33"/>
       <c r="B8" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -2150,7 +2150,7 @@
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33"/>
       <c r="B9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -2189,7 +2189,7 @@
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -2267,7 +2267,7 @@
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33"/>
       <c r="B12" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -2388,7 +2388,7 @@
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33"/>
       <c r="B15" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -2681,7 +2681,7 @@
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <v>16</v>
@@ -3172,7 +3172,7 @@
         <v>68</v>
       </c>
       <c r="B35" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -3213,7 +3213,7 @@
     <row r="36" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
       <c r="B36" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -3252,7 +3252,7 @@
     <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="33"/>
       <c r="B37" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -3507,7 +3507,7 @@
         <v>80</v>
       </c>
       <c r="B44" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3665,7 +3665,7 @@
     <row r="48" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2">
         <v>5</v>
@@ -4567,7 +4567,7 @@
     <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="33"/>
       <c r="B72" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2">
         <v>3</v>
@@ -4608,7 +4608,7 @@
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="33"/>
       <c r="B73" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="2">
         <v>4</v>
@@ -4647,7 +4647,7 @@
     <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="33"/>
       <c r="B74" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="2">
         <v>5</v>
@@ -4688,7 +4688,7 @@
     <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="33"/>
       <c r="B75" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="2">
         <v>6</v>
@@ -4729,7 +4729,7 @@
     <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="33"/>
       <c r="B76" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="2">
         <v>7</v>
@@ -4811,7 +4811,7 @@
     <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="33"/>
       <c r="B78" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2">
         <v>9</v>
@@ -4850,7 +4850,7 @@
     <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="33"/>
       <c r="B79" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="2">
         <v>10</v>
@@ -5066,7 +5066,7 @@
         <v>145</v>
       </c>
       <c r="B85" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="2">
         <v>1</v>
@@ -5107,7 +5107,7 @@
     <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="33"/>
       <c r="B86" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2">
         <v>2</v>
@@ -5854,7 +5854,7 @@
     <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" s="33"/>
       <c r="B105" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="2">
         <v>4</v>
@@ -5975,7 +5975,7 @@
     <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="33"/>
       <c r="B108" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="2">
         <v>7</v>
@@ -6016,7 +6016,7 @@
     <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="33"/>
       <c r="B109" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" s="2">
         <v>8</v>
@@ -6057,7 +6057,7 @@
     <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" s="33"/>
       <c r="B110" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="2">
         <v>9</v>
@@ -6137,7 +6137,7 @@
     <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" s="33"/>
       <c r="B112" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2">
         <v>11</v>
@@ -6377,7 +6377,7 @@
     <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" s="33"/>
       <c r="B118" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" s="2">
         <v>17</v>
@@ -6418,7 +6418,7 @@
     <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A119" s="33"/>
       <c r="B119" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" s="2">
         <v>18</v>
@@ -6459,7 +6459,7 @@
     <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="33"/>
       <c r="B120" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="2">
         <v>19</v>
@@ -6498,7 +6498,7 @@
     <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="33"/>
       <c r="B121" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" s="2">
         <v>20</v>

--- a/DSA for PLACEMENTS.xlsx
+++ b/DSA for PLACEMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE40FB-1830-4F46-ACE8-7CECC2A87253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB1375A-6E7E-49D8-8108-AC5793E7493F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="424">
   <si>
     <t>Do NOT send any edit request to this sheet. Instead, make a copy of your own.</t>
   </si>
@@ -1300,6 +1300,15 @@
   </si>
   <si>
     <t>Two Sum</t>
+  </si>
+  <si>
+    <t>All path to target</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-paths-from-source-to-target/submissions/1758682022/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      TRUE</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1601,6 +1610,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,8 +1858,8 @@
   <dimension ref="A1:Y1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="4" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1865,11 +1878,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -1894,16 +1907,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2017,7 +2030,7 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="b">
@@ -2062,7 +2075,7 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="3" t="b">
         <v>1</v>
       </c>
@@ -2105,7 +2118,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="3" t="b">
         <v>1</v>
       </c>
@@ -2148,7 +2161,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="3" t="b">
         <v>1</v>
       </c>
@@ -2187,7 +2200,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="b">
         <v>1</v>
       </c>
@@ -2228,7 +2241,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1" t="s">
         <v>419</v>
       </c>
@@ -2265,7 +2278,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="3" t="b">
         <v>1</v>
       </c>
@@ -2306,7 +2319,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="b">
         <v>0</v>
       </c>
@@ -2345,7 +2358,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="b">
         <v>0</v>
       </c>
@@ -2386,7 +2399,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="3" t="b">
         <v>1</v>
       </c>
@@ -2429,7 +2442,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="3" t="b">
         <v>0</v>
       </c>
@@ -2472,7 +2485,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="3" t="b">
         <v>0</v>
       </c>
@@ -2513,7 +2526,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="3" t="b">
         <v>1</v>
       </c>
@@ -2554,7 +2567,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="3" t="b">
         <v>0</v>
       </c>
@@ -2597,7 +2610,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="3" t="b">
         <v>0</v>
       </c>
@@ -2638,7 +2651,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="3" t="b">
         <v>0</v>
       </c>
@@ -2679,7 +2692,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="3" t="b">
         <v>1</v>
       </c>
@@ -2720,7 +2733,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="3" t="b">
         <v>0</v>
       </c>
@@ -2761,7 +2774,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="3" t="b">
         <v>0</v>
       </c>
@@ -2802,7 +2815,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="3" t="b">
         <v>0</v>
       </c>
@@ -2841,7 +2854,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="3" t="b">
         <v>1</v>
       </c>
@@ -2884,7 +2897,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -2911,7 +2924,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="3" t="b">
         <v>0</v>
       </c>
@@ -2952,7 +2965,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="3" t="b">
         <v>0</v>
       </c>
@@ -2993,7 +3006,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="3" t="b">
         <v>0</v>
       </c>
@@ -3036,7 +3049,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="3" t="b">
         <v>0</v>
       </c>
@@ -3075,7 +3088,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="33"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="3" t="b">
         <v>0</v>
       </c>
@@ -3168,7 +3181,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="3" t="b">
@@ -3211,7 +3224,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="3" t="b">
         <v>1</v>
       </c>
@@ -3250,7 +3263,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="33"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="3" t="b">
         <v>1</v>
       </c>
@@ -3289,7 +3302,7 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="33"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="3" t="b">
         <v>0</v>
       </c>
@@ -3330,7 +3343,7 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="3" t="b">
         <v>0</v>
       </c>
@@ -3369,7 +3382,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="33"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="3" t="b">
         <v>0</v>
       </c>
@@ -3410,7 +3423,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="3" t="b">
         <v>0</v>
       </c>
@@ -3503,7 +3516,7 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="3" t="b">
@@ -3546,7 +3559,7 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="33"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="3" t="b">
         <v>0</v>
       </c>
@@ -3585,9 +3598,9 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="33"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
@@ -3624,9 +3637,9 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2">
         <v>4</v>
@@ -3663,7 +3676,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="3" t="b">
         <v>1</v>
       </c>
@@ -3702,7 +3715,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="3" t="b">
         <v>0</v>
       </c>
@@ -3743,9 +3756,9 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="2">
         <v>7</v>
@@ -3782,9 +3795,9 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="2">
         <v>8</v>
@@ -3821,7 +3834,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52" s="33"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="3" t="b">
         <v>0</v>
       </c>
@@ -3860,7 +3873,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="3" t="b">
         <v>0</v>
       </c>
@@ -3897,7 +3910,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="3" t="b">
         <v>0</v>
       </c>
@@ -3984,7 +3997,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B57" s="3" t="b">
@@ -4027,7 +4040,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="33"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="3" t="b">
         <v>0</v>
       </c>
@@ -4066,7 +4079,7 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A59" s="33"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="3" t="b">
         <v>0</v>
       </c>
@@ -4107,7 +4120,7 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="33"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="3" t="b">
         <v>0</v>
       </c>
@@ -4146,7 +4159,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="33"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="3" t="b">
         <v>0</v>
       </c>
@@ -4185,7 +4198,7 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="33"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="3" t="b">
         <v>0</v>
       </c>
@@ -4226,7 +4239,7 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="3" t="b">
         <v>0</v>
       </c>
@@ -4267,7 +4280,7 @@
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="33"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="3" t="b">
         <v>0</v>
       </c>
@@ -4306,7 +4319,7 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="33"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="3" t="b">
         <v>0</v>
       </c>
@@ -4347,7 +4360,7 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="3" t="b">
         <v>0</v>
       </c>
@@ -4388,7 +4401,7 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="3" t="b">
         <v>0</v>
       </c>
@@ -4481,7 +4494,7 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="36" t="s">
         <v>118</v>
       </c>
       <c r="B70" s="3" t="b">
@@ -4524,7 +4537,7 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="33"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="3" t="b">
         <v>1</v>
       </c>
@@ -4565,7 +4578,7 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A72" s="33"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="3" t="b">
         <v>1</v>
       </c>
@@ -4606,7 +4619,7 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A73" s="33"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="3" t="b">
         <v>1</v>
       </c>
@@ -4645,7 +4658,7 @@
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="33"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="3" t="b">
         <v>1</v>
       </c>
@@ -4686,7 +4699,7 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A75" s="33"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="3" t="b">
         <v>1</v>
       </c>
@@ -4727,7 +4740,7 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="3" t="b">
         <v>1</v>
       </c>
@@ -4768,9 +4781,9 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A77" s="33"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="2">
         <v>8</v>
@@ -4778,7 +4791,7 @@
       <c r="D77" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="13" t="s">
@@ -4809,7 +4822,7 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="3" t="b">
         <v>1</v>
       </c>
@@ -4848,7 +4861,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A79" s="33"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="3" t="b">
         <v>1</v>
       </c>
@@ -4887,7 +4900,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="3" t="b">
         <v>0</v>
       </c>
@@ -4928,7 +4941,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="3" t="b">
         <v>0</v>
       </c>
@@ -4967,7 +4980,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="3" t="b">
         <v>0</v>
       </c>
@@ -5062,7 +5075,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="37" t="s">
         <v>145</v>
       </c>
       <c r="B85" s="3" t="b">
@@ -5105,7 +5118,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="3" t="b">
         <v>1</v>
       </c>
@@ -5146,7 +5159,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A87" s="33"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="3" t="b">
         <v>0</v>
       </c>
@@ -5187,7 +5200,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A88" s="33"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="3" t="b">
         <v>0</v>
       </c>
@@ -5228,7 +5241,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A89" s="33"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="3" t="b">
         <v>0</v>
       </c>
@@ -5269,7 +5282,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A90" s="33"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="3" t="b">
         <v>0</v>
       </c>
@@ -5308,7 +5321,7 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="3" t="b">
         <v>0</v>
       </c>
@@ -5347,7 +5360,7 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A92" s="33"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="3" t="b">
         <v>0</v>
       </c>
@@ -5388,7 +5401,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A93" s="33"/>
+      <c r="A93" s="35"/>
       <c r="B93" s="3" t="b">
         <v>0</v>
       </c>
@@ -5429,7 +5442,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A94" s="33"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="3" t="b">
         <v>0</v>
       </c>
@@ -5470,7 +5483,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
+      <c r="A95" s="35"/>
       <c r="B95" s="3" t="b">
         <v>0</v>
       </c>
@@ -5511,7 +5524,7 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A96" s="33"/>
+      <c r="A96" s="35"/>
       <c r="B96" s="3" t="b">
         <v>0</v>
       </c>
@@ -5552,7 +5565,7 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A97" s="33"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="3" t="b">
         <v>0</v>
       </c>
@@ -5591,7 +5604,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A98" s="33"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="3" t="b">
         <v>0</v>
       </c>
@@ -5632,7 +5645,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="3" t="b">
         <v>0</v>
       </c>
@@ -5727,7 +5740,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="37" t="s">
         <v>176</v>
       </c>
       <c r="B102" s="3" t="b">
@@ -5770,7 +5783,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
+      <c r="A103" s="35"/>
       <c r="B103" s="3" t="b">
         <v>1</v>
       </c>
@@ -5811,7 +5824,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="3" t="b">
         <v>1</v>
       </c>
@@ -5852,7 +5865,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A105" s="33"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="3" t="b">
         <v>1</v>
       </c>
@@ -5891,9 +5904,9 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="2">
         <v>5</v>
@@ -5932,7 +5945,7 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A107" s="33"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="3" t="b">
         <v>1</v>
       </c>
@@ -5973,7 +5986,7 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="33"/>
+      <c r="A108" s="35"/>
       <c r="B108" s="3" t="b">
         <v>1</v>
       </c>
@@ -6014,7 +6027,7 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="33"/>
+      <c r="A109" s="35"/>
       <c r="B109" s="3" t="b">
         <v>1</v>
       </c>
@@ -6055,7 +6068,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A110" s="33"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="3" t="b">
         <v>1</v>
       </c>
@@ -6094,7 +6107,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A111" s="33"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="3" t="b">
         <v>1</v>
       </c>
@@ -6135,7 +6148,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A112" s="33"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="3" t="b">
         <v>1</v>
       </c>
@@ -6174,7 +6187,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A113" s="33"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="3" t="b">
         <v>1</v>
       </c>
@@ -6215,7 +6228,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A114" s="33"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="3" t="b">
         <v>1</v>
       </c>
@@ -6254,7 +6267,7 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A115" s="33"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="3" t="b">
         <v>1</v>
       </c>
@@ -6293,7 +6306,7 @@
       <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A116" s="33"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="3" t="b">
         <v>1</v>
       </c>
@@ -6334,7 +6347,7 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A117" s="33"/>
+      <c r="A117" s="35"/>
       <c r="B117" s="3" t="b">
         <v>0</v>
       </c>
@@ -6375,7 +6388,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A118" s="33"/>
+      <c r="A118" s="35"/>
       <c r="B118" s="3" t="b">
         <v>1</v>
       </c>
@@ -6416,7 +6429,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A119" s="33"/>
+      <c r="A119" s="35"/>
       <c r="B119" s="3" t="b">
         <v>1</v>
       </c>
@@ -6457,7 +6470,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="33"/>
+      <c r="A120" s="35"/>
       <c r="B120" s="3" t="b">
         <v>1</v>
       </c>
@@ -6496,7 +6509,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
+      <c r="A121" s="35"/>
       <c r="B121" s="3" t="b">
         <v>1</v>
       </c>
@@ -6537,7 +6550,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="33"/>
+      <c r="A122" s="35"/>
       <c r="B122" s="3" t="b">
         <v>0</v>
       </c>
@@ -6578,7 +6591,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A123" s="33"/>
+      <c r="A123" s="35"/>
       <c r="B123" s="3" t="b">
         <v>1</v>
       </c>
@@ -6617,7 +6630,7 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A124" s="33"/>
+      <c r="A124" s="35"/>
       <c r="B124" s="3" t="b">
         <v>0</v>
       </c>
@@ -6656,7 +6669,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A125" s="33"/>
+      <c r="A125" s="35"/>
       <c r="B125" s="3" t="b">
         <v>0</v>
       </c>
@@ -6759,7 +6772,7 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A128" s="35" t="s">
+      <c r="A128" s="37" t="s">
         <v>226</v>
       </c>
       <c r="B128" s="3" t="b">
@@ -6800,7 +6813,7 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="33"/>
+      <c r="A129" s="35"/>
       <c r="B129" s="3" t="b">
         <v>0</v>
       </c>
@@ -6841,7 +6854,7 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A130" s="33"/>
+      <c r="A130" s="35"/>
       <c r="B130" s="3" t="b">
         <v>0</v>
       </c>
@@ -6882,7 +6895,7 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A131" s="33"/>
+      <c r="A131" s="35"/>
       <c r="B131" s="3" t="b">
         <v>0</v>
       </c>
@@ -6923,7 +6936,7 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A132" s="33"/>
+      <c r="A132" s="35"/>
       <c r="B132" s="3" t="b">
         <v>0</v>
       </c>
@@ -6964,7 +6977,7 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
+      <c r="A133" s="35"/>
       <c r="B133" s="3" t="b">
         <v>0</v>
       </c>
@@ -6974,7 +6987,7 @@
       <c r="D133" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="32" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="13" t="s">
@@ -7005,7 +7018,7 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="33"/>
+      <c r="A134" s="35"/>
       <c r="B134" s="3" t="b">
         <v>0</v>
       </c>
@@ -7046,7 +7059,7 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A135" s="33"/>
+      <c r="A135" s="35"/>
       <c r="B135" s="3" t="b">
         <v>0</v>
       </c>
@@ -7087,7 +7100,7 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="33"/>
+      <c r="A136" s="35"/>
       <c r="B136" s="3" t="b">
         <v>0</v>
       </c>
@@ -7128,7 +7141,7 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A137" s="33"/>
+      <c r="A137" s="35"/>
       <c r="B137" s="3" t="b">
         <v>0</v>
       </c>
@@ -7167,7 +7180,7 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A138" s="33"/>
+      <c r="A138" s="35"/>
       <c r="B138" s="3" t="b">
         <v>0</v>
       </c>
@@ -7208,7 +7221,7 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A139" s="33"/>
+      <c r="A139" s="35"/>
       <c r="B139" s="3" t="b">
         <v>0</v>
       </c>
@@ -7249,7 +7262,7 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A140" s="33"/>
+      <c r="A140" s="35"/>
       <c r="B140" s="3" t="b">
         <v>0</v>
       </c>
@@ -7290,7 +7303,7 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="33"/>
+      <c r="A141" s="35"/>
       <c r="B141" s="3" t="b">
         <v>0</v>
       </c>
@@ -7329,7 +7342,7 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A142" s="33"/>
+      <c r="A142" s="35"/>
       <c r="B142" s="3" t="b">
         <v>0</v>
       </c>
@@ -7424,7 +7437,7 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A145" s="35" t="s">
+      <c r="A145" s="37" t="s">
         <v>257</v>
       </c>
       <c r="B145" s="3" t="b">
@@ -7465,7 +7478,7 @@
       <c r="Y145" s="1"/>
     </row>
     <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A146" s="33"/>
+      <c r="A146" s="35"/>
       <c r="B146" s="3" t="b">
         <v>0</v>
       </c>
@@ -7504,7 +7517,7 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="33"/>
+      <c r="A147" s="35"/>
       <c r="B147" s="3" t="b">
         <v>0</v>
       </c>
@@ -7543,7 +7556,7 @@
       <c r="Y147" s="1"/>
     </row>
     <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" s="33"/>
+      <c r="A148" s="35"/>
       <c r="B148" s="3" t="b">
         <v>0</v>
       </c>
@@ -7553,7 +7566,7 @@
       <c r="D148" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E148" s="28" t="s">
+      <c r="E148" s="33" t="s">
         <v>268</v>
       </c>
       <c r="F148" s="13" t="s">
@@ -7582,7 +7595,7 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A149" s="33"/>
+      <c r="A149" s="35"/>
       <c r="B149" s="3" t="b">
         <v>0</v>
       </c>
@@ -7621,7 +7634,7 @@
       <c r="Y149" s="1"/>
     </row>
     <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="33"/>
+      <c r="A150" s="35"/>
       <c r="B150" s="3" t="b">
         <v>0</v>
       </c>
@@ -7714,7 +7727,7 @@
       <c r="Y152" s="1"/>
     </row>
     <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A153" s="35" t="s">
+      <c r="A153" s="37" t="s">
         <v>276</v>
       </c>
       <c r="B153" s="3" t="b">
@@ -7755,7 +7768,7 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A154" s="33"/>
+      <c r="A154" s="35"/>
       <c r="B154" s="3" t="b">
         <v>0</v>
       </c>
@@ -7794,7 +7807,7 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="33"/>
+      <c r="A155" s="35"/>
       <c r="B155" s="3" t="b">
         <v>0</v>
       </c>
@@ -7833,7 +7846,7 @@
       <c r="Y155" s="1"/>
     </row>
     <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A156" s="33"/>
+      <c r="A156" s="35"/>
       <c r="B156" s="3" t="b">
         <v>0</v>
       </c>
@@ -7872,7 +7885,7 @@
       <c r="Y156" s="1"/>
     </row>
     <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="33"/>
+      <c r="A157" s="35"/>
       <c r="B157" s="3" t="b">
         <v>0</v>
       </c>
@@ -7965,7 +7978,7 @@
       <c r="Y159" s="1"/>
     </row>
     <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A160" s="35" t="s">
+      <c r="A160" s="37" t="s">
         <v>290</v>
       </c>
       <c r="B160" s="3" t="b">
@@ -8006,9 +8019,9 @@
       <c r="Y160" s="1"/>
     </row>
     <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A161" s="33"/>
+      <c r="A161" s="35"/>
       <c r="B161" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" s="2">
         <v>2</v>
@@ -8045,9 +8058,9 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="33"/>
+      <c r="A162" s="35"/>
       <c r="B162" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" s="2">
         <v>3</v>
@@ -8084,7 +8097,7 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="33"/>
+      <c r="A163" s="35"/>
       <c r="B163" s="3" t="b">
         <v>0</v>
       </c>
@@ -8123,9 +8136,9 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A164" s="33"/>
+      <c r="A164" s="35"/>
       <c r="B164" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" s="2">
         <v>5</v>
@@ -8162,7 +8175,7 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="33"/>
+      <c r="A165" s="35"/>
       <c r="B165" s="3" t="b">
         <v>0</v>
       </c>
@@ -8201,9 +8214,9 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A166" s="33"/>
+      <c r="A166" s="35"/>
       <c r="B166" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" s="2">
         <v>7</v>
@@ -8211,7 +8224,7 @@
       <c r="D166" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E166" s="28" t="s">
+      <c r="E166" s="33" t="s">
         <v>304</v>
       </c>
       <c r="F166" s="13" t="s">
@@ -8240,7 +8253,7 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A167" s="33"/>
+      <c r="A167" s="35"/>
       <c r="B167" s="3" t="b">
         <v>0</v>
       </c>
@@ -8250,7 +8263,7 @@
       <c r="D167" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E167" s="28" t="s">
+      <c r="E167" s="33" t="s">
         <v>309</v>
       </c>
       <c r="F167" s="13" t="s">
@@ -8279,7 +8292,7 @@
       <c r="Y167" s="1"/>
     </row>
     <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A168" s="33"/>
+      <c r="A168" s="35"/>
       <c r="B168" s="3" t="b">
         <v>0</v>
       </c>
@@ -8318,7 +8331,7 @@
       <c r="Y168" s="1"/>
     </row>
     <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="33"/>
+      <c r="A169" s="35"/>
       <c r="B169" s="3" t="b">
         <v>0</v>
       </c>
@@ -8357,7 +8370,7 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="33"/>
+      <c r="A170" s="35"/>
       <c r="B170" s="3" t="b">
         <v>0</v>
       </c>
@@ -8396,7 +8409,7 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="33"/>
+      <c r="A171" s="35"/>
       <c r="B171" s="3" t="b">
         <v>0</v>
       </c>
@@ -8435,7 +8448,7 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A172" s="33"/>
+      <c r="A172" s="35"/>
       <c r="B172" s="3" t="b">
         <v>0</v>
       </c>
@@ -8445,7 +8458,7 @@
       <c r="D172" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E172" s="28" t="s">
+      <c r="E172" s="33" t="s">
         <v>324</v>
       </c>
       <c r="F172" s="13" t="s">
@@ -8474,7 +8487,7 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A173" s="33"/>
+      <c r="A173" s="35"/>
       <c r="B173" s="3" t="b">
         <v>0</v>
       </c>
@@ -8513,7 +8526,7 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A174" s="33"/>
+      <c r="A174" s="35"/>
       <c r="B174" s="3" t="b">
         <v>0</v>
       </c>
@@ -8552,7 +8565,7 @@
       <c r="Y174" s="1"/>
     </row>
     <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A175" s="33"/>
+      <c r="A175" s="35"/>
       <c r="B175" s="3" t="b">
         <v>0</v>
       </c>
@@ -8591,7 +8604,7 @@
       <c r="Y175" s="1"/>
     </row>
     <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A176" s="33"/>
+      <c r="A176" s="35"/>
       <c r="B176" s="3" t="b">
         <v>0</v>
       </c>
@@ -8630,7 +8643,7 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="33"/>
+      <c r="A177" s="35"/>
       <c r="B177" s="3" t="b">
         <v>0</v>
       </c>
@@ -8669,7 +8682,7 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="33"/>
+      <c r="A178" s="35"/>
       <c r="B178" s="3" t="b">
         <v>0</v>
       </c>
@@ -8708,9 +8721,9 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="33"/>
+      <c r="A179" s="35"/>
       <c r="B179" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" s="2">
         <v>20</v>
@@ -8747,7 +8760,7 @@
       <c r="Y179" s="1"/>
     </row>
     <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A180" s="33"/>
+      <c r="A180" s="35"/>
       <c r="B180" s="3" t="b">
         <v>0</v>
       </c>
@@ -8786,7 +8799,7 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="33"/>
+      <c r="A181" s="35"/>
       <c r="B181" s="3" t="b">
         <v>0</v>
       </c>
@@ -8825,7 +8838,7 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A182" s="33"/>
+      <c r="A182" s="35"/>
       <c r="B182" s="3" t="b">
         <v>0</v>
       </c>
@@ -8864,7 +8877,7 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A183" s="33"/>
+      <c r="A183" s="35"/>
       <c r="B183" s="3" t="b">
         <v>0</v>
       </c>
@@ -8903,7 +8916,7 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A184" s="33"/>
+      <c r="A184" s="35"/>
       <c r="B184" s="3" t="b">
         <v>0</v>
       </c>
@@ -8942,7 +8955,7 @@
       <c r="Y184" s="1"/>
     </row>
     <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A185" s="33"/>
+      <c r="A185" s="35"/>
       <c r="B185" s="3" t="b">
         <v>0</v>
       </c>
@@ -8982,10 +8995,18 @@
     </row>
     <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="3"/>
+      <c r="B186" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C186" s="2">
+        <v>27</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E186" s="33" t="s">
+        <v>422</v>
+      </c>
       <c r="F186" s="1"/>
       <c r="G186" s="3"/>
       <c r="H186" s="4"/>
@@ -9035,7 +9056,7 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A188" s="35" t="s">
+      <c r="A188" s="37" t="s">
         <v>362</v>
       </c>
       <c r="B188" s="3" t="b">
@@ -9076,7 +9097,7 @@
       <c r="Y188" s="1"/>
     </row>
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" s="33"/>
+      <c r="A189" s="35"/>
       <c r="B189" s="3" t="b">
         <v>0</v>
       </c>
@@ -9115,7 +9136,7 @@
       <c r="Y189" s="1"/>
     </row>
     <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A190" s="33"/>
+      <c r="A190" s="35"/>
       <c r="B190" s="3" t="b">
         <v>0</v>
       </c>
@@ -9154,7 +9175,7 @@
       <c r="Y190" s="1"/>
     </row>
     <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A191" s="33"/>
+      <c r="A191" s="35"/>
       <c r="B191" s="3" t="b">
         <v>0</v>
       </c>
@@ -9193,7 +9214,7 @@
       <c r="Y191" s="1"/>
     </row>
     <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A192" s="33"/>
+      <c r="A192" s="35"/>
       <c r="B192" s="3" t="b">
         <v>0</v>
       </c>
@@ -9232,7 +9253,7 @@
       <c r="Y192" s="1"/>
     </row>
     <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A193" s="33"/>
+      <c r="A193" s="35"/>
       <c r="B193" s="3" t="b">
         <v>0</v>
       </c>
@@ -9271,7 +9292,7 @@
       <c r="Y193" s="1"/>
     </row>
     <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A194" s="33"/>
+      <c r="A194" s="35"/>
       <c r="B194" s="3" t="b">
         <v>0</v>
       </c>
@@ -9310,7 +9331,7 @@
       <c r="Y194" s="1"/>
     </row>
     <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="33"/>
+      <c r="A195" s="35"/>
       <c r="B195" s="3" t="b">
         <v>0</v>
       </c>
@@ -9349,7 +9370,7 @@
       <c r="Y195" s="1"/>
     </row>
     <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A196" s="33"/>
+      <c r="A196" s="35"/>
       <c r="B196" s="3" t="b">
         <v>0</v>
       </c>
@@ -9388,7 +9409,7 @@
       <c r="Y196" s="1"/>
     </row>
     <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A197" s="33"/>
+      <c r="A197" s="35"/>
       <c r="B197" s="3" t="b">
         <v>0</v>
       </c>
@@ -9427,7 +9448,7 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A198" s="33"/>
+      <c r="A198" s="35"/>
       <c r="B198" s="3" t="b">
         <v>0</v>
       </c>
@@ -9466,7 +9487,7 @@
       <c r="Y198" s="1"/>
     </row>
     <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A199" s="33"/>
+      <c r="A199" s="35"/>
       <c r="B199" s="3" t="b">
         <v>0</v>
       </c>
@@ -9505,7 +9526,7 @@
       <c r="Y199" s="1"/>
     </row>
     <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A200" s="33"/>
+      <c r="A200" s="35"/>
       <c r="B200" s="3" t="b">
         <v>0</v>
       </c>
@@ -9544,7 +9565,7 @@
       <c r="Y200" s="1"/>
     </row>
     <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A201" s="33"/>
+      <c r="A201" s="35"/>
       <c r="B201" s="3" t="b">
         <v>0</v>
       </c>
@@ -9583,7 +9604,7 @@
       <c r="Y201" s="1"/>
     </row>
     <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A202" s="33"/>
+      <c r="A202" s="35"/>
       <c r="B202" s="3" t="b">
         <v>0</v>
       </c>
@@ -9622,7 +9643,7 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A203" s="33"/>
+      <c r="A203" s="35"/>
       <c r="B203" s="3" t="b">
         <v>0</v>
       </c>
@@ -9661,7 +9682,7 @@
       <c r="Y203" s="1"/>
     </row>
     <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="33"/>
+      <c r="A204" s="35"/>
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
@@ -9700,7 +9721,7 @@
       <c r="Y204" s="1"/>
     </row>
     <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A205" s="33"/>
+      <c r="A205" s="35"/>
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
@@ -9739,7 +9760,7 @@
       <c r="Y205" s="1"/>
     </row>
     <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A206" s="33"/>
+      <c r="A206" s="35"/>
       <c r="B206" s="3" t="b">
         <v>0</v>
       </c>
@@ -9778,7 +9799,7 @@
       <c r="Y206" s="1"/>
     </row>
     <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A207" s="33"/>
+      <c r="A207" s="35"/>
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
@@ -9817,7 +9838,7 @@
       <c r="Y207" s="1"/>
     </row>
     <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A208" s="33"/>
+      <c r="A208" s="35"/>
       <c r="B208" s="3" t="b">
         <v>0</v>
       </c>
@@ -9910,7 +9931,7 @@
       <c r="Y210" s="1"/>
     </row>
     <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="35" t="s">
+      <c r="A211" s="37" t="s">
         <v>405</v>
       </c>
       <c r="B211" s="3" t="b">
@@ -9951,7 +9972,7 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A212" s="33"/>
+      <c r="A212" s="35"/>
       <c r="B212" s="3" t="b">
         <v>0</v>
       </c>
@@ -9990,7 +10011,7 @@
       <c r="Y212" s="1"/>
     </row>
     <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A213" s="33"/>
+      <c r="A213" s="35"/>
       <c r="B213" s="3" t="b">
         <v>0</v>
       </c>
@@ -10029,7 +10050,7 @@
       <c r="Y213" s="1"/>
     </row>
     <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A214" s="33"/>
+      <c r="A214" s="35"/>
       <c r="B214" s="3" t="b">
         <v>0</v>
       </c>
@@ -10068,7 +10089,7 @@
       <c r="Y214" s="1"/>
     </row>
     <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A215" s="33"/>
+      <c r="A215" s="35"/>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
@@ -10107,7 +10128,7 @@
       <c r="Y215" s="1"/>
     </row>
     <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A216" s="33"/>
+      <c r="A216" s="35"/>
       <c r="B216" s="3" t="b">
         <v>0</v>
       </c>
@@ -31657,6 +31678,7 @@
     <hyperlink ref="E216" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
     <hyperlink ref="E126" r:id="rId269" xr:uid="{304B3192-5D45-4E72-B240-29A291F35573}"/>
     <hyperlink ref="E11" r:id="rId270" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
+    <hyperlink ref="E186" r:id="rId271" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA for PLACEMENTS.xlsx
+++ b/DSA for PLACEMENTS.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB1375A-6E7E-49D8-8108-AC5793E7493F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9BEA18-0EC8-411A-A334-F395EA60EF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA Series Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="424">
   <si>
     <t>Do NOT send any edit request to this sheet. Instead, make a copy of your own.</t>
   </si>
@@ -213,9 +226,6 @@
     <t>Count Inversions</t>
   </si>
   <si>
-    <t>Medium / Hard</t>
-  </si>
-  <si>
     <t>Adobe Amazon BankBazaar Flipkart Microsoft Myntra MakeMyTrip</t>
   </si>
   <si>
@@ -396,45 +406,24 @@
     <t>LINKED LIST</t>
   </si>
   <si>
-    <t>Reverse a LL</t>
-  </si>
-  <si>
     <t xml:space="preserve">google, meta  , apple , microsoft, amazon , oracle, adobe, TCS , qualcomm,Paypal, JP morgan </t>
   </si>
   <si>
-    <t>Middle of LL</t>
-  </si>
-  <si>
     <t xml:space="preserve">amazon, meta ,google, goldman sachs, qualcomm,intuit  ,  walmart labs </t>
   </si>
   <si>
-    <t>Merge 2 Sorted LL</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Accolite Amazon Belzabar Brocade FactSet Flipkart MakeMyTrip Microsoft OATS Systems Oracle Samsung Synopsys Zoho</t>
   </si>
   <si>
-    <t>Check if LL Is Palindrome or Not</t>
-  </si>
-  <si>
     <t xml:space="preserve">amazon, meta ,google, goldman sachs, cisco , samsung, walmart labs ,wipro </t>
   </si>
   <si>
-    <t>Detect Cycle in LL</t>
-  </si>
-  <si>
     <t xml:space="preserve">google, meta , microsoft, amazon, oracle, paytm, apple, nvidia </t>
   </si>
   <si>
-    <t>Remove Cycle in LL</t>
-  </si>
-  <si>
     <t>amazon, meta , apple,</t>
   </si>
   <si>
-    <t>Flatten LL</t>
-  </si>
-  <si>
     <t>google, amazon, meta ,microsoft , qualcomm, oracle, adobe , uber</t>
   </si>
   <si>
@@ -570,96 +559,51 @@
     <t>BINARY TREES</t>
   </si>
   <si>
-    <t>Inorder</t>
-  </si>
-  <si>
     <t xml:space="preserve">google , amazon , meta , microsoft ,adobe, uber </t>
   </si>
   <si>
-    <t>Preorder</t>
-  </si>
-  <si>
     <t>salesforce, amazon, microsoft, meta , google ,adobe</t>
   </si>
   <si>
-    <t>Postorder</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amazon ,meta , google, apple, adobe </t>
   </si>
   <si>
-    <t>Symmetric Tree</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Amazon , Google, Oracle, Apple,meta,Uber,Intuit ,Adobe </t>
   </si>
   <si>
-    <t>Minimum Distance between Nodes</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=dSBcCynP1nA&amp;list=PLfqMhTWNBTe137I_EPQd34TsgV6IO55pt&amp;index=100</t>
   </si>
   <si>
     <t xml:space="preserve">amazon, google, meta , linkedin , adobe, microsoft </t>
   </si>
   <si>
-    <t>Are 2 Trees Identical or Not</t>
-  </si>
-  <si>
     <t>meta , google , microsoft,</t>
   </si>
   <si>
-    <t>Morris Inorder Traversal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Google,amazon, meta ,apple, adobe, TCS, flipkart , uber, liinkedin </t>
   </si>
   <si>
-    <t>Diameter</t>
-  </si>
-  <si>
     <t>google, amazon, meta , microsoft , apple, adobe, uber</t>
   </si>
   <si>
-    <t>Check if Tree is Height Balanced</t>
-  </si>
-  <si>
     <t xml:space="preserve">amazon , meta , amazon , google ,visa , oracle , TCS , Adobe </t>
   </si>
   <si>
-    <t>Subtree of Another Tree</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Amazon google microsoft adobe uber apple </t>
   </si>
   <si>
-    <t>Check if BT Mirror of itself or not</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amazon, google, meta, uber , morgan stanley , ebay,microsoft </t>
   </si>
   <si>
-    <t>Top View of a Tree</t>
-  </si>
-  <si>
     <t xml:space="preserve">amazon, google, meta, linkedin , apple, adobe,microsoft </t>
   </si>
   <si>
-    <t>Bottom View of a Tree</t>
-  </si>
-  <si>
     <t>meta , amazon, google , uber, oracle, flipkart , JP morgan, accolite</t>
   </si>
   <si>
-    <t xml:space="preserve">Level Order </t>
-  </si>
-  <si>
     <t xml:space="preserve">josh technology , amazon, google, adobe </t>
   </si>
   <si>
-    <t>Kth Level of Tree</t>
-  </si>
-  <si>
     <t xml:space="preserve">meta , google, amazon, adobe, microsoft </t>
   </si>
   <si>
@@ -669,9 +613,6 @@
     <t xml:space="preserve">meta , amazon , google, linkedin , intuit , oracle,adobe, flipkart , salesforce, morgan stanley </t>
   </si>
   <si>
-    <t>Transform to Sum Tree</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAP , Amazon, Ebay , Microsoft </t>
   </si>
   <si>
@@ -687,9 +628,6 @@
     <t xml:space="preserve">Google, amazon, microsoft , adobe, bloomberg </t>
   </si>
   <si>
-    <t>Flatten BT to LL</t>
-  </si>
-  <si>
     <t>Google, meta , amazon ,microsoft, Myntra , adobe, oracle, apple</t>
   </si>
   <si>
@@ -705,9 +643,6 @@
     <t>Amazon , meta, microsoft, google,oracle, Adobe, Walmart Labs , Ebay , Flipkart</t>
   </si>
   <si>
-    <t>Max Path Sum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Google, Meta , Amazon , Oracle, Salesforce, Goldman sachs , Uber, Flipkart </t>
   </si>
   <si>
@@ -1309,13 +1244,91 @@
   </si>
   <si>
     <t xml:space="preserve">      TRUE</t>
+  </si>
+  <si>
+    <t>Reverse a LL(revised)</t>
+  </si>
+  <si>
+    <t>Middle of LL (revised)</t>
+  </si>
+  <si>
+    <t>Merge 2 Sorted LL (revised)</t>
+  </si>
+  <si>
+    <t>Check if LL Is Palindrome or Not (revised)</t>
+  </si>
+  <si>
+    <t>Detect Cycle in LL (revised)</t>
+  </si>
+  <si>
+    <t>Remove Cycle in LL (revised)</t>
+  </si>
+  <si>
+    <t>Flatten LL(revised)</t>
+  </si>
+  <si>
+    <t>Inorder (revised)</t>
+  </si>
+  <si>
+    <t>Preorder (revised)</t>
+  </si>
+  <si>
+    <t>Postorder (revised)</t>
+  </si>
+  <si>
+    <t>Symmetric Tree (revised)</t>
+  </si>
+  <si>
+    <t>Minimum Distance between Nodes (revised)</t>
+  </si>
+  <si>
+    <t>Are 2 Trees Identical or Not (revised)</t>
+  </si>
+  <si>
+    <t>Morris Inorder Traversal (revised)</t>
+  </si>
+  <si>
+    <t>Diameter (revised)</t>
+  </si>
+  <si>
+    <t>Check if Tree is Height Balanced (revised)</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree (revised)</t>
+  </si>
+  <si>
+    <t>Check if BT Mirror of itself or not (revised)</t>
+  </si>
+  <si>
+    <t>Top View of a Tree  (revised)</t>
+  </si>
+  <si>
+    <t>Bottom View of a Tree (revised)</t>
+  </si>
+  <si>
+    <t>Level Order (revised)</t>
+  </si>
+  <si>
+    <t>Kth Level of Tree (revised)</t>
+  </si>
+  <si>
+    <t>Transform to Sum Tree (revised)</t>
+  </si>
+  <si>
+    <t>Flatten BT to LL (revised)</t>
+  </si>
+  <si>
+    <t>Max Path Sum (revised)</t>
+  </si>
+  <si>
+    <t>Sum of root to leafs (revised)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1465,8 +1478,22 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1499,25 +1526,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
@@ -1535,7 +1568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1559,9 +1592,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1569,16 +1599,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1596,8 +1620,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1606,7 +1630,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1614,19 +1638,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1634,7 +1668,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1855,11 +1898,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1002"/>
+  <dimension ref="A1:Y1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1881,8 +1924,8 @@
       <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -1907,16 +1950,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="35"/>
+      <c r="I2" s="39"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2030,7 +2073,7 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="b">
@@ -2045,13 +2088,13 @@
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -2075,7 +2118,7 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="3" t="b">
         <v>1</v>
       </c>
@@ -2088,13 +2131,13 @@
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -2118,7 +2161,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="3" t="b">
         <v>1</v>
       </c>
@@ -2131,13 +2174,13 @@
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -2161,7 +2204,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="3" t="b">
         <v>1</v>
       </c>
@@ -2174,13 +2217,13 @@
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="3"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2200,7 +2243,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="3" t="b">
         <v>1</v>
       </c>
@@ -2213,13 +2256,13 @@
       <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="3"/>
@@ -2241,24 +2284,24 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="1" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E11" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="3"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2278,7 +2321,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="3" t="b">
         <v>1</v>
       </c>
@@ -2291,13 +2334,13 @@
       <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="3"/>
@@ -2319,7 +2362,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="3" t="b">
         <v>0</v>
       </c>
@@ -2332,13 +2375,13 @@
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="3"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2358,7 +2401,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="3" t="b">
         <v>0</v>
       </c>
@@ -2371,13 +2414,13 @@
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="3"/>
@@ -2399,7 +2442,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="3" t="b">
         <v>1</v>
       </c>
@@ -2412,13 +2455,13 @@
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -2442,7 +2485,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="3" t="b">
         <v>0</v>
       </c>
@@ -2455,13 +2498,13 @@
       <c r="E16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -2485,7 +2528,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="3" t="b">
         <v>0</v>
       </c>
@@ -2498,13 +2541,13 @@
       <c r="E17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="3" t="s">
         <v>18</v>
       </c>
@@ -2526,7 +2569,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="3" t="b">
         <v>1</v>
       </c>
@@ -2539,13 +2582,13 @@
       <c r="E18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="3" t="s">
         <v>37</v>
       </c>
@@ -2567,7 +2610,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="3" t="b">
         <v>0</v>
       </c>
@@ -2580,13 +2623,13 @@
       <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -2610,7 +2653,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="3" t="b">
         <v>0</v>
       </c>
@@ -2623,11 +2666,11 @@
       <c r="E20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -2651,7 +2694,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="3" t="b">
         <v>0</v>
       </c>
@@ -2664,11 +2707,11 @@
       <c r="E21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -2692,7 +2735,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="3" t="b">
         <v>1</v>
       </c>
@@ -2705,11 +2748,11 @@
       <c r="E22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -2733,7 +2776,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="3" t="b">
         <v>0</v>
       </c>
@@ -2746,11 +2789,11 @@
       <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>49</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -2774,7 +2817,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="3" t="b">
         <v>0</v>
       </c>
@@ -2787,13 +2830,13 @@
       <c r="E24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="11" t="s">
         <v>52</v>
       </c>
       <c r="I24" s="3"/>
@@ -2815,7 +2858,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="3" t="b">
         <v>0</v>
       </c>
@@ -2828,11 +2871,11 @@
       <c r="E25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="3" t="s">
         <v>18</v>
       </c>
@@ -2854,7 +2897,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="3" t="b">
         <v>1</v>
       </c>
@@ -2867,13 +2910,13 @@
       <c r="E26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="11" t="s">
         <v>55</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -2897,14 +2940,14 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="3"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2924,7 +2967,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="3" t="b">
         <v>0</v>
       </c>
@@ -2934,18 +2977,18 @@
       <c r="D28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="12" t="s">
+      <c r="I28" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2965,7 +3008,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="3" t="b">
         <v>0</v>
       </c>
@@ -2973,19 +3016,19 @@
         <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="1"/>
@@ -3006,7 +3049,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="3" t="b">
         <v>0</v>
       </c>
@@ -3014,19 +3057,19 @@
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>18</v>
@@ -3049,7 +3092,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="3" t="b">
         <v>0</v>
       </c>
@@ -3057,18 +3100,18 @@
         <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>62</v>
+      <c r="F31" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3088,7 +3131,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="3" t="b">
         <v>0</v>
       </c>
@@ -3096,18 +3139,18 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="F32" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="3"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3134,7 +3177,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="10"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="3"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3161,7 +3204,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="10"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="3"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3181,8 +3224,8 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="41" t="s">
-        <v>68</v>
+      <c r="A35" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="B35" s="3" t="b">
         <v>1</v>
@@ -3190,20 +3233,20 @@
       <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="1"/>
@@ -3224,27 +3267,27 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="18" t="s">
+      <c r="D36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="21"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3263,26 +3306,26 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="18" t="s">
+      <c r="D37" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="3"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3302,27 +3345,27 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C38" s="2">
         <v>4</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="1"/>
@@ -3343,26 +3386,26 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C39" s="2">
         <v>5</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="18" t="s">
+      <c r="D39" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3382,27 +3425,27 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C40" s="2">
         <v>6</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="1"/>
@@ -3423,7 +3466,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="3" t="b">
         <v>0</v>
       </c>
@@ -3431,17 +3474,17 @@
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="1"/>
@@ -3469,7 +3512,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="10"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3516,8 +3559,8 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="34" t="s">
-        <v>80</v>
+      <c r="A44" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="B44" s="3" t="b">
         <v>1</v>
@@ -3526,19 +3569,19 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="1"/>
@@ -3559,7 +3602,7 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="35"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="3" t="b">
         <v>0</v>
       </c>
@@ -3567,17 +3610,17 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
@@ -3598,7 +3641,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="35"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="3" t="b">
         <v>1</v>
       </c>
@@ -3606,17 +3649,17 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="1"/>
@@ -3637,7 +3680,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="3" t="b">
         <v>1</v>
       </c>
@@ -3645,15 +3688,15 @@
         <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H47" s="4"/>
@@ -3676,7 +3719,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="3" t="b">
         <v>1</v>
       </c>
@@ -3684,15 +3727,15 @@
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H48" s="4"/>
@@ -3715,7 +3758,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="3" t="b">
         <v>0</v>
       </c>
@@ -3723,15 +3766,15 @@
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -3756,7 +3799,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="3" t="b">
         <v>1</v>
       </c>
@@ -3764,15 +3807,15 @@
         <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="4"/>
@@ -3795,7 +3838,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="3" t="b">
         <v>1</v>
       </c>
@@ -3803,17 +3846,17 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
@@ -3834,7 +3877,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52" s="35"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="3" t="b">
         <v>0</v>
       </c>
@@ -3842,17 +3885,17 @@
         <v>9</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="1"/>
@@ -3873,7 +3916,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="3" t="b">
         <v>0</v>
       </c>
@@ -3881,13 +3924,13 @@
         <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="16" t="s">
-        <v>62</v>
+      <c r="F53" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
@@ -3910,7 +3953,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="3" t="b">
         <v>0</v>
       </c>
@@ -3918,13 +3961,13 @@
         <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>62</v>
+      <c r="F54" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
@@ -3947,10 +3990,10 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
-      <c r="H55" s="20"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="3"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3997,8 +4040,8 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57" s="36" t="s">
-        <v>98</v>
+      <c r="A57" s="44" t="s">
+        <v>97</v>
       </c>
       <c r="B57" s="3" t="b">
         <v>0</v>
@@ -4007,19 +4050,19 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>100</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="1"/>
@@ -4040,7 +4083,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="35"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="3" t="b">
         <v>0</v>
       </c>
@@ -4048,17 +4091,17 @@
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="24" t="s">
-        <v>102</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
@@ -4079,7 +4122,7 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A59" s="35"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="3" t="b">
         <v>0</v>
       </c>
@@ -4087,19 +4130,19 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>104</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
@@ -4120,7 +4163,7 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="35"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="3" t="b">
         <v>0</v>
       </c>
@@ -4128,17 +4171,17 @@
         <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="1"/>
@@ -4159,7 +4202,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="35"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="3" t="b">
         <v>0</v>
       </c>
@@ -4167,17 +4210,17 @@
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
@@ -4198,7 +4241,7 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="35"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="3" t="b">
         <v>0</v>
       </c>
@@ -4206,18 +4249,18 @@
         <v>6</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="21" t="s">
         <v>17</v>
       </c>
       <c r="I62" s="3"/>
@@ -4239,7 +4282,7 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="3" t="b">
         <v>0</v>
       </c>
@@ -4247,19 +4290,19 @@
         <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
@@ -4280,7 +4323,7 @@
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="35"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="3" t="b">
         <v>0</v>
       </c>
@@ -4288,17 +4331,17 @@
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="3"/>
-      <c r="H64" s="24" t="s">
-        <v>112</v>
+      <c r="H64" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
@@ -4319,7 +4362,7 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="35"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="3" t="b">
         <v>0</v>
       </c>
@@ -4327,19 +4370,19 @@
         <v>9</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="24" t="s">
-        <v>114</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
@@ -4360,7 +4403,7 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="3" t="b">
         <v>0</v>
       </c>
@@ -4368,19 +4411,19 @@
         <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>116</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
@@ -4401,7 +4444,7 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="3" t="b">
         <v>0</v>
       </c>
@@ -4411,15 +4454,15 @@
       <c r="D67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="16" t="s">
-        <v>62</v>
+      <c r="F67" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G67" s="3"/>
-      <c r="H67" s="25" t="s">
-        <v>117</v>
+      <c r="H67" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
@@ -4494,8 +4537,8 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="36" t="s">
-        <v>118</v>
+      <c r="A70" s="44" t="s">
+        <v>117</v>
       </c>
       <c r="B70" s="3" t="b">
         <v>1</v>
@@ -4504,19 +4547,19 @@
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E70" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="24" t="s">
-        <v>120</v>
+      <c r="H70" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
@@ -4537,7 +4580,7 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="35"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="3" t="b">
         <v>1</v>
       </c>
@@ -4545,19 +4588,19 @@
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="24" t="s">
-        <v>122</v>
+      <c r="H71" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
@@ -4578,7 +4621,7 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A72" s="35"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="3" t="b">
         <v>1</v>
       </c>
@@ -4586,19 +4629,19 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H72" s="24" t="s">
-        <v>124</v>
+      <c r="H72" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
@@ -4619,7 +4662,7 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A73" s="35"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="3" t="b">
         <v>1</v>
       </c>
@@ -4627,17 +4670,17 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="3"/>
-      <c r="H73" s="24" t="s">
-        <v>126</v>
+      <c r="H73" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="1"/>
@@ -4658,7 +4701,7 @@
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="35"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="3" t="b">
         <v>1</v>
       </c>
@@ -4666,19 +4709,19 @@
         <v>5</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E74" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="24" t="s">
-        <v>128</v>
+      <c r="H74" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
@@ -4699,7 +4742,7 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A75" s="35"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="3" t="b">
         <v>1</v>
       </c>
@@ -4707,19 +4750,19 @@
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E75" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="24" t="s">
-        <v>130</v>
+      <c r="H75" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
@@ -4740,7 +4783,7 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="3" t="b">
         <v>1</v>
       </c>
@@ -4748,19 +4791,19 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H76" s="25" t="s">
-        <v>132</v>
+      <c r="H76" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
@@ -4781,7 +4824,7 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A77" s="35"/>
+      <c r="A77" s="39"/>
       <c r="B77" s="3" t="b">
         <v>1</v>
       </c>
@@ -4789,19 +4832,19 @@
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="24" t="s">
-        <v>134</v>
+      <c r="H77" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="1"/>
@@ -4822,7 +4865,7 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
+      <c r="A78" s="39"/>
       <c r="B78" s="3" t="b">
         <v>1</v>
       </c>
@@ -4830,17 +4873,17 @@
         <v>9</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E78" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G78" s="3"/>
-      <c r="H78" s="25" t="s">
-        <v>136</v>
+      <c r="H78" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="1"/>
@@ -4861,7 +4904,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A79" s="35"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="3" t="b">
         <v>1</v>
       </c>
@@ -4869,17 +4912,17 @@
         <v>10</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E79" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G79" s="3"/>
-      <c r="H79" s="24" t="s">
-        <v>138</v>
+      <c r="H79" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="1"/>
@@ -4900,7 +4943,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="3" t="b">
         <v>0</v>
       </c>
@@ -4908,19 +4951,19 @@
         <v>11</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E80" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H80" s="25" t="s">
-        <v>140</v>
+      <c r="H80" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="1"/>
@@ -4941,25 +4984,25 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="2">
         <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E81" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G81" s="3"/>
-      <c r="H81" s="25" t="s">
-        <v>142</v>
+      <c r="H81" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1"/>
@@ -4980,27 +5023,27 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2">
         <v>13</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E82" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G82" s="11" t="s">
+      <c r="F82" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H82" s="25" t="s">
-        <v>144</v>
+      <c r="H82" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="1"/>
@@ -5075,8 +5118,8 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A85" s="37" t="s">
-        <v>145</v>
+      <c r="A85" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="B85" s="3" t="b">
         <v>1</v>
@@ -5085,19 +5128,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E85" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="24" t="s">
-        <v>147</v>
+      <c r="H85" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1"/>
@@ -5118,7 +5161,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="3" t="b">
         <v>1</v>
       </c>
@@ -5126,19 +5169,19 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E86" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E86" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="25" t="s">
-        <v>149</v>
+      <c r="H86" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="1"/>
@@ -5159,7 +5202,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A87" s="35"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="3" t="b">
         <v>0</v>
       </c>
@@ -5167,19 +5210,19 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E87" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="G87" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="24" t="s">
-        <v>151</v>
+      <c r="H87" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="1"/>
@@ -5200,7 +5243,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A88" s="35"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="3" t="b">
         <v>0</v>
       </c>
@@ -5208,19 +5251,19 @@
         <v>4</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E88" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G88" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H88" s="24" t="s">
-        <v>153</v>
+      <c r="H88" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="1"/>
@@ -5241,7 +5284,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A89" s="35"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="3" t="b">
         <v>0</v>
       </c>
@@ -5249,19 +5292,19 @@
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E89" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="24" t="s">
-        <v>155</v>
+      <c r="H89" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="1"/>
@@ -5282,7 +5325,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A90" s="35"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="3" t="b">
         <v>0</v>
       </c>
@@ -5290,17 +5333,17 @@
         <v>6</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E90" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G90" s="3"/>
-      <c r="H90" s="24" t="s">
-        <v>157</v>
+      <c r="H90" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="1"/>
@@ -5321,7 +5364,7 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="3" t="b">
         <v>0</v>
       </c>
@@ -5329,17 +5372,17 @@
         <v>7</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E91" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G91" s="3"/>
-      <c r="H91" s="25" t="s">
-        <v>159</v>
+      <c r="H91" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="1"/>
@@ -5360,7 +5403,7 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A92" s="35"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="3" t="b">
         <v>0</v>
       </c>
@@ -5368,19 +5411,19 @@
         <v>8</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="24" t="s">
-        <v>161</v>
+      <c r="H92" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="1"/>
@@ -5401,7 +5444,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A93" s="35"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="3" t="b">
         <v>0</v>
       </c>
@@ -5409,19 +5452,19 @@
         <v>9</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E93" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G93" s="11" t="s">
+      <c r="G93" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H93" s="24" t="s">
-        <v>163</v>
+      <c r="H93" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="1"/>
@@ -5442,27 +5485,27 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A94" s="35"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="17">
         <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E94" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G94" s="11" t="s">
+      <c r="G94" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H94" s="24" t="s">
-        <v>165</v>
+      <c r="H94" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="1"/>
@@ -5483,7 +5526,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="3" t="b">
         <v>0</v>
       </c>
@@ -5491,19 +5534,19 @@
         <v>11</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E95" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E95" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H95" s="25" t="s">
-        <v>167</v>
+      <c r="H95" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="1"/>
@@ -5524,7 +5567,7 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A96" s="35"/>
+      <c r="A96" s="39"/>
       <c r="B96" s="3" t="b">
         <v>0</v>
       </c>
@@ -5532,19 +5575,19 @@
         <v>12</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E96" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E96" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G96" s="11" t="s">
+      <c r="G96" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H96" s="24" t="s">
-        <v>169</v>
+      <c r="H96" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="1"/>
@@ -5565,7 +5608,7 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A97" s="35"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="3" t="b">
         <v>0</v>
       </c>
@@ -5573,17 +5616,17 @@
         <v>13</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E97" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="F97" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G97" s="3"/>
-      <c r="H97" s="24" t="s">
-        <v>171</v>
+      <c r="H97" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="1"/>
@@ -5604,7 +5647,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A98" s="35"/>
+      <c r="A98" s="39"/>
       <c r="B98" s="3" t="b">
         <v>0</v>
       </c>
@@ -5612,19 +5655,19 @@
         <v>14</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E98" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E98" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="13" t="s">
+      <c r="F98" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G98" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H98" s="24" t="s">
-        <v>173</v>
+      <c r="H98" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="1"/>
@@ -5645,7 +5688,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
+      <c r="A99" s="39"/>
       <c r="B99" s="3" t="b">
         <v>0</v>
       </c>
@@ -5653,19 +5696,19 @@
         <v>15</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E99" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F99" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G99" s="11" t="s">
+      <c r="F99" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="25" t="s">
-        <v>175</v>
+      <c r="H99" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="1"/>
@@ -5693,7 +5736,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="1"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="20"/>
+      <c r="H100" s="17"/>
       <c r="I100" s="3"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -5740,8 +5783,8 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="37" t="s">
-        <v>176</v>
+      <c r="A102" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="B102" s="3" t="b">
         <v>1</v>
@@ -5750,19 +5793,19 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E102" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E102" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G102" s="19" t="s">
+      <c r="G102" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H102" s="25" t="s">
-        <v>178</v>
+      <c r="H102" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
@@ -5783,7 +5826,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
+      <c r="A103" s="39"/>
       <c r="B103" s="3" t="b">
         <v>1</v>
       </c>
@@ -5791,19 +5834,19 @@
         <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E103" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="E103" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G103" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H103" s="25" t="s">
-        <v>180</v>
+      <c r="H103" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
@@ -5824,7 +5867,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
+      <c r="A104" s="39"/>
       <c r="B104" s="3" t="b">
         <v>1</v>
       </c>
@@ -5832,19 +5875,19 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E104" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="E104" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G104" s="11" t="s">
+      <c r="G104" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H104" s="25" t="s">
-        <v>182</v>
+      <c r="H104" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
@@ -5865,7 +5908,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A105" s="35"/>
+      <c r="A105" s="39"/>
       <c r="B105" s="3" t="b">
         <v>1</v>
       </c>
@@ -5873,17 +5916,17 @@
         <v>4</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E105" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="E105" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="3"/>
-      <c r="H105" s="24" t="s">
-        <v>184</v>
+      <c r="H105" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
@@ -5904,7 +5947,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="3" t="b">
         <v>1</v>
       </c>
@@ -5912,19 +5955,19 @@
         <v>5</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E106" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E106" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="H106" s="25" t="s">
-        <v>187</v>
+      <c r="G106" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
@@ -5945,7 +5988,7 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A107" s="35"/>
+      <c r="A107" s="39"/>
       <c r="B107" s="3" t="b">
         <v>1</v>
       </c>
@@ -5953,19 +5996,19 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E107" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="E107" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="G107" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H107" s="24" t="s">
-        <v>189</v>
+      <c r="H107" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
@@ -5986,7 +6029,7 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
+      <c r="A108" s="39"/>
       <c r="B108" s="3" t="b">
         <v>1</v>
       </c>
@@ -5994,19 +6037,19 @@
         <v>7</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E108" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="E108" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G108" s="11" t="s">
+      <c r="G108" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H108" s="25" t="s">
-        <v>191</v>
+      <c r="H108" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
@@ -6027,7 +6070,7 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
+      <c r="A109" s="39"/>
       <c r="B109" s="3" t="b">
         <v>1</v>
       </c>
@@ -6035,19 +6078,19 @@
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E109" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="E109" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G109" s="11" t="s">
+      <c r="G109" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H109" s="25" t="s">
-        <v>193</v>
+      <c r="H109" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
@@ -6068,7 +6111,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A110" s="35"/>
+      <c r="A110" s="39"/>
       <c r="B110" s="3" t="b">
         <v>1</v>
       </c>
@@ -6076,17 +6119,17 @@
         <v>9</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E110" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="E110" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G110" s="3"/>
-      <c r="H110" s="24" t="s">
-        <v>195</v>
+      <c r="H110" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
@@ -6107,7 +6150,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A111" s="35"/>
+      <c r="A111" s="39"/>
       <c r="B111" s="3" t="b">
         <v>1</v>
       </c>
@@ -6115,19 +6158,19 @@
         <v>10</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E111" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="E111" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F111" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G111" s="11" t="s">
+      <c r="G111" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H111" s="24" t="s">
-        <v>197</v>
+      <c r="H111" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
@@ -6148,7 +6191,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A112" s="35"/>
+      <c r="A112" s="39"/>
       <c r="B112" s="3" t="b">
         <v>1</v>
       </c>
@@ -6156,17 +6199,17 @@
         <v>11</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E112" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="E112" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F112" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G112" s="3"/>
-      <c r="H112" s="24" t="s">
-        <v>199</v>
+      <c r="H112" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
@@ -6187,7 +6230,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A113" s="35"/>
+      <c r="A113" s="39"/>
       <c r="B113" s="3" t="b">
         <v>1</v>
       </c>
@@ -6195,19 +6238,19 @@
         <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E113" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="E113" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="13" t="s">
+      <c r="F113" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G113" s="11" t="s">
+      <c r="G113" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H113" s="24" t="s">
-        <v>201</v>
+      <c r="H113" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6228,7 +6271,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A114" s="35"/>
+      <c r="A114" s="39"/>
       <c r="B114" s="3" t="b">
         <v>1</v>
       </c>
@@ -6236,17 +6279,17 @@
         <v>13</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E114" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="E114" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F114" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G114" s="3"/>
-      <c r="H114" s="24" t="s">
-        <v>203</v>
+      <c r="H114" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
@@ -6267,7 +6310,7 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A115" s="35"/>
+      <c r="A115" s="39"/>
       <c r="B115" s="3" t="b">
         <v>1</v>
       </c>
@@ -6275,17 +6318,17 @@
         <v>14</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E115" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="E115" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="13" t="s">
+      <c r="F115" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G115" s="3"/>
-      <c r="H115" s="24" t="s">
-        <v>205</v>
+      <c r="H115" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1"/>
@@ -6306,7 +6349,7 @@
       <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A116" s="35"/>
+      <c r="A116" s="39"/>
       <c r="B116" s="3" t="b">
         <v>1</v>
       </c>
@@ -6314,19 +6357,19 @@
         <v>15</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E116" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="E116" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F116" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G116" s="11" t="s">
+      <c r="G116" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H116" s="24" t="s">
-        <v>207</v>
+      <c r="H116" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="1"/>
@@ -6347,7 +6390,7 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A117" s="35"/>
+      <c r="A117" s="39"/>
       <c r="B117" s="3" t="b">
         <v>0</v>
       </c>
@@ -6355,19 +6398,19 @@
         <v>16</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E117" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E117" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F117" s="13" t="s">
+      <c r="F117" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G117" s="11" t="s">
+      <c r="G117" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H117" s="24" t="s">
-        <v>209</v>
+      <c r="H117" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
@@ -6388,7 +6431,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A118" s="35"/>
+      <c r="A118" s="39"/>
       <c r="B118" s="3" t="b">
         <v>1</v>
       </c>
@@ -6396,19 +6439,19 @@
         <v>17</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E118" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="E118" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F118" s="13" t="s">
+      <c r="F118" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G118" s="11" t="s">
+      <c r="G118" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H118" s="24" t="s">
-        <v>211</v>
+      <c r="H118" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6429,7 +6472,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A119" s="35"/>
+      <c r="A119" s="39"/>
       <c r="B119" s="3" t="b">
         <v>1</v>
       </c>
@@ -6437,19 +6480,19 @@
         <v>18</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E119" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E119" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="13" t="s">
+      <c r="F119" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G119" s="11" t="s">
+      <c r="G119" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H119" s="24" t="s">
-        <v>213</v>
+      <c r="H119" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6470,7 +6513,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
+      <c r="A120" s="39"/>
       <c r="B120" s="3" t="b">
         <v>1</v>
       </c>
@@ -6478,17 +6521,17 @@
         <v>19</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E120" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E120" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="13" t="s">
+      <c r="F120" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G120" s="3"/>
-      <c r="H120" s="25" t="s">
-        <v>215</v>
+      <c r="H120" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
@@ -6509,7 +6552,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
+      <c r="A121" s="39"/>
       <c r="B121" s="3" t="b">
         <v>1</v>
       </c>
@@ -6517,19 +6560,19 @@
         <v>20</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E121" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="E121" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F121" s="13" t="s">
+      <c r="F121" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G121" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H121" s="25" t="s">
-        <v>217</v>
+      <c r="H121" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
@@ -6550,7 +6593,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
+      <c r="A122" s="39"/>
       <c r="B122" s="3" t="b">
         <v>0</v>
       </c>
@@ -6558,19 +6601,19 @@
         <v>21</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E122" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E122" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="13" t="s">
+      <c r="F122" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G122" s="11" t="s">
+      <c r="G122" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H122" s="25" t="s">
-        <v>219</v>
+      <c r="H122" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6591,7 +6634,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A123" s="35"/>
+      <c r="A123" s="39"/>
       <c r="B123" s="3" t="b">
         <v>1</v>
       </c>
@@ -6599,17 +6642,17 @@
         <v>22</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E123" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="13" t="s">
+      <c r="F123" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G123" s="3"/>
-      <c r="H123" s="24" t="s">
-        <v>221</v>
+      <c r="H123" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6630,25 +6673,25 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A124" s="35"/>
+      <c r="A124" s="39"/>
       <c r="B124" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" s="2">
         <v>23</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E124" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="E124" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="16" t="s">
-        <v>62</v>
+      <c r="F124" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G124" s="3"/>
-      <c r="H124" s="24" t="s">
-        <v>223</v>
+      <c r="H124" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6669,7 +6712,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A125" s="35"/>
+      <c r="A125" s="39"/>
       <c r="B125" s="3" t="b">
         <v>0</v>
       </c>
@@ -6677,17 +6720,17 @@
         <v>24</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E125" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E125" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="16" t="s">
-        <v>62</v>
+      <c r="F125" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G125" s="3"/>
-      <c r="H125" s="24" t="s">
-        <v>225</v>
+      <c r="H125" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6707,25 +6750,24 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+    <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="B126" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C126" s="2">
         <v>25</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E126" s="31" t="s">
+      <c r="D126" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="E126" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="13" t="s">
+      <c r="F126" s="31" t="s">
         <v>26</v>
       </c>
       <c r="G126" s="3"/>
-      <c r="H126" s="4"/>
+      <c r="H126" s="21"/>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -6744,15 +6786,24 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="1"/>
+    <row r="127" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="B127" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2">
+        <v>26</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="G127" s="3"/>
-      <c r="H127" s="4"/>
+      <c r="H127" s="21"/>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -6771,29 +6822,15 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A128" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="B128" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C128" s="2">
-        <v>1</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>13</v>
-      </c>
+    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="1"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="24" t="s">
-        <v>228</v>
-      </c>
+      <c r="H128" s="4"/>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -6812,28 +6849,28 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="35"/>
+    <row r="129" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A129" s="45" t="s">
+        <v>200</v>
+      </c>
       <c r="B129" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C129" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="F129" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G129" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" s="25" t="s">
-        <v>230</v>
+      <c r="G129" s="3"/>
+      <c r="H129" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
@@ -6853,28 +6890,28 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A130" s="35"/>
+    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A130" s="39"/>
       <c r="B130" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" s="11" t="s">
+      <c r="F130" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H130" s="24" t="s">
-        <v>232</v>
+      <c r="H130" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
@@ -6895,27 +6932,27 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A131" s="35"/>
+      <c r="A131" s="39"/>
       <c r="B131" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="13" t="s">
+      <c r="F131" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G131" s="11" t="s">
+      <c r="G131" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H131" s="24" t="s">
-        <v>234</v>
+      <c r="H131" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="1"/>
@@ -6936,27 +6973,27 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A132" s="35"/>
+      <c r="A132" s="39"/>
       <c r="B132" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="13" t="s">
+      <c r="F132" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G132" s="11" t="s">
+      <c r="G132" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H132" s="24" t="s">
-        <v>236</v>
+      <c r="H132" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
@@ -6976,28 +7013,28 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
+    <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A133" s="39"/>
       <c r="B133" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C133" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E133" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E133" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F133" s="13" t="s">
+      <c r="F133" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G133" s="11" t="s">
+      <c r="G133" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H133" s="25" t="s">
-        <v>238</v>
+      <c r="H133" s="21" t="s">
+        <v>210</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
@@ -7018,27 +7055,27 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
+      <c r="A134" s="39"/>
       <c r="B134" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E134" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E134" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F134" s="13" t="s">
+      <c r="F134" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G134" s="11" t="s">
+      <c r="G134" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H134" s="25" t="s">
-        <v>240</v>
+      <c r="H134" s="22" t="s">
+        <v>212</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
@@ -7058,28 +7095,28 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A135" s="35"/>
+    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A135" s="39"/>
       <c r="B135" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C135" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F135" s="13" t="s">
+      <c r="F135" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G135" s="11" t="s">
+      <c r="G135" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H135" s="24" t="s">
-        <v>242</v>
+      <c r="H135" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
@@ -7099,28 +7136,28 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="35"/>
+    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A136" s="39"/>
       <c r="B136" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C136" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F136" s="13" t="s">
+      <c r="F136" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G136" s="11" t="s">
+      <c r="G136" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H136" s="25" t="s">
-        <v>244</v>
+      <c r="H136" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
@@ -7140,26 +7177,28 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A137" s="35"/>
+    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A137" s="39"/>
       <c r="B137" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F137" s="13" t="s">
+      <c r="F137" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="24" t="s">
-        <v>246</v>
+      <c r="G137" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
@@ -7180,27 +7219,25 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A138" s="35"/>
+      <c r="A138" s="39"/>
       <c r="B138" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C138" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F138" s="13" t="s">
+      <c r="F138" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G138" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H138" s="24" t="s">
-        <v>248</v>
+      <c r="G138" s="3"/>
+      <c r="H138" s="21" t="s">
+        <v>220</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
@@ -7221,27 +7258,27 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A139" s="35"/>
+      <c r="A139" s="39"/>
       <c r="B139" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C139" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F139" s="13" t="s">
+      <c r="F139" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G139" s="11" t="s">
+      <c r="G139" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H139" s="24" t="s">
-        <v>250</v>
+      <c r="H139" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
@@ -7261,28 +7298,28 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
+    <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A140" s="39"/>
       <c r="B140" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C140" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F140" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G140" s="11" t="s">
+      <c r="F140" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H140" s="25" t="s">
-        <v>252</v>
+      <c r="H140" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7303,25 +7340,27 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
+      <c r="A141" s="39"/>
       <c r="B141" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C141" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F141" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="25" t="s">
-        <v>254</v>
+      <c r="F141" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7341,28 +7380,26 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A142" s="35"/>
+    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A142" s="39"/>
       <c r="B142" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C142" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F142" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142" s="24" t="s">
-        <v>256</v>
+      <c r="F142" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G142" s="3"/>
+      <c r="H142" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7382,15 +7419,29 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="4"/>
+    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A143" s="39"/>
+      <c r="B143" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" s="2">
+        <v>15</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" s="21" t="s">
+        <v>230</v>
+      </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -7436,29 +7487,15 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A145" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="B145" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C145" s="2">
-        <v>1</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E145" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>13</v>
-      </c>
+    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="1"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="24" t="s">
-        <v>260</v>
-      </c>
+      <c r="H145" s="4"/>
       <c r="I145" s="3"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -7478,25 +7515,27 @@
       <c r="Y145" s="1"/>
     </row>
     <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A146" s="35"/>
+      <c r="A146" s="45" t="s">
+        <v>231</v>
+      </c>
       <c r="B146" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C146" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E146" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="F146" s="13" t="s">
-        <v>26</v>
+        <v>232</v>
+      </c>
+      <c r="E146" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F146" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G146" s="3"/>
-      <c r="H146" s="24" t="s">
-        <v>263</v>
+      <c r="H146" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
@@ -7517,25 +7556,25 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="35"/>
+      <c r="A147" s="39"/>
       <c r="B147" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E147" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="F147" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E147" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F147" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G147" s="3"/>
-      <c r="H147" s="24" t="s">
-        <v>266</v>
+      <c r="H147" s="21" t="s">
+        <v>237</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
@@ -7556,25 +7595,25 @@
       <c r="Y147" s="1"/>
     </row>
     <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" s="35"/>
+      <c r="A148" s="39"/>
       <c r="B148" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E148" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="F148" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E148" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F148" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G148" s="3"/>
-      <c r="H148" s="24" t="s">
-        <v>269</v>
+      <c r="H148" s="21" t="s">
+        <v>240</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7595,25 +7634,25 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A149" s="35"/>
+      <c r="A149" s="39"/>
       <c r="B149" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E149" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="F149" s="16" t="s">
-        <v>62</v>
+        <v>241</v>
+      </c>
+      <c r="E149" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="F149" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="G149" s="3"/>
-      <c r="H149" s="24" t="s">
-        <v>272</v>
+      <c r="H149" s="21" t="s">
+        <v>243</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7633,26 +7672,26 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="35"/>
+    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A150" s="39"/>
       <c r="B150" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C150" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E150" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="F150" s="16" t="s">
-        <v>62</v>
+        <v>244</v>
+      </c>
+      <c r="E150" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="F150" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G150" s="3"/>
-      <c r="H150" s="25" t="s">
-        <v>275</v>
+      <c r="H150" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7673,14 +7712,26 @@
       <c r="Y150" s="1"/>
     </row>
     <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="1"/>
+      <c r="A151" s="39"/>
+      <c r="B151" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C151" s="2">
+        <v>6</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E151" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F151" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="G151" s="3"/>
-      <c r="H151" s="4"/>
+      <c r="H151" s="22" t="s">
+        <v>249</v>
+      </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -7726,29 +7777,15 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A153" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="B153" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C153" s="2">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E153" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>13</v>
-      </c>
+    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="1"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="24" t="s">
-        <v>278</v>
-      </c>
+      <c r="H153" s="4"/>
       <c r="I153" s="3"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -7768,25 +7805,27 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A154" s="35"/>
+      <c r="A154" s="45" t="s">
+        <v>250</v>
+      </c>
       <c r="B154" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E154" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="F154" s="13" t="s">
-        <v>26</v>
+        <v>82</v>
+      </c>
+      <c r="E154" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F154" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G154" s="3"/>
-      <c r="H154" s="24" t="s">
-        <v>281</v>
+      <c r="H154" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
@@ -7806,26 +7845,26 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="35"/>
+    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A155" s="39"/>
       <c r="B155" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C155" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E155" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="F155" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E155" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F155" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G155" s="3"/>
-      <c r="H155" s="25" t="s">
-        <v>284</v>
+      <c r="H155" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
@@ -7845,26 +7884,26 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A156" s="35"/>
+    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A156" s="39"/>
       <c r="B156" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C156" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E156" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="F156" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F156" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G156" s="3"/>
-      <c r="H156" s="24" t="s">
-        <v>287</v>
+      <c r="H156" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
@@ -7884,26 +7923,26 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="35"/>
+    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A157" s="39"/>
       <c r="B157" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C157" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E157" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="F157" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F157" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G157" s="3"/>
-      <c r="H157" s="25" t="s">
-        <v>284</v>
+      <c r="H157" s="21" t="s">
+        <v>261</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -7924,14 +7963,26 @@
       <c r="Y157" s="1"/>
     </row>
     <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="26"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="1"/>
+      <c r="A158" s="39"/>
+      <c r="B158" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C158" s="2">
+        <v>5</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="F158" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="G158" s="3"/>
-      <c r="H158" s="4"/>
+      <c r="H158" s="22" t="s">
+        <v>258</v>
+      </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -7951,7 +8002,7 @@
       <c r="Y158" s="1"/>
     </row>
     <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+      <c r="A159" s="23"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="1"/>
@@ -7977,29 +8028,15 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A160" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B160" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C160" s="2">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E160" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>13</v>
-      </c>
+    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="1"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="24" t="s">
-        <v>293</v>
-      </c>
+      <c r="H160" s="4"/>
       <c r="I160" s="3"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -8019,25 +8056,27 @@
       <c r="Y160" s="1"/>
     </row>
     <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A161" s="35"/>
+      <c r="A161" s="45" t="s">
+        <v>264</v>
+      </c>
       <c r="B161" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2">
         <v>1</v>
       </c>
-      <c r="C161" s="2">
-        <v>2</v>
-      </c>
       <c r="D161" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E161" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="F161" s="13" t="s">
-        <v>26</v>
+        <v>265</v>
+      </c>
+      <c r="E161" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="F161" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G161" s="3"/>
-      <c r="H161" s="24" t="s">
-        <v>296</v>
+      <c r="H161" s="21" t="s">
+        <v>267</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="1"/>
@@ -8058,25 +8097,25 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="35"/>
+      <c r="A162" s="39"/>
       <c r="B162" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C162" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E162" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="F162" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F162" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G162" s="3"/>
-      <c r="H162" s="24" t="s">
-        <v>298</v>
+      <c r="H162" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
@@ -8097,25 +8136,25 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="35"/>
+      <c r="A163" s="39"/>
       <c r="B163" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E163" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="F163" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E163" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F163" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G163" s="3"/>
-      <c r="H163" s="24" t="s">
-        <v>298</v>
+      <c r="H163" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
@@ -8136,25 +8175,25 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A164" s="35"/>
+      <c r="A164" s="39"/>
       <c r="B164" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E164" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="F164" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E164" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F164" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G164" s="3"/>
-      <c r="H164" s="24" t="s">
-        <v>302</v>
+      <c r="H164" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
@@ -8175,25 +8214,25 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="35"/>
+      <c r="A165" s="39"/>
       <c r="B165" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E165" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="F165" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F165" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G165" s="3"/>
-      <c r="H165" s="24" t="s">
-        <v>305</v>
+      <c r="H165" s="21" t="s">
+        <v>276</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8214,25 +8253,25 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A166" s="35"/>
+      <c r="A166" s="39"/>
       <c r="B166" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E166" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="F166" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F166" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G166" s="3"/>
-      <c r="H166" s="24" t="s">
-        <v>307</v>
+      <c r="H166" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
@@ -8253,25 +8292,25 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A167" s="35"/>
+      <c r="A167" s="39"/>
       <c r="B167" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E167" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="F167" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E167" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F167" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G167" s="3"/>
-      <c r="H167" s="24" t="s">
-        <v>310</v>
+      <c r="H167" s="21" t="s">
+        <v>281</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1"/>
@@ -8292,25 +8331,25 @@
       <c r="Y167" s="1"/>
     </row>
     <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A168" s="35"/>
+      <c r="A168" s="39"/>
       <c r="B168" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C168" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E168" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="F168" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E168" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F168" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G168" s="3"/>
-      <c r="H168" s="24" t="s">
-        <v>313</v>
+      <c r="H168" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="1"/>
@@ -8330,26 +8369,26 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="35"/>
+    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A169" s="39"/>
       <c r="B169" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C169" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E169" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="F169" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E169" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="F169" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G169" s="3"/>
-      <c r="H169" s="25" t="s">
-        <v>316</v>
+      <c r="H169" s="21" t="s">
+        <v>287</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="1"/>
@@ -8369,26 +8408,26 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="35"/>
+    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A170" s="39"/>
       <c r="B170" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C170" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E170" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="F170" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E170" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="F170" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G170" s="3"/>
-      <c r="H170" s="24" t="s">
-        <v>319</v>
+      <c r="H170" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
@@ -8409,25 +8448,25 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="35"/>
+      <c r="A171" s="39"/>
       <c r="B171" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C171" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E171" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="F171" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="F171" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G171" s="3"/>
-      <c r="H171" s="24" t="s">
-        <v>322</v>
+      <c r="H171" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
@@ -8448,25 +8487,25 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A172" s="35"/>
+      <c r="A172" s="39"/>
       <c r="B172" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C172" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E172" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F172" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E172" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F172" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G172" s="3"/>
-      <c r="H172" s="24" t="s">
-        <v>325</v>
+      <c r="H172" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8487,25 +8526,25 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A173" s="35"/>
+      <c r="A173" s="39"/>
       <c r="B173" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C173" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E173" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="F173" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E173" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F173" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G173" s="3"/>
-      <c r="H173" s="24" t="s">
-        <v>328</v>
+      <c r="H173" s="21" t="s">
+        <v>299</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
@@ -8526,25 +8565,25 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A174" s="35"/>
+      <c r="A174" s="39"/>
       <c r="B174" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C174" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E174" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="F174" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="F174" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G174" s="3"/>
-      <c r="H174" s="24" t="s">
-        <v>330</v>
+      <c r="H174" s="21" t="s">
+        <v>302</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8565,25 +8604,25 @@
       <c r="Y174" s="1"/>
     </row>
     <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A175" s="35"/>
+      <c r="A175" s="39"/>
       <c r="B175" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C175" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E175" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="F175" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E175" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="F175" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G175" s="3"/>
-      <c r="H175" s="24" t="s">
-        <v>333</v>
+      <c r="H175" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
@@ -8604,25 +8643,25 @@
       <c r="Y175" s="1"/>
     </row>
     <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A176" s="35"/>
+      <c r="A176" s="39"/>
       <c r="B176" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C176" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E176" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="F176" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="F176" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G176" s="3"/>
-      <c r="H176" s="24" t="s">
-        <v>336</v>
+      <c r="H176" s="21" t="s">
+        <v>307</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
@@ -8642,26 +8681,26 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="35"/>
+    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A177" s="39"/>
       <c r="B177" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C177" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E177" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="F177" s="16" t="s">
-        <v>62</v>
+        <v>308</v>
+      </c>
+      <c r="E177" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F177" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="G177" s="3"/>
-      <c r="H177" s="25" t="s">
-        <v>339</v>
+      <c r="H177" s="21" t="s">
+        <v>310</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
@@ -8681,26 +8720,26 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A178" s="35"/>
+    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A178" s="39"/>
       <c r="B178" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C178" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E178" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="F178" s="13" t="s">
-        <v>26</v>
+        <v>311</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="F178" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G178" s="3"/>
-      <c r="H178" s="24" t="s">
-        <v>342</v>
+      <c r="H178" s="22" t="s">
+        <v>313</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
@@ -8721,25 +8760,25 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="35"/>
+      <c r="A179" s="39"/>
       <c r="B179" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E179" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="F179" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E179" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F179" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G179" s="3"/>
-      <c r="H179" s="24" t="s">
-        <v>344</v>
+      <c r="H179" s="21" t="s">
+        <v>316</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
@@ -8760,25 +8799,25 @@
       <c r="Y179" s="1"/>
     </row>
     <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A180" s="35"/>
+      <c r="A180" s="39"/>
       <c r="B180" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E180" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="F180" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E180" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F180" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G180" s="3"/>
-      <c r="H180" s="24" t="s">
-        <v>347</v>
+      <c r="H180" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -8799,25 +8838,25 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="35"/>
+      <c r="A181" s="39"/>
       <c r="B181" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C181" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E181" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="F181" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E181" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="F181" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G181" s="3"/>
-      <c r="H181" s="24" t="s">
-        <v>350</v>
+      <c r="H181" s="21" t="s">
+        <v>321</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -8837,26 +8876,26 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
+    <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A182" s="39"/>
       <c r="B182" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C182" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E182" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="F182" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E182" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="F182" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G182" s="3"/>
-      <c r="H182" s="25" t="s">
-        <v>353</v>
+      <c r="H182" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -8877,25 +8916,25 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A183" s="35"/>
+      <c r="A183" s="39"/>
       <c r="B183" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C183" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E183" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="F183" s="16" t="s">
-        <v>62</v>
+        <v>325</v>
+      </c>
+      <c r="E183" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="F183" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="G183" s="3"/>
-      <c r="H183" s="25" t="s">
-        <v>356</v>
+      <c r="H183" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -8916,25 +8955,25 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A184" s="35"/>
+      <c r="A184" s="39"/>
       <c r="B184" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C184" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E184" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="F184" s="16" t="s">
-        <v>62</v>
+        <v>328</v>
+      </c>
+      <c r="E184" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="F184" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G184" s="3"/>
-      <c r="H184" s="25" t="s">
-        <v>359</v>
+      <c r="H184" s="22" t="s">
+        <v>330</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -8954,26 +8993,26 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A185" s="35"/>
+    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A185" s="39"/>
       <c r="B185" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C185" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E185" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="F185" s="16" t="s">
-        <v>62</v>
+        <v>331</v>
+      </c>
+      <c r="E185" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F185" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="24" t="s">
-        <v>361</v>
+      <c r="H185" s="22" t="s">
+        <v>333</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -8993,23 +9032,27 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1" t="s">
-        <v>423</v>
+    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A186" s="39"/>
+      <c r="B186" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C186" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E186" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="F186" s="1"/>
+        <v>334</v>
+      </c>
+      <c r="E186" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="F186" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="4"/>
+      <c r="H186" s="21" t="s">
+        <v>335</v>
+      </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -9030,10 +9073,18 @@
     </row>
     <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="3"/>
+      <c r="B187" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C187" s="2">
+        <v>27</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E187" s="30" t="s">
+        <v>396</v>
+      </c>
       <c r="F187" s="1"/>
       <c r="G187" s="3"/>
       <c r="H187" s="4"/>
@@ -9055,29 +9106,15 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A188" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="B188" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C188" s="2">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="9" t="s">
-        <v>13</v>
-      </c>
+    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="1"/>
       <c r="G188" s="3"/>
-      <c r="H188" s="24" t="s">
-        <v>364</v>
-      </c>
+      <c r="H188" s="4"/>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -9097,25 +9134,27 @@
       <c r="Y188" s="1"/>
     </row>
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" s="35"/>
+      <c r="A189" s="45" t="s">
+        <v>336</v>
+      </c>
       <c r="B189" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C189" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F189" s="13" t="s">
-        <v>26</v>
+      <c r="F189" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="24" t="s">
-        <v>366</v>
+      <c r="H189" s="21" t="s">
+        <v>338</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
@@ -9135,26 +9174,26 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A190" s="35"/>
+    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A190" s="39"/>
       <c r="B190" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C190" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F190" s="13" t="s">
+      <c r="F190" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G190" s="3"/>
-      <c r="H190" s="25" t="s">
-        <v>368</v>
+      <c r="H190" s="21" t="s">
+        <v>340</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
@@ -9175,25 +9214,25 @@
       <c r="Y190" s="1"/>
     </row>
     <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
+      <c r="A191" s="39"/>
       <c r="B191" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C191" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F191" s="13" t="s">
+      <c r="F191" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G191" s="3"/>
-      <c r="H191" s="25" t="s">
-        <v>370</v>
+      <c r="H191" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9213,26 +9252,26 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A192" s="35"/>
+    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A192" s="39"/>
       <c r="B192" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F192" s="13" t="s">
+      <c r="F192" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="24" t="s">
-        <v>372</v>
+      <c r="H192" s="22" t="s">
+        <v>344</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9253,25 +9292,25 @@
       <c r="Y192" s="1"/>
     </row>
     <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A193" s="35"/>
+      <c r="A193" s="39"/>
       <c r="B193" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C193" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F193" s="13" t="s">
+      <c r="F193" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="24" t="s">
-        <v>374</v>
+      <c r="H193" s="21" t="s">
+        <v>346</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
@@ -9292,25 +9331,25 @@
       <c r="Y193" s="1"/>
     </row>
     <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A194" s="35"/>
+      <c r="A194" s="39"/>
       <c r="B194" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C194" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F194" s="13" t="s">
+      <c r="F194" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G194" s="3"/>
-      <c r="H194" s="24" t="s">
-        <v>376</v>
+      <c r="H194" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
@@ -9330,26 +9369,26 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="35"/>
+    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A195" s="39"/>
       <c r="B195" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C195" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F195" s="13" t="s">
+      <c r="F195" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="25" t="s">
-        <v>378</v>
+      <c r="H195" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
@@ -9369,26 +9408,26 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A196" s="35"/>
+    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A196" s="39"/>
       <c r="B196" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C196" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F196" s="13" t="s">
+      <c r="F196" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G196" s="3"/>
-      <c r="H196" s="24" t="s">
-        <v>380</v>
+      <c r="H196" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
@@ -9409,25 +9448,25 @@
       <c r="Y196" s="1"/>
     </row>
     <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A197" s="35"/>
+      <c r="A197" s="39"/>
       <c r="B197" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C197" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F197" s="13" t="s">
+      <c r="F197" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G197" s="3"/>
-      <c r="H197" s="24" t="s">
-        <v>382</v>
+      <c r="H197" s="21" t="s">
+        <v>354</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
@@ -9447,26 +9486,26 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A198" s="35"/>
+    <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A198" s="39"/>
       <c r="B198" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F198" s="13" t="s">
+      <c r="F198" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G198" s="3"/>
-      <c r="H198" s="25" t="s">
-        <v>384</v>
+      <c r="H198" s="21" t="s">
+        <v>356</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
@@ -9486,26 +9525,26 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A199" s="35"/>
+    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A199" s="39"/>
       <c r="B199" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F199" s="13" t="s">
+      <c r="F199" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="24" t="s">
-        <v>386</v>
+      <c r="H199" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
@@ -9526,25 +9565,25 @@
       <c r="Y199" s="1"/>
     </row>
     <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A200" s="35"/>
+      <c r="A200" s="39"/>
       <c r="B200" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F200" s="13" t="s">
+      <c r="F200" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="24" t="s">
-        <v>388</v>
+      <c r="H200" s="21" t="s">
+        <v>360</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
@@ -9565,25 +9604,25 @@
       <c r="Y200" s="1"/>
     </row>
     <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A201" s="35"/>
+      <c r="A201" s="39"/>
       <c r="B201" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C201" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F201" s="13" t="s">
+      <c r="F201" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G201" s="3"/>
-      <c r="H201" s="24" t="s">
-        <v>390</v>
+      <c r="H201" s="21" t="s">
+        <v>362</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
@@ -9603,26 +9642,26 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A202" s="35"/>
+    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A202" s="39"/>
       <c r="B202" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C202" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F202" s="13" t="s">
+      <c r="F202" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="25" t="s">
-        <v>392</v>
+      <c r="H202" s="21" t="s">
+        <v>364</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9643,25 +9682,25 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A203" s="35"/>
+      <c r="A203" s="39"/>
       <c r="B203" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F203" s="16" t="s">
-        <v>62</v>
+      <c r="F203" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="G203" s="3"/>
-      <c r="H203" s="25" t="s">
-        <v>394</v>
+      <c r="H203" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9682,25 +9721,25 @@
       <c r="Y203" s="1"/>
     </row>
     <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="35"/>
+      <c r="A204" s="39"/>
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F204" s="16" t="s">
-        <v>62</v>
+      <c r="F204" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="25" t="s">
-        <v>396</v>
+      <c r="H204" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9721,25 +9760,25 @@
       <c r="Y204" s="1"/>
     </row>
     <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A205" s="35"/>
+      <c r="A205" s="39"/>
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F205" s="16" t="s">
-        <v>62</v>
+      <c r="F205" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="25" t="s">
-        <v>398</v>
+      <c r="H205" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9759,26 +9798,26 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A206" s="35"/>
+    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A206" s="39"/>
       <c r="B206" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C206" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F206" s="16" t="s">
-        <v>62</v>
+      <c r="F206" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G206" s="3"/>
-      <c r="H206" s="24" t="s">
-        <v>400</v>
+      <c r="H206" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -9799,25 +9838,25 @@
       <c r="Y206" s="1"/>
     </row>
     <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A207" s="35"/>
+      <c r="A207" s="39"/>
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F207" s="16" t="s">
-        <v>62</v>
+      <c r="F207" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="24" t="s">
-        <v>402</v>
+      <c r="H207" s="21" t="s">
+        <v>374</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -9837,26 +9876,26 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A208" s="35"/>
+    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A208" s="39"/>
       <c r="B208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F208" s="16" t="s">
-        <v>62</v>
+      <c r="F208" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G208" s="3"/>
-      <c r="H208" s="25" t="s">
-        <v>404</v>
+      <c r="H208" s="21" t="s">
+        <v>376</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -9877,14 +9916,26 @@
       <c r="Y208" s="1"/>
     </row>
     <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="1"/>
+      <c r="A209" s="39"/>
+      <c r="B209" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C209" s="2">
+        <v>21</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="4"/>
+      <c r="H209" s="22" t="s">
+        <v>378</v>
+      </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -9931,28 +9982,14 @@
       <c r="Y210" s="1"/>
     </row>
     <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="B211" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C211" s="2">
-        <v>1</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A211" s="1"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="1"/>
       <c r="G211" s="3"/>
-      <c r="H211" s="25" t="s">
-        <v>407</v>
-      </c>
+      <c r="H211" s="4"/>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -9971,26 +10008,28 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A212" s="35"/>
+    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A212" s="45" t="s">
+        <v>379</v>
+      </c>
       <c r="B212" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F212" s="13" t="s">
-        <v>26</v>
+      <c r="F212" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="24" t="s">
-        <v>409</v>
+      <c r="H212" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10011,25 +10050,25 @@
       <c r="Y212" s="1"/>
     </row>
     <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A213" s="35"/>
+      <c r="A213" s="39"/>
       <c r="B213" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F213" s="13" t="s">
+      <c r="F213" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G213" s="3"/>
-      <c r="H213" s="24" t="s">
-        <v>411</v>
+      <c r="H213" s="21" t="s">
+        <v>383</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10050,25 +10089,25 @@
       <c r="Y213" s="1"/>
     </row>
     <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A214" s="35"/>
+      <c r="A214" s="39"/>
       <c r="B214" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F214" s="13" t="s">
+      <c r="F214" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G214" s="3"/>
-      <c r="H214" s="24" t="s">
-        <v>413</v>
+      <c r="H214" s="21" t="s">
+        <v>385</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10089,25 +10128,25 @@
       <c r="Y214" s="1"/>
     </row>
     <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A215" s="35"/>
+      <c r="A215" s="39"/>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F215" s="13" t="s">
+      <c r="F215" s="34" t="s">
         <v>26</v>
       </c>
       <c r="G215" s="3"/>
-      <c r="H215" s="30" t="s">
-        <v>415</v>
+      <c r="H215" s="21" t="s">
+        <v>387</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10128,25 +10167,25 @@
       <c r="Y215" s="1"/>
     </row>
     <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A216" s="35"/>
+      <c r="A216" s="39"/>
       <c r="B216" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F216" s="16" t="s">
-        <v>62</v>
+      <c r="F216" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="24" t="s">
-        <v>417</v>
+      <c r="H216" s="27" t="s">
+        <v>389</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10166,15 +10205,27 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="1"/>
+    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A217" s="39"/>
+      <c r="B217" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C217" s="2">
+        <v>6</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="4"/>
+      <c r="H217" s="21" t="s">
+        <v>391</v>
+      </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -31388,24 +31439,51 @@
       <c r="X1002" s="1"/>
       <c r="Y1002" s="1"/>
     </row>
+    <row r="1003" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="1"/>
+      <c r="E1003" s="3"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="3"/>
+      <c r="H1003" s="4"/>
+      <c r="I1003" s="3"/>
+      <c r="J1003" s="1"/>
+      <c r="K1003" s="1"/>
+      <c r="L1003" s="1"/>
+      <c r="M1003" s="1"/>
+      <c r="N1003" s="1"/>
+      <c r="O1003" s="1"/>
+      <c r="P1003" s="1"/>
+      <c r="Q1003" s="1"/>
+      <c r="R1003" s="1"/>
+      <c r="S1003" s="1"/>
+      <c r="T1003" s="1"/>
+      <c r="U1003" s="1"/>
+      <c r="V1003" s="1"/>
+      <c r="W1003" s="1"/>
+      <c r="X1003" s="1"/>
+      <c r="Y1003" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="A189:A209"/>
+    <mergeCell ref="A212:A217"/>
+    <mergeCell ref="A70:A82"/>
+    <mergeCell ref="A85:A99"/>
+    <mergeCell ref="A102:A125"/>
+    <mergeCell ref="A129:A143"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A161:A186"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A6:A32"/>
     <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="A188:A208"/>
-    <mergeCell ref="A211:A216"/>
-    <mergeCell ref="A70:A82"/>
-    <mergeCell ref="A85:A99"/>
-    <mergeCell ref="A102:A125"/>
-    <mergeCell ref="A128:A142"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A160:A185"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -31585,101 +31663,103 @@
     <hyperlink ref="E123" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
     <hyperlink ref="E124" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
     <hyperlink ref="E125" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E128" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E129" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G129" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E130" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G130" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E131" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G131" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E132" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="G132" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E133" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G133" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E134" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G134" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E135" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G135" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E136" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G136" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E137" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E138" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G138" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E139" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G139" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E140" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G140" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E141" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E142" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G142" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E145" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E146" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E147" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E148" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E149" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E150" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E153" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E154" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E155" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E156" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E157" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E160" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E161" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E162" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E163" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E164" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E165" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E166" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E167" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E168" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E169" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E170" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E171" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E172" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E173" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E174" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E175" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E176" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E177" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E178" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E179" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E180" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E181" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E182" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E183" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E184" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E185" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E188" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E189" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E190" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E191" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E192" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E193" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E194" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E195" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E196" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E197" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E198" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E199" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E200" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E201" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E202" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E203" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E204" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E205" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E206" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E207" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E208" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E211" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E212" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E213" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E214" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E215" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E216" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E126" r:id="rId269" xr:uid="{304B3192-5D45-4E72-B240-29A291F35573}"/>
-    <hyperlink ref="E11" r:id="rId270" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="E186" r:id="rId271" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E129" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E130" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G130" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E131" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G131" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E132" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G132" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E133" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="G133" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E134" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G134" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E135" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G135" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E136" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G136" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E137" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G137" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E138" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E139" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G139" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E140" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G140" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E141" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G141" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E142" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E143" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G143" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E146" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E147" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E148" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E149" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E150" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E151" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E154" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E155" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E156" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E157" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E158" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E161" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E162" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E163" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E164" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E165" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E166" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E167" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E168" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E169" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E170" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E171" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E172" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E173" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E174" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E175" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E176" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E177" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E178" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E179" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E180" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E181" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E182" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E183" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E184" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E185" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E186" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E189" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E190" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E191" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E192" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E193" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E194" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E195" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E196" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E197" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E198" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E199" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E200" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E201" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E202" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E203" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E204" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E205" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E206" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E207" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E208" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E209" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E212" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E213" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E214" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E215" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E216" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E217" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E11" r:id="rId269" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
+    <hyperlink ref="E187" r:id="rId270" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E127" r:id="rId271" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E126" r:id="rId272" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId273"/>
 </worksheet>
 </file>
--- a/DSA for PLACEMENTS.xlsx
+++ b/DSA for PLACEMENTS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9BEA18-0EC8-411A-A334-F395EA60EF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33436313-CE57-4AA4-B702-A6F9AC9E1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="426">
   <si>
     <t>Do NOT send any edit request to this sheet. Instead, make a copy of your own.</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Amazon Google</t>
   </si>
   <si>
-    <t>Repeat &amp; missing number</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -1231,9 +1228,6 @@
     <t>Good Nodes</t>
   </si>
   <si>
-    <t xml:space="preserve">     TRUE</t>
-  </si>
-  <si>
     <t>Two Sum</t>
   </si>
   <si>
@@ -1322,13 +1316,36 @@
   </si>
   <si>
     <t>Sum of root to leafs (revised)</t>
+  </si>
+  <si>
+    <t>Subsets 1</t>
+  </si>
+  <si>
+    <t>Majority Element ||</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Medium</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TRUE</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1492,8 +1509,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1554,6 +1577,12 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1568,7 +1597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1657,10 +1686,23 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1668,16 +1710,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1898,11 +1931,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1003"/>
+  <dimension ref="A1:Y1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
+      <pane ySplit="4" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1921,11 +1954,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -1950,16 +1983,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2072,34 +2105,24 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
+    <row r="6" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F6" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2118,15 +2141,17 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="3" t="b">
+      <c r="A7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
+      <c r="D7" s="32" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
@@ -2134,14 +2159,14 @@
       <c r="F7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2161,15 +2186,15 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
-      <c r="B8" s="3" t="b">
-        <v>1</v>
+      <c r="A8" s="40"/>
+      <c r="B8" s="32" t="s">
+        <v>425</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
@@ -2181,10 +2206,10 @@
         <v>14</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2204,15 +2229,15 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="3" t="b">
-        <v>1</v>
+      <c r="A9" s="40"/>
+      <c r="B9" s="32" t="s">
+        <v>425</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
@@ -2243,15 +2268,15 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="3" t="b">
-        <v>1</v>
+      <c r="A10" s="40"/>
+      <c r="B10" s="32" t="s">
+        <v>425</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>12</v>
@@ -2263,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="1"/>
@@ -2284,15 +2309,15 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
-      <c r="B11" s="1" t="s">
-        <v>393</v>
+      <c r="A11" s="40"/>
+      <c r="B11" s="32" t="s">
+        <v>425</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>12</v>
@@ -2321,27 +2346,27 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="3" t="b">
-        <v>1</v>
+      <c r="A12" s="40"/>
+      <c r="B12" s="32" t="s">
+        <v>425</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>26</v>
+      <c r="F12" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="1"/>
@@ -2362,21 +2387,21 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="3" t="b">
-        <v>0</v>
+      <c r="A13" s="40"/>
+      <c r="B13" s="32" t="s">
+        <v>425</v>
       </c>
       <c r="C13" s="2">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>14</v>
@@ -2401,7 +2426,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="3" t="b">
         <v>0</v>
       </c>
@@ -2409,19 +2434,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="1"/>
@@ -2442,7 +2467,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="b">
         <v>1</v>
       </c>
@@ -2450,22 +2475,22 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2485,7 +2510,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="3" t="b">
         <v>0</v>
       </c>
@@ -2493,22 +2518,22 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2528,7 +2553,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="3" t="b">
         <v>0</v>
       </c>
@@ -2536,20 +2561,20 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2569,7 +2594,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="b">
         <v>1</v>
       </c>
@@ -2577,20 +2602,20 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2610,7 +2635,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="3" t="b">
         <v>0</v>
       </c>
@@ -2618,22 +2643,22 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2653,7 +2678,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="3" t="b">
         <v>0</v>
       </c>
@@ -2661,20 +2686,20 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2694,7 +2719,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="39"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="b">
         <v>0</v>
       </c>
@@ -2702,20 +2727,20 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2735,7 +2760,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="39"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="3" t="b">
         <v>1</v>
       </c>
@@ -2743,20 +2768,20 @@
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2776,7 +2801,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="3" t="b">
         <v>0</v>
       </c>
@@ -2784,20 +2809,20 @@
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2817,7 +2842,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="3" t="b">
         <v>0</v>
       </c>
@@ -2825,19 +2850,19 @@
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="1"/>
@@ -2858,7 +2883,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="3" t="b">
         <v>0</v>
       </c>
@@ -2866,18 +2891,18 @@
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="9"/>
       <c r="I25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2897,7 +2922,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="3" t="b">
         <v>1</v>
       </c>
@@ -2905,22 +2930,22 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2940,7 +2965,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -2967,7 +2992,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="39"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="b">
         <v>0</v>
       </c>
@@ -2975,20 +3000,20 @@
         <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3008,7 +3033,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="39"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="b">
         <v>0</v>
       </c>
@@ -3016,19 +3041,19 @@
         <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="1"/>
@@ -3049,7 +3074,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="b">
         <v>0</v>
       </c>
@@ -3057,22 +3082,22 @@
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3092,7 +3117,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="39"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="b">
         <v>0</v>
       </c>
@@ -3100,18 +3125,18 @@
         <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="9"/>
       <c r="I31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3131,7 +3156,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="39"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="b">
         <v>0</v>
       </c>
@@ -3139,13 +3164,13 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>14</v>
@@ -3224,8 +3249,8 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="43" t="s">
-        <v>67</v>
+      <c r="A35" s="47" t="s">
+        <v>66</v>
       </c>
       <c r="B35" s="3" t="b">
         <v>1</v>
@@ -3234,19 +3259,19 @@
         <v>1</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="1"/>
@@ -3267,7 +3292,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="3" t="b">
         <v>1</v>
       </c>
@@ -3275,13 +3300,13 @@
         <v>2</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>14</v>
@@ -3306,7 +3331,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="39"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="3" t="b">
         <v>1</v>
       </c>
@@ -3314,13 +3339,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>14</v>
@@ -3345,7 +3370,7 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="39"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="3" t="b">
         <v>0</v>
       </c>
@@ -3353,19 +3378,19 @@
         <v>4</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="1"/>
@@ -3386,7 +3411,7 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="3" t="b">
         <v>0</v>
       </c>
@@ -3394,13 +3419,13 @@
         <v>5</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>14</v>
@@ -3425,7 +3450,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="39"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="3" t="b">
         <v>0</v>
       </c>
@@ -3433,19 +3458,19 @@
         <v>6</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="1"/>
@@ -3466,7 +3491,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="39"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="3" t="b">
         <v>0</v>
       </c>
@@ -3474,17 +3499,17 @@
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="1"/>
@@ -3559,17 +3584,17 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="42" t="s">
-        <v>79</v>
+      <c r="A44" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="B44" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>12</v>
@@ -3581,7 +3606,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="1"/>
@@ -3602,7 +3627,7 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="39"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="3" t="b">
         <v>0</v>
       </c>
@@ -3610,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>12</v>
@@ -3620,7 +3645,7 @@
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
@@ -3641,15 +3666,15 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="39"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>12</v>
@@ -3659,7 +3684,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="1"/>
@@ -3680,21 +3705,21 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>14</v>
@@ -3719,21 +3744,21 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="2">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>14</v>
@@ -3758,7 +3783,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="3" t="b">
         <v>0</v>
       </c>
@@ -3766,19 +3791,19 @@
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
@@ -3799,21 +3824,21 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="2">
         <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>14</v>
@@ -3838,25 +3863,25 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="2">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
@@ -3877,7 +3902,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52" s="39"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="3" t="b">
         <v>0</v>
       </c>
@@ -3885,17 +3910,17 @@
         <v>9</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="1"/>
@@ -3916,7 +3941,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="3" t="b">
         <v>0</v>
       </c>
@@ -3924,13 +3949,13 @@
         <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
@@ -3953,7 +3978,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="3" t="b">
         <v>0</v>
       </c>
@@ -3961,13 +3986,13 @@
         <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="F54" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
@@ -4040,29 +4065,30 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57" s="44" t="s">
-        <v>97</v>
+      <c r="A57" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="B57" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C57" s="2">
+        <f>ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="1"/>
@@ -4083,25 +4109,26 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="39"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C58" s="2">
+        <f t="shared" ref="C58:C68" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
@@ -4122,27 +4149,28 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A59" s="39"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C59" s="2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
@@ -4163,25 +4191,26 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="39"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C60" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="1"/>
@@ -4202,25 +4231,26 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="39"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C61" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
@@ -4241,27 +4271,28 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="39"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C62" s="2">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="1"/>
@@ -4281,29 +4312,26 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" s="41"/>
       <c r="B63" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C63" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="E63" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>110</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="21"/>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4322,26 +4350,29 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="39"/>
+    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
       <c r="B64" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C64" s="2">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="21" t="s">
-        <v>111</v>
+        <v>25</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
@@ -4362,27 +4393,26 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="39"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C65" s="2">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="F65" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="3"/>
       <c r="H65" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
@@ -4402,28 +4432,29 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A66" s="41"/>
       <c r="B66" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C66" s="2">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="22" t="s">
-        <v>115</v>
+      <c r="H66" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
@@ -4444,25 +4475,28 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C67" s="2">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H67" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
@@ -4483,14 +4517,27 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="1"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G68" s="3"/>
-      <c r="H68" s="4"/>
+      <c r="H68" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -4536,31 +4583,15 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>118</v>
-      </c>
+    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -4580,15 +4611,17 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="39"/>
+      <c r="A71" s="42" t="s">
+        <v>116</v>
+      </c>
       <c r="B71" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
         <v>1</v>
       </c>
-      <c r="C71" s="2">
-        <v>2</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>12</v>
@@ -4600,7 +4633,7 @@
         <v>14</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
@@ -4621,15 +4654,15 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A72" s="39"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>12</v>
@@ -4641,7 +4674,7 @@
         <v>14</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
@@ -4662,15 +4695,15 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A73" s="39"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>12</v>
@@ -4678,9 +4711,11 @@
       <c r="F73" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G73" s="3"/>
+      <c r="G73" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H73" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="1"/>
@@ -4701,15 +4736,15 @@
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="39"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2">
-        <v>5</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>402</v>
+        <v>4</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>399</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>12</v>
@@ -4717,11 +4752,9 @@
       <c r="F74" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G74" s="3"/>
       <c r="H74" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
@@ -4742,27 +4775,27 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A75" s="39"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="34" t="s">
-        <v>26</v>
+      <c r="F75" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
@@ -4782,28 +4815,28 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
+    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A76" s="41"/>
       <c r="B76" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H76" s="22" t="s">
-        <v>124</v>
+      <c r="H76" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
@@ -4823,28 +4856,28 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A77" s="39"/>
+    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
       <c r="B77" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="21" t="s">
-        <v>126</v>
+      <c r="H77" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="1"/>
@@ -4864,26 +4897,28 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
+    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A78" s="41"/>
       <c r="B78" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E78" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="22" t="s">
-        <v>128</v>
+        <v>25</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="1"/>
@@ -4903,26 +4938,26 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A79" s="39"/>
+    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="41"/>
       <c r="B79" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G79" s="3"/>
-      <c r="H79" s="21" t="s">
-        <v>130</v>
+      <c r="H79" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="1"/>
@@ -4942,28 +4977,26 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
+    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A80" s="41"/>
       <c r="B80" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C80" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="22" t="s">
-        <v>132</v>
+        <v>25</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="1"/>
@@ -4984,25 +5017,27 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H81" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1"/>
@@ -5023,27 +5058,25 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E82" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="F82" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="3"/>
       <c r="H82" s="22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="1"/>
@@ -5064,14 +5097,28 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="4"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>13</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="I83" s="3"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -5117,31 +5164,15 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A85" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="21" t="s">
-        <v>139</v>
-      </c>
+    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="3"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -5160,16 +5191,18 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
+    <row r="86" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A86" s="43" t="s">
+        <v>136</v>
+      </c>
       <c r="B86" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>12</v>
@@ -5180,8 +5213,8 @@
       <c r="G86" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="22" t="s">
-        <v>141</v>
+      <c r="H86" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="1"/>
@@ -5201,16 +5234,16 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A87" s="39"/>
+    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="41"/>
       <c r="B87" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>12</v>
@@ -5221,8 +5254,8 @@
       <c r="G87" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="21" t="s">
-        <v>143</v>
+      <c r="H87" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="1"/>
@@ -5243,15 +5276,15 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A88" s="39"/>
+      <c r="A88" s="41"/>
       <c r="B88" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>12</v>
@@ -5263,7 +5296,7 @@
         <v>14</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="1"/>
@@ -5284,15 +5317,15 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A89" s="39"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C89" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>12</v>
@@ -5304,7 +5337,7 @@
         <v>14</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="1"/>
@@ -5325,15 +5358,15 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A90" s="39"/>
+      <c r="A90" s="41"/>
       <c r="B90" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C90" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>12</v>
@@ -5341,9 +5374,11 @@
       <c r="F90" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G90" s="3"/>
+      <c r="G90" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H90" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="1"/>
@@ -5363,16 +5398,16 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
+    <row r="91" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A91" s="41"/>
       <c r="B91" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>12</v>
@@ -5381,8 +5416,8 @@
         <v>13</v>
       </c>
       <c r="G91" s="3"/>
-      <c r="H91" s="22" t="s">
-        <v>151</v>
+      <c r="H91" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="1"/>
@@ -5402,28 +5437,26 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A92" s="39"/>
+    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="41"/>
       <c r="B92" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="21" t="s">
-        <v>153</v>
+      <c r="F92" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="1"/>
@@ -5444,27 +5477,27 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A93" s="39"/>
+      <c r="A93" s="41"/>
       <c r="B93" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E93" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H93" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="1"/>
@@ -5485,27 +5518,27 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A94" s="39"/>
+      <c r="A94" s="41"/>
       <c r="B94" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C94" s="17">
-        <v>10</v>
+      <c r="C94" s="2">
+        <v>9</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H94" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="1"/>
@@ -5525,28 +5558,28 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
+    <row r="95" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A95" s="41"/>
       <c r="B95" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C95" s="2">
-        <v>11</v>
+      <c r="C95" s="17">
+        <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H95" s="22" t="s">
-        <v>159</v>
+      <c r="H95" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="1"/>
@@ -5566,28 +5599,28 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A96" s="39"/>
+    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="41"/>
       <c r="B96" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C96" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H96" s="21" t="s">
-        <v>161</v>
+      <c r="H96" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="1"/>
@@ -5608,25 +5641,27 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A97" s="39"/>
+      <c r="A97" s="41"/>
       <c r="B97" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C97" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H97" s="21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="1"/>
@@ -5647,27 +5682,25 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A98" s="39"/>
+      <c r="A98" s="41"/>
       <c r="B98" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C98" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G98" s="3"/>
       <c r="H98" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="1"/>
@@ -5687,28 +5720,28 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
+    <row r="99" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A99" s="41"/>
       <c r="B99" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C99" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F99" s="36" t="s">
-        <v>61</v>
+      <c r="F99" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="22" t="s">
-        <v>167</v>
+      <c r="H99" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="1"/>
@@ -5729,14 +5762,28 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="17"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2">
+        <v>15</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>166</v>
+      </c>
       <c r="I100" s="3"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -5763,7 +5810,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="1"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="4"/>
+      <c r="H101" s="17"/>
       <c r="I101" s="3"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -5783,30 +5830,14 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="B102" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C102" s="2">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="22" t="s">
-        <v>169</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -5826,15 +5857,17 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
+      <c r="A103" s="43" t="s">
+        <v>167</v>
+      </c>
       <c r="B103" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C103" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>12</v>
@@ -5842,11 +5875,11 @@
       <c r="F103" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
@@ -5867,15 +5900,15 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C104" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>12</v>
@@ -5887,7 +5920,7 @@
         <v>14</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
@@ -5907,16 +5940,16 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A105" s="39"/>
+    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A105" s="41"/>
       <c r="B105" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C105" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>12</v>
@@ -5924,9 +5957,11 @@
       <c r="F105" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="21" t="s">
-        <v>172</v>
+      <c r="G105" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
@@ -5946,16 +5981,16 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
+    <row r="106" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A106" s="41"/>
       <c r="B106" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C106" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>12</v>
@@ -5963,11 +5998,9 @@
       <c r="F106" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H106" s="22" t="s">
-        <v>174</v>
+      <c r="G106" s="3"/>
+      <c r="H106" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
@@ -5987,16 +6020,16 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A107" s="39"/>
+    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
       <c r="B107" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C107" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>12</v>
@@ -6004,11 +6037,11 @@
       <c r="F107" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="21" t="s">
-        <v>175</v>
+      <c r="G107" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H107" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
@@ -6028,16 +6061,16 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
+    <row r="108" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A108" s="41"/>
       <c r="B108" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C108" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>12</v>
@@ -6048,8 +6081,8 @@
       <c r="G108" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H108" s="22" t="s">
-        <v>176</v>
+      <c r="H108" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
@@ -6070,15 +6103,15 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
+      <c r="A109" s="41"/>
       <c r="B109" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C109" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>12</v>
@@ -6090,7 +6123,7 @@
         <v>14</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
@@ -6110,16 +6143,16 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A110" s="39"/>
+    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A110" s="41"/>
       <c r="B110" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C110" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>12</v>
@@ -6127,9 +6160,11 @@
       <c r="F110" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="21" t="s">
-        <v>178</v>
+      <c r="G110" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
@@ -6150,15 +6185,15 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A111" s="39"/>
+      <c r="A111" s="41"/>
       <c r="B111" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C111" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>12</v>
@@ -6166,11 +6201,9 @@
       <c r="F111" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G111" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G111" s="3"/>
       <c r="H111" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
@@ -6191,15 +6224,15 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A112" s="39"/>
+      <c r="A112" s="41"/>
       <c r="B112" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C112" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>12</v>
@@ -6207,9 +6240,11 @@
       <c r="F112" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G112" s="3"/>
+      <c r="G112" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H112" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
@@ -6230,27 +6265,25 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A113" s="39"/>
+      <c r="A113" s="41"/>
       <c r="B113" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C113" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="F113" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="3"/>
       <c r="H113" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6271,25 +6304,27 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A114" s="39"/>
+      <c r="A114" s="41"/>
       <c r="B114" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C114" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H114" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
@@ -6310,25 +6345,25 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A115" s="39"/>
+      <c r="A115" s="41"/>
       <c r="B115" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C115" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1"/>
@@ -6349,27 +6384,25 @@
       <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A116" s="39"/>
+      <c r="A116" s="41"/>
       <c r="B116" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C116" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G116" s="3"/>
       <c r="H116" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="1"/>
@@ -6390,27 +6423,27 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A117" s="39"/>
+      <c r="A117" s="41"/>
       <c r="B117" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>185</v>
+        <v>417</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
@@ -6431,27 +6464,27 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A118" s="39"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>420</v>
+        <v>184</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H118" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6472,27 +6505,27 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A119" s="39"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C119" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>188</v>
+        <v>418</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H119" s="21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6512,26 +6545,28 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
+    <row r="120" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A120" s="41"/>
       <c r="B120" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C120" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="22" t="s">
-        <v>191</v>
+        <v>25</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
@@ -6552,27 +6587,25 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C121" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>421</v>
+        <v>189</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G121" s="3"/>
       <c r="H121" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
@@ -6593,27 +6626,27 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>193</v>
+        <v>419</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H122" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6633,26 +6666,28 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A123" s="39"/>
+    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="41"/>
       <c r="B123" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="21" t="s">
-        <v>196</v>
+        <v>25</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6673,25 +6708,25 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A124" s="39"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C124" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E124" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E124" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="36" t="s">
-        <v>61</v>
+      <c r="F124" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6712,25 +6747,25 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A125" s="39"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E125" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E125" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6751,23 +6786,26 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A126" s="41"/>
       <c r="B126" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" s="2">
-        <v>25</v>
-      </c>
-      <c r="D126" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="E126" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E126" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="31" t="s">
-        <v>26</v>
+      <c r="F126" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="G126" s="3"/>
-      <c r="H126" s="21"/>
+      <c r="H126" s="21" t="s">
+        <v>198</v>
+      </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -6791,16 +6829,16 @@
         <v>1</v>
       </c>
       <c r="C127" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="E127" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E127" s="33" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="21"/>
@@ -6822,15 +6860,24 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="1"/>
+    <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="B128" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2">
+        <v>26</v>
+      </c>
+      <c r="D128" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="G128" s="3"/>
-      <c r="H128" s="4"/>
+      <c r="H128" s="21"/>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -6849,29 +6896,15 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A129" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="B129" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C129" s="2">
-        <v>1</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="35" t="s">
-        <v>13</v>
-      </c>
+    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="1"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="21" t="s">
-        <v>202</v>
-      </c>
+      <c r="H129" s="4"/>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -6890,16 +6923,18 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
+    <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A130" s="43" t="s">
+        <v>199</v>
+      </c>
       <c r="B130" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" s="2">
         <v>1</v>
       </c>
-      <c r="C130" s="2">
-        <v>2</v>
-      </c>
       <c r="D130" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>12</v>
@@ -6907,11 +6942,9 @@
       <c r="F130" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G130" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" s="22" t="s">
-        <v>204</v>
+      <c r="G130" s="3"/>
+      <c r="H130" s="21" t="s">
+        <v>201</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
@@ -6931,28 +6964,28 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A131" s="39"/>
+    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="41"/>
       <c r="B131" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C131" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="34" t="s">
-        <v>26</v>
+      <c r="F131" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H131" s="21" t="s">
-        <v>206</v>
+      <c r="H131" s="22" t="s">
+        <v>203</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="1"/>
@@ -6973,27 +7006,27 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A132" s="39"/>
+      <c r="A132" s="41"/>
       <c r="B132" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C132" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G132" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H132" s="21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
@@ -7014,27 +7047,27 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A133" s="39"/>
+      <c r="A133" s="41"/>
       <c r="B133" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G133" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H133" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
@@ -7054,28 +7087,28 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
+    <row r="134" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A134" s="41"/>
       <c r="B134" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E134" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E134" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G134" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H134" s="22" t="s">
-        <v>212</v>
+      <c r="H134" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
@@ -7096,27 +7129,27 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
+      <c r="A135" s="41"/>
       <c r="B135" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E135" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E135" s="29" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G135" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H135" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
@@ -7136,28 +7169,28 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A136" s="39"/>
+    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
       <c r="B136" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C136" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G136" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H136" s="21" t="s">
-        <v>216</v>
+      <c r="H136" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
@@ -7177,28 +7210,28 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
+    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A137" s="41"/>
       <c r="B137" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C137" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F137" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H137" s="22" t="s">
-        <v>218</v>
+      <c r="H137" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
@@ -7218,26 +7251,28 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A138" s="39"/>
+    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
       <c r="B138" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F138" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="21" t="s">
-        <v>220</v>
+        <v>25</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
@@ -7258,27 +7293,25 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A139" s="39"/>
+      <c r="A139" s="41"/>
       <c r="B139" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G139" s="3"/>
       <c r="H139" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
@@ -7299,27 +7332,27 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A140" s="39"/>
+      <c r="A140" s="41"/>
       <c r="B140" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C140" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G140" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H140" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7339,28 +7372,28 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
+    <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A141" s="41"/>
       <c r="B141" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C141" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F141" s="36" t="s">
-        <v>61</v>
+      <c r="F141" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H141" s="22" t="s">
-        <v>226</v>
+      <c r="H141" s="21" t="s">
+        <v>223</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7381,25 +7414,27 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="39"/>
+      <c r="A142" s="41"/>
       <c r="B142" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C142" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G142" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H142" s="22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7419,28 +7454,26 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A143" s="39"/>
+    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A143" s="41"/>
       <c r="B143" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C143" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F143" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H143" s="21" t="s">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="G143" s="3"/>
+      <c r="H143" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7460,15 +7493,29 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="4"/>
+    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A144" s="41"/>
+      <c r="B144" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" s="2">
+        <v>15</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" s="21" t="s">
+        <v>229</v>
+      </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -7514,29 +7561,15 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A146" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="B146" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C146" s="2">
-        <v>1</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E146" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="F146" s="35" t="s">
-        <v>13</v>
-      </c>
+    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="1"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="21" t="s">
-        <v>234</v>
-      </c>
+      <c r="H146" s="4"/>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -7556,25 +7589,27 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="39"/>
+      <c r="A147" s="43" t="s">
+        <v>230</v>
+      </c>
       <c r="B147" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C147" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E147" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="F147" s="34" t="s">
-        <v>26</v>
+        <v>231</v>
+      </c>
+      <c r="E147" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F147" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
@@ -7595,25 +7630,25 @@
       <c r="Y147" s="1"/>
     </row>
     <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" s="39"/>
+      <c r="A148" s="41"/>
       <c r="B148" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C148" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F148" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="21" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7634,25 +7669,25 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A149" s="39"/>
+      <c r="A149" s="41"/>
       <c r="B149" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C149" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E149" s="30" t="s">
-        <v>242</v>
+        <v>237</v>
+      </c>
+      <c r="E149" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="F149" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="21" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7673,25 +7708,25 @@
       <c r="Y149" s="1"/>
     </row>
     <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A150" s="39"/>
+      <c r="A150" s="41"/>
       <c r="B150" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E150" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="F150" s="36" t="s">
-        <v>61</v>
+        <v>240</v>
+      </c>
+      <c r="E150" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F150" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="21" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7711,26 +7746,26 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
+    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A151" s="41"/>
       <c r="B151" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C151" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F151" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G151" s="3"/>
-      <c r="H151" s="22" t="s">
-        <v>249</v>
+      <c r="H151" s="21" t="s">
+        <v>245</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
@@ -7751,14 +7786,26 @@
       <c r="Y151" s="1"/>
     </row>
     <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="1"/>
+      <c r="A152" s="41"/>
+      <c r="B152" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C152" s="2">
+        <v>6</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E152" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F152" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G152" s="3"/>
-      <c r="H152" s="4"/>
+      <c r="H152" s="22" t="s">
+        <v>248</v>
+      </c>
       <c r="I152" s="3"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -7804,29 +7851,15 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A154" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B154" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C154" s="2">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E154" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="F154" s="35" t="s">
-        <v>13</v>
-      </c>
+    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="1"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="21" t="s">
-        <v>252</v>
-      </c>
+      <c r="H154" s="4"/>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -7846,25 +7879,27 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A155" s="39"/>
+      <c r="A155" s="43" t="s">
+        <v>249</v>
+      </c>
       <c r="B155" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C155" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="F155" s="34" t="s">
-        <v>26</v>
+        <v>250</v>
+      </c>
+      <c r="F155" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
@@ -7884,26 +7919,26 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
+    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A156" s="41"/>
       <c r="B156" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C156" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F156" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G156" s="3"/>
-      <c r="H156" s="22" t="s">
-        <v>258</v>
+      <c r="H156" s="21" t="s">
+        <v>254</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
@@ -7923,26 +7958,26 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A157" s="39"/>
+    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A157" s="41"/>
       <c r="B157" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C157" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F157" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G157" s="3"/>
-      <c r="H157" s="21" t="s">
-        <v>261</v>
+      <c r="H157" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -7962,26 +7997,26 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="39"/>
+    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A158" s="41"/>
       <c r="B158" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C158" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F158" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G158" s="3"/>
-      <c r="H158" s="22" t="s">
-        <v>258</v>
+      <c r="H158" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8002,14 +8037,26 @@
       <c r="Y158" s="1"/>
     </row>
     <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="23"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="1"/>
+      <c r="A159" s="41"/>
+      <c r="B159" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C159" s="2">
+        <v>5</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E159" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F159" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="G159" s="3"/>
-      <c r="H159" s="4"/>
+      <c r="H159" s="22" t="s">
+        <v>257</v>
+      </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -8029,7 +8076,7 @@
       <c r="Y159" s="1"/>
     </row>
     <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
+      <c r="A160" s="23"/>
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="1"/>
@@ -8055,29 +8102,15 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A161" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="B161" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C161" s="2">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E161" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="F161" s="35" t="s">
-        <v>13</v>
-      </c>
+    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="1"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="21" t="s">
-        <v>267</v>
-      </c>
+      <c r="H161" s="4"/>
       <c r="I161" s="3"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -8097,25 +8130,27 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="39"/>
+      <c r="A162" s="43" t="s">
+        <v>263</v>
+      </c>
       <c r="B162" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C162" s="2">
         <v>1</v>
       </c>
-      <c r="C162" s="2">
-        <v>2</v>
-      </c>
       <c r="D162" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E162" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="F162" s="34" t="s">
-        <v>26</v>
+        <v>264</v>
+      </c>
+      <c r="E162" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F162" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
@@ -8136,25 +8171,25 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="39"/>
+      <c r="A163" s="41"/>
       <c r="B163" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C163" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F163" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
@@ -8175,25 +8210,25 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A164" s="39"/>
+      <c r="A164" s="41"/>
       <c r="B164" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E164" s="25" t="s">
-        <v>274</v>
+        <v>270</v>
+      </c>
+      <c r="E164" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="F164" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
@@ -8214,25 +8249,25 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="39"/>
+      <c r="A165" s="41"/>
       <c r="B165" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F165" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8253,25 +8288,25 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A166" s="39"/>
+      <c r="A166" s="41"/>
       <c r="B166" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F166" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="21" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
@@ -8292,25 +8327,25 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A167" s="39"/>
+      <c r="A167" s="41"/>
       <c r="B167" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E167" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+      <c r="E167" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="F167" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1"/>
@@ -8331,25 +8366,25 @@
       <c r="Y167" s="1"/>
     </row>
     <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A168" s="39"/>
+      <c r="A168" s="41"/>
       <c r="B168" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E168" s="30" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F168" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="1"/>
@@ -8370,25 +8405,25 @@
       <c r="Y168" s="1"/>
     </row>
     <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A169" s="39"/>
+      <c r="A169" s="41"/>
       <c r="B169" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C169" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E169" s="25" t="s">
-        <v>286</v>
+        <v>281</v>
+      </c>
+      <c r="E169" s="30" t="s">
+        <v>282</v>
       </c>
       <c r="F169" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="1"/>
@@ -8408,26 +8443,26 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
+    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A170" s="41"/>
       <c r="B170" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C170" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F170" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G170" s="3"/>
-      <c r="H170" s="22" t="s">
-        <v>290</v>
+      <c r="H170" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
@@ -8447,26 +8482,26 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="39"/>
+    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A171" s="41"/>
       <c r="B171" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C171" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F171" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G171" s="3"/>
-      <c r="H171" s="21" t="s">
-        <v>293</v>
+      <c r="H171" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
@@ -8487,25 +8522,25 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A172" s="39"/>
+      <c r="A172" s="41"/>
       <c r="B172" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C172" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F172" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8526,25 +8561,25 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A173" s="39"/>
+      <c r="A173" s="41"/>
       <c r="B173" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C173" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E173" s="30" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>294</v>
       </c>
       <c r="F173" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
@@ -8565,25 +8600,25 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A174" s="39"/>
+      <c r="A174" s="41"/>
       <c r="B174" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C174" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>301</v>
+        <v>296</v>
+      </c>
+      <c r="E174" s="30" t="s">
+        <v>297</v>
       </c>
       <c r="F174" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8604,25 +8639,25 @@
       <c r="Y174" s="1"/>
     </row>
     <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A175" s="39"/>
+      <c r="A175" s="41"/>
       <c r="B175" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C175" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F175" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
@@ -8643,25 +8678,25 @@
       <c r="Y175" s="1"/>
     </row>
     <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A176" s="39"/>
+      <c r="A176" s="41"/>
       <c r="B176" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C176" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>305</v>
+        <v>161</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F176" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="21" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
@@ -8682,25 +8717,25 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A177" s="39"/>
+      <c r="A177" s="41"/>
       <c r="B177" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C177" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F177" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="21" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
@@ -8720,26 +8755,26 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A178" s="39"/>
+    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A178" s="41"/>
       <c r="B178" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C178" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="F178" s="36" t="s">
-        <v>61</v>
+        <v>308</v>
+      </c>
+      <c r="F178" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G178" s="3"/>
-      <c r="H178" s="22" t="s">
-        <v>313</v>
+      <c r="H178" s="21" t="s">
+        <v>309</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
@@ -8759,26 +8794,26 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="39"/>
+    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A179" s="41"/>
       <c r="B179" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C179" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="F179" s="34" t="s">
-        <v>26</v>
+        <v>311</v>
+      </c>
+      <c r="F179" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="G179" s="3"/>
-      <c r="H179" s="21" t="s">
-        <v>316</v>
+      <c r="H179" s="22" t="s">
+        <v>312</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
@@ -8799,25 +8834,25 @@
       <c r="Y179" s="1"/>
     </row>
     <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A180" s="39"/>
+      <c r="A180" s="41"/>
       <c r="B180" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="F180" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -8838,25 +8873,25 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="39"/>
+      <c r="A181" s="41"/>
       <c r="B181" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="F181" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -8877,25 +8912,25 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A182" s="39"/>
+      <c r="A182" s="41"/>
       <c r="B182" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C182" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F182" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="21" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -8915,26 +8950,26 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A183" s="39"/>
+    <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A183" s="41"/>
       <c r="B183" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C183" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F183" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G183" s="3"/>
-      <c r="H183" s="22" t="s">
-        <v>327</v>
+      <c r="H183" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -8955,25 +8990,25 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A184" s="39"/>
+      <c r="A184" s="41"/>
       <c r="B184" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C184" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="F184" s="36" t="s">
-        <v>61</v>
+        <v>325</v>
+      </c>
+      <c r="F184" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -8994,25 +9029,25 @@
       <c r="Y184" s="1"/>
     </row>
     <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A185" s="39"/>
+      <c r="A185" s="41"/>
       <c r="B185" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C185" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F185" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9032,26 +9067,26 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A186" s="39"/>
+    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A186" s="41"/>
       <c r="B186" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C186" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="F186" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="21" t="s">
-        <v>335</v>
+      <c r="H186" s="22" t="s">
+        <v>332</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9071,23 +9106,27 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1" t="s">
-        <v>397</v>
+    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A187" s="41"/>
+      <c r="B187" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C187" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E187" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="F187" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="E187" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="F187" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G187" s="3"/>
-      <c r="H187" s="4"/>
+      <c r="H187" s="21" t="s">
+        <v>334</v>
+      </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -9108,10 +9147,18 @@
     </row>
     <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="3"/>
+      <c r="B188" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C188" s="2">
+        <v>27</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E188" s="30" t="s">
+        <v>394</v>
+      </c>
       <c r="F188" s="1"/>
       <c r="G188" s="3"/>
       <c r="H188" s="4"/>
@@ -9133,29 +9180,15 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="B189" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C189" s="2">
-        <v>1</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F189" s="35" t="s">
-        <v>13</v>
-      </c>
+    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="1"/>
       <c r="G189" s="3"/>
-      <c r="H189" s="21" t="s">
-        <v>338</v>
-      </c>
+      <c r="H189" s="4"/>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -9175,25 +9208,27 @@
       <c r="Y189" s="1"/>
     </row>
     <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A190" s="39"/>
+      <c r="A190" s="43" t="s">
+        <v>335</v>
+      </c>
       <c r="B190" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C190" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F190" s="34" t="s">
-        <v>26</v>
+      <c r="F190" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
@@ -9213,26 +9248,26 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A191" s="39"/>
+    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A191" s="41"/>
       <c r="B191" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C191" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F191" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G191" s="3"/>
-      <c r="H191" s="22" t="s">
-        <v>342</v>
+      <c r="H191" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9253,25 +9288,25 @@
       <c r="Y191" s="1"/>
     </row>
     <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A192" s="39"/>
+      <c r="A192" s="41"/>
       <c r="B192" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F192" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="22" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9291,26 +9326,26 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A193" s="39"/>
+    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A193" s="41"/>
       <c r="B193" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C193" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F193" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="21" t="s">
-        <v>346</v>
+      <c r="H193" s="22" t="s">
+        <v>343</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
@@ -9331,25 +9366,25 @@
       <c r="Y193" s="1"/>
     </row>
     <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A194" s="39"/>
+      <c r="A194" s="41"/>
       <c r="B194" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C194" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F194" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="21" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
@@ -9370,25 +9405,25 @@
       <c r="Y194" s="1"/>
     </row>
     <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A195" s="39"/>
+      <c r="A195" s="41"/>
       <c r="B195" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C195" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F195" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
@@ -9408,26 +9443,26 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="39"/>
+    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A196" s="41"/>
       <c r="B196" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C196" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F196" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G196" s="3"/>
-      <c r="H196" s="22" t="s">
-        <v>352</v>
+      <c r="H196" s="21" t="s">
+        <v>349</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
@@ -9447,26 +9482,26 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A197" s="39"/>
+    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A197" s="41"/>
       <c r="B197" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C197" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F197" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G197" s="3"/>
-      <c r="H197" s="21" t="s">
-        <v>354</v>
+      <c r="H197" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
@@ -9487,25 +9522,25 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A198" s="39"/>
+      <c r="A198" s="41"/>
       <c r="B198" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F198" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
@@ -9525,26 +9560,26 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A199" s="39"/>
+    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A199" s="41"/>
       <c r="B199" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F199" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="22" t="s">
-        <v>358</v>
+      <c r="H199" s="21" t="s">
+        <v>355</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
@@ -9564,26 +9599,26 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A200" s="39"/>
+    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A200" s="41"/>
       <c r="B200" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F200" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="21" t="s">
-        <v>360</v>
+      <c r="H200" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
@@ -9604,25 +9639,25 @@
       <c r="Y200" s="1"/>
     </row>
     <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A201" s="39"/>
+      <c r="A201" s="41"/>
       <c r="B201" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C201" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F201" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="21" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
@@ -9643,25 +9678,25 @@
       <c r="Y201" s="1"/>
     </row>
     <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A202" s="39"/>
+      <c r="A202" s="41"/>
       <c r="B202" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C202" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F202" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9681,26 +9716,26 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A203" s="39"/>
+    <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A203" s="41"/>
       <c r="B203" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G203" s="3"/>
-      <c r="H203" s="22" t="s">
-        <v>366</v>
+      <c r="H203" s="21" t="s">
+        <v>363</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9721,25 +9756,25 @@
       <c r="Y203" s="1"/>
     </row>
     <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="39"/>
+      <c r="A204" s="41"/>
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F204" s="36" t="s">
-        <v>61</v>
+      <c r="F204" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="22" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9760,25 +9795,25 @@
       <c r="Y204" s="1"/>
     </row>
     <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A205" s="39"/>
+      <c r="A205" s="41"/>
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F205" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9799,25 +9834,25 @@
       <c r="Y205" s="1"/>
     </row>
     <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A206" s="39"/>
+      <c r="A206" s="41"/>
       <c r="B206" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C206" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F206" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="22" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -9837,26 +9872,26 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A207" s="39"/>
+    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A207" s="41"/>
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F207" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="21" t="s">
-        <v>374</v>
+      <c r="H207" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -9877,25 +9912,25 @@
       <c r="Y207" s="1"/>
     </row>
     <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A208" s="39"/>
+      <c r="A208" s="41"/>
       <c r="B208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="21" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -9915,26 +9950,26 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A209" s="39"/>
+    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A209" s="41"/>
       <c r="B209" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F209" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="22" t="s">
-        <v>378</v>
+      <c r="H209" s="21" t="s">
+        <v>375</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -9955,14 +9990,26 @@
       <c r="Y209" s="1"/>
     </row>
     <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="1"/>
+      <c r="A210" s="41"/>
+      <c r="B210" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C210" s="2">
+        <v>21</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="4"/>
+      <c r="H210" s="22" t="s">
+        <v>377</v>
+      </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -10009,28 +10056,14 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A212" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="B212" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C212" s="2">
-        <v>1</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E212" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" s="35" t="s">
-        <v>13</v>
-      </c>
+      <c r="A212" s="1"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="1"/>
       <c r="G212" s="3"/>
-      <c r="H212" s="22" t="s">
-        <v>381</v>
-      </c>
+      <c r="H212" s="4"/>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -10049,26 +10082,28 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A213" s="39"/>
+    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A213" s="43" t="s">
+        <v>378</v>
+      </c>
       <c r="B213" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F213" s="34" t="s">
-        <v>26</v>
+      <c r="F213" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G213" s="3"/>
-      <c r="H213" s="21" t="s">
-        <v>383</v>
+      <c r="H213" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10089,25 +10124,25 @@
       <c r="Y213" s="1"/>
     </row>
     <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A214" s="39"/>
+      <c r="A214" s="41"/>
       <c r="B214" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10128,25 +10163,25 @@
       <c r="Y214" s="1"/>
     </row>
     <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A215" s="39"/>
+      <c r="A215" s="41"/>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F215" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="21" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10167,25 +10202,25 @@
       <c r="Y215" s="1"/>
     </row>
     <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A216" s="39"/>
+      <c r="A216" s="41"/>
       <c r="B216" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F216" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="27" t="s">
-        <v>389</v>
+      <c r="H216" s="21" t="s">
+        <v>386</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10206,25 +10241,25 @@
       <c r="Y216" s="1"/>
     </row>
     <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A217" s="39"/>
+      <c r="A217" s="41"/>
       <c r="B217" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F217" s="36" t="s">
-        <v>61</v>
+      <c r="F217" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="21" t="s">
-        <v>391</v>
+      <c r="H217" s="27" t="s">
+        <v>388</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10244,15 +10279,27 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="1"/>
+    <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A218" s="41"/>
+      <c r="B218" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C218" s="2">
+        <v>6</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G218" s="3"/>
-      <c r="H218" s="4"/>
+      <c r="H218" s="21" t="s">
+        <v>390</v>
+      </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -31466,298 +31513,325 @@
       <c r="X1003" s="1"/>
       <c r="Y1003" s="1"/>
     </row>
+    <row r="1004" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="3"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="3"/>
+      <c r="H1004" s="4"/>
+      <c r="I1004" s="3"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="A189:A209"/>
-    <mergeCell ref="A212:A217"/>
-    <mergeCell ref="A70:A82"/>
-    <mergeCell ref="A85:A99"/>
-    <mergeCell ref="A102:A125"/>
-    <mergeCell ref="A129:A143"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A161:A186"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:A32"/>
+    <mergeCell ref="A7:A32"/>
     <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="A57:A68"/>
+    <mergeCell ref="A190:A210"/>
+    <mergeCell ref="A213:A218"/>
+    <mergeCell ref="A71:A83"/>
+    <mergeCell ref="A86:A100"/>
+    <mergeCell ref="A103:A126"/>
+    <mergeCell ref="A130:A144"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A162:A187"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E15" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E21" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E22" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E23" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E24" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G24" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E25" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E26" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G26" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E28" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E29" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G29" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E30" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G30" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E31" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E32" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G32" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E35" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E36" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G36" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E37" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G37" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E38" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G38" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E39" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G39" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E40" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G40" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E41" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E44" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G44" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E45" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E46" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E47" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G47" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E48" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G48" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E49" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G49" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E50" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G50" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E51" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E52" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E53" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E57" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G57" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E58" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E59" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G59" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E60" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E61" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E62" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G62" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E63" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="G63" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E64" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E65" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G65" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E66" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G66" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E67" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E70" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G70" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E71" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="G71" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E72" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="G72" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E73" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E74" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G74" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E75" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="G75" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E76" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="G76" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E77" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="G77" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E78" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E79" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E80" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="G80" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E81" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E82" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="G82" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E85" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="G85" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E86" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="G86" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E87" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="G87" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E88" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="G88" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E89" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G89" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E90" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E91" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E92" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G92" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E93" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G93" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E94" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G94" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E95" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G95" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E96" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G96" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E97" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E98" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G98" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E99" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G99" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E102" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G102" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E103" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G103" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E104" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G104" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E105" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E106" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G106" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E107" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="G107" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E108" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="G108" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E109" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G109" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E110" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E111" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G111" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E112" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E113" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="G113" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E114" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E115" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E116" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G116" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E117" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G117" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E118" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G118" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E119" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G119" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E120" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E121" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G121" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E122" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G122" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E123" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E124" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E125" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E129" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E130" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G130" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E131" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G131" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E132" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G132" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E133" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="G133" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E134" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G134" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E135" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G135" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E136" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G136" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E137" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G137" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E138" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E139" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G139" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E140" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G140" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E141" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G141" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E142" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E143" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G143" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E146" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E147" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E148" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E149" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E150" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E151" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E154" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E155" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E156" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E157" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E158" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E161" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E162" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E163" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E164" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E165" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E166" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E167" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E168" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E169" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E170" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E171" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E172" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E173" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E174" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E175" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E176" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E177" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E178" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E179" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E180" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E181" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E182" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E183" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E184" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E185" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E186" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E189" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E190" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E191" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E192" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E193" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E194" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E195" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E196" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E197" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E198" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E199" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E200" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E201" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E202" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E203" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E204" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E205" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E206" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E207" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E208" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E209" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E212" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E213" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E214" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E215" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E216" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E217" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E11" r:id="rId269" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="E187" r:id="rId270" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E127" r:id="rId271" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E126" r:id="rId272" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G17" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E24" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G24" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E25" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E26" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G26" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E28" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G30" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E35" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G35" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E36" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G36" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E37" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E38" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G38" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E39" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G39" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E40" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G40" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E41" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E44" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G44" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E45" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E46" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E47" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G47" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E48" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G48" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E49" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G49" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E50" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G50" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E51" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E52" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E53" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E57" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G57" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E58" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E59" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G59" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E60" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E61" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E62" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G62" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E65" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E66" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G66" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E67" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G67" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E68" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E71" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G71" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E72" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G72" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E73" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G73" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E74" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E75" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G75" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E76" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G76" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E77" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G77" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E78" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G78" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E79" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E80" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E81" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="G81" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E82" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E83" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G83" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E86" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G86" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E87" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G87" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E88" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G88" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E89" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G89" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E90" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G90" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E91" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E92" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E93" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G93" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E94" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G94" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E95" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G95" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E96" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G96" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E97" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G97" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E98" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E99" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G99" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E100" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G100" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E103" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G103" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E104" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G104" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E105" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G105" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E106" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E107" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G107" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E108" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G108" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E109" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G109" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E110" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G110" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E111" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E112" r:id="rId149" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G112" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E113" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E114" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G114" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E115" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E116" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E117" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G117" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E118" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G118" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E119" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G119" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E120" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G120" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E121" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E122" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G122" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E123" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G123" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E124" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E125" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E126" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E130" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E131" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G131" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E132" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G132" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E133" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G133" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E134" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="G134" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E135" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G135" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E136" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G136" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E137" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G137" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E138" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G138" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E139" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E140" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G140" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E141" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G141" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E142" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G142" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E143" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E144" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G144" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E147" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E148" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E149" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E150" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E151" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E152" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E155" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E156" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E157" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E158" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E159" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E162" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E163" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E164" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E165" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E166" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E167" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E168" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E169" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E170" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E171" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E172" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E173" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E174" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E175" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E176" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E177" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E178" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E179" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E180" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E181" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E182" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E183" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E184" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E185" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E186" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E187" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E190" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E191" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E192" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E193" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E194" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E195" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E196" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E197" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E198" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E199" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E200" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E201" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E202" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E203" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E204" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E205" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E206" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E207" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E208" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E209" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E210" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E213" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E214" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E215" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E216" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E217" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E218" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E11" r:id="rId263" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
+    <hyperlink ref="E188" r:id="rId264" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E128" r:id="rId265" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E127" r:id="rId266" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G64" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E64" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E63" r:id="rId269" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="G7" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E7" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E6" r:id="rId272" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId273"/>

--- a/DSA for PLACEMENTS.xlsx
+++ b/DSA for PLACEMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33436313-CE57-4AA4-B702-A6F9AC9E1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4616FC-480E-4C5D-98F8-3D415AE5DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="429">
   <si>
     <t>Do NOT send any edit request to this sheet. Instead, make a copy of your own.</t>
   </si>
@@ -1339,6 +1339,15 @@
       </rPr>
       <t xml:space="preserve"> TRUE</t>
     </r>
+  </si>
+  <si>
+    <t>Maximum Twin Sum of a Linked List</t>
+  </si>
+  <si>
+    <t>reverse 2</t>
+  </si>
+  <si>
+    <t>MATHS</t>
   </si>
 </sst>
 </file>
@@ -1690,19 +1699,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1710,7 +1710,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1931,11 +1940,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1004"/>
+  <dimension ref="A1:Y1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71:B83"/>
+      <pane ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1963,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="41"/>
@@ -1983,13 +1992,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="42" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="41"/>
@@ -2110,7 +2119,9 @@
       <c r="B6" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
       <c r="D6" s="32" t="s">
         <v>423</v>
       </c>
@@ -2141,14 +2152,14 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>425</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>11</v>
@@ -2186,7 +2197,7 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="32" t="s">
         <v>425</v>
       </c>
@@ -2229,7 +2240,7 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="32" t="s">
         <v>425</v>
       </c>
@@ -2268,7 +2279,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="32" t="s">
         <v>425</v>
       </c>
@@ -2309,7 +2320,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="32" t="s">
         <v>425</v>
       </c>
@@ -2346,12 +2357,12 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="32" t="s">
         <v>425</v>
       </c>
       <c r="C12" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
@@ -2387,25 +2398,23 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="32" t="s">
         <v>425</v>
       </c>
       <c r="C13" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="3"/>
       <c r="J13" s="1"/>
@@ -2426,15 +2435,15 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
-      <c r="B14" s="3" t="b">
-        <v>0</v>
+      <c r="A14" s="44"/>
+      <c r="B14" s="32" t="s">
+        <v>425</v>
       </c>
       <c r="C14" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>12</v>
@@ -2445,9 +2454,7 @@
       <c r="G14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="3"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2467,15 +2474,15 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>12</v>
@@ -2487,11 +2494,9 @@
         <v>14</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2510,15 +2515,15 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>12</v>
@@ -2529,11 +2534,11 @@
       <c r="G16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>33</v>
+      <c r="H16" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2553,15 +2558,15 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>12</v>
@@ -2572,7 +2577,9 @@
       <c r="G17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="I17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2594,15 +2601,15 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="40"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>12</v>
@@ -2613,9 +2620,9 @@
       <c r="G18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2635,15 +2642,15 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="40"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>12</v>
@@ -2654,11 +2661,9 @@
       <c r="G19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="H19" s="9"/>
       <c r="I19" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2678,15 +2683,15 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="40"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>12</v>
@@ -2694,9 +2699,11 @@
       <c r="F20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H20" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>20</v>
@@ -2719,15 +2726,15 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="40"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>12</v>
@@ -2737,10 +2744,10 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2760,15 +2767,15 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="40"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>12</v>
@@ -2778,10 +2785,10 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2801,15 +2808,15 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>12</v>
@@ -2819,10 +2826,10 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2842,15 +2849,15 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="40"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>12</v>
@@ -2858,13 +2865,13 @@
       <c r="F24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2883,15 +2890,15 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>12</v>
@@ -2899,11 +2906,13 @@
       <c r="F25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2922,15 +2931,15 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="40"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>12</v>
@@ -2938,14 +2947,10 @@
       <c r="F26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2965,15 +2970,31 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="3"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2992,29 +3013,17 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="B28" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="A28" s="44"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="2">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>60</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3033,29 +3042,29 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="40"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3074,17 +3083,17 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="37" t="s">
@@ -3094,11 +3103,9 @@
         <v>14</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3117,26 +3124,30 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="40"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="9"/>
+      <c r="G31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I31" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3155,16 +3166,16 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>12</v>
@@ -3172,11 +3183,11 @@
       <c r="F32" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G32" s="3"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3195,13 +3206,25 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="3"/>
       <c r="J33" s="1"/>
@@ -3249,30 +3272,14 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="3"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3291,16 +3298,18 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="45" t="s">
+        <v>66</v>
+      </c>
       <c r="B36" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>12</v>
@@ -3308,11 +3317,13 @@
       <c r="F36" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
+      <c r="H36" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="3"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3330,16 +3341,16 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>12</v>
@@ -3350,8 +3361,8 @@
       <c r="G37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="3"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3372,13 +3383,13 @@
     <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="41"/>
       <c r="B38" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>12</v>
@@ -3389,9 +3400,7 @@
       <c r="G38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="H38" s="9"/>
       <c r="I38" s="3"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3410,16 +3419,16 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="41"/>
       <c r="B39" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C39" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>12</v>
@@ -3430,7 +3439,9 @@
       <c r="G39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="H39" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3449,16 +3460,16 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C40" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>12</v>
@@ -3469,9 +3480,7 @@
       <c r="G40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="H40" s="17"/>
       <c r="I40" s="3"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3496,20 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C41" s="2">
-        <v>7</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="11" t="s">
-        <v>77</v>
+      <c r="F41" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="1"/>
@@ -3530,14 +3541,26 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="1"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3556,7 +3579,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -3564,7 +3587,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="1"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3583,31 +3606,15 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>80</v>
-      </c>
+    <row r="44" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="3"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3627,15 +3634,17 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="41"/>
+      <c r="A45" s="44" t="s">
+        <v>78</v>
+      </c>
       <c r="B45" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>12</v>
@@ -3643,9 +3652,11 @@
       <c r="F45" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="G45" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H45" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
@@ -3671,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="C46" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>12</v>
@@ -3684,7 +3695,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="1"/>
@@ -3704,27 +3715,27 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="41"/>
       <c r="B47" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="4"/>
+      <c r="F47" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3749,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="C48" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>12</v>
@@ -3788,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="C49" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>12</v>
@@ -3802,9 +3813,7 @@
       <c r="G49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="H49" s="4"/>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3829,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="C50" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>12</v>
@@ -3843,7 +3852,9 @@
       <c r="G50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3868,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="C51" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>12</v>
@@ -3879,10 +3890,10 @@
       <c r="F51" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="G51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="4"/>
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3901,26 +3912,26 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C52" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="36" t="s">
-        <v>60</v>
+      <c r="F52" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="11" t="s">
-        <v>92</v>
+      <c r="H52" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="1"/>
@@ -3940,16 +3951,16 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="41"/>
       <c r="B53" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C53" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>12</v>
@@ -3958,7 +3969,9 @@
         <v>60</v>
       </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="4"/>
+      <c r="H53" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3983,13 +3996,13 @@
         <v>0</v>
       </c>
       <c r="C54" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="F54" s="36" t="s">
         <v>60</v>
@@ -4014,11 +4027,25 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
-      <c r="H55" s="17"/>
+    <row r="55" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
       <c r="I55" s="3"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4037,15 +4064,11 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+    <row r="56" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="17"/>
       <c r="I56" s="3"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4064,32 +4087,15 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2">
-        <f>ROW(A1)</f>
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>98</v>
-      </c>
+    <row r="57" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
       <c r="I57" s="3"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4109,16 +4115,18 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="41"/>
+      <c r="A58" s="46" t="s">
+        <v>96</v>
+      </c>
       <c r="B58" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" ref="C58:C68" si="0">ROW(A2)</f>
-        <v>2</v>
+        <f>ROW(A1)</f>
+        <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>12</v>
@@ -4126,9 +4134,11 @@
       <c r="F58" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="3"/>
+      <c r="G58" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H58" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
@@ -4154,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="C59:C69" si="0">ROW(A2)</f>
+        <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>12</v>
@@ -4166,11 +4176,9 @@
       <c r="F59" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
@@ -4197,10 +4205,10 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>12</v>
@@ -4208,9 +4216,11 @@
       <c r="F60" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="3"/>
+      <c r="G60" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H60" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="1"/>
@@ -4237,10 +4247,10 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>12</v>
@@ -4250,7 +4260,7 @@
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
@@ -4277,10 +4287,10 @@
       </c>
       <c r="C62" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>12</v>
@@ -4288,11 +4298,9 @@
       <c r="F62" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G62" s="3"/>
       <c r="H62" s="21" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="1"/>
@@ -4319,19 +4327,23 @@
       </c>
       <c r="C63" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E63" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="21"/>
+      <c r="G63" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4350,30 +4362,26 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" s="41"/>
       <c r="B64" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="E64" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>109</v>
-      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="21"/>
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4392,17 +4400,17 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>12</v>
@@ -4410,9 +4418,11 @@
       <c r="F65" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="21" t="s">
-        <v>110</v>
+      <c r="G65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
@@ -4439,22 +4449,20 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="F66" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="3"/>
       <c r="H66" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
@@ -4474,17 +4482,17 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="41"/>
       <c r="B67" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>12</v>
@@ -4495,8 +4503,8 @@
       <c r="G67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="22" t="s">
-        <v>114</v>
+      <c r="H67" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
@@ -4523,10 +4531,10 @@
       </c>
       <c r="C68" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>12</v>
@@ -4534,9 +4542,11 @@
       <c r="F68" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G68" s="3"/>
+      <c r="G68" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H68" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
@@ -4557,14 +4567,27 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="1"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="4"/>
+      <c r="H69" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -4610,31 +4633,15 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="21" t="s">
-        <v>117</v>
-      </c>
+    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4654,17 +4661,19 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A72" s="41"/>
+      <c r="A72" s="46" t="s">
+        <v>116</v>
+      </c>
       <c r="B72" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E72" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="35" t="s">
@@ -4674,7 +4683,7 @@
         <v>14</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
@@ -4697,13 +4706,13 @@
     <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="41"/>
       <c r="B73" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>12</v>
@@ -4715,7 +4724,7 @@
         <v>14</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="1"/>
@@ -4738,13 +4747,13 @@
     <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="41"/>
       <c r="B74" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="2">
-        <v>4</v>
-      </c>
-      <c r="D74" s="32" t="s">
-        <v>399</v>
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>12</v>
@@ -4752,9 +4761,11 @@
       <c r="F74" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="3"/>
+      <c r="G74" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H74" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
@@ -4777,25 +4788,23 @@
     <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="41"/>
       <c r="B75" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="2">
-        <v>5</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E75" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="E75" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G75" s="3"/>
       <c r="H75" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
@@ -4818,25 +4827,25 @@
     <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="41"/>
       <c r="B76" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E76" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E76" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="34" t="s">
-        <v>25</v>
+      <c r="F76" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
@@ -4856,16 +4865,16 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="41"/>
       <c r="B77" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>12</v>
@@ -4876,8 +4885,8 @@
       <c r="G77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="22" t="s">
-        <v>123</v>
+      <c r="H77" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="1"/>
@@ -4897,18 +4906,18 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="34" t="s">
@@ -4917,8 +4926,8 @@
       <c r="G78" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="21" t="s">
-        <v>125</v>
+      <c r="H78" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="1"/>
@@ -4938,26 +4947,28 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="41"/>
       <c r="B79" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E79" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="22" t="s">
-        <v>127</v>
+      <c r="G79" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="1"/>
@@ -4980,24 +4991,22 @@
     <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="41"/>
       <c r="B80" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E80" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="21" t="s">
-        <v>129</v>
-      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="21"/>
       <c r="I80" s="3"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -5019,13 +5028,13 @@
     <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>12</v>
@@ -5033,11 +5042,9 @@
       <c r="F81" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G81" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G81" s="3"/>
       <c r="H81" s="22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1"/>
@@ -5057,26 +5064,26 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="41"/>
       <c r="B82" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G82" s="3"/>
-      <c r="H82" s="22" t="s">
-        <v>133</v>
+      <c r="H82" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="1"/>
@@ -5102,22 +5109,22 @@
         <v>0</v>
       </c>
       <c r="C83" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="36" t="s">
-        <v>60</v>
+      <c r="F83" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="1"/>
@@ -5138,14 +5145,26 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="1"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>13</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="G84" s="3"/>
-      <c r="H84" s="4"/>
+      <c r="H84" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="I84" s="3"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -5165,14 +5184,28 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="4"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2">
+        <v>14</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -5191,31 +5224,15 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A86" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="21" t="s">
-        <v>138</v>
-      </c>
+    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="3"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -5235,28 +5252,14 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
-      <c r="B87" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2">
-        <v>2</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="22" t="s">
-        <v>140</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
       <c r="I87" s="3"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5276,15 +5279,17 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A88" s="41"/>
+      <c r="A88" s="47" t="s">
+        <v>136</v>
+      </c>
       <c r="B88" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>12</v>
@@ -5296,7 +5301,7 @@
         <v>14</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="1"/>
@@ -5316,16 +5321,16 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C89" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>12</v>
@@ -5336,8 +5341,8 @@
       <c r="G89" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="21" t="s">
-        <v>144</v>
+      <c r="H89" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="1"/>
@@ -5363,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="C90" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>12</v>
@@ -5378,7 +5383,7 @@
         <v>14</v>
       </c>
       <c r="H90" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="1"/>
@@ -5404,10 +5409,10 @@
         <v>0</v>
       </c>
       <c r="C91" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>12</v>
@@ -5415,9 +5420,11 @@
       <c r="F91" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G91" s="3"/>
+      <c r="G91" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H91" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="1"/>
@@ -5437,16 +5444,16 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" s="41"/>
       <c r="B92" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>12</v>
@@ -5454,9 +5461,11 @@
       <c r="F92" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="22" t="s">
-        <v>150</v>
+      <c r="G92" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="1"/>
@@ -5482,22 +5491,20 @@
         <v>0</v>
       </c>
       <c r="C93" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E93" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="F93" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="3"/>
       <c r="H93" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="1"/>
@@ -5517,28 +5524,26 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="21" t="s">
-        <v>154</v>
+      <c r="F94" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="1"/>
@@ -5563,13 +5568,13 @@
       <c r="B95" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C95" s="17">
-        <v>10</v>
+      <c r="C95" s="2">
+        <v>8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E95" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="34" t="s">
@@ -5579,7 +5584,7 @@
         <v>14</v>
       </c>
       <c r="H95" s="21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="1"/>
@@ -5599,16 +5604,16 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="41"/>
       <c r="B96" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C96" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>12</v>
@@ -5619,8 +5624,8 @@
       <c r="G96" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H96" s="22" t="s">
-        <v>158</v>
+      <c r="H96" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="1"/>
@@ -5645,11 +5650,11 @@
       <c r="B97" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C97" s="2">
-        <v>12</v>
+      <c r="C97" s="17">
+        <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>12</v>
@@ -5661,7 +5666,7 @@
         <v>14</v>
       </c>
       <c r="H97" s="21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="1"/>
@@ -5681,16 +5686,16 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C98" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>12</v>
@@ -5698,9 +5703,11 @@
       <c r="F98" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="21" t="s">
-        <v>162</v>
+      <c r="G98" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="1"/>
@@ -5726,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="C99" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>12</v>
@@ -5741,7 +5748,7 @@
         <v>14</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="1"/>
@@ -5761,28 +5768,26 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="41"/>
       <c r="B100" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C100" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="22" t="s">
-        <v>166</v>
+      <c r="F100" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="1"/>
@@ -5802,15 +5807,29 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="17"/>
+    <row r="101" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A101" s="41"/>
+      <c r="B101" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>14</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="I101" s="3"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -5830,14 +5849,28 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="4"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>15</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="22" t="s">
+        <v>166</v>
+      </c>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -5857,30 +5890,14 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B103" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C103" s="2">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="22" t="s">
-        <v>168</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="17"/>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -5900,28 +5917,14 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="41"/>
-      <c r="B104" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C104" s="2">
-        <v>2</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="22" t="s">
-        <v>169</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="4"/>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -5941,15 +5944,17 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="41"/>
+      <c r="A105" s="47" t="s">
+        <v>167</v>
+      </c>
       <c r="B105" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C105" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>12</v>
@@ -5957,11 +5962,11 @@
       <c r="F105" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G105" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
@@ -5981,16 +5986,16 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C106" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>12</v>
@@ -5998,9 +6003,11 @@
       <c r="F106" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="21" t="s">
-        <v>171</v>
+      <c r="G106" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
@@ -6026,10 +6033,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>12</v>
@@ -6037,11 +6044,11 @@
       <c r="F107" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="24" t="s">
-        <v>172</v>
+      <c r="G107" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
@@ -6067,10 +6074,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>12</v>
@@ -6078,11 +6085,9 @@
       <c r="F108" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G108" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G108" s="3"/>
       <c r="H108" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
@@ -6108,10 +6113,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>12</v>
@@ -6119,11 +6124,11 @@
       <c r="F109" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G109" s="10" t="s">
-        <v>14</v>
+      <c r="G109" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
@@ -6143,16 +6148,16 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" s="41"/>
       <c r="B110" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C110" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>12</v>
@@ -6163,8 +6168,8 @@
       <c r="G110" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H110" s="22" t="s">
-        <v>176</v>
+      <c r="H110" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
@@ -6184,16 +6189,16 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C111" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>12</v>
@@ -6201,9 +6206,11 @@
       <c r="F111" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="21" t="s">
-        <v>177</v>
+      <c r="G111" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
@@ -6223,16 +6230,16 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C112" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>12</v>
@@ -6243,8 +6250,8 @@
       <c r="G112" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H112" s="21" t="s">
-        <v>178</v>
+      <c r="H112" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
@@ -6270,10 +6277,10 @@
         <v>1</v>
       </c>
       <c r="C113" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>12</v>
@@ -6283,7 +6290,7 @@
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6309,22 +6316,22 @@
         <v>1</v>
       </c>
       <c r="C114" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="34" t="s">
-        <v>25</v>
+      <c r="F114" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
@@ -6350,20 +6357,20 @@
         <v>1</v>
       </c>
       <c r="C115" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="34" t="s">
-        <v>25</v>
+      <c r="F115" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1"/>
@@ -6389,10 +6396,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>12</v>
@@ -6400,9 +6407,11 @@
       <c r="F116" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G116" s="3"/>
+      <c r="G116" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H116" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="1"/>
@@ -6428,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>12</v>
@@ -6439,11 +6448,9 @@
       <c r="F117" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G117" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G117" s="3"/>
       <c r="H117" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
@@ -6466,13 +6473,13 @@
     <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" s="41"/>
       <c r="B118" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>184</v>
+        <v>416</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>12</v>
@@ -6480,11 +6487,9 @@
       <c r="F118" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G118" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G118" s="3"/>
       <c r="H118" s="21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6510,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>12</v>
@@ -6525,7 +6530,7 @@
         <v>14</v>
       </c>
       <c r="H119" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6548,13 +6553,13 @@
     <row r="120" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" s="41"/>
       <c r="B120" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>12</v>
@@ -6566,7 +6571,7 @@
         <v>14</v>
       </c>
       <c r="H120" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
@@ -6586,16 +6591,16 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" s="41"/>
       <c r="B121" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C121" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>189</v>
+        <v>418</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>12</v>
@@ -6603,9 +6608,11 @@
       <c r="F121" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="22" t="s">
-        <v>190</v>
+      <c r="G121" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
@@ -6625,16 +6632,16 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" s="41"/>
       <c r="B122" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C122" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>419</v>
+        <v>187</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>12</v>
@@ -6645,8 +6652,8 @@
       <c r="G122" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H122" s="22" t="s">
-        <v>191</v>
+      <c r="H122" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6669,13 +6676,13 @@
     <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="41"/>
       <c r="B123" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>12</v>
@@ -6683,11 +6690,9 @@
       <c r="F123" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G123" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G123" s="3"/>
       <c r="H123" s="22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6707,16 +6712,16 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="41"/>
       <c r="B124" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C124" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>194</v>
+        <v>419</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>12</v>
@@ -6724,9 +6729,11 @@
       <c r="F124" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="21" t="s">
-        <v>195</v>
+      <c r="G124" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6746,26 +6753,28 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E125" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E125" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="21" t="s">
-        <v>196</v>
+      <c r="F125" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6788,23 +6797,23 @@
     <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" s="41"/>
       <c r="B126" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E126" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="36" t="s">
-        <v>60</v>
+      <c r="F126" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
@@ -6825,23 +6834,26 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A127" s="41"/>
       <c r="B127" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C127" s="2">
-        <v>25</v>
-      </c>
-      <c r="D127" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="E127" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E127" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="31" t="s">
-        <v>25</v>
+      <c r="F127" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="G127" s="3"/>
-      <c r="H127" s="21"/>
+      <c r="H127" s="21" t="s">
+        <v>196</v>
+      </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -6861,23 +6873,26 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A128" s="41"/>
       <c r="B128" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" s="2">
-        <v>26</v>
-      </c>
-      <c r="D128" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="E128" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="31" t="s">
-        <v>25</v>
+      <c r="F128" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="G128" s="3"/>
-      <c r="H128" s="21"/>
+      <c r="H128" s="21" t="s">
+        <v>198</v>
+      </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -6896,15 +6911,24 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="1"/>
+    <row r="129" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="B129" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2">
+        <v>25</v>
+      </c>
+      <c r="D129" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="G129" s="3"/>
-      <c r="H129" s="4"/>
+      <c r="H129" s="21"/>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -6924,28 +6948,23 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A130" s="43" t="s">
-        <v>199</v>
-      </c>
       <c r="B130" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2">
-        <v>1</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E130" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="E130" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="35" t="s">
-        <v>13</v>
+      <c r="F130" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="G130" s="3"/>
-      <c r="H130" s="21" t="s">
-        <v>201</v>
-      </c>
+      <c r="H130" s="21"/>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -6965,28 +6984,14 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2">
-        <v>2</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="4"/>
       <c r="I131" s="3"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -7006,27 +7011,27 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A132" s="41"/>
+      <c r="A132" s="47" t="s">
+        <v>199</v>
+      </c>
       <c r="B132" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C132" s="2">
         <v>1</v>
       </c>
-      <c r="C132" s="2">
-        <v>3</v>
-      </c>
       <c r="D132" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="F132" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="3"/>
       <c r="H132" s="21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
@@ -7046,28 +7051,28 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C133" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F133" s="34" t="s">
-        <v>25</v>
+      <c r="F133" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G133" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H133" s="21" t="s">
-        <v>207</v>
+      <c r="H133" s="22" t="s">
+        <v>203</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
@@ -7090,13 +7095,13 @@
     <row r="134" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A134" s="41"/>
       <c r="B134" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>12</v>
@@ -7108,7 +7113,7 @@
         <v>14</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
@@ -7128,18 +7133,18 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A135" s="41"/>
       <c r="B135" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C135" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E135" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E135" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="34" t="s">
@@ -7148,8 +7153,8 @@
       <c r="G135" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H135" s="22" t="s">
-        <v>211</v>
+      <c r="H135" s="21" t="s">
+        <v>207</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
@@ -7169,16 +7174,16 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A136" s="41"/>
       <c r="B136" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C136" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>12</v>
@@ -7189,8 +7194,8 @@
       <c r="G136" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H136" s="22" t="s">
-        <v>213</v>
+      <c r="H136" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
@@ -7210,18 +7215,18 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C137" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E137" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E137" s="29" t="s">
         <v>12</v>
       </c>
       <c r="F137" s="34" t="s">
@@ -7230,8 +7235,8 @@
       <c r="G137" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H137" s="21" t="s">
-        <v>215</v>
+      <c r="H137" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
@@ -7254,13 +7259,13 @@
     <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
       <c r="B138" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>12</v>
@@ -7272,7 +7277,7 @@
         <v>14</v>
       </c>
       <c r="H138" s="22" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
@@ -7298,10 +7303,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>12</v>
@@ -7309,9 +7314,11 @@
       <c r="F139" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G139" s="3"/>
+      <c r="G139" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H139" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
@@ -7331,16 +7338,16 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="41"/>
       <c r="B140" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>12</v>
@@ -7351,8 +7358,8 @@
       <c r="G140" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H140" s="21" t="s">
-        <v>221</v>
+      <c r="H140" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7375,13 +7382,13 @@
     <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" s="41"/>
       <c r="B141" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>12</v>
@@ -7389,11 +7396,9 @@
       <c r="F141" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G141" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G141" s="3"/>
       <c r="H141" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7413,28 +7418,28 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A142" s="41"/>
       <c r="B142" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C142" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F142" s="36" t="s">
-        <v>60</v>
+      <c r="F142" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G142" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H142" s="22" t="s">
-        <v>225</v>
+      <c r="H142" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7454,26 +7459,28 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" s="41"/>
       <c r="B143" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C143" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F143" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="22" t="s">
-        <v>227</v>
+      <c r="F143" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" s="21" t="s">
+        <v>223</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7493,16 +7500,16 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="41"/>
       <c r="B144" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C144" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>12</v>
@@ -7513,8 +7520,8 @@
       <c r="G144" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H144" s="21" t="s">
-        <v>229</v>
+      <c r="H144" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
@@ -7535,14 +7542,26 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="1"/>
+      <c r="A145" s="41"/>
+      <c r="B145" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C145" s="2">
+        <v>14</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G145" s="3"/>
-      <c r="H145" s="4"/>
+      <c r="H145" s="22" t="s">
+        <v>227</v>
+      </c>
       <c r="I145" s="3"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -7561,15 +7580,29 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="4"/>
+    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A146" s="41"/>
+      <c r="B146" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C146" s="2">
+        <v>15</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="21" t="s">
+        <v>229</v>
+      </c>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -7588,29 +7621,15 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="B147" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C147" s="2">
-        <v>1</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E147" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="F147" s="35" t="s">
-        <v>13</v>
-      </c>
+    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="1"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="21" t="s">
-        <v>233</v>
-      </c>
+      <c r="H147" s="4"/>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -7629,27 +7648,15 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" s="41"/>
-      <c r="B148" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C148" s="2">
-        <v>2</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E148" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="F148" s="34" t="s">
-        <v>25</v>
-      </c>
+    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="1"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="21" t="s">
-        <v>236</v>
-      </c>
+      <c r="H148" s="4"/>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -7669,25 +7676,27 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A149" s="41"/>
+      <c r="A149" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="B149" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C149" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E149" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="F149" s="34" t="s">
-        <v>25</v>
+        <v>231</v>
+      </c>
+      <c r="E149" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F149" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7713,20 +7722,20 @@
         <v>1</v>
       </c>
       <c r="C150" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E150" s="30" t="s">
-        <v>241</v>
+        <v>234</v>
+      </c>
+      <c r="E150" s="25" t="s">
+        <v>235</v>
       </c>
       <c r="F150" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7749,23 +7758,23 @@
     <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A151" s="41"/>
       <c r="B151" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="F151" s="36" t="s">
-        <v>60</v>
+        <v>238</v>
+      </c>
+      <c r="F151" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
@@ -7785,26 +7794,26 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A152" s="41"/>
       <c r="B152" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F152" s="36" t="s">
-        <v>60</v>
+        <v>240</v>
+      </c>
+      <c r="E152" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F152" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G152" s="3"/>
-      <c r="H152" s="22" t="s">
-        <v>248</v>
+      <c r="H152" s="21" t="s">
+        <v>242</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="1"/>
@@ -7824,15 +7833,27 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="1"/>
+    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A153" s="41"/>
+      <c r="B153" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C153" s="2">
+        <v>5</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E153" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="F153" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G153" s="3"/>
-      <c r="H153" s="4"/>
+      <c r="H153" s="21" t="s">
+        <v>245</v>
+      </c>
       <c r="I153" s="3"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -7852,14 +7873,26 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="1"/>
+      <c r="A154" s="41"/>
+      <c r="B154" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C154" s="2">
+        <v>6</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E154" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F154" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G154" s="3"/>
-      <c r="H154" s="4"/>
+      <c r="H154" s="22" t="s">
+        <v>248</v>
+      </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -7878,29 +7911,15 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A155" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="B155" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C155" s="2">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E155" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="F155" s="35" t="s">
-        <v>13</v>
-      </c>
+    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="1"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="21" t="s">
-        <v>251</v>
-      </c>
+      <c r="H155" s="4"/>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -7919,27 +7938,15 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A156" s="41"/>
-      <c r="B156" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C156" s="2">
-        <v>2</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E156" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F156" s="34" t="s">
-        <v>25</v>
-      </c>
+    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="1"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="21" t="s">
-        <v>254</v>
-      </c>
+      <c r="H156" s="4"/>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -7958,26 +7965,28 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="41"/>
+    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A157" s="47" t="s">
+        <v>249</v>
+      </c>
       <c r="B157" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C157" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="F157" s="34" t="s">
-        <v>25</v>
+        <v>250</v>
+      </c>
+      <c r="F157" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G157" s="3"/>
-      <c r="H157" s="22" t="s">
-        <v>257</v>
+      <c r="H157" s="21" t="s">
+        <v>251</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -8003,20 +8012,20 @@
         <v>0</v>
       </c>
       <c r="C158" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F158" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8042,13 +8051,13 @@
         <v>0</v>
       </c>
       <c r="C159" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F159" s="34" t="s">
         <v>25</v>
@@ -8075,15 +8084,27 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="23"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="1"/>
+    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" s="41"/>
+      <c r="B160" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C160" s="2">
+        <v>4</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E160" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F160" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="G160" s="3"/>
-      <c r="H160" s="4"/>
+      <c r="H160" s="21" t="s">
+        <v>260</v>
+      </c>
       <c r="I160" s="3"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -8103,14 +8124,26 @@
       <c r="Y160" s="1"/>
     </row>
     <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="1"/>
+      <c r="A161" s="41"/>
+      <c r="B161" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2">
+        <v>5</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E161" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F161" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="G161" s="3"/>
-      <c r="H161" s="4"/>
+      <c r="H161" s="22" t="s">
+        <v>257</v>
+      </c>
       <c r="I161" s="3"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -8129,29 +8162,15 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="B162" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C162" s="2">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E162" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="F162" s="35" t="s">
-        <v>13</v>
-      </c>
+    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A162" s="23"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="1"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="21" t="s">
-        <v>266</v>
-      </c>
+      <c r="H162" s="4"/>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -8170,27 +8189,15 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="41"/>
-      <c r="B163" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C163" s="2">
-        <v>2</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E163" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="F163" s="34" t="s">
-        <v>25</v>
-      </c>
+    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="1"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="21" t="s">
-        <v>269</v>
-      </c>
+      <c r="H163" s="4"/>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -8210,25 +8217,27 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A164" s="41"/>
+      <c r="A164" s="47" t="s">
+        <v>263</v>
+      </c>
       <c r="B164" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C164" s="2">
         <v>1</v>
       </c>
-      <c r="C164" s="2">
-        <v>3</v>
-      </c>
       <c r="D164" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E164" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="F164" s="34" t="s">
-        <v>25</v>
+        <v>264</v>
+      </c>
+      <c r="E164" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F164" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="21" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
@@ -8251,23 +8260,23 @@
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A165" s="41"/>
       <c r="B165" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E165" s="25" t="s">
-        <v>273</v>
+        <v>267</v>
+      </c>
+      <c r="E165" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="F165" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8293,20 +8302,20 @@
         <v>1</v>
       </c>
       <c r="C166" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E166" s="25" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="F166" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
@@ -8332,20 +8341,20 @@
         <v>0</v>
       </c>
       <c r="C167" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F167" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="21" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1"/>
@@ -8371,20 +8380,20 @@
         <v>1</v>
       </c>
       <c r="C168" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E168" s="30" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>273</v>
       </c>
       <c r="F168" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="21" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="1"/>
@@ -8410,20 +8419,20 @@
         <v>0</v>
       </c>
       <c r="C169" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E169" s="30" t="s">
-        <v>282</v>
+        <v>276</v>
+      </c>
+      <c r="E169" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="F169" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="21" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="1"/>
@@ -8446,23 +8455,23 @@
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A170" s="41"/>
       <c r="B170" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E170" s="25" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="E170" s="30" t="s">
+        <v>277</v>
       </c>
       <c r="F170" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="21" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
@@ -8482,26 +8491,26 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A171" s="41"/>
       <c r="B171" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C171" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E171" s="25" t="s">
-        <v>288</v>
+        <v>281</v>
+      </c>
+      <c r="E171" s="30" t="s">
+        <v>282</v>
       </c>
       <c r="F171" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G171" s="3"/>
-      <c r="H171" s="22" t="s">
-        <v>289</v>
+      <c r="H171" s="21" t="s">
+        <v>283</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
@@ -8527,20 +8536,20 @@
         <v>0</v>
       </c>
       <c r="C172" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F172" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="21" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8560,26 +8569,26 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C173" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F173" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G173" s="3"/>
-      <c r="H173" s="21" t="s">
-        <v>295</v>
+      <c r="H173" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
@@ -8605,20 +8614,20 @@
         <v>0</v>
       </c>
       <c r="C174" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E174" s="30" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="F174" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8644,20 +8653,20 @@
         <v>0</v>
       </c>
       <c r="C175" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F175" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
@@ -8683,20 +8692,20 @@
         <v>0</v>
       </c>
       <c r="C176" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>302</v>
+        <v>296</v>
+      </c>
+      <c r="E176" s="30" t="s">
+        <v>297</v>
       </c>
       <c r="F176" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
@@ -8722,20 +8731,20 @@
         <v>0</v>
       </c>
       <c r="C177" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F177" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="21" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
@@ -8761,20 +8770,20 @@
         <v>0</v>
       </c>
       <c r="C178" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>307</v>
+        <v>161</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F178" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
@@ -8794,26 +8803,26 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A179" s="41"/>
       <c r="B179" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C179" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="F179" s="36" t="s">
-        <v>60</v>
+        <v>305</v>
+      </c>
+      <c r="F179" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G179" s="3"/>
-      <c r="H179" s="22" t="s">
-        <v>312</v>
+      <c r="H179" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
@@ -8839,20 +8848,20 @@
         <v>0</v>
       </c>
       <c r="C180" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F180" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -8872,26 +8881,26 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="41"/>
       <c r="B181" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="F181" s="34" t="s">
-        <v>25</v>
+        <v>311</v>
+      </c>
+      <c r="F181" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="G181" s="3"/>
-      <c r="H181" s="21" t="s">
-        <v>317</v>
+      <c r="H181" s="22" t="s">
+        <v>312</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -8917,20 +8926,20 @@
         <v>0</v>
       </c>
       <c r="C182" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F182" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="21" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -8953,23 +8962,23 @@
     <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A183" s="41"/>
       <c r="B183" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="F183" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="21" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -8989,26 +8998,26 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A184" s="41"/>
       <c r="B184" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C184" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F184" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G184" s="3"/>
-      <c r="H184" s="22" t="s">
-        <v>326</v>
+      <c r="H184" s="21" t="s">
+        <v>320</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9028,26 +9037,26 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A185" s="41"/>
       <c r="B185" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C185" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="F185" s="36" t="s">
-        <v>60</v>
+        <v>322</v>
+      </c>
+      <c r="F185" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="22" t="s">
-        <v>329</v>
+      <c r="H185" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9073,20 +9082,20 @@
         <v>0</v>
       </c>
       <c r="C186" s="2">
+        <v>23</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E186" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="F186" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E186" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="F186" s="36" t="s">
-        <v>60</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="22" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9106,26 +9115,26 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="41"/>
       <c r="B187" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C187" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="F187" s="36" t="s">
         <v>60</v>
       </c>
       <c r="G187" s="3"/>
-      <c r="H187" s="21" t="s">
-        <v>334</v>
+      <c r="H187" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
@@ -9146,22 +9155,26 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1" t="s">
-        <v>395</v>
+      <c r="A188" s="41"/>
+      <c r="B188" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C188" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E188" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="F188" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="E188" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F188" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G188" s="3"/>
-      <c r="H188" s="4"/>
+      <c r="H188" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -9180,15 +9193,27 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="1"/>
+    <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A189" s="41"/>
+      <c r="B189" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C189" s="2">
+        <v>26</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E189" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="F189" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="4"/>
+      <c r="H189" s="21" t="s">
+        <v>334</v>
+      </c>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -9207,29 +9232,25 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A190" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="B190" s="3" t="b">
-        <v>0</v>
+    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="C190" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F190" s="35" t="s">
-        <v>13</v>
+        <v>393</v>
+      </c>
+      <c r="E190" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="F190" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="G190" s="3"/>
-      <c r="H190" s="21" t="s">
-        <v>337</v>
-      </c>
+      <c r="H190" s="4"/>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -9248,27 +9269,15 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A191" s="41"/>
-      <c r="B191" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C191" s="2">
-        <v>2</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F191" s="34" t="s">
-        <v>25</v>
-      </c>
+    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="1"/>
       <c r="G191" s="3"/>
-      <c r="H191" s="21" t="s">
-        <v>339</v>
-      </c>
+      <c r="H191" s="4"/>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -9287,26 +9296,28 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A192" s="41"/>
+    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A192" s="47" t="s">
+        <v>335</v>
+      </c>
       <c r="B192" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F192" s="34" t="s">
-        <v>25</v>
+      <c r="F192" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="22" t="s">
-        <v>341</v>
+      <c r="H192" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9326,16 +9337,16 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A193" s="41"/>
       <c r="B193" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C193" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>12</v>
@@ -9344,8 +9355,8 @@
         <v>25</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="22" t="s">
-        <v>343</v>
+      <c r="H193" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
@@ -9365,16 +9376,16 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="41"/>
       <c r="B194" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C194" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>12</v>
@@ -9383,8 +9394,8 @@
         <v>25</v>
       </c>
       <c r="G194" s="3"/>
-      <c r="H194" s="21" t="s">
-        <v>345</v>
+      <c r="H194" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
@@ -9404,16 +9415,16 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C195" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>12</v>
@@ -9422,8 +9433,8 @@
         <v>25</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="21" t="s">
-        <v>347</v>
+      <c r="H195" s="22" t="s">
+        <v>343</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
@@ -9449,10 +9460,10 @@
         <v>0</v>
       </c>
       <c r="C196" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>12</v>
@@ -9462,7 +9473,7 @@
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
@@ -9482,16 +9493,16 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A197" s="41"/>
       <c r="B197" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C197" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>12</v>
@@ -9500,8 +9511,8 @@
         <v>25</v>
       </c>
       <c r="G197" s="3"/>
-      <c r="H197" s="22" t="s">
-        <v>351</v>
+      <c r="H197" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
@@ -9527,10 +9538,10 @@
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>12</v>
@@ -9540,7 +9551,7 @@
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
@@ -9560,16 +9571,16 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="41"/>
       <c r="B199" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>12</v>
@@ -9578,8 +9589,8 @@
         <v>25</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="21" t="s">
-        <v>355</v>
+      <c r="H199" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
@@ -9599,16 +9610,16 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A200" s="41"/>
       <c r="B200" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>12</v>
@@ -9617,8 +9628,8 @@
         <v>25</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="22" t="s">
-        <v>357</v>
+      <c r="H200" s="21" t="s">
+        <v>353</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
@@ -9644,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="C201" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>12</v>
@@ -9657,7 +9668,7 @@
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="21" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
@@ -9677,16 +9688,16 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="41"/>
       <c r="B202" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C202" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>12</v>
@@ -9695,8 +9706,8 @@
         <v>25</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="21" t="s">
-        <v>361</v>
+      <c r="H202" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9722,10 +9733,10 @@
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>12</v>
@@ -9735,7 +9746,7 @@
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="21" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9755,16 +9766,16 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A204" s="41"/>
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>12</v>
@@ -9773,8 +9784,8 @@
         <v>25</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="22" t="s">
-        <v>365</v>
+      <c r="H204" s="21" t="s">
+        <v>361</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9794,26 +9805,26 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A205" s="41"/>
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F205" s="36" t="s">
-        <v>60</v>
+      <c r="F205" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="22" t="s">
-        <v>367</v>
+      <c r="H205" s="21" t="s">
+        <v>363</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9839,20 +9850,20 @@
         <v>0</v>
       </c>
       <c r="C206" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F206" s="36" t="s">
-        <v>60</v>
+      <c r="F206" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="22" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -9878,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>12</v>
@@ -9891,7 +9902,7 @@
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="22" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -9911,16 +9922,16 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="41"/>
       <c r="B208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>12</v>
@@ -9929,8 +9940,8 @@
         <v>60</v>
       </c>
       <c r="G208" s="3"/>
-      <c r="H208" s="21" t="s">
-        <v>373</v>
+      <c r="H208" s="22" t="s">
+        <v>369</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -9950,16 +9961,16 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="41"/>
       <c r="B209" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>12</v>
@@ -9968,8 +9979,8 @@
         <v>60</v>
       </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="21" t="s">
-        <v>375</v>
+      <c r="H209" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -9989,16 +10000,16 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A210" s="41"/>
       <c r="B210" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>12</v>
@@ -10007,8 +10018,8 @@
         <v>60</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="22" t="s">
-        <v>377</v>
+      <c r="H210" s="21" t="s">
+        <v>373</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
@@ -10028,15 +10039,27 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="1"/>
+    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A211" s="41"/>
+      <c r="B211" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C211" s="2">
+        <v>20</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G211" s="3"/>
-      <c r="H211" s="4"/>
+      <c r="H211" s="21" t="s">
+        <v>375</v>
+      </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -10056,14 +10079,26 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="1"/>
+      <c r="A212" s="41"/>
+      <c r="B212" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C212" s="2">
+        <v>21</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="4"/>
+      <c r="H212" s="22" t="s">
+        <v>377</v>
+      </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -10083,28 +10118,14 @@
       <c r="Y212" s="1"/>
     </row>
     <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A213" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="B213" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C213" s="2">
-        <v>1</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E213" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F213" s="35" t="s">
-        <v>13</v>
-      </c>
+      <c r="A213" s="1"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="1"/>
       <c r="G213" s="3"/>
-      <c r="H213" s="22" t="s">
-        <v>380</v>
-      </c>
+      <c r="H213" s="4"/>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -10123,27 +10144,15 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A214" s="41"/>
-      <c r="B214" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C214" s="2">
-        <v>2</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E214" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="34" t="s">
-        <v>25</v>
-      </c>
+    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="1"/>
       <c r="G214" s="3"/>
-      <c r="H214" s="21" t="s">
-        <v>382</v>
-      </c>
+      <c r="H214" s="4"/>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -10162,26 +10171,28 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A215" s="41"/>
+    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A215" s="47" t="s">
+        <v>378</v>
+      </c>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F215" s="34" t="s">
-        <v>25</v>
+      <c r="F215" s="35" t="s">
+        <v>13</v>
       </c>
       <c r="G215" s="3"/>
-      <c r="H215" s="21" t="s">
-        <v>384</v>
+      <c r="H215" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10207,10 +10218,10 @@
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>12</v>
@@ -10220,7 +10231,7 @@
       </c>
       <c r="G216" s="3"/>
       <c r="H216" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10246,10 +10257,10 @@
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>12</v>
@@ -10258,8 +10269,8 @@
         <v>25</v>
       </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="27" t="s">
-        <v>388</v>
+      <c r="H217" s="21" t="s">
+        <v>384</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10285,20 +10296,20 @@
         <v>0</v>
       </c>
       <c r="C218" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F218" s="36" t="s">
-        <v>60</v>
+      <c r="F218" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G218" s="3"/>
       <c r="H218" s="21" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
@@ -10318,15 +10329,27 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="1"/>
+    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A219" s="41"/>
+      <c r="B219" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C219" s="2">
+        <v>5</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F219" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="G219" s="3"/>
-      <c r="H219" s="4"/>
+      <c r="H219" s="27" t="s">
+        <v>388</v>
+      </c>
       <c r="I219" s="3"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -10345,15 +10368,27 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="1"/>
+    <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A220" s="41"/>
+      <c r="B220" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C220" s="2">
+        <v>6</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G220" s="3"/>
-      <c r="H220" s="4"/>
+      <c r="H220" s="21" t="s">
+        <v>390</v>
+      </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -10427,9 +10462,15 @@
       <c r="Y222" s="1"/>
     </row>
     <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="2"/>
+      <c r="A223" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="B223" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C223" s="2">
+        <v>1</v>
+      </c>
       <c r="D223" s="1"/>
       <c r="E223" s="3"/>
       <c r="F223" s="1"/>
@@ -10454,9 +10495,13 @@
       <c r="Y223" s="1"/>
     </row>
     <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="2"/>
+      <c r="A224" s="41"/>
+      <c r="B224" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C224" s="2">
+        <v>2</v>
+      </c>
       <c r="D224" s="1"/>
       <c r="E224" s="3"/>
       <c r="F224" s="1"/>
@@ -10481,9 +10526,13 @@
       <c r="Y224" s="1"/>
     </row>
     <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="2"/>
+      <c r="A225" s="41"/>
+      <c r="B225" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C225" s="2">
+        <v>3</v>
+      </c>
       <c r="D225" s="1"/>
       <c r="E225" s="3"/>
       <c r="F225" s="1"/>
@@ -10508,9 +10557,13 @@
       <c r="Y225" s="1"/>
     </row>
     <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="2"/>
+      <c r="A226" s="41"/>
+      <c r="B226" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C226" s="2">
+        <v>4</v>
+      </c>
       <c r="D226" s="1"/>
       <c r="E226" s="3"/>
       <c r="F226" s="1"/>
@@ -10535,9 +10588,13 @@
       <c r="Y226" s="1"/>
     </row>
     <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="2"/>
+      <c r="A227" s="41"/>
+      <c r="B227" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C227" s="2">
+        <v>5</v>
+      </c>
       <c r="D227" s="1"/>
       <c r="E227" s="3"/>
       <c r="F227" s="1"/>
@@ -10562,9 +10619,13 @@
       <c r="Y227" s="1"/>
     </row>
     <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="2"/>
+      <c r="A228" s="41"/>
+      <c r="B228" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C228" s="2">
+        <v>6</v>
+      </c>
       <c r="D228" s="1"/>
       <c r="E228" s="3"/>
       <c r="F228" s="1"/>
@@ -10589,9 +10650,13 @@
       <c r="Y228" s="1"/>
     </row>
     <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="2"/>
+      <c r="A229" s="41"/>
+      <c r="B229" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C229" s="2">
+        <v>7</v>
+      </c>
       <c r="D229" s="1"/>
       <c r="E229" s="3"/>
       <c r="F229" s="1"/>
@@ -10616,9 +10681,13 @@
       <c r="Y229" s="1"/>
     </row>
     <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="2"/>
+      <c r="A230" s="41"/>
+      <c r="B230" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C230" s="2">
+        <v>8</v>
+      </c>
       <c r="D230" s="1"/>
       <c r="E230" s="3"/>
       <c r="F230" s="1"/>
@@ -10643,9 +10712,13 @@
       <c r="Y230" s="1"/>
     </row>
     <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="2"/>
+      <c r="A231" s="41"/>
+      <c r="B231" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C231" s="2">
+        <v>9</v>
+      </c>
       <c r="D231" s="1"/>
       <c r="E231" s="3"/>
       <c r="F231" s="1"/>
@@ -10670,9 +10743,13 @@
       <c r="Y231" s="1"/>
     </row>
     <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="2"/>
+      <c r="A232" s="41"/>
+      <c r="B232" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C232" s="2">
+        <v>10</v>
+      </c>
       <c r="D232" s="1"/>
       <c r="E232" s="3"/>
       <c r="F232" s="1"/>
@@ -10697,9 +10774,13 @@
       <c r="Y232" s="1"/>
     </row>
     <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="2"/>
+      <c r="A233" s="41"/>
+      <c r="B233" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C233" s="2">
+        <v>11</v>
+      </c>
       <c r="D233" s="1"/>
       <c r="E233" s="3"/>
       <c r="F233" s="1"/>
@@ -10724,9 +10805,13 @@
       <c r="Y233" s="1"/>
     </row>
     <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="2"/>
+      <c r="A234" s="41"/>
+      <c r="B234" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C234" s="2">
+        <v>12</v>
+      </c>
       <c r="D234" s="1"/>
       <c r="E234" s="3"/>
       <c r="F234" s="1"/>
@@ -10751,9 +10836,13 @@
       <c r="Y234" s="1"/>
     </row>
     <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="2"/>
+      <c r="A235" s="41"/>
+      <c r="B235" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C235" s="2">
+        <v>13</v>
+      </c>
       <c r="D235" s="1"/>
       <c r="E235" s="3"/>
       <c r="F235" s="1"/>
@@ -10778,9 +10867,13 @@
       <c r="Y235" s="1"/>
     </row>
     <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="2"/>
+      <c r="A236" s="41"/>
+      <c r="B236" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C236" s="2">
+        <v>14</v>
+      </c>
       <c r="D236" s="1"/>
       <c r="E236" s="3"/>
       <c r="F236" s="1"/>
@@ -10805,9 +10898,13 @@
       <c r="Y236" s="1"/>
     </row>
     <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="2"/>
+      <c r="A237" s="41"/>
+      <c r="B237" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C237" s="2">
+        <v>15</v>
+      </c>
       <c r="D237" s="1"/>
       <c r="E237" s="3"/>
       <c r="F237" s="1"/>
@@ -10832,9 +10929,13 @@
       <c r="Y237" s="1"/>
     </row>
     <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="2"/>
+      <c r="A238" s="41"/>
+      <c r="B238" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C238" s="2">
+        <v>16</v>
+      </c>
       <c r="D238" s="1"/>
       <c r="E238" s="3"/>
       <c r="F238" s="1"/>
@@ -10859,9 +10960,13 @@
       <c r="Y238" s="1"/>
     </row>
     <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="2"/>
+      <c r="A239" s="41"/>
+      <c r="B239" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C239" s="2">
+        <v>17</v>
+      </c>
       <c r="D239" s="1"/>
       <c r="E239" s="3"/>
       <c r="F239" s="1"/>
@@ -10886,9 +10991,13 @@
       <c r="Y239" s="1"/>
     </row>
     <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="2"/>
+      <c r="A240" s="41"/>
+      <c r="B240" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C240" s="2">
+        <v>18</v>
+      </c>
       <c r="D240" s="1"/>
       <c r="E240" s="3"/>
       <c r="F240" s="1"/>
@@ -10913,9 +11022,13 @@
       <c r="Y240" s="1"/>
     </row>
     <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="2"/>
+      <c r="A241" s="41"/>
+      <c r="B241" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C241" s="2">
+        <v>19</v>
+      </c>
       <c r="D241" s="1"/>
       <c r="E241" s="3"/>
       <c r="F241" s="1"/>
@@ -10940,9 +11053,13 @@
       <c r="Y241" s="1"/>
     </row>
     <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="2"/>
+      <c r="A242" s="41"/>
+      <c r="B242" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C242" s="2">
+        <v>20</v>
+      </c>
       <c r="D242" s="1"/>
       <c r="E242" s="3"/>
       <c r="F242" s="1"/>
@@ -10967,9 +11084,13 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="2"/>
+      <c r="A243" s="41"/>
+      <c r="B243" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C243" s="2">
+        <v>21</v>
+      </c>
       <c r="D243" s="1"/>
       <c r="E243" s="3"/>
       <c r="F243" s="1"/>
@@ -10994,7 +11115,7 @@
       <c r="Y243" s="1"/>
     </row>
     <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
+      <c r="A244" s="41"/>
       <c r="B244" s="1"/>
       <c r="C244" s="2"/>
       <c r="D244" s="1"/>
@@ -11021,7 +11142,7 @@
       <c r="Y244" s="1"/>
     </row>
     <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
+      <c r="A245" s="41"/>
       <c r="B245" s="1"/>
       <c r="C245" s="2"/>
       <c r="D245" s="1"/>
@@ -11048,7 +11169,7 @@
       <c r="Y245" s="1"/>
     </row>
     <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
+      <c r="A246" s="41"/>
       <c r="B246" s="1"/>
       <c r="C246" s="2"/>
       <c r="D246" s="1"/>
@@ -11075,7 +11196,7 @@
       <c r="Y246" s="1"/>
     </row>
     <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
+      <c r="A247" s="41"/>
       <c r="B247" s="1"/>
       <c r="C247" s="2"/>
       <c r="D247" s="1"/>
@@ -11102,7 +11223,7 @@
       <c r="Y247" s="1"/>
     </row>
     <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="41"/>
       <c r="B248" s="1"/>
       <c r="C248" s="2"/>
       <c r="D248" s="1"/>
@@ -31540,24 +31661,79 @@
       <c r="X1004" s="1"/>
       <c r="Y1004" s="1"/>
     </row>
+    <row r="1005" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="1"/>
+      <c r="E1005" s="3"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="3"/>
+      <c r="H1005" s="4"/>
+      <c r="I1005" s="3"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+    </row>
+    <row r="1006" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="3"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="3"/>
+      <c r="H1006" s="4"/>
+      <c r="I1006" s="3"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+      <c r="O1006" s="1"/>
+      <c r="P1006" s="1"/>
+      <c r="Q1006" s="1"/>
+      <c r="R1006" s="1"/>
+      <c r="S1006" s="1"/>
+      <c r="T1006" s="1"/>
+      <c r="U1006" s="1"/>
+      <c r="V1006" s="1"/>
+      <c r="W1006" s="1"/>
+      <c r="X1006" s="1"/>
+      <c r="Y1006" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A223:A248"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="A58:A69"/>
+    <mergeCell ref="A192:A212"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="A72:A85"/>
+    <mergeCell ref="A88:A102"/>
+    <mergeCell ref="A105:A128"/>
+    <mergeCell ref="A132:A146"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A164:A189"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A32"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="A57:A68"/>
-    <mergeCell ref="A190:A210"/>
-    <mergeCell ref="A213:A218"/>
-    <mergeCell ref="A71:A83"/>
-    <mergeCell ref="A86:A100"/>
-    <mergeCell ref="A103:A126"/>
-    <mergeCell ref="A130:A144"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="A162:A187"/>
+    <mergeCell ref="A7:A33"/>
+    <mergeCell ref="A36:A42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -31569,271 +31745,273 @@
     <hyperlink ref="G10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="G12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G17" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E24" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G24" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E25" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E26" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G26" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E28" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G30" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E35" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G35" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E36" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G36" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E37" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E38" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G38" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E39" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G39" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E40" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G40" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E41" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E44" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G44" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E45" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E46" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E47" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G47" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E48" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G48" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E49" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G49" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E50" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G50" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E51" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E52" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E53" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E57" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G57" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E58" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E59" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G59" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E60" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E61" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E62" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G62" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E65" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E66" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G66" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E67" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G67" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E68" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E71" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G71" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E72" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="G72" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E73" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="G73" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E74" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E75" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G75" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E76" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="G76" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E77" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="G77" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E78" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="G78" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E79" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E80" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E81" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="G81" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E82" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E83" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="G83" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E86" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="G86" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E87" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="G87" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E88" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="G88" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E89" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="G89" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E90" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G90" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E91" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E92" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E93" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G93" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E94" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G94" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E95" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G95" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E96" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G96" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E97" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G97" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E98" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E99" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G99" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E100" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G100" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E103" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G103" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E104" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G104" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E105" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G105" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E106" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E107" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G107" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E108" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="G108" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E109" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="G109" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E110" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G110" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E111" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E112" r:id="rId149" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G112" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E113" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E114" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="G114" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E115" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E116" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E117" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G117" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E118" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G118" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E119" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G119" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E120" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G120" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E121" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E122" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G122" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E123" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G123" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E124" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E125" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E126" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E130" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E131" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G131" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E132" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G132" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E133" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G133" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E134" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="G134" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E135" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G135" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E136" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G136" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E137" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G137" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E138" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G138" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E139" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E140" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G140" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E141" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G141" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E142" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G142" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E143" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E144" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G144" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E147" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E148" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E149" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E150" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E151" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E152" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E155" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E156" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E157" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E158" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E159" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E162" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E163" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E164" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E165" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E166" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E167" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E168" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E169" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E170" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E171" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E172" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E173" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E174" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E175" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E176" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E177" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E178" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E179" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E180" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E181" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E182" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E183" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E184" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E185" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E186" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E187" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E190" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E191" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E192" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E193" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E194" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E195" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E196" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E197" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E198" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E199" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E200" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E201" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E202" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E203" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E204" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E205" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E206" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E207" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E208" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E209" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E210" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E213" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E214" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E215" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E216" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E217" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E218" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E19" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G19" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E20" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G20" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E21" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E22" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E23" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E24" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E25" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G25" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E30" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E31" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E32" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E33" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G33" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E36" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G36" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E37" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G37" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E38" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G38" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E39" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G39" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E40" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G40" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E41" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G41" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E42" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E45" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G45" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E46" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E47" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E48" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G48" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E49" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G49" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E50" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G50" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E51" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G51" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E52" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E53" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E54" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E58" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G58" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E59" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E60" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G60" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E61" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E62" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E63" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G63" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E66" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E67" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G67" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E68" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G68" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E69" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E72" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G72" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E73" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G73" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E74" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G74" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E75" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E76" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G76" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E77" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G77" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E78" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G78" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E79" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G79" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E81" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E82" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E83" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="G83" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E84" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E85" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G85" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E88" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G88" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E89" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G89" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E90" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G90" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E91" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G91" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E92" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G92" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E93" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E94" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E95" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G95" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E96" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G96" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E97" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G97" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E98" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G98" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E99" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G99" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E100" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E101" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G101" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E102" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G102" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E105" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G105" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E106" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G106" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E107" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G107" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E108" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E109" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G109" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E110" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G110" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E111" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G111" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E112" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G112" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E113" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E114" r:id="rId149" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G114" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E115" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E116" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G116" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E117" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E118" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E119" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G119" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E120" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G120" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E121" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G121" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E122" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G122" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E123" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E124" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G124" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E125" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G125" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E126" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E127" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E128" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E132" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E133" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G133" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E134" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G134" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E135" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G135" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E136" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="G136" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E137" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G137" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E138" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G138" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E139" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G139" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E140" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G140" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E141" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E142" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G142" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E143" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G143" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E144" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G144" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E145" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E146" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G146" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E149" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E150" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E151" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E152" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E153" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E154" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E157" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E158" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E159" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E160" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E161" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E164" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E165" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E166" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E167" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E168" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E169" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E170" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E171" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E172" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E173" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E174" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E175" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E176" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E177" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E178" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E179" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E180" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E181" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E182" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E183" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E184" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E185" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E186" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E187" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E188" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E189" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E192" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E193" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E194" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E195" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E196" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E197" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E198" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E199" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E200" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E201" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E202" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E203" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E204" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E205" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E206" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E207" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E208" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E209" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E210" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E211" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E212" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E215" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E216" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E217" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E218" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E219" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E220" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
     <hyperlink ref="E11" r:id="rId263" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="E188" r:id="rId264" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E128" r:id="rId265" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E127" r:id="rId266" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
-    <hyperlink ref="G64" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E64" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E63" r:id="rId269" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="E190" r:id="rId264" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E130" r:id="rId265" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E129" r:id="rId266" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G65" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E65" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E64" r:id="rId269" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
     <hyperlink ref="G7" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E7" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E6" r:id="rId272" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
+    <hyperlink ref="E80" r:id="rId273" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
+    <hyperlink ref="E13" r:id="rId274" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId273"/>
+  <pageSetup orientation="portrait" r:id="rId275"/>
 </worksheet>
 </file>
--- a/DSA for PLACEMENTS.xlsx
+++ b/DSA for PLACEMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC3CD75-4F64-478A-84F4-029CBDFE1E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF012F-E63F-47A9-B398-E2BA3EC6E19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="441">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -1335,6 +1335,21 @@
   </si>
   <si>
     <t>HI NIGGAS</t>
+  </si>
+  <si>
+    <t>SQRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Easy</t>
+  </si>
+  <si>
+    <t>Flipping an image</t>
+  </si>
+  <si>
+    <t>IS perfect SQRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       TRUE</t>
   </si>
   <si>
     <r>
@@ -1347,7 +1362,30 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> TRUE</t>
+      <t xml:space="preserve">     TRUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>FALSE</t>
     </r>
   </si>
 </sst>
@@ -1355,7 +1393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1410,11 +1448,6 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1541,8 +1574,27 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1609,6 +1661,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1621,9 +1685,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1654,46 +1718,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1708,14 +1771,45 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1727,41 +1821,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1982,11 +2054,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1005"/>
+  <dimension ref="A1:Y1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A33"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2005,11 +2077,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -2034,14 +2106,14 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="53" t="s">
         <v>432</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2111,7 +2183,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="44"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2155,25 +2227,25 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="C6" s="45">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="36">
         <v>1</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2192,31 +2264,31 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="C7" s="45">
+      <c r="B7" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C7" s="36">
         <v>2</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="1"/>
@@ -2237,29 +2309,29 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="A8" s="60"/>
+      <c r="B8" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="36">
         <v>3</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="39" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="1"/>
@@ -2280,27 +2352,27 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" s="45">
+      <c r="A9" s="60"/>
+      <c r="B9" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" s="36">
         <v>4</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="48"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2319,29 +2391,29 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="C10" s="45">
+      <c r="A10" s="60"/>
+      <c r="B10" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="36">
         <v>5</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="48"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2360,25 +2432,25 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="C11" s="45">
+      <c r="A11" s="60"/>
+      <c r="B11" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C11" s="36">
         <v>6</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="48"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2397,29 +2469,29 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="45">
+      <c r="A12" s="60"/>
+      <c r="B12" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="36">
         <v>7</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="48"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2438,25 +2510,25 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="C13" s="45">
+      <c r="A13" s="60"/>
+      <c r="B13" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="36">
         <v>8</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="48"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2475,27 +2547,27 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="C14" s="45">
+      <c r="A14" s="60"/>
+      <c r="B14" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="36">
         <v>9</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="48"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2514,29 +2586,29 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="45">
+      <c r="A15" s="60"/>
+      <c r="B15" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="36">
         <v>10</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="48"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2555,29 +2627,29 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="45">
+      <c r="A16" s="60"/>
+      <c r="B16" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="36">
         <v>11</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="1"/>
@@ -2598,29 +2670,29 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="45">
+      <c r="A17" s="60"/>
+      <c r="B17" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C17" s="36">
         <v>12</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="1"/>
@@ -2641,27 +2713,27 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="45">
+      <c r="A18" s="60"/>
+      <c r="B18" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" s="36">
         <v>13</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="48" t="s">
+      <c r="H18" s="45"/>
+      <c r="I18" s="39" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="1"/>
@@ -2682,29 +2754,25 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" s="45">
+      <c r="A19" s="60"/>
+      <c r="B19" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C19" s="36">
         <v>14</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="51" t="s">
+      <c r="D19" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="48" t="s">
-        <v>33</v>
-      </c>
+      <c r="F19" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2723,30 +2791,28 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="45">
+      <c r="A20" s="60"/>
+      <c r="B20" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C20" s="36">
         <v>15</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="51" t="s">
+      <c r="D20" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>17</v>
+      <c r="H20" s="40"/>
+      <c r="I20" s="39" t="s">
+        <v>33</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2766,27 +2832,29 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="45">
+      <c r="A21" s="60"/>
+      <c r="B21" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C21" s="36">
         <v>16</v>
       </c>
-      <c r="D21" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="51" t="s">
+      <c r="D21" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="48" t="s">
+      <c r="G21" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="39" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="1"/>
@@ -2807,28 +2875,28 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="45">
+      <c r="A22" s="60"/>
+      <c r="B22" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22" s="36">
         <v>17</v>
       </c>
-      <c r="D22" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="51" t="s">
+      <c r="D22" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>40</v>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2848,28 +2916,28 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="45">
+      <c r="A23" s="60"/>
+      <c r="B23" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C23" s="36">
         <v>18</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="51" t="s">
+      <c r="D23" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>43</v>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2889,28 +2957,28 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="45">
+      <c r="A24" s="60"/>
+      <c r="B24" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C24" s="36">
         <v>19</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="51" t="s">
+      <c r="D24" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>46</v>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>43</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2930,29 +2998,29 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="45">
+      <c r="A25" s="60"/>
+      <c r="B25" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C25" s="36">
         <v>20</v>
       </c>
-      <c r="D25" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="51" t="s">
+      <c r="D25" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="48"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>46</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2971,27 +3039,29 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" s="45">
+      <c r="A26" s="60"/>
+      <c r="B26" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="C26" s="36">
         <v>21</v>
       </c>
-      <c r="D26" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="51" t="s">
+      <c r="D26" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="48" t="s">
-        <v>14</v>
-      </c>
+      <c r="G26" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="39"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3010,30 +3080,26 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="45">
+      <c r="A27" s="60"/>
+      <c r="B27" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="C27" s="36">
         <v>22</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="51" t="s">
+      <c r="D27" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>52</v>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3053,25 +3119,31 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="45">
+      <c r="A28" s="60"/>
+      <c r="B28" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C28" s="36">
         <v>23</v>
       </c>
-      <c r="D28" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="E28" s="46" t="s">
+      <c r="D28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="48"/>
+      <c r="G28" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3090,29 +3162,25 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" s="45">
+      <c r="A29" s="60"/>
+      <c r="B29" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C29" s="36">
         <v>24</v>
       </c>
-      <c r="D29" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="51" t="s">
+      <c r="D29" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="E29" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>55</v>
-      </c>
+      <c r="F29" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3131,29 +3199,29 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="48" t="b">
+      <c r="A30" s="60"/>
+      <c r="B30" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="36">
         <v>25</v>
       </c>
-      <c r="D30" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="51" t="s">
+      <c r="D30" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="48"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3172,31 +3240,29 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="48" t="b">
+      <c r="A31" s="60"/>
+      <c r="B31" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="36">
         <v>26</v>
       </c>
-      <c r="D31" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="51" t="s">
+      <c r="D31" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>14</v>
-      </c>
+      <c r="H31" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="39"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3215,26 +3281,30 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="48" t="b">
+      <c r="A32" s="60"/>
+      <c r="B32" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="36">
         <v>27</v>
       </c>
-      <c r="D32" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="51" t="s">
+      <c r="D32" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="48" t="s">
-        <v>55</v>
+      <c r="G32" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3253,28 +3323,28 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="48" t="b">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="60"/>
+      <c r="B33" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="36">
         <v>28</v>
       </c>
-      <c r="D33" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="51" t="s">
+      <c r="D33" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="48"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3292,16 +3362,28 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="3"/>
+    <row r="34" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="60"/>
+      <c r="B34" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="36">
+        <v>29</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3347,30 +3429,14 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="3"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3389,28 +3455,32 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="3" t="b">
+    <row r="37" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="C37" s="2">
-        <v>2</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="13" t="s">
+      <c r="C37" s="36">
+        <v>1</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
+      <c r="H37" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3428,28 +3498,28 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="37"/>
-      <c r="B38" s="3" t="b">
+    <row r="38" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="59"/>
+      <c r="B38" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="C38" s="2">
-        <v>3</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="13" t="s">
+      <c r="C38" s="36">
+        <v>2</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="3"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3467,29 +3537,27 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="37"/>
-      <c r="B39" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
-        <v>4</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="13" t="s">
+    <row r="39" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="59"/>
+      <c r="B39" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="36">
+        <v>3</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="H39" s="40"/>
       <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3508,27 +3576,29 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="3" t="b">
+    <row r="40" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="59"/>
+      <c r="B40" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C40" s="2">
-        <v>5</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="13" t="s">
+      <c r="C40" s="36">
+        <v>4</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="15"/>
+      <c r="H40" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3547,29 +3617,27 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="37"/>
-      <c r="B41" s="3" t="b">
+    <row r="41" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="59"/>
+      <c r="B41" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C41" s="2">
-        <v>6</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="13" t="s">
+      <c r="C41" s="36">
+        <v>5</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="H41" s="35"/>
       <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3588,26 +3656,28 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="37"/>
-      <c r="B42" s="3" t="b">
+    <row r="42" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="59"/>
+      <c r="B42" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C42" s="2">
-        <v>7</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="13" t="s">
+      <c r="C42" s="36">
+        <v>6</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="11" t="s">
-        <v>74</v>
+      <c r="F42" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="1"/>
@@ -3627,15 +3697,27 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="9"/>
+    <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="59"/>
+      <c r="B43" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="36">
+        <v>7</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3654,7 +3736,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -3662,7 +3744,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="3"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3681,31 +3763,15 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>77</v>
-      </c>
+    <row r="45" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
       <c r="I45" s="3"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3725,25 +3791,29 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="37"/>
+      <c r="A46" s="48" t="s">
+        <v>75</v>
+      </c>
       <c r="B46" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="3"/>
+      <c r="G46" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H46" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="1"/>
@@ -3764,24 +3834,26 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="37"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E47" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="11"/>
+      <c r="H47" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3801,26 +3873,24 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="37"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="E48" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="H48" s="11"/>
       <c r="I48" s="3"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3839,27 +3909,27 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49" s="49"/>
       <c r="B49" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3879,20 +3949,20 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G50" s="10" t="s">
@@ -3918,28 +3988,26 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="H51" s="4"/>
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3959,26 +4027,28 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3998,26 +4068,26 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="2">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="G53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="4"/>
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -4036,26 +4106,26 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A54" s="37"/>
+    <row r="54" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="49"/>
       <c r="B54" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="34" t="s">
-        <v>57</v>
+      <c r="F54" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="11" t="s">
-        <v>89</v>
+      <c r="H54" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="1"/>
@@ -4076,24 +4146,26 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A55" s="37"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C55" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E55" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="11"/>
+      <c r="H55" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4112,25 +4184,25 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56" s="49"/>
       <c r="B56" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C56" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="34" t="s">
+      <c r="F56" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="3"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4150,20 +4222,20 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C57" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G57" s="3"/>
@@ -4186,11 +4258,25 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
-      <c r="H58" s="15"/>
+    <row r="58" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="49"/>
+      <c r="B58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4"/>
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -4209,15 +4295,11 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+    <row r="59" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="14"/>
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4236,32 +4318,15 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2">
-        <f>ROW(A1)</f>
-        <v>1</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>95</v>
-      </c>
+    <row r="60" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
       <c r="I60" s="3"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4281,26 +4346,30 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="37"/>
+      <c r="A61" s="50" t="s">
+        <v>93</v>
+      </c>
       <c r="B61" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" ref="C61:C71" si="0">ROW(A2)</f>
-        <v>2</v>
+        <f>ROW(A1)</f>
+        <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F61" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="19" t="s">
-        <v>97</v>
+      <c r="G61" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
@@ -4321,28 +4390,26 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="37"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="C62:C72" si="0">ROW(A2)</f>
+        <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F62" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>99</v>
+      <c r="G62" s="3"/>
+      <c r="H62" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="1"/>
@@ -4363,26 +4430,28 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="37"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="32" t="s">
+      <c r="F63" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="19" t="s">
-        <v>101</v>
+      <c r="G63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
@@ -4403,26 +4472,26 @@
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="37"/>
+      <c r="A64" s="49"/>
       <c r="B64" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="F64" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="3"/>
-      <c r="H64" s="19" t="s">
-        <v>103</v>
+      <c r="H64" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
@@ -4443,28 +4512,26 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="37"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="F65" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G65" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>13</v>
+      <c r="G65" s="3"/>
+      <c r="H65" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
@@ -4485,25 +4552,29 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="37"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C66" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E66" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="F66" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="19"/>
+      <c r="G66" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="I66" s="3"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -4522,30 +4593,26 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
+    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A67" s="49"/>
       <c r="B67" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E67" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="F67" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -4564,27 +4631,29 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A68" s="37"/>
+    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="49"/>
       <c r="B68" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="32" t="s">
+      <c r="F68" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="3"/>
+      <c r="G68" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H68" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
@@ -4605,28 +4674,26 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="37"/>
+      <c r="A69" s="49"/>
       <c r="B69" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>109</v>
+      <c r="F69" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
@@ -4646,29 +4713,29 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
+    <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A70" s="49"/>
       <c r="B70" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="34" t="s">
+      <c r="F70" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="20" t="s">
-        <v>111</v>
+      <c r="H70" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
@@ -4689,26 +4756,28 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
+      <c r="A71" s="49"/>
       <c r="B71" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="34" t="s">
+      <c r="F71" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="20" t="s">
-        <v>112</v>
+      <c r="G71" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
@@ -4729,14 +4798,27 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="1"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="4"/>
+      <c r="H72" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -4782,31 +4864,15 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B74" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>114</v>
-      </c>
+    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="4"/>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4826,27 +4892,29 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A75" s="37"/>
+      <c r="A75" s="50" t="s">
+        <v>113</v>
+      </c>
       <c r="B75" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E75" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E75" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="33" t="s">
+      <c r="F75" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="19" t="s">
-        <v>115</v>
+      <c r="H75" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
@@ -4867,27 +4935,27 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A76" s="37"/>
+      <c r="A76" s="49"/>
       <c r="B76" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C76" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E76" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="33" t="s">
+      <c r="F76" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="19" t="s">
-        <v>116</v>
+      <c r="H76" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
@@ -4908,25 +4976,27 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A77" s="37"/>
+      <c r="A77" s="49"/>
       <c r="B77" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C77" s="2">
-        <v>4</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="E77" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="33" t="s">
+      <c r="F77" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="19" t="s">
-        <v>117</v>
+      <c r="G77" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="1"/>
@@ -4947,27 +5017,25 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A78" s="37"/>
+      <c r="A78" s="49"/>
       <c r="B78" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C78" s="2">
-        <v>5</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E78" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="33" t="s">
+      <c r="F78" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G78" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>118</v>
+      <c r="G78" s="3"/>
+      <c r="H78" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="1"/>
@@ -4988,27 +5056,27 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A79" s="37"/>
+      <c r="A79" s="49"/>
       <c r="B79" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C79" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E79" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="19" t="s">
-        <v>119</v>
+      <c r="H79" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="1"/>
@@ -5028,28 +5096,28 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
+    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A80" s="49"/>
       <c r="B80" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C80" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E80" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="32" t="s">
+      <c r="F80" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="20" t="s">
-        <v>120</v>
+      <c r="H80" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="1"/>
@@ -5069,28 +5137,28 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A81" s="37"/>
+    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="49"/>
       <c r="B81" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C81" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="32" t="s">
+      <c r="F81" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1"/>
@@ -5111,24 +5179,28 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A82" s="37"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C82" s="2">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="32" t="s">
+      <c r="F82" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="19"/>
+      <c r="G82" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="I82" s="3"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -5147,27 +5219,25 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
+    <row r="83" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A83" s="49"/>
       <c r="B83" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C83" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E83" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E83" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="32" t="s">
+      <c r="F83" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="18"/>
       <c r="I83" s="3"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -5186,26 +5256,26 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A84" s="37"/>
+    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="49"/>
       <c r="B84" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C84" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="32" t="s">
+      <c r="F84" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="1"/>
@@ -5225,28 +5295,26 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
+    <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A85" s="49"/>
       <c r="B85" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E85" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="32" t="s">
+      <c r="F85" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" s="20" t="s">
-        <v>128</v>
+      <c r="G85" s="3"/>
+      <c r="H85" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1"/>
@@ -5267,24 +5335,28 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E86" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="32" t="s">
+      <c r="F86" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="20"/>
+      <c r="G86" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="I86" s="3"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -5304,24 +5376,24 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C87" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E87" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="E87" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="32" t="s">
+      <c r="F87" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G87" s="10"/>
-      <c r="H87" s="20"/>
+      <c r="H87" s="19"/>
       <c r="I87" s="3"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5341,24 +5413,24 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C88" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E88" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="E88" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="32" t="s">
+      <c r="F88" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G88" s="10"/>
-      <c r="H88" s="20"/>
+      <c r="H88" s="19"/>
       <c r="I88" s="3"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -5378,26 +5450,24 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C89" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="E89" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="32" t="s">
+      <c r="F89" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="19"/>
       <c r="I89" s="3"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -5417,27 +5487,25 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
+      <c r="A90" s="49"/>
       <c r="B90" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C90" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="20" t="s">
-        <v>132</v>
+      <c r="F90" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="1"/>
@@ -5458,24 +5526,28 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1" t="b">
+      <c r="A91" s="49"/>
+      <c r="B91" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C91" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E91" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="4"/>
+      <c r="F91" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="I91" s="3"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -5496,11 +5568,21 @@
     </row>
     <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="1"/>
+      <c r="B92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>18</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>22</v>
+      </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
       <c r="I92" s="3"/>
@@ -5521,31 +5603,15 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A93" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B93" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="19" t="s">
-        <v>135</v>
-      </c>
+    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
       <c r="I93" s="3"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -5564,28 +5630,30 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
+    <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A94" s="51" t="s">
+        <v>133</v>
+      </c>
       <c r="B94" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="33" t="s">
+      <c r="F94" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H94" s="20" t="s">
-        <v>137</v>
+      <c r="H94" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="1"/>
@@ -5605,28 +5673,28 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A95" s="37"/>
+    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="49"/>
       <c r="B95" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E95" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="33" t="s">
+      <c r="F95" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="1"/>
@@ -5647,27 +5715,27 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A96" s="37"/>
+      <c r="A96" s="49"/>
       <c r="B96" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C96" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E96" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="33" t="s">
+      <c r="F96" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="19" t="s">
-        <v>141</v>
+      <c r="H96" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="1"/>
@@ -5688,27 +5756,27 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A97" s="37"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C97" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E97" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="33" t="s">
+      <c r="F97" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H97" s="19" t="s">
-        <v>143</v>
+      <c r="H97" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="1"/>
@@ -5729,25 +5797,27 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A98" s="37"/>
+      <c r="A98" s="49"/>
       <c r="B98" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C98" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E98" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="33" t="s">
+      <c r="F98" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="19" t="s">
-        <v>145</v>
+      <c r="G98" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="1"/>
@@ -5767,26 +5837,26 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
+    <row r="99" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A99" s="49"/>
       <c r="B99" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C99" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E99" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="33" t="s">
+      <c r="F99" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="3"/>
-      <c r="H99" s="20" t="s">
-        <v>147</v>
+      <c r="H99" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="1"/>
@@ -5806,28 +5876,26 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A100" s="37"/>
+    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A100" s="49"/>
       <c r="B100" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C100" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E100" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G100" s="3"/>
       <c r="H100" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="1"/>
@@ -5848,27 +5916,27 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A101" s="37"/>
+      <c r="A101" s="49"/>
       <c r="B101" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C101" s="2">
+        <v>8</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="32" t="s">
+      <c r="F101" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H101" s="19" t="s">
-        <v>151</v>
+      <c r="H101" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="1"/>
@@ -5889,27 +5957,27 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A102" s="37"/>
+      <c r="A102" s="49"/>
       <c r="B102" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C102" s="15">
-        <v>10</v>
+      <c r="C102" s="2">
+        <v>9</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E102" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="32" t="s">
+      <c r="F102" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="19" t="s">
-        <v>153</v>
+      <c r="H102" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
@@ -5929,28 +5997,28 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
+    <row r="103" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A103" s="49"/>
       <c r="B103" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C103" s="2">
-        <v>11</v>
+      <c r="C103" s="14">
+        <v>10</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="32" t="s">
+      <c r="F103" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H103" s="20" t="s">
-        <v>155</v>
+      <c r="H103" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
@@ -5970,28 +6038,28 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A104" s="37"/>
+    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A104" s="49"/>
       <c r="B104" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C104" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E104" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="32" t="s">
+      <c r="F104" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
@@ -6012,25 +6080,27 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A105" s="37"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E105" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="32" t="s">
+      <c r="F105" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="19" t="s">
-        <v>159</v>
+      <c r="G105" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
@@ -6051,27 +6121,25 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A106" s="37"/>
+      <c r="A106" s="49"/>
       <c r="B106" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C106" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E106" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="32" t="s">
+      <c r="F106" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G106" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="19" t="s">
-        <v>161</v>
+      <c r="G106" s="3"/>
+      <c r="H106" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
@@ -6091,28 +6159,28 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
+    <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A107" s="49"/>
       <c r="B107" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E107" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="34" t="s">
-        <v>57</v>
+      <c r="F107" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H107" s="20" t="s">
-        <v>163</v>
+      <c r="H107" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
@@ -6133,14 +6201,28 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="15"/>
+      <c r="A108" s="49"/>
+      <c r="B108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2">
+        <v>15</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -6167,7 +6249,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="1"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="4"/>
+      <c r="H109" s="14"/>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -6187,30 +6269,14 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C110" s="2">
-        <v>1</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -6230,27 +6296,29 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
+      <c r="A111" s="51" t="s">
+        <v>164</v>
+      </c>
       <c r="B111" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C111" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E111" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="33" t="s">
+      <c r="F111" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G111" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="20" t="s">
-        <v>166</v>
+      <c r="H111" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
@@ -6271,27 +6339,27 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C112" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E112" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="33" t="s">
+      <c r="F112" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H112" s="20" t="s">
-        <v>167</v>
+      <c r="H112" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
@@ -6311,26 +6379,28 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A113" s="37"/>
+    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A113" s="49"/>
       <c r="B113" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C113" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E113" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="33" t="s">
+      <c r="F113" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="3"/>
+      <c r="G113" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H113" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6350,28 +6420,26 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
+    <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A114" s="49"/>
       <c r="B114" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C114" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E114" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="33" t="s">
+      <c r="F114" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H114" s="20" t="s">
-        <v>170</v>
+      <c r="G114" s="3"/>
+      <c r="H114" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
@@ -6391,28 +6459,28 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A115" s="37"/>
+    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A115" s="49"/>
       <c r="B115" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C115" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E115" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="33" t="s">
+      <c r="F115" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="10" t="s">
-        <v>11</v>
+      <c r="G115" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1"/>
@@ -6432,28 +6500,28 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
+    <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A116" s="49"/>
       <c r="B116" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C116" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E116" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="33" t="s">
+      <c r="F116" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H116" s="20" t="s">
-        <v>172</v>
+      <c r="H116" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="1"/>
@@ -6474,27 +6542,27 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
+      <c r="A117" s="49"/>
       <c r="B117" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C117" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E117" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E117" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="33" t="s">
+      <c r="F117" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="20" t="s">
-        <v>173</v>
+      <c r="H117" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
@@ -6514,26 +6582,28 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A118" s="37"/>
+    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A118" s="49"/>
       <c r="B118" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C118" s="2">
+        <v>8</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E118" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="33" t="s">
+      <c r="F118" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="3"/>
+      <c r="G118" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H118" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6554,27 +6624,25 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A119" s="37"/>
+      <c r="A119" s="49"/>
       <c r="B119" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C119" s="2">
+        <v>9</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E119" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="19" t="s">
-        <v>175</v>
+      <c r="G119" s="3"/>
+      <c r="H119" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6595,25 +6663,27 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A120" s="37"/>
+      <c r="A120" s="49"/>
       <c r="B120" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C120" s="2">
+        <v>10</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="19" t="s">
-        <v>176</v>
+      <c r="H120" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
@@ -6634,27 +6704,25 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A121" s="37"/>
+      <c r="A121" s="49"/>
       <c r="B121" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C121" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E121" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F121" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" s="19" t="s">
-        <v>177</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
@@ -6675,25 +6743,27 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A122" s="37"/>
+      <c r="A122" s="49"/>
       <c r="B122" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C122" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E122" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="32" t="s">
+      <c r="F122" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="19" t="s">
-        <v>178</v>
+      <c r="G122" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6714,25 +6784,25 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A123" s="37"/>
+      <c r="A123" s="49"/>
       <c r="B123" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C123" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E123" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="E123" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="32" t="s">
+      <c r="F123" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G123" s="3"/>
-      <c r="H123" s="19" t="s">
-        <v>179</v>
+      <c r="H123" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6753,27 +6823,25 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A124" s="37"/>
+      <c r="A124" s="49"/>
       <c r="B124" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C124" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E124" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="E124" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="32" t="s">
+      <c r="F124" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G124" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" s="19" t="s">
-        <v>180</v>
+      <c r="G124" s="3"/>
+      <c r="H124" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6794,27 +6862,27 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A125" s="37"/>
+      <c r="A125" s="49"/>
       <c r="B125" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E125" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="E125" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="32" t="s">
+      <c r="F125" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G125" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H125" s="19" t="s">
-        <v>182</v>
+      <c r="H125" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6835,27 +6903,27 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A126" s="37"/>
+      <c r="A126" s="49"/>
       <c r="B126" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E126" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="32" t="s">
+      <c r="F126" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G126" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H126" s="19" t="s">
-        <v>183</v>
+      <c r="H126" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
@@ -6876,27 +6944,27 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A127" s="37"/>
+      <c r="A127" s="49"/>
       <c r="B127" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C127" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E127" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="32" t="s">
+      <c r="F127" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G127" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H127" s="19" t="s">
-        <v>185</v>
+      <c r="H127" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
@@ -6916,26 +6984,28 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
+    <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A128" s="49"/>
       <c r="B128" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C128" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E128" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="32" t="s">
+      <c r="F128" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="20" t="s">
-        <v>187</v>
+      <c r="G128" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
@@ -6956,27 +7026,25 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
+      <c r="A129" s="49"/>
       <c r="B129" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C129" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E129" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E129" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F129" s="32" t="s">
+      <c r="F129" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G129" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" s="20" t="s">
-        <v>188</v>
+      <c r="G129" s="3"/>
+      <c r="H129" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
@@ -6997,27 +7065,27 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
+      <c r="A130" s="49"/>
       <c r="B130" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E130" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="E130" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="32" t="s">
+      <c r="F130" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G130" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H130" s="20" t="s">
-        <v>190</v>
+      <c r="H130" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
@@ -7037,26 +7105,28 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A131" s="37"/>
+    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="49"/>
       <c r="B131" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="2">
+        <v>21</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E131" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" s="3"/>
+      <c r="G131" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H131" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="1"/>
@@ -7077,25 +7147,25 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A132" s="37"/>
+      <c r="A132" s="49"/>
       <c r="B132" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C132" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E132" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="34" t="s">
-        <v>57</v>
+      <c r="F132" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="G132" s="3"/>
-      <c r="H132" s="19" t="s">
-        <v>193</v>
+      <c r="H132" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
@@ -7116,25 +7186,25 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A133" s="37"/>
+      <c r="A133" s="49"/>
       <c r="B133" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E133" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="E133" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="34" t="s">
+      <c r="F133" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G133" s="3"/>
-      <c r="H133" s="19" t="s">
-        <v>195</v>
+      <c r="H133" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
@@ -7155,23 +7225,26 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A134" s="49"/>
       <c r="B134" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" s="2">
-        <v>25</v>
-      </c>
-      <c r="D134" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="E134" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E134" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="29" t="s">
-        <v>22</v>
+      <c r="F134" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="G134" s="3"/>
-      <c r="H134" s="19"/>
+      <c r="H134" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -7195,19 +7268,19 @@
         <v>1</v>
       </c>
       <c r="C135" s="2">
-        <v>26</v>
-      </c>
-      <c r="D135" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="E135" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="E135" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="29" t="s">
+      <c r="F135" s="28" t="s">
         <v>22</v>
       </c>
       <c r="G135" s="3"/>
-      <c r="H135" s="19"/>
+      <c r="H135" s="18"/>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -7226,15 +7299,24 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="1"/>
+    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="B136" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2">
+        <v>26</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="G136" s="3"/>
-      <c r="H136" s="4"/>
+      <c r="H136" s="18"/>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -7253,29 +7335,15 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A137" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="B137" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C137" s="2">
-        <v>1</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" s="33" t="s">
-        <v>10</v>
-      </c>
+    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="1"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="19" t="s">
-        <v>198</v>
-      </c>
+      <c r="H137" s="4"/>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -7294,28 +7362,28 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
+    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A138" s="51" t="s">
+        <v>196</v>
+      </c>
       <c r="B138" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" s="2">
         <v>1</v>
       </c>
-      <c r="C138" s="2">
-        <v>2</v>
-      </c>
       <c r="D138" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="33" t="s">
+      <c r="F138" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G138" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" s="20" t="s">
-        <v>200</v>
+      <c r="G138" s="3"/>
+      <c r="H138" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
@@ -7335,28 +7403,28 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A139" s="37"/>
+    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A139" s="49"/>
       <c r="B139" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C139" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F139" s="32" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
@@ -7377,27 +7445,27 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A140" s="37"/>
+      <c r="A140" s="49"/>
       <c r="B140" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C140" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F140" s="32" t="s">
+      <c r="F140" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G140" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H140" s="19" t="s">
-        <v>204</v>
+      <c r="H140" s="18" t="s">
+        <v>202</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7418,27 +7486,27 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A141" s="37"/>
+      <c r="A141" s="49"/>
       <c r="B141" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F141" s="32" t="s">
+      <c r="F141" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H141" s="19" t="s">
-        <v>206</v>
+      <c r="H141" s="18" t="s">
+        <v>204</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7458,28 +7526,28 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="37"/>
+    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A142" s="49"/>
       <c r="B142" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E142" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E142" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="32" t="s">
+      <c r="F142" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G142" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H142" s="20" t="s">
-        <v>208</v>
+      <c r="H142" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7500,27 +7568,27 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
+      <c r="A143" s="49"/>
       <c r="B143" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E143" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E143" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F143" s="32" t="s">
+      <c r="F143" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H143" s="20" t="s">
-        <v>210</v>
+      <c r="H143" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7540,28 +7608,28 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A144" s="37"/>
+    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A144" s="49"/>
       <c r="B144" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="32" t="s">
+      <c r="F144" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
@@ -7581,28 +7649,28 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="37"/>
+    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A145" s="49"/>
       <c r="B145" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C145" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="32" t="s">
+      <c r="F145" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H145" s="20" t="s">
-        <v>214</v>
+      <c r="H145" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="1"/>
@@ -7622,26 +7690,28 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A146" s="37"/>
+    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A146" s="49"/>
       <c r="B146" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C146" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="32" t="s">
+      <c r="F146" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G146" s="3"/>
+      <c r="G146" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H146" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
@@ -7662,27 +7732,25 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="37"/>
+      <c r="A147" s="49"/>
       <c r="B147" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F147" s="32" t="s">
+      <c r="F147" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G147" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H147" s="19" t="s">
-        <v>218</v>
+      <c r="G147" s="3"/>
+      <c r="H147" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
@@ -7703,27 +7771,27 @@
       <c r="Y147" s="1"/>
     </row>
     <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" s="37"/>
+      <c r="A148" s="49"/>
       <c r="B148" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C148" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F148" s="32" t="s">
+      <c r="F148" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H148" s="19" t="s">
-        <v>220</v>
+      <c r="H148" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7743,28 +7811,28 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="37"/>
+    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A149" s="49"/>
       <c r="B149" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C149" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="34" t="s">
-        <v>57</v>
+      <c r="F149" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H149" s="20" t="s">
-        <v>222</v>
+      <c r="H149" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7785,25 +7853,27 @@
       <c r="Y149" s="1"/>
     </row>
     <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="37"/>
+      <c r="A150" s="49"/>
       <c r="B150" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C150" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F150" s="34" t="s">
+      <c r="F150" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="20" t="s">
-        <v>224</v>
+      <c r="G150" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>222</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7823,28 +7893,26 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A151" s="37"/>
+    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A151" s="49"/>
       <c r="B151" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C151" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E151" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F151" s="34" t="s">
+      <c r="F151" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G151" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G151" s="3"/>
       <c r="H151" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
@@ -7864,15 +7932,29 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="4"/>
+    <row r="152" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A152" s="49"/>
+      <c r="B152" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C152" s="2">
+        <v>15</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="18" t="s">
+        <v>226</v>
+      </c>
       <c r="I152" s="3"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -7918,29 +8000,15 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A154" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="B154" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C154" s="2">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E154" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="F154" s="33" t="s">
-        <v>10</v>
-      </c>
+    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="1"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="19" t="s">
-        <v>230</v>
-      </c>
+      <c r="H154" s="4"/>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -7960,25 +8028,27 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A155" s="37"/>
+      <c r="A155" s="51" t="s">
+        <v>227</v>
+      </c>
       <c r="B155" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C155" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E155" s="23" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="E155" s="27" t="s">
+        <v>229</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G155" s="3"/>
-      <c r="H155" s="19" t="s">
-        <v>233</v>
+      <c r="H155" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
@@ -7999,25 +8069,25 @@
       <c r="Y155" s="1"/>
     </row>
     <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A156" s="37"/>
+      <c r="A156" s="49"/>
       <c r="B156" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C156" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E156" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="F156" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E156" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F156" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G156" s="3"/>
-      <c r="H156" s="19" t="s">
-        <v>236</v>
+      <c r="H156" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
@@ -8038,25 +8108,25 @@
       <c r="Y156" s="1"/>
     </row>
     <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A157" s="37"/>
+      <c r="A157" s="49"/>
       <c r="B157" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C157" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E157" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="F157" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E157" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F157" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G157" s="3"/>
-      <c r="H157" s="19" t="s">
-        <v>239</v>
+      <c r="H157" s="18" t="s">
+        <v>236</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -8077,25 +8147,25 @@
       <c r="Y157" s="1"/>
     </row>
     <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A158" s="37"/>
+      <c r="A158" s="49"/>
       <c r="B158" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E158" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="F158" s="34" t="s">
-        <v>57</v>
+        <v>237</v>
+      </c>
+      <c r="E158" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F158" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="G158" s="3"/>
-      <c r="H158" s="19" t="s">
-        <v>242</v>
+      <c r="H158" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8115,26 +8185,26 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="37"/>
+    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A159" s="49"/>
       <c r="B159" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C159" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E159" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="F159" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E159" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F159" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G159" s="3"/>
-      <c r="H159" s="20" t="s">
-        <v>245</v>
+      <c r="H159" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1"/>
@@ -8155,14 +8225,26 @@
       <c r="Y159" s="1"/>
     </row>
     <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="1"/>
+      <c r="A160" s="49"/>
+      <c r="B160" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C160" s="2">
+        <v>6</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E160" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F160" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="G160" s="3"/>
-      <c r="H160" s="4"/>
+      <c r="H160" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="I160" s="3"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -8208,29 +8290,15 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="B162" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C162" s="2">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E162" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="F162" s="33" t="s">
-        <v>10</v>
-      </c>
+    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="1"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="19" t="s">
-        <v>248</v>
-      </c>
+      <c r="H162" s="4"/>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -8250,25 +8318,27 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="37"/>
+      <c r="A163" s="51" t="s">
+        <v>246</v>
+      </c>
       <c r="B163" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C163" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E163" s="23" t="s">
-        <v>250</v>
+        <v>78</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="F163" s="32" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G163" s="3"/>
-      <c r="H163" s="19" t="s">
-        <v>251</v>
+      <c r="H163" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
@@ -8288,26 +8358,26 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="37"/>
+    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A164" s="49"/>
       <c r="B164" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C164" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E164" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="F164" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="E164" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F164" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G164" s="3"/>
-      <c r="H164" s="20" t="s">
-        <v>254</v>
+      <c r="H164" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
@@ -8327,26 +8397,26 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="37"/>
+    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A165" s="49"/>
       <c r="B165" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C165" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E165" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="F165" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E165" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F165" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8366,26 +8436,26 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="37"/>
+    <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A166" s="49"/>
       <c r="B166" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C166" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E166" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F166" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E166" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F166" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G166" s="3"/>
-      <c r="H166" s="20" t="s">
-        <v>254</v>
+      <c r="H166" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
@@ -8406,14 +8476,26 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="21"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="1"/>
+      <c r="A167" s="49"/>
+      <c r="B167" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C167" s="2">
+        <v>5</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E167" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F167" s="31" t="s">
+        <v>22</v>
+      </c>
       <c r="G167" s="3"/>
-      <c r="H167" s="4"/>
+      <c r="H167" s="19" t="s">
+        <v>254</v>
+      </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -8433,7 +8515,7 @@
       <c r="Y167" s="1"/>
     </row>
     <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+      <c r="A168" s="20"/>
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
       <c r="D168" s="1"/>
@@ -8459,29 +8541,15 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A169" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="B169" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C169" s="2">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E169" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F169" s="33" t="s">
-        <v>10</v>
-      </c>
+    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="1"/>
       <c r="G169" s="3"/>
-      <c r="H169" s="19" t="s">
-        <v>263</v>
-      </c>
+      <c r="H169" s="4"/>
       <c r="I169" s="3"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -8501,25 +8569,27 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="37"/>
+      <c r="A170" s="51" t="s">
+        <v>260</v>
+      </c>
       <c r="B170" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C170" s="2">
         <v>1</v>
       </c>
-      <c r="C170" s="2">
-        <v>2</v>
-      </c>
       <c r="D170" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E170" s="24" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+      <c r="E170" s="22" t="s">
+        <v>262</v>
       </c>
       <c r="F170" s="32" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G170" s="3"/>
-      <c r="H170" s="19" t="s">
-        <v>266</v>
+      <c r="H170" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
@@ -8540,25 +8610,25 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="37"/>
+      <c r="A171" s="49"/>
       <c r="B171" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C171" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E171" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E171" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="F171" s="32" t="s">
+      <c r="F171" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G171" s="3"/>
-      <c r="H171" s="19" t="s">
-        <v>268</v>
+      <c r="H171" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
@@ -8579,24 +8649,24 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A172" s="37"/>
+      <c r="A172" s="49"/>
       <c r="B172" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E172" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="F172" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="F172" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G172" s="3"/>
-      <c r="H172" s="19" t="s">
+      <c r="H172" s="18" t="s">
         <v>268</v>
       </c>
       <c r="I172" s="3"/>
@@ -8618,25 +8688,25 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A173" s="37"/>
+      <c r="A173" s="49"/>
       <c r="B173" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E173" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E173" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="F173" s="32" t="s">
+      <c r="F173" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="3"/>
-      <c r="H173" s="19" t="s">
-        <v>272</v>
+      <c r="H173" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
@@ -8657,25 +8727,25 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A174" s="37"/>
+      <c r="A174" s="49"/>
       <c r="B174" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E174" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="F174" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F174" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="3"/>
-      <c r="H174" s="19" t="s">
-        <v>275</v>
+      <c r="H174" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8696,25 +8766,25 @@
       <c r="Y174" s="1"/>
     </row>
     <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A175" s="37"/>
+      <c r="A175" s="49"/>
       <c r="B175" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E175" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E175" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="F175" s="32" t="s">
+      <c r="F175" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G175" s="3"/>
-      <c r="H175" s="19" t="s">
-        <v>277</v>
+      <c r="H175" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
@@ -8735,25 +8805,25 @@
       <c r="Y175" s="1"/>
     </row>
     <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A176" s="37"/>
+      <c r="A176" s="49"/>
       <c r="B176" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E176" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="F176" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E176" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="F176" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G176" s="3"/>
-      <c r="H176" s="19" t="s">
-        <v>280</v>
+      <c r="H176" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
@@ -8774,25 +8844,25 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A177" s="37"/>
+      <c r="A177" s="49"/>
       <c r="B177" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C177" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E177" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="F177" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E177" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="F177" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G177" s="3"/>
-      <c r="H177" s="19" t="s">
-        <v>283</v>
+      <c r="H177" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
@@ -8812,26 +8882,26 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A178" s="37"/>
+    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A178" s="49"/>
       <c r="B178" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C178" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E178" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="F178" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="E178" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F178" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G178" s="3"/>
-      <c r="H178" s="20" t="s">
-        <v>286</v>
+      <c r="H178" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
@@ -8851,26 +8921,26 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="37"/>
+    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A179" s="49"/>
       <c r="B179" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C179" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E179" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F179" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="E179" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="F179" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
@@ -8891,25 +8961,25 @@
       <c r="Y179" s="1"/>
     </row>
     <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A180" s="37"/>
+      <c r="A180" s="49"/>
       <c r="B180" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C180" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E180" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="F180" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E180" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F180" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G180" s="3"/>
-      <c r="H180" s="19" t="s">
-        <v>292</v>
+      <c r="H180" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -8930,25 +9000,25 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="37"/>
+      <c r="A181" s="49"/>
       <c r="B181" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C181" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E181" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F181" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="E181" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="F181" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G181" s="3"/>
-      <c r="H181" s="19" t="s">
-        <v>295</v>
+      <c r="H181" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -8969,25 +9039,25 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A182" s="37"/>
+      <c r="A182" s="49"/>
       <c r="B182" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C182" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E182" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="F182" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E182" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="F182" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G182" s="3"/>
-      <c r="H182" s="19" t="s">
-        <v>298</v>
+      <c r="H182" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -9008,25 +9078,25 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A183" s="37"/>
+      <c r="A183" s="49"/>
       <c r="B183" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C183" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E183" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="F183" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="E183" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F183" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G183" s="3"/>
-      <c r="H183" s="19" t="s">
-        <v>300</v>
+      <c r="H183" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -9047,25 +9117,25 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A184" s="37"/>
+      <c r="A184" s="49"/>
       <c r="B184" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C184" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E184" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="F184" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E184" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="F184" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G184" s="3"/>
-      <c r="H184" s="19" t="s">
-        <v>303</v>
+      <c r="H184" s="18" t="s">
+        <v>300</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9086,25 +9156,25 @@
       <c r="Y184" s="1"/>
     </row>
     <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A185" s="37"/>
+      <c r="A185" s="49"/>
       <c r="B185" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C185" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E185" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="F185" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E185" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="F185" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="19" t="s">
-        <v>306</v>
+      <c r="H185" s="18" t="s">
+        <v>303</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9124,26 +9194,26 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A186" s="37"/>
+    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A186" s="49"/>
       <c r="B186" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C186" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E186" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="F186" s="34" t="s">
-        <v>57</v>
+        <v>304</v>
+      </c>
+      <c r="E186" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="F186" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="20" t="s">
-        <v>309</v>
+      <c r="H186" s="18" t="s">
+        <v>306</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9163,26 +9233,26 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A187" s="37"/>
+    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A187" s="49"/>
       <c r="B187" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C187" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E187" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="F187" s="32" t="s">
-        <v>22</v>
+        <v>307</v>
+      </c>
+      <c r="E187" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="F187" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
@@ -9203,25 +9273,25 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A188" s="37"/>
+      <c r="A188" s="49"/>
       <c r="B188" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E188" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="F188" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="E188" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="F188" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="3"/>
-      <c r="H188" s="19" t="s">
-        <v>314</v>
+      <c r="H188" s="18" t="s">
+        <v>312</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
@@ -9242,25 +9312,25 @@
       <c r="Y188" s="1"/>
     </row>
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" s="37"/>
+      <c r="A189" s="49"/>
       <c r="B189" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E189" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="F189" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="E189" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F189" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="19" t="s">
-        <v>317</v>
+      <c r="H189" s="18" t="s">
+        <v>314</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
@@ -9281,25 +9351,25 @@
       <c r="Y189" s="1"/>
     </row>
     <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A190" s="37"/>
+      <c r="A190" s="49"/>
       <c r="B190" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C190" s="2">
+        <v>21</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E190" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="F190" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E190" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="F190" s="32" t="s">
-        <v>22</v>
-      </c>
       <c r="G190" s="3"/>
-      <c r="H190" s="19" t="s">
-        <v>320</v>
+      <c r="H190" s="18" t="s">
+        <v>317</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
@@ -9319,26 +9389,26 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A191" s="37"/>
+    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A191" s="49"/>
       <c r="B191" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C191" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E191" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="F191" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="E191" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="F191" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="3"/>
-      <c r="H191" s="20" t="s">
-        <v>323</v>
+      <c r="H191" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9359,25 +9429,25 @@
       <c r="Y191" s="1"/>
     </row>
     <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A192" s="37"/>
+      <c r="A192" s="49"/>
       <c r="B192" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E192" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="F192" s="34" t="s">
-        <v>57</v>
+        <v>321</v>
+      </c>
+      <c r="E192" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="F192" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="20" t="s">
-        <v>326</v>
+      <c r="H192" s="19" t="s">
+        <v>323</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9398,25 +9468,25 @@
       <c r="Y192" s="1"/>
     </row>
     <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A193" s="37"/>
+      <c r="A193" s="49"/>
       <c r="B193" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C193" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E193" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="F193" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="E193" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F193" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="20" t="s">
-        <v>329</v>
+      <c r="H193" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
@@ -9436,26 +9506,26 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A194" s="37"/>
+    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A194" s="49"/>
       <c r="B194" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C194" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E194" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="F194" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="E194" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="F194" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
@@ -9475,25 +9545,27 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1" t="s">
-        <v>392</v>
+    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A195" s="49"/>
+      <c r="B195" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C195" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E195" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="F195" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="E195" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F195" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="4"/>
+      <c r="H195" s="18" t="s">
+        <v>331</v>
+      </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -9514,11 +9586,21 @@
     </row>
     <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="1"/>
+      <c r="B196" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C196" s="2">
+        <v>27</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E196" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F196" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="G196" s="3"/>
       <c r="H196" s="4"/>
       <c r="I196" s="3"/>
@@ -9539,29 +9621,15 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A197" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="B197" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C197" s="2">
-        <v>1</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F197" s="33" t="s">
-        <v>10</v>
-      </c>
+    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="1"/>
       <c r="G197" s="3"/>
-      <c r="H197" s="19" t="s">
-        <v>334</v>
-      </c>
+      <c r="H197" s="4"/>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -9581,25 +9649,27 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A198" s="37"/>
+      <c r="A198" s="51" t="s">
+        <v>332</v>
+      </c>
       <c r="B198" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F198" s="32" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G198" s="3"/>
-      <c r="H198" s="19" t="s">
-        <v>336</v>
+      <c r="H198" s="18" t="s">
+        <v>334</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
@@ -9619,26 +9689,26 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A199" s="37"/>
+    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A199" s="49"/>
       <c r="B199" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F199" s="32" t="s">
+      <c r="F199" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="20" t="s">
-        <v>338</v>
+      <c r="H199" s="18" t="s">
+        <v>336</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
@@ -9659,25 +9729,25 @@
       <c r="Y199" s="1"/>
     </row>
     <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A200" s="37"/>
+      <c r="A200" s="49"/>
       <c r="B200" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F200" s="32" t="s">
+      <c r="F200" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="20" t="s">
-        <v>340</v>
+      <c r="H200" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
@@ -9697,26 +9767,26 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A201" s="37"/>
+    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A201" s="49"/>
       <c r="B201" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C201" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F201" s="32" t="s">
+      <c r="F201" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
@@ -9737,25 +9807,25 @@
       <c r="Y201" s="1"/>
     </row>
     <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A202" s="37"/>
+      <c r="A202" s="49"/>
       <c r="B202" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C202" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F202" s="32" t="s">
+      <c r="F202" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="19" t="s">
-        <v>344</v>
+      <c r="H202" s="18" t="s">
+        <v>342</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9776,25 +9846,25 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A203" s="37"/>
+      <c r="A203" s="49"/>
       <c r="B203" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F203" s="32" t="s">
+      <c r="F203" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G203" s="3"/>
-      <c r="H203" s="19" t="s">
-        <v>346</v>
+      <c r="H203" s="18" t="s">
+        <v>344</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9814,26 +9884,26 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="37"/>
+    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A204" s="49"/>
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F204" s="32" t="s">
+      <c r="F204" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="20" t="s">
-        <v>348</v>
+      <c r="H204" s="18" t="s">
+        <v>346</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9853,26 +9923,26 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A205" s="37"/>
+    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A205" s="49"/>
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F205" s="32" t="s">
+      <c r="F205" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9893,25 +9963,25 @@
       <c r="Y205" s="1"/>
     </row>
     <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A206" s="37"/>
+      <c r="A206" s="49"/>
       <c r="B206" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C206" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F206" s="32" t="s">
+      <c r="F206" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G206" s="3"/>
-      <c r="H206" s="19" t="s">
-        <v>352</v>
+      <c r="H206" s="18" t="s">
+        <v>350</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -9931,26 +10001,26 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A207" s="37"/>
+    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A207" s="49"/>
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F207" s="32" t="s">
+      <c r="F207" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="20" t="s">
-        <v>354</v>
+      <c r="H207" s="18" t="s">
+        <v>352</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -9970,26 +10040,26 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A208" s="37"/>
+    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A208" s="49"/>
       <c r="B208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F208" s="32" t="s">
+      <c r="F208" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -10010,25 +10080,25 @@
       <c r="Y208" s="1"/>
     </row>
     <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A209" s="37"/>
+      <c r="A209" s="49"/>
       <c r="B209" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F209" s="32" t="s">
+      <c r="F209" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="19" t="s">
-        <v>358</v>
+      <c r="H209" s="18" t="s">
+        <v>356</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -10049,25 +10119,25 @@
       <c r="Y209" s="1"/>
     </row>
     <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A210" s="37"/>
+      <c r="A210" s="49"/>
       <c r="B210" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F210" s="32" t="s">
+      <c r="F210" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="19" t="s">
-        <v>360</v>
+      <c r="H210" s="18" t="s">
+        <v>358</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
@@ -10087,26 +10157,26 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="37"/>
+    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A211" s="49"/>
       <c r="B211" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F211" s="32" t="s">
+      <c r="F211" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G211" s="3"/>
-      <c r="H211" s="20" t="s">
-        <v>362</v>
+      <c r="H211" s="18" t="s">
+        <v>360</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
@@ -10127,25 +10197,25 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A212" s="37"/>
+      <c r="A212" s="49"/>
       <c r="B212" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F212" s="34" t="s">
-        <v>57</v>
+      <c r="F212" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="20" t="s">
-        <v>364</v>
+      <c r="H212" s="19" t="s">
+        <v>362</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10166,25 +10236,25 @@
       <c r="Y212" s="1"/>
     </row>
     <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A213" s="37"/>
+      <c r="A213" s="49"/>
       <c r="B213" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F213" s="34" t="s">
+      <c r="F213" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G213" s="3"/>
-      <c r="H213" s="20" t="s">
-        <v>366</v>
+      <c r="H213" s="19" t="s">
+        <v>364</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10205,25 +10275,25 @@
       <c r="Y213" s="1"/>
     </row>
     <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A214" s="37"/>
+      <c r="A214" s="49"/>
       <c r="B214" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F214" s="34" t="s">
+      <c r="F214" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G214" s="3"/>
-      <c r="H214" s="20" t="s">
-        <v>368</v>
+      <c r="H214" s="19" t="s">
+        <v>366</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10243,26 +10313,26 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A215" s="37"/>
+    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A215" s="49"/>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F215" s="34" t="s">
+      <c r="F215" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10283,25 +10353,25 @@
       <c r="Y215" s="1"/>
     </row>
     <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A216" s="37"/>
+      <c r="A216" s="49"/>
       <c r="B216" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F216" s="34" t="s">
+      <c r="F216" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="19" t="s">
-        <v>372</v>
+      <c r="H216" s="18" t="s">
+        <v>370</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10321,26 +10391,26 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A217" s="37"/>
+    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A217" s="49"/>
       <c r="B217" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F217" s="34" t="s">
+      <c r="F217" s="33" t="s">
         <v>57</v>
       </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="20" t="s">
-        <v>374</v>
+      <c r="H217" s="18" t="s">
+        <v>372</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10361,14 +10431,26 @@
       <c r="Y217" s="1"/>
     </row>
     <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="1"/>
+      <c r="A218" s="49"/>
+      <c r="B218" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C218" s="2">
+        <v>21</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="G218" s="3"/>
-      <c r="H218" s="4"/>
+      <c r="H218" s="19" t="s">
+        <v>374</v>
+      </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -10415,28 +10497,14 @@
       <c r="Y219" s="1"/>
     </row>
     <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="B220" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C220" s="2">
-        <v>1</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E220" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F220" s="33" t="s">
-        <v>10</v>
-      </c>
+      <c r="A220" s="1"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="1"/>
       <c r="G220" s="3"/>
-      <c r="H220" s="20" t="s">
-        <v>377</v>
-      </c>
+      <c r="H220" s="4"/>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -10455,26 +10523,28 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A221" s="37"/>
+    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A221" s="51" t="s">
+        <v>375</v>
+      </c>
       <c r="B221" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E221" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E221" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F221" s="32" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10495,25 +10565,25 @@
       <c r="Y221" s="1"/>
     </row>
     <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A222" s="37"/>
+      <c r="A222" s="49"/>
       <c r="B222" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C222" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F222" s="32" t="s">
+      <c r="F222" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="19" t="s">
-        <v>381</v>
+      <c r="H222" s="18" t="s">
+        <v>379</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
@@ -10534,25 +10604,25 @@
       <c r="Y222" s="1"/>
     </row>
     <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A223" s="37"/>
+      <c r="A223" s="49"/>
       <c r="B223" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C223" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="32" t="s">
+      <c r="F223" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G223" s="3"/>
-      <c r="H223" s="19" t="s">
-        <v>383</v>
+      <c r="H223" s="18" t="s">
+        <v>381</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
@@ -10573,25 +10643,25 @@
       <c r="Y223" s="1"/>
     </row>
     <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A224" s="37"/>
+      <c r="A224" s="49"/>
       <c r="B224" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C224" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F224" s="32" t="s">
+      <c r="F224" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G224" s="3"/>
-      <c r="H224" s="25" t="s">
-        <v>385</v>
+      <c r="H224" s="18" t="s">
+        <v>383</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
@@ -10612,25 +10682,25 @@
       <c r="Y224" s="1"/>
     </row>
     <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A225" s="37"/>
+      <c r="A225" s="49"/>
       <c r="B225" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F225" s="34" t="s">
-        <v>57</v>
+      <c r="F225" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="G225" s="3"/>
-      <c r="H225" s="19" t="s">
-        <v>387</v>
+      <c r="H225" s="24" t="s">
+        <v>385</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
@@ -10650,15 +10720,27 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="1"/>
+    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A226" s="49"/>
+      <c r="B226" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C226" s="2">
+        <v>6</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="G226" s="3"/>
-      <c r="H226" s="4"/>
+      <c r="H226" s="18" t="s">
+        <v>387</v>
+      </c>
       <c r="I226" s="3"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -10705,15 +10787,9 @@
       <c r="Y227" s="1"/>
     </row>
     <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="B228" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C228" s="2">
-        <v>1</v>
-      </c>
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="2"/>
       <c r="D228" s="1"/>
       <c r="E228" s="3"/>
       <c r="F228" s="1"/>
@@ -10738,16 +10814,24 @@
       <c r="Y228" s="1"/>
     </row>
     <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A229" s="37"/>
-      <c r="B229" s="1" t="b">
-        <v>0</v>
+      <c r="A229" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="C229" s="2">
-        <v>2</v>
-      </c>
-      <c r="D229" s="1"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E229" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229" s="47" t="s">
+        <v>435</v>
+      </c>
       <c r="G229" s="3"/>
       <c r="H229" s="4"/>
       <c r="I229" s="3"/>
@@ -10769,16 +10853,22 @@
       <c r="Y229" s="1"/>
     </row>
     <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A230" s="37"/>
-      <c r="B230" s="1" t="b">
-        <v>0</v>
+      <c r="A230" s="49"/>
+      <c r="B230" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="C230" s="2">
-        <v>3</v>
-      </c>
-      <c r="D230" s="1"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E230" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="47" t="s">
+        <v>435</v>
+      </c>
       <c r="G230" s="3"/>
       <c r="H230" s="4"/>
       <c r="I230" s="3"/>
@@ -10800,12 +10890,12 @@
       <c r="Y230" s="1"/>
     </row>
     <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A231" s="37"/>
+      <c r="A231" s="49"/>
       <c r="B231" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C231" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="3"/>
@@ -10831,12 +10921,12 @@
       <c r="Y231" s="1"/>
     </row>
     <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A232" s="37"/>
+      <c r="A232" s="49"/>
       <c r="B232" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C232" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="3"/>
@@ -10862,12 +10952,12 @@
       <c r="Y232" s="1"/>
     </row>
     <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A233" s="37"/>
+      <c r="A233" s="49"/>
       <c r="B233" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C233" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="3"/>
@@ -10893,12 +10983,12 @@
       <c r="Y233" s="1"/>
     </row>
     <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A234" s="37"/>
+      <c r="A234" s="49"/>
       <c r="B234" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C234" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="3"/>
@@ -10924,12 +11014,12 @@
       <c r="Y234" s="1"/>
     </row>
     <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A235" s="37"/>
+      <c r="A235" s="49"/>
       <c r="B235" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C235" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="3"/>
@@ -10955,12 +11045,12 @@
       <c r="Y235" s="1"/>
     </row>
     <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="37"/>
+      <c r="A236" s="49"/>
       <c r="B236" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C236" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="3"/>
@@ -10986,12 +11076,12 @@
       <c r="Y236" s="1"/>
     </row>
     <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A237" s="37"/>
+      <c r="A237" s="49"/>
       <c r="B237" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C237" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="3"/>
@@ -11017,12 +11107,12 @@
       <c r="Y237" s="1"/>
     </row>
     <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="37"/>
+      <c r="A238" s="49"/>
       <c r="B238" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C238" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="3"/>
@@ -11048,12 +11138,12 @@
       <c r="Y238" s="1"/>
     </row>
     <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A239" s="37"/>
+      <c r="A239" s="49"/>
       <c r="B239" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C239" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="3"/>
@@ -11079,12 +11169,12 @@
       <c r="Y239" s="1"/>
     </row>
     <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="37"/>
+      <c r="A240" s="49"/>
       <c r="B240" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C240" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="3"/>
@@ -11110,12 +11200,12 @@
       <c r="Y240" s="1"/>
     </row>
     <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A241" s="37"/>
+      <c r="A241" s="49"/>
       <c r="B241" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C241" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="3"/>
@@ -11141,12 +11231,12 @@
       <c r="Y241" s="1"/>
     </row>
     <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A242" s="37"/>
+      <c r="A242" s="49"/>
       <c r="B242" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C242" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="3"/>
@@ -11172,9 +11262,13 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A243" s="37"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="2"/>
+      <c r="A243" s="49"/>
+      <c r="B243" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C243" s="2">
+        <v>15</v>
+      </c>
       <c r="D243" s="1"/>
       <c r="E243" s="3"/>
       <c r="F243" s="1"/>
@@ -11199,7 +11293,7 @@
       <c r="Y243" s="1"/>
     </row>
     <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="37"/>
+      <c r="A244" s="49"/>
       <c r="B244" s="1"/>
       <c r="C244" s="2"/>
       <c r="D244" s="1"/>
@@ -11226,7 +11320,7 @@
       <c r="Y244" s="1"/>
     </row>
     <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="37"/>
+      <c r="A245" s="49"/>
       <c r="B245" s="1"/>
       <c r="C245" s="2"/>
       <c r="D245" s="1"/>
@@ -11253,7 +11347,7 @@
       <c r="Y245" s="1"/>
     </row>
     <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A246" s="37"/>
+      <c r="A246" s="49"/>
       <c r="B246" s="1"/>
       <c r="C246" s="2"/>
       <c r="D246" s="1"/>
@@ -11280,7 +11374,7 @@
       <c r="Y246" s="1"/>
     </row>
     <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A247" s="37"/>
+      <c r="A247" s="49"/>
       <c r="B247" s="1"/>
       <c r="C247" s="2"/>
       <c r="D247" s="1"/>
@@ -11307,7 +11401,7 @@
       <c r="Y247" s="1"/>
     </row>
     <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="49"/>
       <c r="B248" s="1"/>
       <c r="C248" s="2"/>
       <c r="D248" s="1"/>
@@ -31772,309 +31866,339 @@
       <c r="X1005" s="1"/>
       <c r="Y1005" s="1"/>
     </row>
+    <row r="1006" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="3"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="3"/>
+      <c r="H1006" s="4"/>
+      <c r="I1006" s="3"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+      <c r="O1006" s="1"/>
+      <c r="P1006" s="1"/>
+      <c r="Q1006" s="1"/>
+      <c r="R1006" s="1"/>
+      <c r="S1006" s="1"/>
+      <c r="T1006" s="1"/>
+      <c r="U1006" s="1"/>
+      <c r="V1006" s="1"/>
+      <c r="W1006" s="1"/>
+      <c r="X1006" s="1"/>
+      <c r="Y1006" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A33"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="A228:A247"/>
-    <mergeCell ref="A45:A57"/>
-    <mergeCell ref="A60:A71"/>
-    <mergeCell ref="A197:A217"/>
-    <mergeCell ref="A220:A225"/>
-    <mergeCell ref="A74:A90"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="A110:A133"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A169:A194"/>
+    <mergeCell ref="A7:A34"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A229:A248"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="A198:A218"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="A75:A91"/>
+    <mergeCell ref="A94:A108"/>
+    <mergeCell ref="A111:A134"/>
+    <mergeCell ref="A138:A152"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A170:A195"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G36" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E37" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G37" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G38" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E39" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G39" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G40" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E41" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G41" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E42" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E45" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G45" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E48" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E49" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G49" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E50" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G50" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E51" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G51" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G52" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E53" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E54" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E56" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E60" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G60" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G62" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E63" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E64" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E65" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G65" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E68" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E69" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G69" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E70" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G70" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E71" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E74" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G74" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E75" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="G75" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E76" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="G76" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E77" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E78" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G78" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E79" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="G79" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E80" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="G80" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E81" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="G81" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E83" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E84" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E85" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="G85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E89" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E90" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="G90" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E93" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="G93" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E94" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="G94" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E95" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="G95" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E96" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="G96" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E97" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G97" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E98" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E99" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E100" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G100" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E101" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G101" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E102" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G102" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E103" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G103" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E104" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G104" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E105" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E106" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G106" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E107" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G107" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E110" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G110" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E111" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G111" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E112" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G112" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G114" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E115" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="G115" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E116" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="G116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G117" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E118" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E119" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G119" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E120" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E121" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="G121" r:id="rId113" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E122" r:id="rId114" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E123" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E124" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G124" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E125" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G125" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E126" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G126" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E127" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G127" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E128" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E129" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G129" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E130" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E137" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E138" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G138" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E139" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G139" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E140" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="G141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G142" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E143" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G143" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E144" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G144" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E145" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G145" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E146" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E147" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G147" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E148" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G148" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E149" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G149" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E150" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E151" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G151" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E154" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E155" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E156" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E157" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E158" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E159" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E162" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E163" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E164" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E165" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E166" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E169" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E170" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E171" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E172" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E173" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E174" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E175" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E176" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E177" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E178" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E179" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E180" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E181" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E182" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E183" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E184" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E185" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E186" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E187" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E188" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E189" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E190" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E191" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E192" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E193" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E194" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E220" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E221" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E222" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E223" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E224" r:id="rId221" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E225" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E195" r:id="rId223" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E135" r:id="rId224" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E134" r:id="rId225" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
-    <hyperlink ref="G67" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E67" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E66" r:id="rId228" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="E37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E38" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G38" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G39" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E40" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G40" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E41" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E42" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G42" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E43" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E46" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G46" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E47" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E49" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E50" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G50" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E51" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G51" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E52" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G52" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E53" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E54" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E55" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E57" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E61" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G61" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E62" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E63" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G63" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E64" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E65" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E66" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G66" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E69" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E70" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G70" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E71" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E72" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E75" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G75" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E76" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G76" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E77" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G77" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E78" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E79" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G79" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E80" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G80" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E81" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G81" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E82" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G82" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E84" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E85" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E86" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="G86" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E90" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E91" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G91" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E94" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G94" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E95" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G95" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E96" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G96" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E97" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G97" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E98" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G98" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E99" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E100" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E101" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G101" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E102" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G102" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E103" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G103" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E104" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G104" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E105" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G105" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E106" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E107" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G107" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E108" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G108" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E111" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G111" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E112" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G112" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E113" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G113" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E114" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E115" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G116" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E117" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G117" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E118" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G120" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E121" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E122" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G122" r:id="rId113" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E123" r:id="rId114" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E124" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E125" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G125" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E126" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G126" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E127" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G127" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E128" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G128" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E129" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E130" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G130" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E131" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G131" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E132" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E133" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E134" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E138" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E139" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G139" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E140" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G140" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E141" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G141" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E142" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="G142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G144" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E145" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G145" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E146" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G146" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E147" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E148" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G148" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E149" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G149" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E150" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G150" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E151" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E152" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G152" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E155" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E156" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E157" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E158" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E159" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E160" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E163" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E164" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E165" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E166" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E167" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E170" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E171" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E172" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E173" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E174" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E175" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E176" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E177" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E178" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E179" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E180" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E181" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E182" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E183" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E184" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E185" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E186" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E187" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E188" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E189" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E190" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E191" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E192" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E193" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E194" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E195" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E198" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E199" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E200" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E201" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E202" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E203" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E204" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E205" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E206" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E207" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E208" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E209" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E210" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E211" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E212" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E213" r:id="rId211" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E214" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E215" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E216" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E217" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E218" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E221" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E222" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E223" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E224" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E225" r:id="rId221" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E226" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E196" r:id="rId223" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E136" r:id="rId224" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E135" r:id="rId225" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G68" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E68" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E67" r:id="rId228" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
     <hyperlink ref="E6" r:id="rId229" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
-    <hyperlink ref="E82" r:id="rId230" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
-    <hyperlink ref="E88" r:id="rId231" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
-    <hyperlink ref="E91" r:id="rId232" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
-    <hyperlink ref="E87" r:id="rId233" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
-    <hyperlink ref="E86" r:id="rId234" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
-    <hyperlink ref="E47" r:id="rId235" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
-    <hyperlink ref="E55" r:id="rId236" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
-    <hyperlink ref="E28" r:id="rId237" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
+    <hyperlink ref="E83" r:id="rId230" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
+    <hyperlink ref="E89" r:id="rId231" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
+    <hyperlink ref="E92" r:id="rId232" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
+    <hyperlink ref="E88" r:id="rId233" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
+    <hyperlink ref="E87" r:id="rId234" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
+    <hyperlink ref="E48" r:id="rId235" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
+    <hyperlink ref="E56" r:id="rId236" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
+    <hyperlink ref="E29" r:id="rId237" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
     <hyperlink ref="E13" r:id="rId238" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
     <hyperlink ref="E7" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G7" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E11" r:id="rId241" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="G33" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E33" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E32" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G31" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E31" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G30" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E30" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E29" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G27" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E27" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E26" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G25" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E25" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E24" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E23" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E22" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E21" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G20" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E20" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G19" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E19" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G18" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E18" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G17" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E17" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G16" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E16" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G15" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E15" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G14" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E14" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G12" r:id="rId273" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E12" r:id="rId274" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G10" r:id="rId275" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E10" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G9" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E9" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G8" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G34" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E34" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E33" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G32" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E32" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G31" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E31" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E30" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G28" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E28" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G26" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E26" r:id="rId253" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E25" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E24" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E23" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E22" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G21" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E21" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G20" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E20" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G18" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E18" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G17" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E17" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G16" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E16" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G15" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E15" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G14" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E14" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G12" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E12" r:id="rId273" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G10" r:id="rId274" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E10" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G9" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E9" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G8" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E229" r:id="rId280" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E19" r:id="rId281" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
+    <hyperlink ref="E230" r:id="rId282" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E27" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId281"/>
+  <pageSetup orientation="portrait" r:id="rId284"/>
 </worksheet>
 </file>
--- a/DSA for PLACEMENTS.xlsx
+++ b/DSA for PLACEMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF012F-E63F-47A9-B398-E2BA3EC6E19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817E4D0-9413-4FD7-8095-C478ACC94E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1334,9 +1334,6 @@
     <t>DSA Questions</t>
   </si>
   <si>
-    <t>HI NIGGAS</t>
-  </si>
-  <si>
     <t>SQRT</t>
   </si>
   <si>
@@ -1388,6 +1385,9 @@
       <t>FALSE</t>
     </r>
   </si>
+  <si>
+    <t>HI</t>
+  </si>
 </sst>
 </file>
 
@@ -1403,11 +1403,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1593,6 +1588,12 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1685,7 +1686,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1696,7 +1697,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1705,58 +1706,58 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1771,69 +1772,69 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2057,8 +2058,8 @@
   <dimension ref="A1:Y1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
+      <pane ySplit="4" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2077,8 +2078,8 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="52" t="s">
-        <v>433</v>
+      <c r="D1" s="60" t="s">
+        <v>440</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -2106,13 +2107,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>432</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="54"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="49"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2229,7 +2230,7 @@
     <row r="6" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C6" s="36">
         <v>1</v>
@@ -2264,11 +2265,11 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C7" s="36">
         <v>2</v>
@@ -2309,9 +2310,9 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C8" s="36">
         <v>3</v>
@@ -2352,9 +2353,9 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C9" s="36">
         <v>4</v>
@@ -2391,9 +2392,9 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C10" s="36">
         <v>5</v>
@@ -2432,9 +2433,9 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C11" s="36">
         <v>6</v>
@@ -2469,9 +2470,9 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C12" s="36">
         <v>7</v>
@@ -2510,9 +2511,9 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C13" s="36">
         <v>8</v>
@@ -2547,9 +2548,9 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C14" s="36">
         <v>9</v>
@@ -2586,9 +2587,9 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C15" s="36">
         <v>10</v>
@@ -2627,9 +2628,9 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C16" s="36">
         <v>11</v>
@@ -2670,9 +2671,9 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C17" s="36">
         <v>12</v>
@@ -2713,9 +2714,9 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C18" s="36">
         <v>13</v>
@@ -2754,20 +2755,20 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C19" s="36">
         <v>14</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="54" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="41"/>
@@ -2791,9 +2792,9 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C20" s="36">
         <v>15</v>
@@ -2832,9 +2833,9 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C21" s="36">
         <v>16</v>
@@ -2875,9 +2876,9 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C22" s="36">
         <v>17</v>
@@ -2916,9 +2917,9 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C23" s="36">
         <v>18</v>
@@ -2957,9 +2958,9 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C24" s="36">
         <v>19</v>
@@ -2998,9 +2999,9 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C25" s="36">
         <v>20</v>
@@ -3039,9 +3040,9 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C26" s="36">
         <v>21</v>
@@ -3080,9 +3081,9 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C27" s="36">
         <v>22</v>
@@ -3119,9 +3120,9 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C28" s="36">
         <v>23</v>
@@ -3162,9 +3163,9 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C29" s="36">
         <v>24</v>
@@ -3199,7 +3200,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="39" t="b">
         <v>0</v>
       </c>
@@ -3240,7 +3241,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="39" t="b">
         <v>0</v>
       </c>
@@ -3281,7 +3282,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="39" t="b">
         <v>0</v>
       </c>
@@ -3324,7 +3325,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="39" t="b">
         <v>0</v>
       </c>
@@ -3363,7 +3364,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="39" t="b">
         <v>0</v>
       </c>
@@ -3456,7 +3457,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="39" t="b">
@@ -3465,10 +3466,10 @@
       <c r="C37" s="36">
         <v>1</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="43" t="s">
@@ -3499,17 +3500,17 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="39" t="b">
         <v>1</v>
       </c>
       <c r="C38" s="36">
         <v>2</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="43" t="s">
@@ -3538,17 +3539,17 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="39" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="36">
         <v>3</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="43" t="s">
@@ -3577,17 +3578,17 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="39" t="b">
         <v>0</v>
       </c>
       <c r="C40" s="36">
         <v>4</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="58" t="s">
+      <c r="E40" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="43" t="s">
@@ -3618,17 +3619,17 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="39" t="b">
         <v>0</v>
       </c>
       <c r="C41" s="36">
         <v>5</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="58" t="s">
+      <c r="E41" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="43" t="s">
@@ -3657,17 +3658,17 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="39" t="b">
         <v>0</v>
       </c>
       <c r="C42" s="36">
         <v>6</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="43" t="s">
@@ -3698,7 +3699,7 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="39" t="b">
         <v>0</v>
       </c>
@@ -3708,7 +3709,7 @@
       <c r="D43" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="58" t="s">
+      <c r="E43" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="46" t="s">
@@ -10818,19 +10819,19 @@
         <v>424</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E229" s="25" t="s">
         <v>9</v>
       </c>
       <c r="F229" s="47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="4"/>
@@ -10855,19 +10856,19 @@
     <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="49"/>
       <c r="B230" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C230" s="2">
         <v>2</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E230" s="25" t="s">
         <v>9</v>
       </c>
       <c r="F230" s="47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G230" s="3"/>
       <c r="H230" s="4"/>

--- a/DSA for PLACEMENTS.xlsx
+++ b/DSA for PLACEMENTS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817E4D0-9413-4FD7-8095-C478ACC94E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0281402-F2B3-4980-B071-58233FC7104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="440">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -239,21 +239,6 @@
     <t>Single element in sorted array</t>
   </si>
   <si>
-    <t>Allocate Minimum Pages (Book Allocation)</t>
-  </si>
-  <si>
-    <t>Google Infosys Codenation Amazon Microsoft</t>
-  </si>
-  <si>
-    <t>Painter’s Partition</t>
-  </si>
-  <si>
-    <t>Aggressive cows</t>
-  </si>
-  <si>
-    <t>Adobe</t>
-  </si>
-  <si>
     <t>Median of 2 Sorted Arrays</t>
   </si>
   <si>
@@ -416,12 +401,6 @@
     <t>Google , amazon, meta , microsoft, adobe, uber</t>
   </si>
   <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nvidia , Google, Meta , Amazon, Microsoft, Oracle, Adobe ,Infoys , Siemens ,Morgan Stanley </t>
-  </si>
-  <si>
     <t>Rotate a LL</t>
   </si>
   <si>
@@ -1347,6 +1326,9 @@
   </si>
   <si>
     <t xml:space="preserve">       TRUE</t>
+  </si>
+  <si>
+    <t>HI</t>
   </si>
   <si>
     <r>
@@ -1359,8 +1341,33 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">     TRUE</t>
+      <t xml:space="preserve">   </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  TRUE</t>
+    </r>
+  </si>
+  <si>
+    <t>Two Sum 2</t>
+  </si>
+  <si>
+    <t>Number Double reversal</t>
+  </si>
+  <si>
+    <t>String to integer</t>
+  </si>
+  <si>
+    <t>Insert Intervals</t>
+  </si>
+  <si>
+    <t>3 Sum Word</t>
   </si>
   <si>
     <r>
@@ -1373,27 +1380,29 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="4"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t>FALSE</t>
+      <t xml:space="preserve">  </t>
     </r>
-  </si>
-  <si>
-    <t>HI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1446,18 +1455,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1485,12 +1482,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Open Sans"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -1570,21 +1561,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
@@ -1594,8 +1573,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1674,6 +1660,12 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1686,9 +1678,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1718,46 +1710,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1769,72 +1748,79 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2055,11 +2041,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1006"/>
+  <dimension ref="A1:Y1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1"/>
+      <pane ySplit="4" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2078,8 +2064,8 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="60" t="s">
-        <v>440</v>
+      <c r="D1" s="48" t="s">
+        <v>431</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
@@ -2107,13 +2093,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="52" t="s">
-        <v>432</v>
+      <c r="D2" s="50" t="s">
+        <v>425</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="53"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="49"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2184,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="35"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2228,25 +2214,25 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C6" s="36">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="30">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="E6" s="37" t="s">
+      <c r="D6" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="39"/>
+      <c r="F6" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2265,31 +2251,31 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C7" s="36">
+      <c r="B7" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="30">
         <v>2</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="33" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="1"/>
@@ -2310,29 +2296,29 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C8" s="36">
+      <c r="A8" s="52"/>
+      <c r="B8" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" s="30">
         <v>3</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="33" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="1"/>
@@ -2353,27 +2339,27 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C9" s="36">
+      <c r="A9" s="52"/>
+      <c r="B9" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="30">
         <v>4</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="39"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2392,29 +2378,29 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C10" s="36">
+      <c r="A10" s="52"/>
+      <c r="B10" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="30">
         <v>5</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2433,25 +2419,25 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C11" s="36">
+      <c r="A11" s="52"/>
+      <c r="B11" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="30">
         <v>6</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="E11" s="37" t="s">
+      <c r="D11" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="39"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2470,29 +2456,23 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C12" s="36">
-        <v>7</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="41" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="39"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2511,25 +2491,29 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C13" s="36">
-        <v>8</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="E13" s="37" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="30">
+        <v>7</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="39"/>
+      <c r="G13" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="33"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2548,27 +2532,25 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="36">
+      <c r="A14" s="52"/>
+      <c r="B14" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="30">
+        <v>8</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="39"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2587,29 +2569,27 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C15" s="36">
-        <v>10</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="41" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C15" s="30">
         <v>9</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="D15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="39"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2628,31 +2608,29 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C16" s="36">
+      <c r="A16" s="52"/>
+      <c r="B16" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" s="30">
+        <v>10</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>17</v>
-      </c>
+      <c r="H16" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="33"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2671,30 +2649,30 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C17" s="36">
-        <v>12</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="41" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" s="30">
+        <v>11</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>14</v>
+      <c r="H17" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2714,27 +2692,29 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C18" s="36">
-        <v>13</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="41" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C18" s="30">
+        <v>12</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="39" t="s">
+      <c r="H18" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="33" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="1"/>
@@ -2755,25 +2735,23 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C19" s="36">
-        <v>14</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="E19" s="30" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="39"/>
+      <c r="F19" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2792,28 +2770,28 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C20" s="36">
-        <v>15</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="41" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="30">
+        <v>13</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="39" t="s">
-        <v>33</v>
+      <c r="H20" s="39"/>
+      <c r="I20" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2833,31 +2811,25 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C21" s="36">
-        <v>16</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="41" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" s="30">
+        <v>14</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>17</v>
-      </c>
+      <c r="F21" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2876,28 +2848,28 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C22" s="36">
-        <v>17</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="41" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C22" s="30">
+        <v>15</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>17</v>
+      <c r="G22" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2917,28 +2889,30 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C23" s="36">
-        <v>18</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="41" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" s="30">
+        <v>16</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>40</v>
+      <c r="G23" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2958,29 +2932,25 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C24" s="36">
-        <v>19</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="41" t="s">
+      <c r="A24" s="52"/>
+      <c r="B24" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="30">
+        <v>17</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2999,28 +2969,28 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C25" s="36">
-        <v>20</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="41" t="s">
+      <c r="A25" s="52"/>
+      <c r="B25" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" s="30">
+        <v>18</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>46</v>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3040,29 +3010,29 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="C26" s="36">
-        <v>21</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="41" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="30">
+        <v>19</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="39"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3081,26 +3051,28 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="C27" s="36">
+      <c r="A27" s="52"/>
+      <c r="B27" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C27" s="30">
+        <v>20</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="39" t="s">
-        <v>14</v>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3120,30 +3092,28 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C28" s="36">
-        <v>23</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="41" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="30">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>52</v>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3163,25 +3133,29 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="C29" s="36">
-        <v>24</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="E29" s="37" t="s">
+      <c r="C29" s="30">
+        <v>22</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="39"/>
+      <c r="G29" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="33"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3200,28 +3174,26 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" s="36">
-        <v>25</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="41" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C30" s="30">
+        <v>23</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>55</v>
+      <c r="F30" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3241,29 +3213,31 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="36">
-        <v>26</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="41" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C31" s="30">
+        <v>24</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="41" t="s">
+      <c r="F31" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="39"/>
+      <c r="H31" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>52</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3282,31 +3256,25 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="36">
-        <v>27</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="41" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" s="30">
+        <v>25</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="39" t="s">
-        <v>14</v>
-      </c>
+      <c r="F32" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3325,25 +3293,27 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="39" t="b">
+      <c r="A33" s="52"/>
+      <c r="B33" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C33" s="36">
-        <v>28</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="41" t="s">
+      <c r="C33" s="30">
+        <v>26</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="39" t="s">
+      <c r="G33" s="33"/>
+      <c r="H33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="33" t="s">
         <v>55</v>
       </c>
       <c r="J33" s="1"/>
@@ -3363,28 +3333,30 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="39" t="b">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="52"/>
+      <c r="B34" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C34" s="36">
-        <v>29</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="41" t="s">
+      <c r="C34" s="30">
+        <v>27</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="39"/>
+      <c r="H34" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="33"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3402,16 +3374,32 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="3"/>
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="52"/>
+      <c r="B35" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="30">
+        <v>28</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>14</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3429,16 +3417,28 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="3"/>
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="52"/>
+      <c r="B36" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="30">
+        <v>29</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="33" t="s">
+        <v>55</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3456,32 +3456,28 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="C37" s="36">
-        <v>1</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="57" t="s">
+    <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="52"/>
+      <c r="B37" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="30">
+        <v>30</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="41" t="s">
+      <c r="F37" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="3"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3499,28 +3495,16 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" s="36">
-        <v>2</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="15"/>
+    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3538,27 +3522,15 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="C39" s="36">
-        <v>3</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="40"/>
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3577,28 +3549,30 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="36">
-        <v>4</v>
-      </c>
-      <c r="D40" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="57" t="s">
+    <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="30">
+        <v>1</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="40" t="s">
-        <v>69</v>
+      <c r="H40" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="1"/>
@@ -3618,28 +3592,28 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="36">
-        <v>5</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="57" t="s">
+    <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="54"/>
+      <c r="B41" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="30">
+        <v>2</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="35"/>
-      <c r="I41" s="3"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="12"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3657,29 +3631,27 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="36">
-        <v>6</v>
-      </c>
-      <c r="D42" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="57" t="s">
+    <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="54"/>
+      <c r="B42" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="30">
+        <v>3</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="40" t="s">
-        <v>72</v>
-      </c>
+      <c r="H42" s="34"/>
       <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3699,25 +3671,25 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="39" t="b">
+      <c r="A43" s="54"/>
+      <c r="B43" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="30">
         <v>7</v>
       </c>
-      <c r="D43" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="57" t="s">
+      <c r="D43" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="39"/>
-      <c r="H43" s="35" t="s">
-        <v>74</v>
+      <c r="G43" s="33"/>
+      <c r="H43" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="1"/>
@@ -3741,7 +3713,6 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="1"/>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
       <c r="G44" s="3"/>
@@ -3768,7 +3739,6 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="1"/>
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
       <c r="G45" s="3"/>
@@ -3791,30 +3761,30 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="3" t="b">
+    <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="30">
         <v>1</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="16" t="s">
+      <c r="D46" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>77</v>
+      <c r="H46" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="1"/>
@@ -3834,26 +3804,26 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="49"/>
-      <c r="B47" s="3" t="b">
+    <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="54"/>
+      <c r="B47" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="30">
         <v>2</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="16" t="s">
+      <c r="D47" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="11" t="s">
-        <v>79</v>
+      <c r="G47" s="33"/>
+      <c r="H47" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
@@ -3873,25 +3843,25 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="49"/>
-      <c r="B48" s="3" t="b">
+    <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="54"/>
+      <c r="B48" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="30">
         <v>3</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E48" s="25" t="s">
+      <c r="D48" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="E48" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="11"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="3"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3910,26 +3880,26 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49" s="49"/>
-      <c r="B49" s="3" t="b">
+    <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="54"/>
+      <c r="B49" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="30">
         <v>4</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="D49" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="F49" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="11" t="s">
-        <v>81</v>
+      <c r="G49" s="33"/>
+      <c r="H49" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
@@ -3949,27 +3919,27 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="3" t="b">
+    <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="54"/>
+      <c r="B50" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="30">
         <v>5</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="16" t="s">
+      <c r="D50" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="34"/>
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3988,27 +3958,27 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="3" t="b">
+    <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="54"/>
+      <c r="B51" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="30">
         <v>6</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="4"/>
+      <c r="H51" s="34"/>
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -4027,27 +3997,27 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="3" t="b">
+    <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="54"/>
+      <c r="B52" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="30">
         <v>7</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="16" t="s">
+      <c r="D52" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="34" t="s">
         <v>35</v>
       </c>
       <c r="I52" s="3"/>
@@ -4068,27 +4038,27 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="3" t="b">
+    <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="54"/>
+      <c r="B53" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="30">
         <v>8</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="16" t="s">
+      <c r="D53" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="4"/>
+      <c r="H53" s="34"/>
       <c r="I53" s="3"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -4107,26 +4077,26 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="3" t="b">
+    <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="54"/>
+      <c r="B54" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="30">
         <v>9</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="16" t="s">
+      <c r="D54" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="4" t="s">
-        <v>87</v>
+      <c r="G54" s="33"/>
+      <c r="H54" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="1"/>
@@ -4146,26 +4116,26 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A55" s="49"/>
-      <c r="B55" s="3" t="b">
+    <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="54"/>
+      <c r="B55" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="30">
         <v>10</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="16" t="s">
+      <c r="D55" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="11" t="s">
-        <v>89</v>
+      <c r="G55" s="33"/>
+      <c r="H55" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="1"/>
@@ -4185,25 +4155,25 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A56" s="49"/>
-      <c r="B56" s="3" t="b">
+    <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="54"/>
+      <c r="B56" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="30">
         <v>11</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E56" s="25" t="s">
+      <c r="D56" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="E56" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="11"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="29"/>
       <c r="I56" s="3"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4222,25 +4192,25 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="3" t="b">
+    <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="54"/>
+      <c r="B57" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="30">
         <v>12</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="16" t="s">
+      <c r="D57" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="4"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="34"/>
       <c r="I57" s="3"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4259,25 +4229,25 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="3" t="b">
+    <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="54"/>
+      <c r="B58" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="30">
         <v>13</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="33" t="s">
+      <c r="D58" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="4"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="34"/>
       <c r="I58" s="3"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -4297,10 +4267,10 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
-      <c r="H59" s="14"/>
+      <c r="H59" s="11"/>
       <c r="I59" s="3"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4347,30 +4317,30 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="50" t="s">
-        <v>93</v>
+      <c r="A61" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="B61" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C61" s="2">
-        <f>ROW(A1)</f>
+        <f t="shared" ref="C61:C71" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F61" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="18" t="s">
-        <v>95</v>
+      <c r="H61" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="1"/>
@@ -4396,21 +4366,21 @@
         <v>0</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" ref="C62:C72" si="0">ROW(A2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E62" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="3"/>
-      <c r="H62" s="18" t="s">
-        <v>97</v>
+      <c r="H62" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="1"/>
@@ -4440,19 +4410,19 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="31" t="s">
+      <c r="F63" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="18" t="s">
-        <v>99</v>
+      <c r="H63" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
@@ -4482,17 +4452,17 @@
         <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="31" t="s">
+      <c r="F64" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="3"/>
-      <c r="H64" s="18" t="s">
-        <v>101</v>
+      <c r="H64" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="1"/>
@@ -4522,17 +4492,17 @@
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E65" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="31" t="s">
+      <c r="F65" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G65" s="3"/>
-      <c r="H65" s="18" t="s">
-        <v>103</v>
+      <c r="H65" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="1"/>
@@ -4562,18 +4532,18 @@
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="31" t="s">
+      <c r="F66" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="18" t="s">
+      <c r="H66" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I66" s="3"/>
@@ -4604,16 +4574,16 @@
         <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E67" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="31" t="s">
+      <c r="F67" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="18"/>
+      <c r="H67" s="15"/>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -4642,19 +4612,19 @@
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="31" t="s">
+      <c r="F68" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="19" t="s">
-        <v>106</v>
+      <c r="H68" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
@@ -4686,15 +4656,15 @@
       <c r="D69" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="31" t="s">
+      <c r="F69" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="18" t="s">
-        <v>107</v>
+      <c r="H69" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
@@ -4724,19 +4694,19 @@
         <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="33" t="s">
+      <c r="F70" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="18" t="s">
-        <v>109</v>
+      <c r="H70" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
@@ -4766,19 +4736,19 @@
         <v>11</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E71" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="F71" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="19" t="s">
-        <v>111</v>
+      <c r="H71" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
@@ -4804,21 +4774,21 @@
         <v>0</v>
       </c>
       <c r="C72" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" ref="C72" si="1">ROW(A13)</f>
+        <v>13</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="19" t="s">
-        <v>112</v>
+      <c r="H72" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
@@ -4892,30 +4862,30 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A75" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B75" s="3" t="b">
+    <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="30">
         <v>1</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E75" s="12" t="s">
+      <c r="D75" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="E75" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="32" t="s">
+      <c r="F75" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="18" t="s">
-        <v>114</v>
+      <c r="H75" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
@@ -4935,28 +4905,28 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A76" s="49"/>
-      <c r="B76" s="3" t="b">
+    <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="54"/>
+      <c r="B76" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="30">
         <v>2</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E76" s="16" t="s">
+      <c r="D76" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="E76" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="32" t="s">
+      <c r="F76" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G76" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="18" t="s">
-        <v>115</v>
+      <c r="H76" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
@@ -4976,28 +4946,28 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A77" s="49"/>
-      <c r="B77" s="3" t="b">
+    <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="54"/>
+      <c r="B77" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="30">
         <v>3</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E77" s="16" t="s">
+      <c r="D77" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="E77" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="F77" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="18" t="s">
-        <v>116</v>
+      <c r="H77" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="1"/>
@@ -5017,26 +4987,26 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A78" s="49"/>
-      <c r="B78" s="3" t="b">
+    <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="54"/>
+      <c r="B78" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="30">
         <v>4</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="E78" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="E78" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="F78" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="18" t="s">
-        <v>117</v>
+      <c r="G78" s="33"/>
+      <c r="H78" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="1"/>
@@ -5056,28 +5026,28 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A79" s="49"/>
-      <c r="B79" s="3" t="b">
+    <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="54"/>
+      <c r="B79" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="30">
         <v>5</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E79" s="12" t="s">
+      <c r="D79" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E79" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="32" t="s">
+      <c r="F79" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="18" t="s">
-        <v>118</v>
+      <c r="H79" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="1"/>
@@ -5097,28 +5067,28 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A80" s="49"/>
-      <c r="B80" s="3" t="b">
+    <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="54"/>
+      <c r="B80" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="30">
         <v>6</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E80" s="16" t="s">
+      <c r="D80" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="E80" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="31" t="s">
+      <c r="F80" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="18" t="s">
-        <v>119</v>
+      <c r="H80" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="1"/>
@@ -5138,28 +5108,28 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="3" t="b">
+    <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="54"/>
+      <c r="B81" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="30">
         <v>7</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E81" s="16" t="s">
+      <c r="D81" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="E81" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="19" t="s">
-        <v>120</v>
+      <c r="H81" s="45" t="s">
+        <v>115</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1"/>
@@ -5179,28 +5149,28 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A82" s="49"/>
-      <c r="B82" s="3" t="b">
+    <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="54"/>
+      <c r="B82" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="30">
         <v>8</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" s="12" t="s">
+      <c r="D82" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="31" t="s">
+      <c r="F82" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H82" s="18" t="s">
-        <v>122</v>
+      <c r="H82" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="1"/>
@@ -5220,25 +5190,25 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A83" s="49"/>
-      <c r="B83" s="3" t="b">
+    <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="54"/>
+      <c r="B83" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="30">
         <v>9</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E83" s="25" t="s">
+      <c r="D83" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="E83" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="31" t="s">
+      <c r="F83" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G83" s="10"/>
-      <c r="H83" s="18"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="45"/>
       <c r="I83" s="3"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -5257,26 +5227,26 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="3" t="b">
+    <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="54"/>
+      <c r="B84" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="30">
         <v>10</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="16" t="s">
+      <c r="D84" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="31" t="s">
+      <c r="F84" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="19" t="s">
-        <v>124</v>
+      <c r="G84" s="33"/>
+      <c r="H84" s="45" t="s">
+        <v>119</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="1"/>
@@ -5296,26 +5266,26 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A85" s="49"/>
-      <c r="B85" s="3" t="b">
+    <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="54"/>
+      <c r="B85" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="30">
         <v>11</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E85" s="12" t="s">
+      <c r="D85" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="F85" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="18" t="s">
-        <v>126</v>
+      <c r="G85" s="33"/>
+      <c r="H85" s="45" t="s">
+        <v>121</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1"/>
@@ -5335,29 +5305,25 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C86" s="2">
-        <v>12</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E86" s="16" t="s">
+    <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="54"/>
+      <c r="B86" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="30">
+        <v>13</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="E86" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="31" t="s">
+      <c r="F86" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G86" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>128</v>
-      </c>
+      <c r="G86" s="35"/>
+      <c r="H86" s="45"/>
       <c r="I86" s="3"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -5376,25 +5342,25 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="3" t="b">
+    <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="54"/>
+      <c r="B87" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C87" s="2">
-        <v>13</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E87" s="25" t="s">
+      <c r="C87" s="30">
+        <v>14</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="E87" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G87" s="10"/>
-      <c r="H87" s="19"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="45"/>
       <c r="I87" s="3"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5413,25 +5379,25 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="3" t="b">
+    <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="54"/>
+      <c r="B88" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C88" s="2">
-        <v>14</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E88" s="25" t="s">
+      <c r="C88" s="30">
+        <v>15</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E88" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="31" t="s">
+      <c r="F88" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G88" s="10"/>
-      <c r="H88" s="19"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="45"/>
       <c r="I88" s="3"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -5450,25 +5416,27 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="3" t="b">
+    <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="54"/>
+      <c r="B89" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C89" s="2">
-        <v>15</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E89" s="25" t="s">
+      <c r="C89" s="30">
+        <v>16</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="31" t="s">
+      <c r="F89" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="10"/>
-      <c r="H89" s="19"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="45" t="s">
+        <v>123</v>
+      </c>
       <c r="I89" s="3"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -5487,26 +5455,28 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="3" t="b">
+    <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="54"/>
+      <c r="B90" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C90" s="2">
-        <v>16</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E90" s="16" t="s">
+      <c r="C90" s="30">
+        <v>17</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="19" t="s">
-        <v>130</v>
+      <c r="F90" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G90" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="1"/>
@@ -5526,29 +5496,25 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="3" t="b">
+    <row r="91" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="29"/>
+      <c r="B91" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="C91" s="2">
-        <v>17</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="12" t="s">
+      <c r="C91" s="30">
+        <v>18</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="E91" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="19" t="s">
-        <v>132</v>
-      </c>
+      <c r="F91" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="33"/>
+      <c r="H91" s="34"/>
       <c r="I91" s="3"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -5569,21 +5535,11 @@
     </row>
     <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2">
-        <v>18</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="34" t="s">
-        <v>22</v>
-      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="1"/>
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
       <c r="I92" s="3"/>
@@ -5604,15 +5560,31 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="4"/>
+    <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="30">
+        <v>1</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="45" t="s">
+        <v>128</v>
+      </c>
       <c r="I93" s="3"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -5631,30 +5603,28 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A94" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="B94" s="3" t="b">
+    <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="54"/>
+      <c r="B94" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C94" s="2">
-        <v>1</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E94" s="16" t="s">
+      <c r="C94" s="30">
+        <v>2</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="32" t="s">
+      <c r="F94" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G94" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H94" s="18" t="s">
-        <v>135</v>
+      <c r="H94" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="1"/>
@@ -5674,28 +5644,28 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="3" t="b">
+    <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="54"/>
+      <c r="B95" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C95" s="2">
-        <v>2</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" s="16" t="s">
+      <c r="C95" s="30">
+        <v>3</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E95" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="32" t="s">
+      <c r="F95" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="19" t="s">
-        <v>137</v>
+      <c r="H95" s="45" t="s">
+        <v>132</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="1"/>
@@ -5715,28 +5685,28 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A96" s="49"/>
-      <c r="B96" s="3" t="b">
+    <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="54"/>
+      <c r="B96" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C96" s="2">
-        <v>3</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E96" s="16" t="s">
+      <c r="C96" s="30">
+        <v>4</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="32" t="s">
+      <c r="F96" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="G96" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="18" t="s">
-        <v>139</v>
+      <c r="H96" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="1"/>
@@ -5756,28 +5726,28 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A97" s="49"/>
-      <c r="B97" s="3" t="b">
+    <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="54"/>
+      <c r="B97" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C97" s="2">
-        <v>4</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97" s="16" t="s">
+      <c r="C97" s="30">
+        <v>5</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="32" t="s">
+      <c r="F97" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="G97" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H97" s="18" t="s">
-        <v>141</v>
+      <c r="H97" s="45" t="s">
+        <v>136</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="1"/>
@@ -5797,28 +5767,26 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A98" s="49"/>
-      <c r="B98" s="3" t="b">
+    <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="54"/>
+      <c r="B98" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C98" s="2">
-        <v>5</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E98" s="16" t="s">
+      <c r="C98" s="30">
+        <v>6</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="32" t="s">
+      <c r="F98" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G98" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="18" t="s">
-        <v>143</v>
+      <c r="G98" s="33"/>
+      <c r="H98" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="1"/>
@@ -5838,26 +5806,26 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A99" s="49"/>
-      <c r="B99" s="3" t="b">
+    <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="54"/>
+      <c r="B99" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C99" s="2">
-        <v>6</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E99" s="16" t="s">
+      <c r="C99" s="30">
+        <v>7</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E99" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="32" t="s">
+      <c r="F99" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="18" t="s">
-        <v>145</v>
+      <c r="G99" s="33"/>
+      <c r="H99" s="45" t="s">
+        <v>140</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="1"/>
@@ -5877,26 +5845,28 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
-      <c r="B100" s="3" t="b">
+    <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="54"/>
+      <c r="B100" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C100" s="2">
-        <v>7</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E100" s="16" t="s">
+      <c r="C100" s="30">
+        <v>8</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="19" t="s">
-        <v>147</v>
+      <c r="F100" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="1"/>
@@ -5916,28 +5886,28 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A101" s="49"/>
-      <c r="B101" s="3" t="b">
+    <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="54"/>
+      <c r="B101" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C101" s="2">
-        <v>8</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E101" s="8" t="s">
+      <c r="C101" s="30">
         <v>9</v>
       </c>
-      <c r="F101" s="31" t="s">
+      <c r="D101" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H101" s="18" t="s">
-        <v>149</v>
+      <c r="H101" s="45" t="s">
+        <v>144</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="1"/>
@@ -5957,28 +5927,28 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A102" s="49"/>
-      <c r="B102" s="3" t="b">
+    <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="54"/>
+      <c r="B102" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="29">
+        <v>10</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="31" t="s">
+      <c r="F102" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="G102" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="18" t="s">
-        <v>151</v>
+      <c r="H102" s="45" t="s">
+        <v>146</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="1"/>
@@ -5998,28 +5968,28 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A103" s="49"/>
-      <c r="B103" s="3" t="b">
+    <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="54"/>
+      <c r="B103" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C103" s="14">
-        <v>10</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E103" s="16" t="s">
+      <c r="C103" s="30">
+        <v>11</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E103" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="31" t="s">
+      <c r="F103" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H103" s="18" t="s">
-        <v>153</v>
+      <c r="H103" s="45" t="s">
+        <v>148</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1"/>
@@ -6039,28 +6009,28 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
-      <c r="B104" s="3" t="b">
+    <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="54"/>
+      <c r="B104" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="30">
+        <v>12</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E104" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" s="19" t="s">
-        <v>155</v>
+      <c r="H104" s="45" t="s">
+        <v>150</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1"/>
@@ -6080,28 +6050,26 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A105" s="49"/>
-      <c r="B105" s="3" t="b">
+    <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="54"/>
+      <c r="B105" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C105" s="2">
-        <v>12</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E105" s="16" t="s">
+      <c r="C105" s="30">
+        <v>13</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E105" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="F105" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H105" s="18" t="s">
-        <v>157</v>
+      <c r="G105" s="33"/>
+      <c r="H105" s="45" t="s">
+        <v>152</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
@@ -6121,26 +6089,28 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A106" s="49"/>
-      <c r="B106" s="3" t="b">
+    <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="54"/>
+      <c r="B106" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C106" s="2">
-        <v>13</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E106" s="16" t="s">
+      <c r="C106" s="30">
+        <v>14</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E106" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="F106" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="18" t="s">
-        <v>159</v>
+      <c r="G106" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="45" t="s">
+        <v>154</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
@@ -6160,28 +6130,28 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A107" s="49"/>
-      <c r="B107" s="3" t="b">
+    <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="54"/>
+      <c r="B107" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C107" s="2">
-        <v>14</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E107" s="16" t="s">
+      <c r="C107" s="30">
+        <v>15</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E107" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="10" t="s">
+      <c r="F107" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G107" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H107" s="18" t="s">
-        <v>161</v>
+      <c r="H107" s="45" t="s">
+        <v>156</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
@@ -6202,28 +6172,14 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="49"/>
-      <c r="B108" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C108" s="2">
-        <v>15</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" s="19" t="s">
-        <v>163</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="11"/>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -6250,7 +6206,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="1"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="14"/>
+      <c r="H109" s="4"/>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -6269,15 +6225,31 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="4"/>
+    <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="30">
+        <v>1</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E110" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="45" t="s">
+        <v>158</v>
+      </c>
       <c r="I110" s="3"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -6296,30 +6268,28 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B111" s="3" t="b">
+    <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="54"/>
+      <c r="B111" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C111" s="2">
-        <v>1</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E111" s="16" t="s">
+      <c r="C111" s="30">
+        <v>2</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="E111" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="32" t="s">
+      <c r="F111" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="13" t="s">
+      <c r="G111" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="19" t="s">
-        <v>165</v>
+      <c r="H111" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
@@ -6339,28 +6309,28 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-      <c r="B112" s="3" t="b">
+    <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="54"/>
+      <c r="B112" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C112" s="2">
-        <v>2</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E112" s="16" t="s">
+      <c r="C112" s="30">
+        <v>3</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="E112" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="32" t="s">
+      <c r="F112" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="G112" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H112" s="19" t="s">
-        <v>166</v>
+      <c r="H112" s="45" t="s">
+        <v>160</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
@@ -6380,28 +6350,26 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
-      <c r="B113" s="3" t="b">
+    <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="54"/>
+      <c r="B113" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C113" s="2">
-        <v>3</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E113" s="16" t="s">
+      <c r="C113" s="30">
+        <v>4</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E113" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="32" t="s">
+      <c r="F113" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" s="19" t="s">
-        <v>167</v>
+      <c r="G113" s="33"/>
+      <c r="H113" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6421,26 +6389,28 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A114" s="49"/>
-      <c r="B114" s="3" t="b">
+    <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="54"/>
+      <c r="B114" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C114" s="2">
-        <v>4</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E114" s="16" t="s">
+      <c r="C114" s="30">
+        <v>5</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="E114" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="32" t="s">
+      <c r="F114" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="18" t="s">
-        <v>168</v>
+      <c r="G114" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="H114" s="45" t="s">
+        <v>163</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1"/>
@@ -6460,28 +6430,28 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="49"/>
-      <c r="B115" s="3" t="b">
+    <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="54"/>
+      <c r="B115" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C115" s="2">
-        <v>5</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E115" s="16" t="s">
+      <c r="C115" s="30">
+        <v>6</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="E115" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="32" t="s">
+      <c r="F115" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H115" s="19" t="s">
-        <v>170</v>
+      <c r="G115" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1"/>
@@ -6501,28 +6471,28 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A116" s="49"/>
-      <c r="B116" s="3" t="b">
+    <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="54"/>
+      <c r="B116" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C116" s="2">
-        <v>6</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E116" s="16" t="s">
+      <c r="C116" s="30">
+        <v>7</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="E116" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="32" t="s">
+      <c r="F116" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="G116" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H116" s="18" t="s">
-        <v>171</v>
+      <c r="H116" s="45" t="s">
+        <v>165</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="1"/>
@@ -6542,28 +6512,28 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="49"/>
-      <c r="B117" s="3" t="b">
+    <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="54"/>
+      <c r="B117" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C117" s="2">
-        <v>7</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E117" s="16" t="s">
+      <c r="C117" s="30">
+        <v>8</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="E117" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="32" t="s">
+      <c r="F117" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G117" s="10" t="s">
+      <c r="G117" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="19" t="s">
-        <v>172</v>
+      <c r="H117" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1"/>
@@ -6583,28 +6553,26 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="49"/>
-      <c r="B118" s="3" t="b">
+    <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="54"/>
+      <c r="B118" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C118" s="2">
-        <v>8</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E118" s="16" t="s">
+      <c r="C118" s="30">
         <v>9</v>
       </c>
-      <c r="F118" s="32" t="s">
+      <c r="D118" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="E118" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>173</v>
+      <c r="G118" s="33"/>
+      <c r="H118" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1"/>
@@ -6624,26 +6592,28 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A119" s="49"/>
-      <c r="B119" s="3" t="b">
+    <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="54"/>
+      <c r="B119" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="30">
+        <v>10</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E119" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" s="32" t="s">
+      <c r="F119" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="18" t="s">
-        <v>174</v>
+      <c r="G119" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1"/>
@@ -6663,28 +6633,26 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A120" s="49"/>
-      <c r="B120" s="3" t="b">
+    <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="54"/>
+      <c r="B120" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="30">
+        <v>11</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="E120" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" s="18" t="s">
-        <v>175</v>
+      <c r="G120" s="33"/>
+      <c r="H120" s="45" t="s">
+        <v>169</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1"/>
@@ -6704,26 +6672,28 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A121" s="49"/>
-      <c r="B121" s="3" t="b">
+    <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="54"/>
+      <c r="B121" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="30">
+        <v>12</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="E121" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="18" t="s">
-        <v>176</v>
+      <c r="H121" s="45" t="s">
+        <v>170</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1"/>
@@ -6743,28 +6713,26 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A122" s="49"/>
-      <c r="B122" s="3" t="b">
+    <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="54"/>
+      <c r="B122" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C122" s="2">
-        <v>12</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E122" s="16" t="s">
+      <c r="C122" s="30">
+        <v>13</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="E122" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="31" t="s">
+      <c r="F122" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G122" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" s="18" t="s">
-        <v>177</v>
+      <c r="G122" s="33"/>
+      <c r="H122" s="45" t="s">
+        <v>171</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1"/>
@@ -6784,26 +6752,26 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A123" s="49"/>
-      <c r="B123" s="3" t="b">
+    <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="54"/>
+      <c r="B123" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C123" s="2">
-        <v>13</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E123" s="16" t="s">
+      <c r="C123" s="30">
+        <v>14</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="E123" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="31" t="s">
+      <c r="F123" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="18" t="s">
-        <v>178</v>
+      <c r="G123" s="33"/>
+      <c r="H123" s="45" t="s">
+        <v>172</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1"/>
@@ -6823,26 +6791,28 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A124" s="49"/>
-      <c r="B124" s="3" t="b">
+    <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="54"/>
+      <c r="B124" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C124" s="2">
-        <v>14</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E124" s="16" t="s">
+      <c r="C124" s="30">
+        <v>15</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="E124" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="31" t="s">
+      <c r="F124" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="18" t="s">
-        <v>179</v>
+      <c r="G124" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6862,28 +6832,28 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A125" s="49"/>
-      <c r="B125" s="3" t="b">
+    <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="54"/>
+      <c r="B125" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C125" s="2">
-        <v>15</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E125" s="16" t="s">
+      <c r="C125" s="30">
+        <v>16</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E125" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="31" t="s">
+      <c r="F125" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G125" s="10" t="s">
+      <c r="G125" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H125" s="18" t="s">
-        <v>180</v>
+      <c r="H125" s="45" t="s">
+        <v>175</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1"/>
@@ -6903,28 +6873,28 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A126" s="49"/>
-      <c r="B126" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C126" s="2">
-        <v>16</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E126" s="16" t="s">
+    <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="54"/>
+      <c r="B126" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="30">
+        <v>17</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="E126" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="31" t="s">
+      <c r="F126" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G126" s="10" t="s">
+      <c r="G126" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H126" s="18" t="s">
-        <v>182</v>
+      <c r="H126" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
@@ -6944,28 +6914,28 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A127" s="49"/>
-      <c r="B127" s="3" t="b">
+    <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="54"/>
+      <c r="B127" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C127" s="2">
-        <v>17</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E127" s="16" t="s">
+      <c r="C127" s="30">
+        <v>18</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E127" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="31" t="s">
+      <c r="F127" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G127" s="10" t="s">
+      <c r="G127" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H127" s="18" t="s">
-        <v>183</v>
+      <c r="H127" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
@@ -6985,28 +6955,26 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A128" s="49"/>
-      <c r="B128" s="3" t="b">
+    <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="54"/>
+      <c r="B128" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C128" s="2">
-        <v>18</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E128" s="16" t="s">
+      <c r="C128" s="30">
+        <v>19</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E128" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="31" t="s">
+      <c r="F128" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G128" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" s="18" t="s">
-        <v>185</v>
+      <c r="G128" s="33"/>
+      <c r="H128" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1"/>
@@ -7026,26 +6994,28 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="49"/>
-      <c r="B129" s="3" t="b">
+    <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="54"/>
+      <c r="B129" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C129" s="2">
-        <v>19</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E129" s="16" t="s">
+      <c r="C129" s="30">
+        <v>20</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="E129" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F129" s="31" t="s">
+      <c r="F129" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="19" t="s">
-        <v>187</v>
+      <c r="G129" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
@@ -7065,28 +7035,28 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="49"/>
-      <c r="B130" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C130" s="2">
-        <v>20</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E130" s="16" t="s">
+    <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="54"/>
+      <c r="B130" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" s="30">
+        <v>21</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E130" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="31" t="s">
+      <c r="F130" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G130" s="10" t="s">
+      <c r="G130" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H130" s="19" t="s">
-        <v>188</v>
+      <c r="H130" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
@@ -7106,28 +7076,26 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="49"/>
-      <c r="B131" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C131" s="2">
-        <v>21</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E131" s="16" t="s">
+    <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="54"/>
+      <c r="B131" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="30">
+        <v>22</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E131" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="31" t="s">
+      <c r="F131" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G131" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="19" t="s">
-        <v>190</v>
+      <c r="G131" s="33"/>
+      <c r="H131" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="1"/>
@@ -7147,26 +7115,26 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A132" s="49"/>
-      <c r="B132" s="3" t="b">
+    <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="54"/>
+      <c r="B132" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C132" s="2">
-        <v>22</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E132" s="16" t="s">
+      <c r="C132" s="30">
+        <v>23</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E132" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="18" t="s">
-        <v>192</v>
+      <c r="F132" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G132" s="33"/>
+      <c r="H132" s="45" t="s">
+        <v>186</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
@@ -7186,26 +7154,26 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A133" s="49"/>
-      <c r="B133" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C133" s="2">
-        <v>23</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E133" s="12" t="s">
+    <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="54"/>
+      <c r="B133" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133" s="30">
+        <v>24</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E133" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="33" t="s">
+      <c r="F133" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="18" t="s">
-        <v>193</v>
+      <c r="G133" s="33"/>
+      <c r="H133" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
@@ -7225,27 +7193,25 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A134" s="49"/>
-      <c r="B134" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C134" s="2">
-        <v>24</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E134" s="16" t="s">
+    <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="44"/>
+      <c r="B134" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="30">
+        <v>25</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="E134" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G134" s="3"/>
-      <c r="H134" s="18" t="s">
-        <v>195</v>
-      </c>
+      <c r="F134" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="33"/>
+      <c r="H134" s="45"/>
       <c r="I134" s="3"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -7264,24 +7230,25 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="B135" s="3" t="b">
+    <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="44"/>
+      <c r="B135" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C135" s="2">
-        <v>25</v>
+      <c r="C135" s="30">
+        <v>26</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="E135" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="E135" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="28" t="s">
+      <c r="F135" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="18"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="45"/>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -7300,24 +7267,15 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="B136" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C136" s="2">
-        <v>26</v>
-      </c>
-      <c r="D136" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="28" t="s">
-        <v>22</v>
-      </c>
+    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="1"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="18"/>
+      <c r="H136" s="4"/>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -7336,15 +7294,29 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="1"/>
+    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A137" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G137" s="3"/>
-      <c r="H137" s="4"/>
+      <c r="H137" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -7363,28 +7335,28 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A138" s="51" t="s">
-        <v>196</v>
-      </c>
+    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A138" s="49"/>
       <c r="B138" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="32" t="s">
+      <c r="F138" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="18" t="s">
-        <v>198</v>
+      <c r="G138" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
@@ -7404,28 +7376,28 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A139" s="49"/>
       <c r="B139" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C139" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F139" s="32" t="s">
-        <v>10</v>
+      <c r="F139" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H139" s="19" t="s">
-        <v>200</v>
+      <c r="H139" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
@@ -7451,22 +7423,22 @@
         <v>1</v>
       </c>
       <c r="C140" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F140" s="31" t="s">
+      <c r="F140" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G140" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H140" s="18" t="s">
-        <v>202</v>
+      <c r="H140" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7489,25 +7461,25 @@
     <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" s="49"/>
       <c r="B141" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F141" s="31" t="s">
+      <c r="F141" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H141" s="18" t="s">
-        <v>204</v>
+      <c r="H141" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7527,28 +7499,28 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="49"/>
       <c r="B142" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E142" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E142" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="31" t="s">
+      <c r="F142" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G142" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H142" s="18" t="s">
-        <v>206</v>
+      <c r="H142" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7571,25 +7543,25 @@
     <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="49"/>
       <c r="B143" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E143" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E143" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F143" s="31" t="s">
+      <c r="F143" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H143" s="19" t="s">
-        <v>208</v>
+      <c r="H143" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7609,28 +7581,28 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A144" s="49"/>
       <c r="B144" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="31" t="s">
+      <c r="F144" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H144" s="19" t="s">
-        <v>210</v>
+      <c r="H144" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
@@ -7650,28 +7622,28 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="49"/>
       <c r="B145" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C145" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="31" t="s">
+      <c r="F145" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H145" s="18" t="s">
-        <v>212</v>
+      <c r="H145" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="1"/>
@@ -7691,28 +7663,26 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A146" s="49"/>
       <c r="B146" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C146" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="31" t="s">
+      <c r="F146" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G146" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H146" s="19" t="s">
-        <v>214</v>
+      <c r="G146" s="3"/>
+      <c r="H146" s="15" t="s">
+        <v>209</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
@@ -7735,23 +7705,25 @@
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A147" s="49"/>
       <c r="B147" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F147" s="31" t="s">
+      <c r="F147" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="18" t="s">
-        <v>216</v>
+      <c r="G147" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>211</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
@@ -7777,22 +7749,22 @@
         <v>0</v>
       </c>
       <c r="C148" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F148" s="31" t="s">
+      <c r="F148" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H148" s="18" t="s">
-        <v>218</v>
+      <c r="H148" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7812,28 +7784,28 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="49"/>
       <c r="B149" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C149" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="31" t="s">
-        <v>22</v>
+      <c r="F149" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H149" s="18" t="s">
-        <v>220</v>
+      <c r="H149" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7859,22 +7831,20 @@
         <v>0</v>
       </c>
       <c r="C150" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F150" s="33" t="s">
+      <c r="F150" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G150" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" s="19" t="s">
-        <v>222</v>
+      <c r="G150" s="3"/>
+      <c r="H150" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7894,26 +7864,28 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A151" s="49"/>
       <c r="B151" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C151" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E151" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F151" s="33" t="s">
+      <c r="F151" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="19" t="s">
-        <v>224</v>
+      <c r="G151" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
@@ -7933,29 +7905,15 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A152" s="49"/>
-      <c r="B152" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C152" s="2">
-        <v>15</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" s="18" t="s">
-        <v>226</v>
-      </c>
+    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="4"/>
       <c r="I152" s="3"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -8001,15 +7959,29 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="1"/>
+    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A154" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F154" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G154" s="3"/>
-      <c r="H154" s="4"/>
+      <c r="H154" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -8029,27 +8001,25 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A155" s="51" t="s">
-        <v>227</v>
-      </c>
+      <c r="A155" s="49"/>
       <c r="B155" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C155" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E155" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F155" s="32" t="s">
-        <v>10</v>
+        <v>224</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F155" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G155" s="3"/>
-      <c r="H155" s="18" t="s">
-        <v>230</v>
+      <c r="H155" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
@@ -8075,20 +8045,20 @@
         <v>1</v>
       </c>
       <c r="C156" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="F156" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F156" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G156" s="3"/>
-      <c r="H156" s="18" t="s">
-        <v>233</v>
+      <c r="H156" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
@@ -8114,20 +8084,20 @@
         <v>1</v>
       </c>
       <c r="C157" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E157" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="F157" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E157" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F157" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G157" s="3"/>
-      <c r="H157" s="18" t="s">
-        <v>236</v>
+      <c r="H157" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -8150,23 +8120,23 @@
     <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A158" s="49"/>
       <c r="B158" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E158" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F158" s="31" t="s">
-        <v>22</v>
+        <v>233</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G158" s="3"/>
-      <c r="H158" s="18" t="s">
-        <v>239</v>
+      <c r="H158" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8186,26 +8156,26 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="49"/>
       <c r="B159" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C159" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E159" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="F159" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E159" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F159" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G159" s="3"/>
-      <c r="H159" s="18" t="s">
-        <v>242</v>
+      <c r="H159" s="16" t="s">
+        <v>238</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1"/>
@@ -8226,26 +8196,14 @@
       <c r="Y159" s="1"/>
     </row>
     <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="49"/>
-      <c r="B160" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C160" s="2">
-        <v>6</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E160" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="F160" s="33" t="s">
-        <v>57</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="1"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="19" t="s">
-        <v>245</v>
-      </c>
+      <c r="H160" s="4"/>
       <c r="I160" s="3"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -8291,15 +8249,29 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="1"/>
+    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A162" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="B162" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F162" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G162" s="3"/>
-      <c r="H162" s="4"/>
+      <c r="H162" s="15" t="s">
+        <v>241</v>
+      </c>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -8319,27 +8291,25 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="51" t="s">
-        <v>246</v>
-      </c>
+      <c r="A163" s="49"/>
       <c r="B163" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C163" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E163" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F163" s="32" t="s">
-        <v>10</v>
+        <v>242</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="F163" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G163" s="3"/>
-      <c r="H163" s="18" t="s">
-        <v>248</v>
+      <c r="H163" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
@@ -8359,26 +8329,26 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="49"/>
       <c r="B164" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C164" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E164" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F164" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F164" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G164" s="3"/>
-      <c r="H164" s="18" t="s">
-        <v>251</v>
+      <c r="H164" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
@@ -8398,26 +8368,26 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A165" s="49"/>
       <c r="B165" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C165" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E165" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="F165" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F165" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G165" s="3"/>
-      <c r="H165" s="19" t="s">
-        <v>254</v>
+      <c r="H165" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8437,26 +8407,26 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="49"/>
       <c r="B166" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C166" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E166" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="F166" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F166" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G166" s="3"/>
-      <c r="H166" s="18" t="s">
-        <v>257</v>
+      <c r="H166" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
@@ -8477,26 +8447,14 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="49"/>
-      <c r="B167" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C167" s="2">
-        <v>5</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E167" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="F167" s="31" t="s">
-        <v>22</v>
-      </c>
+      <c r="A167" s="17"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="1"/>
       <c r="G167" s="3"/>
-      <c r="H167" s="19" t="s">
-        <v>254</v>
-      </c>
+      <c r="H167" s="4"/>
       <c r="I167" s="3"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -8516,7 +8474,7 @@
       <c r="Y167" s="1"/>
     </row>
     <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
+      <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
       <c r="D168" s="1"/>
@@ -8542,15 +8500,29 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="1"/>
+    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A169" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B169" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F169" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G169" s="3"/>
-      <c r="H169" s="4"/>
+      <c r="H169" s="15" t="s">
+        <v>256</v>
+      </c>
       <c r="I169" s="3"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -8570,27 +8542,25 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="51" t="s">
-        <v>260</v>
-      </c>
+      <c r="A170" s="49"/>
       <c r="B170" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E170" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="F170" s="32" t="s">
-        <v>10</v>
+        <v>257</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F170" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G170" s="3"/>
-      <c r="H170" s="18" t="s">
-        <v>263</v>
+      <c r="H170" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
@@ -8616,20 +8586,20 @@
         <v>1</v>
       </c>
       <c r="C171" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E171" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="F171" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F171" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G171" s="3"/>
-      <c r="H171" s="18" t="s">
-        <v>266</v>
+      <c r="H171" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
@@ -8652,23 +8622,23 @@
     <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A172" s="49"/>
       <c r="B172" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E172" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="F172" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E172" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F172" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G172" s="3"/>
-      <c r="H172" s="18" t="s">
-        <v>268</v>
+      <c r="H172" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8691,23 +8661,23 @@
     <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A173" s="49"/>
       <c r="B173" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E173" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="F173" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E173" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F173" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="3"/>
-      <c r="H173" s="18" t="s">
-        <v>268</v>
+      <c r="H173" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
@@ -8730,23 +8700,23 @@
     <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A174" s="49"/>
       <c r="B174" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E174" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="F174" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="E174" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F174" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="3"/>
-      <c r="H174" s="18" t="s">
-        <v>272</v>
+      <c r="H174" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8769,23 +8739,23 @@
     <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A175" s="49"/>
       <c r="B175" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E175" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="F175" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="E175" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F175" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G175" s="3"/>
-      <c r="H175" s="18" t="s">
-        <v>275</v>
+      <c r="H175" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
@@ -8811,20 +8781,20 @@
         <v>1</v>
       </c>
       <c r="C176" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E176" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="F176" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E176" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="F176" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G176" s="3"/>
-      <c r="H176" s="18" t="s">
-        <v>277</v>
+      <c r="H176" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
@@ -8850,20 +8820,20 @@
         <v>0</v>
       </c>
       <c r="C177" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E177" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="F177" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F177" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G177" s="3"/>
-      <c r="H177" s="18" t="s">
-        <v>280</v>
+      <c r="H177" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
@@ -8883,26 +8853,26 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="49"/>
       <c r="B178" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C178" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E178" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="F178" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="F178" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G178" s="3"/>
-      <c r="H178" s="18" t="s">
-        <v>283</v>
+      <c r="H178" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
@@ -8922,26 +8892,26 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A179" s="49"/>
       <c r="B179" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C179" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E179" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="F179" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F179" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G179" s="3"/>
-      <c r="H179" s="19" t="s">
-        <v>286</v>
+      <c r="H179" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
@@ -8967,20 +8937,20 @@
         <v>0</v>
       </c>
       <c r="C180" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E180" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="F180" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F180" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G180" s="3"/>
-      <c r="H180" s="18" t="s">
-        <v>289</v>
+      <c r="H180" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -9006,20 +8976,20 @@
         <v>0</v>
       </c>
       <c r="C181" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E181" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="F181" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E181" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="F181" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G181" s="3"/>
-      <c r="H181" s="18" t="s">
-        <v>292</v>
+      <c r="H181" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -9042,23 +9012,23 @@
     <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A182" s="49"/>
       <c r="B182" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E182" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="F182" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F182" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G182" s="3"/>
-      <c r="H182" s="18" t="s">
-        <v>295</v>
+      <c r="H182" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -9081,23 +9051,23 @@
     <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A183" s="49"/>
       <c r="B183" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E183" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="F183" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E183" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F183" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G183" s="3"/>
-      <c r="H183" s="18" t="s">
-        <v>298</v>
+      <c r="H183" s="15" t="s">
+        <v>293</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -9120,23 +9090,23 @@
     <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A184" s="49"/>
       <c r="B184" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E184" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="F184" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E184" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F184" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G184" s="3"/>
-      <c r="H184" s="18" t="s">
-        <v>300</v>
+      <c r="H184" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9159,23 +9129,23 @@
     <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A185" s="49"/>
       <c r="B185" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E185" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="F185" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E185" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F185" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="18" t="s">
-        <v>303</v>
+      <c r="H185" s="15" t="s">
+        <v>299</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9195,26 +9165,26 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="49"/>
       <c r="B186" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E186" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="F186" s="31" t="s">
-        <v>22</v>
+        <v>300</v>
+      </c>
+      <c r="E186" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="F186" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="18" t="s">
-        <v>306</v>
+      <c r="H186" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9234,26 +9204,26 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A187" s="49"/>
       <c r="B187" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C187" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E187" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="F187" s="33" t="s">
-        <v>57</v>
+        <v>303</v>
+      </c>
+      <c r="E187" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="F187" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G187" s="3"/>
-      <c r="H187" s="19" t="s">
-        <v>309</v>
+      <c r="H187" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
@@ -9276,23 +9246,23 @@
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A188" s="49"/>
       <c r="B188" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E188" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="F188" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E188" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F188" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="3"/>
-      <c r="H188" s="18" t="s">
-        <v>312</v>
+      <c r="H188" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
@@ -9315,23 +9285,23 @@
     <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A189" s="49"/>
       <c r="B189" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E189" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="F189" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E189" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F189" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="18" t="s">
-        <v>314</v>
+      <c r="H189" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
@@ -9354,23 +9324,23 @@
     <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A190" s="49"/>
       <c r="B190" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E190" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="F190" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="E190" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F190" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="3"/>
-      <c r="H190" s="18" t="s">
-        <v>317</v>
+      <c r="H190" s="15" t="s">
+        <v>313</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
@@ -9390,26 +9360,26 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="49"/>
       <c r="B191" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C191" s="2">
+        <v>23</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E191" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="F191" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E191" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="F191" s="31" t="s">
-        <v>22</v>
-      </c>
       <c r="G191" s="3"/>
-      <c r="H191" s="18" t="s">
-        <v>320</v>
+      <c r="H191" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9432,23 +9402,23 @@
     <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="49"/>
       <c r="B192" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E192" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="F192" s="31" t="s">
-        <v>22</v>
+        <v>317</v>
+      </c>
+      <c r="E192" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F192" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="19" t="s">
-        <v>323</v>
+      <c r="H192" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9474,20 +9444,20 @@
         <v>0</v>
       </c>
       <c r="C193" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E193" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="F193" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E193" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F193" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="19" t="s">
-        <v>326</v>
+      <c r="H193" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
@@ -9507,26 +9477,26 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A194" s="49"/>
       <c r="B194" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C194" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E194" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="F194" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E194" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F194" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G194" s="3"/>
-      <c r="H194" s="19" t="s">
-        <v>329</v>
+      <c r="H194" s="15" t="s">
+        <v>324</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
@@ -9546,27 +9516,25 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A195" s="49"/>
-      <c r="B195" s="3" t="b">
-        <v>0</v>
+    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="C195" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E195" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="F195" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="F195" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="18" t="s">
-        <v>331</v>
-      </c>
+      <c r="H195" s="4"/>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -9587,21 +9555,11 @@
     </row>
     <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C196" s="2">
-        <v>27</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E196" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F196" s="33" t="s">
-        <v>57</v>
-      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="1"/>
       <c r="G196" s="3"/>
       <c r="H196" s="4"/>
       <c r="I196" s="3"/>
@@ -9622,15 +9580,29 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="1"/>
+    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A197" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="B197" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C197" s="2">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G197" s="3"/>
-      <c r="H197" s="4"/>
+      <c r="H197" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -9650,27 +9622,25 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A198" s="51" t="s">
-        <v>332</v>
-      </c>
+      <c r="A198" s="49"/>
       <c r="B198" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F198" s="32" t="s">
-        <v>10</v>
+      <c r="F198" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G198" s="3"/>
-      <c r="H198" s="18" t="s">
-        <v>334</v>
+      <c r="H198" s="15" t="s">
+        <v>329</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
@@ -9690,26 +9660,26 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="49"/>
       <c r="B199" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F199" s="31" t="s">
+      <c r="F199" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="18" t="s">
-        <v>336</v>
+      <c r="H199" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
@@ -9735,20 +9705,20 @@
         <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F200" s="31" t="s">
+      <c r="F200" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="19" t="s">
-        <v>338</v>
+      <c r="H200" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
@@ -9768,26 +9738,26 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A201" s="49"/>
       <c r="B201" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C201" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F201" s="31" t="s">
+      <c r="F201" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G201" s="3"/>
-      <c r="H201" s="19" t="s">
-        <v>340</v>
+      <c r="H201" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
@@ -9813,20 +9783,20 @@
         <v>0</v>
       </c>
       <c r="C202" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F202" s="31" t="s">
+      <c r="F202" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="18" t="s">
-        <v>342</v>
+      <c r="H202" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9852,20 +9822,20 @@
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F203" s="31" t="s">
+      <c r="F203" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G203" s="3"/>
-      <c r="H203" s="18" t="s">
-        <v>344</v>
+      <c r="H203" s="15" t="s">
+        <v>339</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9885,26 +9855,26 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="49"/>
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F204" s="31" t="s">
+      <c r="F204" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="18" t="s">
-        <v>346</v>
+      <c r="H204" s="16" t="s">
+        <v>341</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9924,26 +9894,26 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A205" s="49"/>
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F205" s="31" t="s">
+      <c r="F205" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="19" t="s">
-        <v>348</v>
+      <c r="H205" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9969,20 +9939,20 @@
         <v>0</v>
       </c>
       <c r="C206" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F206" s="31" t="s">
+      <c r="F206" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G206" s="3"/>
-      <c r="H206" s="18" t="s">
-        <v>350</v>
+      <c r="H206" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -10002,26 +9972,26 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="49"/>
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F207" s="31" t="s">
+      <c r="F207" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="18" t="s">
-        <v>352</v>
+      <c r="H207" s="16" t="s">
+        <v>347</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -10041,26 +10011,26 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A208" s="49"/>
       <c r="B208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F208" s="31" t="s">
+      <c r="F208" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G208" s="3"/>
-      <c r="H208" s="19" t="s">
-        <v>354</v>
+      <c r="H208" s="15" t="s">
+        <v>349</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -10086,20 +10056,20 @@
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F209" s="31" t="s">
+      <c r="F209" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="18" t="s">
-        <v>356</v>
+      <c r="H209" s="15" t="s">
+        <v>351</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -10125,20 +10095,20 @@
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F210" s="31" t="s">
+      <c r="F210" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="18" t="s">
-        <v>358</v>
+      <c r="H210" s="15" t="s">
+        <v>353</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
@@ -10158,26 +10128,26 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="49"/>
       <c r="B211" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F211" s="31" t="s">
+      <c r="F211" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G211" s="3"/>
-      <c r="H211" s="18" t="s">
-        <v>360</v>
+      <c r="H211" s="16" t="s">
+        <v>355</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
@@ -10203,20 +10173,20 @@
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F212" s="31" t="s">
-        <v>22</v>
+      <c r="F212" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G212" s="3"/>
-      <c r="H212" s="19" t="s">
-        <v>362</v>
+      <c r="H212" s="16" t="s">
+        <v>357</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10242,20 +10212,20 @@
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F213" s="33" t="s">
+      <c r="F213" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G213" s="3"/>
-      <c r="H213" s="19" t="s">
-        <v>364</v>
+      <c r="H213" s="16" t="s">
+        <v>359</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10281,20 +10251,20 @@
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F214" s="33" t="s">
+      <c r="F214" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G214" s="3"/>
-      <c r="H214" s="19" t="s">
-        <v>366</v>
+      <c r="H214" s="16" t="s">
+        <v>361</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10314,26 +10284,26 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A215" s="49"/>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F215" s="33" t="s">
+      <c r="F215" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G215" s="3"/>
-      <c r="H215" s="19" t="s">
-        <v>368</v>
+      <c r="H215" s="15" t="s">
+        <v>363</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10359,20 +10329,20 @@
         <v>0</v>
       </c>
       <c r="C216" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F216" s="33" t="s">
+      <c r="F216" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="18" t="s">
-        <v>370</v>
+      <c r="H216" s="15" t="s">
+        <v>365</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
@@ -10392,26 +10362,26 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="49"/>
       <c r="B217" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C217" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F217" s="33" t="s">
+      <c r="F217" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="18" t="s">
-        <v>372</v>
+      <c r="H217" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
@@ -10432,26 +10402,14 @@
       <c r="Y217" s="1"/>
     </row>
     <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="49"/>
-      <c r="B218" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C218" s="2">
-        <v>21</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E218" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F218" s="33" t="s">
-        <v>57</v>
-      </c>
+      <c r="A218" s="1"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="1"/>
       <c r="G218" s="3"/>
-      <c r="H218" s="19" t="s">
-        <v>374</v>
-      </c>
+      <c r="H218" s="4"/>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -10498,14 +10456,28 @@
       <c r="Y219" s="1"/>
     </row>
     <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="1"/>
+      <c r="A220" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B220" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E220" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G220" s="3"/>
-      <c r="H220" s="4"/>
+      <c r="H220" s="16" t="s">
+        <v>370</v>
+      </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -10524,28 +10496,26 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A221" s="51" t="s">
-        <v>375</v>
-      </c>
+    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A221" s="49"/>
       <c r="B221" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E221" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E221" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F221" s="32" t="s">
-        <v>10</v>
+      <c r="F221" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G221" s="3"/>
-      <c r="H221" s="19" t="s">
-        <v>377</v>
+      <c r="H221" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10571,20 +10541,20 @@
         <v>0</v>
       </c>
       <c r="C222" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F222" s="31" t="s">
+      <c r="F222" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="18" t="s">
-        <v>379</v>
+      <c r="H222" s="15" t="s">
+        <v>374</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
@@ -10610,20 +10580,20 @@
         <v>0</v>
       </c>
       <c r="C223" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="31" t="s">
+      <c r="F223" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G223" s="3"/>
-      <c r="H223" s="18" t="s">
-        <v>381</v>
+      <c r="H223" s="15" t="s">
+        <v>376</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
@@ -10649,20 +10619,20 @@
         <v>0</v>
       </c>
       <c r="C224" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F224" s="31" t="s">
+      <c r="F224" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G224" s="3"/>
-      <c r="H224" s="18" t="s">
-        <v>383</v>
+      <c r="H224" s="20" t="s">
+        <v>378</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
@@ -10688,20 +10658,20 @@
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F225" s="31" t="s">
-        <v>22</v>
+      <c r="F225" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G225" s="3"/>
-      <c r="H225" s="24" t="s">
-        <v>385</v>
+      <c r="H225" s="15" t="s">
+        <v>380</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
@@ -10721,27 +10691,15 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A226" s="49"/>
-      <c r="B226" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C226" s="2">
-        <v>6</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E226" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F226" s="33" t="s">
-        <v>57</v>
-      </c>
+    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="1"/>
       <c r="G226" s="3"/>
-      <c r="H226" s="18" t="s">
-        <v>387</v>
-      </c>
+      <c r="H226" s="4"/>
       <c r="I226" s="3"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -10788,12 +10746,24 @@
       <c r="Y227" s="1"/>
     </row>
     <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="1"/>
+      <c r="A228" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C228" s="2">
+        <v>1</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E228" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" s="41" t="s">
+        <v>427</v>
+      </c>
       <c r="G228" s="3"/>
       <c r="H228" s="4"/>
       <c r="I228" s="3"/>
@@ -10815,23 +10785,21 @@
       <c r="Y228" s="1"/>
     </row>
     <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A229" s="48" t="s">
-        <v>424</v>
-      </c>
+      <c r="A229" s="49"/>
       <c r="B229" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C229" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E229" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="E229" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F229" s="47" t="s">
-        <v>434</v>
+      <c r="F229" s="41" t="s">
+        <v>427</v>
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="4"/>
@@ -10855,20 +10823,20 @@
     </row>
     <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="49"/>
-      <c r="B230" s="1" t="s">
-        <v>437</v>
+      <c r="B230" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="C230" s="2">
-        <v>2</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E230" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="E230" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F230" s="47" t="s">
-        <v>434</v>
+      <c r="F230" s="41" t="s">
+        <v>427</v>
       </c>
       <c r="G230" s="3"/>
       <c r="H230" s="4"/>
@@ -10896,11 +10864,17 @@
         <v>0</v>
       </c>
       <c r="C231" s="2">
-        <v>3</v>
-      </c>
-      <c r="D231" s="1"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D231" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="E231" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="41" t="s">
+        <v>427</v>
+      </c>
       <c r="G231" s="3"/>
       <c r="H231" s="4"/>
       <c r="I231" s="3"/>
@@ -10927,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="C232" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="3"/>
@@ -10958,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="C233" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="3"/>
@@ -10989,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="C234" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="3"/>
@@ -11020,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="C235" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="3"/>
@@ -11051,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="C236" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="3"/>
@@ -11082,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="C237" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="3"/>
@@ -11113,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="C238" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="3"/>
@@ -11144,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="C239" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="3"/>
@@ -11175,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="C240" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="3"/>
@@ -11206,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="C241" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="3"/>
@@ -11237,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="C242" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="3"/>
@@ -11264,12 +11238,8 @@
     </row>
     <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="49"/>
-      <c r="B243" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C243" s="2">
-        <v>15</v>
-      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="2"/>
       <c r="D243" s="1"/>
       <c r="E243" s="3"/>
       <c r="F243" s="1"/>
@@ -11402,7 +11372,7 @@
       <c r="Y247" s="1"/>
     </row>
     <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A248" s="49"/>
+      <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="2"/>
       <c r="D248" s="1"/>
@@ -31867,339 +31837,309 @@
       <c r="X1005" s="1"/>
       <c r="Y1005" s="1"/>
     </row>
-    <row r="1006" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1006" s="1"/>
-      <c r="B1006" s="1"/>
-      <c r="C1006" s="2"/>
-      <c r="D1006" s="1"/>
-      <c r="E1006" s="3"/>
-      <c r="F1006" s="1"/>
-      <c r="G1006" s="3"/>
-      <c r="H1006" s="4"/>
-      <c r="I1006" s="3"/>
-      <c r="J1006" s="1"/>
-      <c r="K1006" s="1"/>
-      <c r="L1006" s="1"/>
-      <c r="M1006" s="1"/>
-      <c r="N1006" s="1"/>
-      <c r="O1006" s="1"/>
-      <c r="P1006" s="1"/>
-      <c r="Q1006" s="1"/>
-      <c r="R1006" s="1"/>
-      <c r="S1006" s="1"/>
-      <c r="T1006" s="1"/>
-      <c r="U1006" s="1"/>
-      <c r="V1006" s="1"/>
-      <c r="W1006" s="1"/>
-      <c r="X1006" s="1"/>
-      <c r="Y1006" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A228:A247"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="A197:A217"/>
+    <mergeCell ref="A220:A225"/>
+    <mergeCell ref="A75:A90"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="A110:A133"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A169:A194"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A34"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A229:A248"/>
-    <mergeCell ref="A46:A58"/>
-    <mergeCell ref="A61:A72"/>
-    <mergeCell ref="A198:A218"/>
-    <mergeCell ref="A221:A226"/>
-    <mergeCell ref="A75:A91"/>
-    <mergeCell ref="A94:A108"/>
-    <mergeCell ref="A111:A134"/>
-    <mergeCell ref="A138:A152"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A170:A195"/>
+    <mergeCell ref="A7:A37"/>
+    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E38" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G38" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G39" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E40" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G40" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E41" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E42" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G42" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E43" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E46" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G46" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E47" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E49" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E50" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G50" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E51" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G51" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E52" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G52" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E53" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E54" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E55" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E57" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E61" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G61" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E62" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E63" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G63" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E64" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E65" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E66" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G66" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E69" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E70" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G70" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E71" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E72" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E75" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G75" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E76" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="G76" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E77" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="G77" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E78" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E79" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G79" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E80" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="G80" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E81" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="G81" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E82" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="G82" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E84" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E85" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E86" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="G86" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E90" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E91" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="G91" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E94" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="G94" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E95" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="G95" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E96" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="G96" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E97" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="G97" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E98" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G98" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E99" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E100" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E101" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G101" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E102" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G102" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E103" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G103" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E104" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G104" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E105" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G105" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E106" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E107" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G107" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E108" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G108" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E111" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G111" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E112" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G112" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E113" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G113" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E114" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E115" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="G116" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E117" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="G117" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E118" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G120" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E121" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E122" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="G122" r:id="rId113" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E123" r:id="rId114" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E124" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E125" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G125" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E126" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G126" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E127" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G127" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E128" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G128" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E129" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E130" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G130" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E131" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G131" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E132" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E133" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E134" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E138" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E139" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G139" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E140" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G140" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E141" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G141" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E142" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="G142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G144" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E145" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G145" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E146" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G146" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E147" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E148" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G148" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E149" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G149" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E150" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G150" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E151" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E152" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G152" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E155" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E156" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E157" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E158" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E159" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E160" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E163" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E164" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E165" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E166" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E167" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E170" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E171" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E172" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E173" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E174" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E175" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E176" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E177" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E178" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E179" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E180" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E181" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E182" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E183" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E184" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E185" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E186" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E187" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E188" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E189" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E190" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E191" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E192" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E193" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E194" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E195" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E198" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E199" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E200" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E201" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E202" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E203" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E204" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E205" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E206" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E207" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E208" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E209" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E210" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E211" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E212" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E213" r:id="rId211" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E214" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E215" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E216" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E217" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E218" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E221" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E222" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E223" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E224" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E225" r:id="rId221" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E226" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E196" r:id="rId223" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E136" r:id="rId224" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E135" r:id="rId225" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
-    <hyperlink ref="G68" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E68" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E67" r:id="rId228" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
-    <hyperlink ref="E6" r:id="rId229" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
-    <hyperlink ref="E83" r:id="rId230" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
-    <hyperlink ref="E89" r:id="rId231" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
-    <hyperlink ref="E92" r:id="rId232" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
-    <hyperlink ref="E88" r:id="rId233" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
-    <hyperlink ref="E87" r:id="rId234" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
-    <hyperlink ref="E48" r:id="rId235" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
-    <hyperlink ref="E56" r:id="rId236" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
-    <hyperlink ref="E29" r:id="rId237" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
-    <hyperlink ref="E13" r:id="rId238" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
-    <hyperlink ref="E7" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId241" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="G34" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E34" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E33" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G32" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E32" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G31" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E31" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E30" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G28" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E28" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G26" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E26" r:id="rId253" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E25" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E24" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E23" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E22" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G21" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E21" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G20" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E20" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G18" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E18" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G17" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E17" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G16" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E16" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G15" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E15" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G14" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E14" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G12" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E12" r:id="rId273" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G10" r:id="rId274" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E10" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G9" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E9" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G8" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E229" r:id="rId280" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
-    <hyperlink ref="E19" r:id="rId281" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E230" r:id="rId282" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
-    <hyperlink ref="E27" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G40" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E41" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G42" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E43" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E46" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G46" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E47" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E49" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G50" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E51" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E52" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G52" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E53" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G53" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E54" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E55" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E57" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E61" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G61" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E62" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E63" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G63" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E64" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E65" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E66" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G66" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E69" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E70" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G70" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E71" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G71" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E72" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E75" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G75" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E76" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G76" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E77" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G77" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E78" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E79" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G79" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E80" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G80" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E81" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G81" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E82" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E84" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E85" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E89" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E90" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G90" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E93" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G93" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E94" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G94" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E95" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G95" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E96" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G96" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E97" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G97" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E98" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E99" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E100" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G100" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E101" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G101" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E102" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G102" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E103" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G103" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E104" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G104" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E105" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E106" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G106" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G107" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E110" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G110" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E111" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G111" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E112" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G112" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E113" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E114" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G114" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E115" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G115" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E116" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G116" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E117" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G117" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E118" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E119" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G119" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E120" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E121" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G121" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E122" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E123" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E124" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G124" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E125" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E126" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G126" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E127" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G127" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E128" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E129" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G130" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E131" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E132" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E133" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E137" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E138" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G138" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E139" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G139" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E140" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G140" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E141" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="G141" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E142" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G142" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E143" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G143" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E144" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G144" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E145" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G145" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E146" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E147" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G147" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E148" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G148" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E149" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E154" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E155" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E156" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E157" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E158" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E159" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E162" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E163" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E164" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E165" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E166" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E169" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E170" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E171" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E172" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E173" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E174" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E175" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E176" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E177" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E178" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E179" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E180" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E181" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E182" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E183" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E184" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E185" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E186" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E187" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E188" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E189" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E190" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E191" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E192" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E193" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E194" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E197" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E198" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E199" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E200" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E201" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E202" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E203" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E204" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E205" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E206" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E207" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E208" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E209" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E210" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E211" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E212" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E213" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E214" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E215" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E216" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E217" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E220" r:id="rId209" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E221" r:id="rId210" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E222" r:id="rId211" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E223" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E224" r:id="rId213" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E225" r:id="rId214" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E195" r:id="rId215" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E135" r:id="rId216" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E134" r:id="rId217" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G68" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E68" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E67" r:id="rId220" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="E6" r:id="rId221" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
+    <hyperlink ref="E83" r:id="rId222" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
+    <hyperlink ref="E88" r:id="rId223" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
+    <hyperlink ref="E91" r:id="rId224" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
+    <hyperlink ref="E87" r:id="rId225" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
+    <hyperlink ref="E86" r:id="rId226" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
+    <hyperlink ref="E48" r:id="rId227" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
+    <hyperlink ref="E56" r:id="rId228" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
+    <hyperlink ref="E32" r:id="rId229" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
+    <hyperlink ref="E14" r:id="rId230" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
+    <hyperlink ref="E7" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E11" r:id="rId233" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
+    <hyperlink ref="G37" r:id="rId234" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E37" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E36" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G35" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E35" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G34" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E34" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E33" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G31" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E31" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G29" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E29" r:id="rId245" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E28" r:id="rId246" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E27" r:id="rId247" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E26" r:id="rId248" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E25" r:id="rId249" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G23" r:id="rId250" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E23" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G22" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E22" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E20" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G18" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E18" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G17" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E17" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G16" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E16" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G15" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E15" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G13" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E13" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G10" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E10" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G9" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E9" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G8" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E228" r:id="rId272" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E21" r:id="rId273" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
+    <hyperlink ref="E229" r:id="rId274" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E30" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E12" r:id="rId276" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
+    <hyperlink ref="E230" r:id="rId277" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E231" r:id="rId278" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E24" r:id="rId279" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
+    <hyperlink ref="E19" r:id="rId280" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId284"/>
+  <pageSetup orientation="portrait" r:id="rId281"/>
 </worksheet>
 </file>
--- a/DSA for PLACEMENTS.xlsx
+++ b/DSA for PLACEMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0281402-F2B3-4980-B071-58233FC7104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B21258-2C54-4BAC-9BDF-3BFACD7A8246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="436">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -821,9 +821,6 @@
     <t xml:space="preserve">Amazon, Meta , Google, Visa, Adobe, Microsoft, Apple, Oracle, Flipkart </t>
   </si>
   <si>
-    <t>Detect cycle in undirected using BFS</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/redundant-connection/</t>
   </si>
   <si>
@@ -833,15 +830,9 @@
     <t xml:space="preserve">Google , Meta , microsoft, Inmobi , Amazon  </t>
   </si>
   <si>
-    <t>Detect cycle in directed using BFS</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/course-schedule/description/</t>
   </si>
   <si>
-    <t xml:space="preserve">Google , Meta , microsoft, Inmobi , Amazon </t>
-  </si>
-  <si>
     <t>Detect cycle in directed using DFS</t>
   </si>
   <si>
@@ -884,15 +875,6 @@
     <t xml:space="preserve">flipkart, microsoft </t>
   </si>
   <si>
-    <t>Kosaraju Strongly Connected Components</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon, Meta , Stripe, Airbnb , Oracle, DE Shaw, Apple </t>
-  </si>
-  <si>
     <t>Check Bi-partite Graph</t>
   </si>
   <si>
@@ -984,9 +966,6 @@
   </si>
   <si>
     <t xml:space="preserve">Phonepe ,  Google, Apple, Microsoft, Amazon </t>
-  </si>
-  <si>
-    <t>Topoplogical Sorting (BFS)</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/?envType=problem-list-v2&amp;envId=topological-sort</t>
@@ -1397,12 +1376,21 @@
       <t xml:space="preserve">  </t>
     </r>
   </si>
+  <si>
+    <t>Number of distinct islands</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/number-of-distinct-islands/1</t>
+  </si>
+  <si>
+    <t>Topoplogical Sorting (BFS)(Khans Algorithm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1580,8 +1568,15 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,6 +1661,12 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1680,7 +1681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1793,10 +1794,32 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1804,22 +1827,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2041,11 +2048,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1005"/>
+  <dimension ref="A1:Y1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B190" sqref="B190"/>
+      <pane ySplit="4" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2064,11 +2071,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="D1" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -2093,14 +2100,14 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="50" t="s">
-        <v>425</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2216,19 +2223,19 @@
     <row r="6" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34"/>
@@ -2251,11 +2258,11 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="60" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C7" s="30">
         <v>2</v>
@@ -2296,9 +2303,9 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C8" s="30">
         <v>3</v>
@@ -2339,9 +2346,9 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C9" s="30">
         <v>4</v>
@@ -2378,9 +2385,9 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C10" s="30">
         <v>5</v>
@@ -2419,15 +2426,15 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C11" s="30">
         <v>6</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>9</v>
@@ -2456,13 +2463,13 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="29" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>9</v>
@@ -2491,9 +2498,9 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C13" s="30">
         <v>7</v>
@@ -2532,15 +2539,15 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C14" s="30">
         <v>8</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>9</v>
@@ -2569,9 +2576,9 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C15" s="30">
         <v>9</v>
@@ -2608,9 +2615,9 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C16" s="30">
         <v>10</v>
@@ -2649,9 +2656,9 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C17" s="30">
         <v>11</v>
@@ -2692,9 +2699,9 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C18" s="30">
         <v>12</v>
@@ -2735,13 +2742,13 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="29" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>9</v>
@@ -2770,9 +2777,9 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C20" s="30">
         <v>13</v>
@@ -2811,15 +2818,15 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C21" s="30">
         <v>14</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>9</v>
@@ -2848,9 +2855,9 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C22" s="30">
         <v>15</v>
@@ -2889,9 +2896,9 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C23" s="30">
         <v>16</v>
@@ -2932,15 +2939,15 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C24" s="30">
         <v>17</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>9</v>
@@ -2969,9 +2976,9 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C25" s="30">
         <v>18</v>
@@ -3010,9 +3017,9 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C26" s="30">
         <v>19</v>
@@ -3051,9 +3058,9 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C27" s="30">
         <v>20</v>
@@ -3092,9 +3099,9 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C28" s="30">
         <v>21</v>
@@ -3133,9 +3140,9 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="29" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C29" s="30">
         <v>22</v>
@@ -3174,9 +3181,9 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="29" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C30" s="30">
         <v>23</v>
@@ -3213,9 +3220,9 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C31" s="30">
         <v>24</v>
@@ -3256,15 +3263,15 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C32" s="30">
         <v>25</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>9</v>
@@ -3293,7 +3300,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="33" t="b">
         <v>0</v>
       </c>
@@ -3334,7 +3341,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="33" t="b">
         <v>0</v>
       </c>
@@ -3375,7 +3382,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="33" t="b">
         <v>0</v>
       </c>
@@ -3418,7 +3425,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="33" t="b">
         <v>0</v>
       </c>
@@ -3457,7 +3464,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="33" t="b">
         <v>0</v>
       </c>
@@ -3550,7 +3557,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="33" t="b">
@@ -3593,7 +3600,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="33" t="b">
         <v>1</v>
       </c>
@@ -3632,7 +3639,7 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="33" t="b">
         <v>1</v>
       </c>
@@ -3671,7 +3678,7 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="33" t="b">
         <v>0</v>
       </c>
@@ -3762,7 +3769,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="33" t="b">
@@ -3805,7 +3812,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="33" t="b">
         <v>1</v>
       </c>
@@ -3844,7 +3851,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="33" t="b">
         <v>1</v>
       </c>
@@ -3852,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>9</v>
@@ -3881,7 +3888,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="33" t="b">
         <v>1</v>
       </c>
@@ -3920,7 +3927,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="33" t="b">
         <v>1</v>
       </c>
@@ -3959,7 +3966,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="33" t="b">
         <v>1</v>
       </c>
@@ -3998,7 +4005,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="33" t="b">
         <v>0</v>
       </c>
@@ -4039,7 +4046,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="33" t="b">
         <v>1</v>
       </c>
@@ -4078,7 +4085,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="33" t="b">
         <v>1</v>
       </c>
@@ -4117,7 +4124,7 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="54"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="33" t="b">
         <v>0</v>
       </c>
@@ -4156,7 +4163,7 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="54"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="33" t="b">
         <v>0</v>
       </c>
@@ -4164,7 +4171,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>9</v>
@@ -4193,7 +4200,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="54"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="33" t="b">
         <v>0</v>
       </c>
@@ -4230,7 +4237,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="54"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="33" t="b">
         <v>0</v>
       </c>
@@ -4317,7 +4324,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="54" t="s">
         <v>88</v>
       </c>
       <c r="B61" s="3" t="b">
@@ -4361,7 +4368,7 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="49"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="3" t="b">
         <v>0</v>
       </c>
@@ -4401,7 +4408,7 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="49"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="3" t="b">
         <v>0</v>
       </c>
@@ -4443,7 +4450,7 @@
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="49"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="3" t="b">
         <v>0</v>
       </c>
@@ -4483,7 +4490,7 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="49"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="3" t="b">
         <v>0</v>
       </c>
@@ -4523,7 +4530,7 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="49"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="3" t="b">
         <v>0</v>
       </c>
@@ -4565,7 +4572,7 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="49"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="3" t="b">
         <v>0</v>
       </c>
@@ -4574,7 +4581,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>9</v>
@@ -4603,7 +4610,7 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="3" t="b">
         <v>0</v>
       </c>
@@ -4645,7 +4652,7 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="49"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="3" t="b">
         <v>0</v>
       </c>
@@ -4685,7 +4692,7 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="49"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="3" t="b">
         <v>0</v>
       </c>
@@ -4727,7 +4734,7 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="3" t="b">
         <v>0</v>
       </c>
@@ -4769,7 +4776,7 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="3" t="b">
         <v>0</v>
       </c>
@@ -4863,7 +4870,7 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="56" t="s">
         <v>108</v>
       </c>
       <c r="B75" s="33" t="b">
@@ -4873,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E75" s="43" t="s">
         <v>9</v>
@@ -4906,7 +4913,7 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="54"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="33" t="b">
         <v>1</v>
       </c>
@@ -4914,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E76" s="43" t="s">
         <v>9</v>
@@ -4947,7 +4954,7 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="54"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="33" t="b">
         <v>1</v>
       </c>
@@ -4955,7 +4962,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E77" s="43" t="s">
         <v>9</v>
@@ -4988,7 +4995,7 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="54"/>
+      <c r="A78" s="53"/>
       <c r="B78" s="33" t="b">
         <v>1</v>
       </c>
@@ -4996,7 +5003,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E78" s="43" t="s">
         <v>9</v>
@@ -5027,7 +5034,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
+      <c r="A79" s="53"/>
       <c r="B79" s="33" t="b">
         <v>1</v>
       </c>
@@ -5035,7 +5042,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E79" s="43" t="s">
         <v>9</v>
@@ -5068,7 +5075,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="54"/>
+      <c r="A80" s="53"/>
       <c r="B80" s="33" t="b">
         <v>1</v>
       </c>
@@ -5076,7 +5083,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>9</v>
@@ -5109,7 +5116,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="54"/>
+      <c r="A81" s="53"/>
       <c r="B81" s="33" t="b">
         <v>1</v>
       </c>
@@ -5117,7 +5124,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E81" s="43" t="s">
         <v>9</v>
@@ -5150,7 +5157,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="54"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="33" t="b">
         <v>1</v>
       </c>
@@ -5191,7 +5198,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
+      <c r="A83" s="53"/>
       <c r="B83" s="33" t="b">
         <v>1</v>
       </c>
@@ -5199,7 +5206,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E83" s="31" t="s">
         <v>9</v>
@@ -5228,7 +5235,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="54"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="33" t="b">
         <v>1</v>
       </c>
@@ -5267,7 +5274,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="54"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="33" t="b">
         <v>1</v>
       </c>
@@ -5306,7 +5313,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="54"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="33" t="b">
         <v>1</v>
       </c>
@@ -5314,7 +5321,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E86" s="31" t="s">
         <v>9</v>
@@ -5343,7 +5350,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="54"/>
+      <c r="A87" s="53"/>
       <c r="B87" s="33" t="b">
         <v>1</v>
       </c>
@@ -5351,7 +5358,7 @@
         <v>14</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E87" s="31" t="s">
         <v>9</v>
@@ -5380,7 +5387,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="54"/>
+      <c r="A88" s="53"/>
       <c r="B88" s="33" t="b">
         <v>1</v>
       </c>
@@ -5388,7 +5395,7 @@
         <v>15</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E88" s="31" t="s">
         <v>9</v>
@@ -5417,7 +5424,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="54"/>
+      <c r="A89" s="53"/>
       <c r="B89" s="33" t="b">
         <v>1</v>
       </c>
@@ -5456,7 +5463,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="33" t="b">
         <v>1</v>
       </c>
@@ -5505,7 +5512,7 @@
         <v>18</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>9</v>
@@ -5561,7 +5568,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="56" t="s">
+      <c r="A93" s="52" t="s">
         <v>126</v>
       </c>
       <c r="B93" s="33" t="b">
@@ -5604,7 +5611,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="54"/>
+      <c r="A94" s="53"/>
       <c r="B94" s="33" t="b">
         <v>0</v>
       </c>
@@ -5645,7 +5652,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="54"/>
+      <c r="A95" s="53"/>
       <c r="B95" s="33" t="b">
         <v>0</v>
       </c>
@@ -5686,7 +5693,7 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="54"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="33" t="b">
         <v>0</v>
       </c>
@@ -5727,7 +5734,7 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="54"/>
+      <c r="A97" s="53"/>
       <c r="B97" s="33" t="b">
         <v>0</v>
       </c>
@@ -5768,7 +5775,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="33" t="b">
         <v>0</v>
       </c>
@@ -5807,7 +5814,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="54"/>
+      <c r="A99" s="53"/>
       <c r="B99" s="33" t="b">
         <v>0</v>
       </c>
@@ -5846,7 +5853,7 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="54"/>
+      <c r="A100" s="53"/>
       <c r="B100" s="33" t="b">
         <v>0</v>
       </c>
@@ -5887,7 +5894,7 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="54"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="33" t="b">
         <v>0</v>
       </c>
@@ -5928,7 +5935,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="54"/>
+      <c r="A102" s="53"/>
       <c r="B102" s="33" t="b">
         <v>0</v>
       </c>
@@ -5969,7 +5976,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="54"/>
+      <c r="A103" s="53"/>
       <c r="B103" s="33" t="b">
         <v>0</v>
       </c>
@@ -6010,7 +6017,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="54"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="33" t="b">
         <v>0</v>
       </c>
@@ -6051,7 +6058,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="54"/>
+      <c r="A105" s="53"/>
       <c r="B105" s="33" t="b">
         <v>0</v>
       </c>
@@ -6090,7 +6097,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="54"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="33" t="b">
         <v>0</v>
       </c>
@@ -6131,7 +6138,7 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="54"/>
+      <c r="A107" s="53"/>
       <c r="B107" s="33" t="b">
         <v>0</v>
       </c>
@@ -6226,7 +6233,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="56" t="s">
+      <c r="A110" s="52" t="s">
         <v>157</v>
       </c>
       <c r="B110" s="33" t="b">
@@ -6236,7 +6243,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E110" s="43" t="s">
         <v>9</v>
@@ -6269,7 +6276,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="54"/>
+      <c r="A111" s="53"/>
       <c r="B111" s="33" t="b">
         <v>1</v>
       </c>
@@ -6277,7 +6284,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E111" s="43" t="s">
         <v>9</v>
@@ -6310,7 +6317,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="54"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="33" t="b">
         <v>1</v>
       </c>
@@ -6318,7 +6325,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E112" s="43" t="s">
         <v>9</v>
@@ -6351,7 +6358,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="54"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="33" t="b">
         <v>1</v>
       </c>
@@ -6359,7 +6366,7 @@
         <v>4</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E113" s="43" t="s">
         <v>9</v>
@@ -6390,7 +6397,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="54"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="33" t="b">
         <v>1</v>
       </c>
@@ -6398,7 +6405,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E114" s="43" t="s">
         <v>9</v>
@@ -6431,7 +6438,7 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="54"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="33" t="b">
         <v>1</v>
       </c>
@@ -6439,7 +6446,7 @@
         <v>6</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E115" s="43" t="s">
         <v>9</v>
@@ -6472,7 +6479,7 @@
       <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="54"/>
+      <c r="A116" s="53"/>
       <c r="B116" s="33" t="b">
         <v>1</v>
       </c>
@@ -6480,7 +6487,7 @@
         <v>7</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E116" s="43" t="s">
         <v>9</v>
@@ -6513,7 +6520,7 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="54"/>
+      <c r="A117" s="53"/>
       <c r="B117" s="33" t="b">
         <v>1</v>
       </c>
@@ -6521,7 +6528,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E117" s="43" t="s">
         <v>9</v>
@@ -6554,7 +6561,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="54"/>
+      <c r="A118" s="53"/>
       <c r="B118" s="33" t="b">
         <v>1</v>
       </c>
@@ -6562,7 +6569,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E118" s="43" t="s">
         <v>9</v>
@@ -6593,7 +6600,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="54"/>
+      <c r="A119" s="53"/>
       <c r="B119" s="33" t="b">
         <v>1</v>
       </c>
@@ -6601,7 +6608,7 @@
         <v>10</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E119" s="43" t="s">
         <v>9</v>
@@ -6634,7 +6641,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="54"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="33" t="b">
         <v>1</v>
       </c>
@@ -6642,7 +6649,7 @@
         <v>11</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E120" s="43" t="s">
         <v>9</v>
@@ -6673,7 +6680,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="54"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="33" t="b">
         <v>1</v>
       </c>
@@ -6681,7 +6688,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E121" s="43" t="s">
         <v>9</v>
@@ -6714,7 +6721,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="54"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="33" t="b">
         <v>1</v>
       </c>
@@ -6722,7 +6729,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>9</v>
@@ -6753,7 +6760,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="54"/>
+      <c r="A123" s="53"/>
       <c r="B123" s="33" t="b">
         <v>1</v>
       </c>
@@ -6761,7 +6768,7 @@
         <v>14</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>9</v>
@@ -6792,7 +6799,7 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="54"/>
+      <c r="A124" s="53"/>
       <c r="B124" s="33" t="b">
         <v>1</v>
       </c>
@@ -6800,7 +6807,7 @@
         <v>15</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>9</v>
@@ -6833,7 +6840,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="54"/>
+      <c r="A125" s="53"/>
       <c r="B125" s="33" t="b">
         <v>1</v>
       </c>
@@ -6874,7 +6881,7 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="54"/>
+      <c r="A126" s="53"/>
       <c r="B126" s="33" t="b">
         <v>1</v>
       </c>
@@ -6882,7 +6889,7 @@
         <v>17</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E126" s="43" t="s">
         <v>9</v>
@@ -6915,7 +6922,7 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="54"/>
+      <c r="A127" s="53"/>
       <c r="B127" s="33" t="b">
         <v>1</v>
       </c>
@@ -6956,7 +6963,7 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="54"/>
+      <c r="A128" s="53"/>
       <c r="B128" s="33" t="b">
         <v>1</v>
       </c>
@@ -6995,7 +7002,7 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="54"/>
+      <c r="A129" s="53"/>
       <c r="B129" s="33" t="b">
         <v>1</v>
       </c>
@@ -7003,7 +7010,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E129" s="43" t="s">
         <v>9</v>
@@ -7036,7 +7043,7 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="54"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="33" t="b">
         <v>0</v>
       </c>
@@ -7077,7 +7084,7 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="54"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="33" t="b">
         <v>1</v>
       </c>
@@ -7116,7 +7123,7 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="54"/>
+      <c r="A132" s="53"/>
       <c r="B132" s="33" t="b">
         <v>1</v>
       </c>
@@ -7124,7 +7131,7 @@
         <v>23</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E132" s="43" t="s">
         <v>9</v>
@@ -7155,7 +7162,7 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="54"/>
+      <c r="A133" s="53"/>
       <c r="B133" s="33" t="b">
         <v>0</v>
       </c>
@@ -7202,7 +7209,7 @@
         <v>25</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E134" s="31" t="s">
         <v>9</v>
@@ -7239,7 +7246,7 @@
         <v>26</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E135" s="31" t="s">
         <v>9</v>
@@ -7295,7 +7302,7 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A137" s="58" t="s">
+      <c r="A137" s="55" t="s">
         <v>189</v>
       </c>
       <c r="B137" s="3" t="b">
@@ -7336,7 +7343,7 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="49"/>
+      <c r="A138" s="51"/>
       <c r="B138" s="3" t="b">
         <v>1</v>
       </c>
@@ -7377,7 +7384,7 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A139" s="49"/>
+      <c r="A139" s="51"/>
       <c r="B139" s="3" t="b">
         <v>1</v>
       </c>
@@ -7418,7 +7425,7 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A140" s="49"/>
+      <c r="A140" s="51"/>
       <c r="B140" s="3" t="b">
         <v>1</v>
       </c>
@@ -7459,7 +7466,7 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A141" s="49"/>
+      <c r="A141" s="51"/>
       <c r="B141" s="3" t="b">
         <v>0</v>
       </c>
@@ -7500,7 +7507,7 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="49"/>
+      <c r="A142" s="51"/>
       <c r="B142" s="3" t="b">
         <v>1</v>
       </c>
@@ -7541,7 +7548,7 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="49"/>
+      <c r="A143" s="51"/>
       <c r="B143" s="3" t="b">
         <v>0</v>
       </c>
@@ -7582,7 +7589,7 @@
       <c r="Y143" s="1"/>
     </row>
     <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A144" s="49"/>
+      <c r="A144" s="51"/>
       <c r="B144" s="3" t="b">
         <v>1</v>
       </c>
@@ -7623,7 +7630,7 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="49"/>
+      <c r="A145" s="51"/>
       <c r="B145" s="3" t="b">
         <v>1</v>
       </c>
@@ -7664,7 +7671,7 @@
       <c r="Y145" s="1"/>
     </row>
     <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A146" s="49"/>
+      <c r="A146" s="51"/>
       <c r="B146" s="3" t="b">
         <v>1</v>
       </c>
@@ -7703,7 +7710,7 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" s="49"/>
+      <c r="A147" s="51"/>
       <c r="B147" s="3" t="b">
         <v>0</v>
       </c>
@@ -7744,7 +7751,7 @@
       <c r="Y147" s="1"/>
     </row>
     <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" s="49"/>
+      <c r="A148" s="51"/>
       <c r="B148" s="3" t="b">
         <v>0</v>
       </c>
@@ -7785,7 +7792,7 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="49"/>
+      <c r="A149" s="51"/>
       <c r="B149" s="3" t="b">
         <v>0</v>
       </c>
@@ -7826,7 +7833,7 @@
       <c r="Y149" s="1"/>
     </row>
     <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="49"/>
+      <c r="A150" s="51"/>
       <c r="B150" s="3" t="b">
         <v>0</v>
       </c>
@@ -7865,7 +7872,7 @@
       <c r="Y150" s="1"/>
     </row>
     <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A151" s="49"/>
+      <c r="A151" s="51"/>
       <c r="B151" s="3" t="b">
         <v>0</v>
       </c>
@@ -7960,7 +7967,7 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A154" s="58" t="s">
+      <c r="A154" s="55" t="s">
         <v>220</v>
       </c>
       <c r="B154" s="3" t="b">
@@ -8001,7 +8008,7 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A155" s="49"/>
+      <c r="A155" s="51"/>
       <c r="B155" s="3" t="b">
         <v>1</v>
       </c>
@@ -8040,7 +8047,7 @@
       <c r="Y155" s="1"/>
     </row>
     <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A156" s="49"/>
+      <c r="A156" s="51"/>
       <c r="B156" s="3" t="b">
         <v>1</v>
       </c>
@@ -8079,7 +8086,7 @@
       <c r="Y156" s="1"/>
     </row>
     <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A157" s="49"/>
+      <c r="A157" s="51"/>
       <c r="B157" s="3" t="b">
         <v>1</v>
       </c>
@@ -8118,7 +8125,7 @@
       <c r="Y157" s="1"/>
     </row>
     <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A158" s="49"/>
+      <c r="A158" s="51"/>
       <c r="B158" s="3" t="b">
         <v>0</v>
       </c>
@@ -8157,7 +8164,7 @@
       <c r="Y158" s="1"/>
     </row>
     <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="49"/>
+      <c r="A159" s="51"/>
       <c r="B159" s="3" t="b">
         <v>0</v>
       </c>
@@ -8250,7 +8257,7 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="58" t="s">
+      <c r="A162" s="55" t="s">
         <v>239</v>
       </c>
       <c r="B162" s="3" t="b">
@@ -8291,7 +8298,7 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="49"/>
+      <c r="A163" s="51"/>
       <c r="B163" s="3" t="b">
         <v>0</v>
       </c>
@@ -8330,7 +8337,7 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="49"/>
+      <c r="A164" s="51"/>
       <c r="B164" s="3" t="b">
         <v>0</v>
       </c>
@@ -8369,7 +8376,7 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" s="49"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="3" t="b">
         <v>0</v>
       </c>
@@ -8408,7 +8415,7 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="49"/>
+      <c r="A166" s="51"/>
       <c r="B166" s="3" t="b">
         <v>0</v>
       </c>
@@ -8501,7 +8508,7 @@
       <c r="Y168" s="1"/>
     </row>
     <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A169" s="58" t="s">
+      <c r="A169" s="55" t="s">
         <v>253</v>
       </c>
       <c r="B169" s="3" t="b">
@@ -8542,7 +8549,7 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" s="49"/>
+      <c r="A170" s="51"/>
       <c r="B170" s="3" t="b">
         <v>1</v>
       </c>
@@ -8581,7 +8588,7 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" s="49"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="3" t="b">
         <v>1</v>
       </c>
@@ -8620,25 +8627,25 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A172" s="49"/>
+      <c r="A172" s="51"/>
       <c r="B172" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D172" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E172" s="18" t="s">
         <v>262</v>
-      </c>
-      <c r="E172" s="18" t="s">
-        <v>263</v>
       </c>
       <c r="F172" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="15" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8659,25 +8666,25 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A173" s="49"/>
+      <c r="A173" s="51"/>
       <c r="B173" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C173" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E173" s="18" t="s">
-        <v>263</v>
+        <v>266</v>
+      </c>
+      <c r="E173" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="F173" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
@@ -8698,25 +8705,25 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A174" s="49"/>
+      <c r="A174" s="51"/>
       <c r="B174" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E174" s="18" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="E174" s="23" t="s">
+        <v>269</v>
       </c>
       <c r="F174" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8737,25 +8744,25 @@
       <c r="Y174" s="1"/>
     </row>
     <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A175" s="49"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E175" s="23" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="E175" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="F175" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
@@ -8775,26 +8782,26 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A176" s="49"/>
+    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A176" s="51"/>
       <c r="B176" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E176" s="23" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="E176" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="F176" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G176" s="3"/>
-      <c r="H176" s="15" t="s">
-        <v>273</v>
+      <c r="H176" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
@@ -8815,25 +8822,25 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A177" s="49"/>
+      <c r="A177" s="51"/>
       <c r="B177" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C177" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E177" s="18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F177" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
@@ -8853,26 +8860,26 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A178" s="49"/>
+    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A178" s="51"/>
       <c r="B178" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E178" s="18" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="E178" s="23" t="s">
+        <v>281</v>
       </c>
       <c r="F178" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G178" s="3"/>
-      <c r="H178" s="16" t="s">
-        <v>279</v>
+      <c r="H178" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
@@ -8893,25 +8900,25 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A179" s="49"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E179" s="18" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F179" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="15" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
@@ -8932,25 +8939,25 @@
       <c r="Y179" s="1"/>
     </row>
     <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A180" s="49"/>
+      <c r="A180" s="51"/>
       <c r="B180" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>283</v>
+        <v>151</v>
       </c>
       <c r="E180" s="18" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F180" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -8971,25 +8978,25 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A181" s="49"/>
+      <c r="A181" s="51"/>
       <c r="B181" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E181" s="23" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="F181" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -9010,25 +9017,25 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A182" s="49"/>
+      <c r="A182" s="51"/>
       <c r="B182" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C182" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F182" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -9048,26 +9055,26 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A183" s="49"/>
+    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A183" s="51"/>
       <c r="B183" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C183" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="E183" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F183" s="26" t="s">
-        <v>22</v>
+        <v>295</v>
+      </c>
+      <c r="F183" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G183" s="3"/>
-      <c r="H183" s="15" t="s">
-        <v>293</v>
+      <c r="H183" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -9088,25 +9095,25 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A184" s="49"/>
+      <c r="A184" s="51"/>
       <c r="B184" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E184" s="18" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F184" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="15" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9127,25 +9134,25 @@
       <c r="Y184" s="1"/>
     </row>
     <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A185" s="49"/>
+      <c r="A185" s="51"/>
       <c r="B185" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C185" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E185" s="18" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="F185" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="15" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
@@ -9165,26 +9172,26 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A186" s="49"/>
+    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A186" s="51"/>
       <c r="B186" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E186" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="F186" s="28" t="s">
-        <v>57</v>
+        <v>303</v>
+      </c>
+      <c r="F186" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G186" s="3"/>
-      <c r="H186" s="16" t="s">
-        <v>302</v>
+      <c r="H186" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9205,26 +9212,24 @@
       <c r="Y186" s="1"/>
     </row>
     <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A187" s="49"/>
+      <c r="A187" s="51"/>
       <c r="B187" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E187" s="18" t="s">
-        <v>304</v>
+        <v>433</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>434</v>
       </c>
       <c r="F187" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G187" s="3"/>
-      <c r="H187" s="15" t="s">
-        <v>305</v>
-      </c>
+      <c r="H187" s="15"/>
       <c r="I187" s="3"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -9244,18 +9249,18 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A188" s="49"/>
+      <c r="A188" s="51"/>
       <c r="B188" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C188" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E188" s="18" t="s">
         <v>306</v>
-      </c>
-      <c r="E188" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>22</v>
@@ -9282,13 +9287,13 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" s="49"/>
+    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A189" s="51"/>
       <c r="B189" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C189" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>308</v>
@@ -9300,7 +9305,7 @@
         <v>22</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="15" t="s">
+      <c r="H189" s="16" t="s">
         <v>310</v>
       </c>
       <c r="I189" s="3"/>
@@ -9321,26 +9326,26 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A190" s="49"/>
+    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A190" s="51"/>
       <c r="B190" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C190" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D190" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E190" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="E190" s="18" t="s">
+      <c r="F190" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G190" s="3"/>
+      <c r="H190" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="F190" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G190" s="3"/>
-      <c r="H190" s="15" t="s">
-        <v>313</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
@@ -9361,25 +9366,25 @@
       <c r="Y190" s="1"/>
     </row>
     <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A191" s="49"/>
+      <c r="A191" s="51"/>
       <c r="B191" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C191" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D191" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E191" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="E191" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="F191" s="26" t="s">
-        <v>22</v>
+      <c r="F191" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9399,26 +9404,26 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A192" s="49"/>
+    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A192" s="51"/>
       <c r="B192" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="F192" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="16" t="s">
-        <v>319</v>
+      <c r="H192" s="15" t="s">
+        <v>317</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9439,26 +9444,24 @@
       <c r="Y192" s="1"/>
     </row>
     <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A193" s="49"/>
-      <c r="B193" s="3" t="b">
-        <v>0</v>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="C193" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E193" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="F193" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="F193" s="49" t="s">
         <v>57</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="16" t="s">
-        <v>322</v>
-      </c>
+      <c r="H193" s="4"/>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -9477,27 +9480,15 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A194" s="49"/>
-      <c r="B194" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C194" s="2">
-        <v>26</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E194" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="F194" s="28" t="s">
-        <v>57</v>
-      </c>
+    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="1"/>
       <c r="G194" s="3"/>
-      <c r="H194" s="15" t="s">
-        <v>324</v>
-      </c>
+      <c r="H194" s="4"/>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -9516,25 +9507,29 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1" t="s">
-        <v>385</v>
+    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A195" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B195" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C195" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E195" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="F195" s="28" t="s">
-        <v>57</v>
+        <v>319</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="4"/>
+      <c r="H195" s="15" t="s">
+        <v>320</v>
+      </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -9553,15 +9548,27 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="1"/>
+    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A196" s="51"/>
+      <c r="B196" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C196" s="2">
+        <v>2</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G196" s="3"/>
-      <c r="H196" s="4"/>
+      <c r="H196" s="15" t="s">
+        <v>322</v>
+      </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -9580,28 +9587,26 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A197" s="58" t="s">
-        <v>325</v>
-      </c>
+    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A197" s="51"/>
       <c r="B197" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C197" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E197" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E197" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F197" s="27" t="s">
-        <v>10</v>
+      <c r="F197" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G197" s="3"/>
-      <c r="H197" s="15" t="s">
-        <v>327</v>
+      <c r="H197" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
@@ -9621,16 +9626,16 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A198" s="49"/>
+    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A198" s="51"/>
       <c r="B198" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>9</v>
@@ -9639,8 +9644,8 @@
         <v>22</v>
       </c>
       <c r="G198" s="3"/>
-      <c r="H198" s="15" t="s">
-        <v>329</v>
+      <c r="H198" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
@@ -9660,16 +9665,16 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A199" s="49"/>
+    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A199" s="51"/>
       <c r="B199" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>9</v>
@@ -9678,8 +9683,8 @@
         <v>22</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="16" t="s">
-        <v>331</v>
+      <c r="H199" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
@@ -9699,16 +9704,16 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A200" s="49"/>
+    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A200" s="51"/>
       <c r="B200" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>9</v>
@@ -9717,8 +9722,8 @@
         <v>22</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="16" t="s">
-        <v>333</v>
+      <c r="H200" s="15" t="s">
+        <v>330</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
@@ -9739,15 +9744,15 @@
       <c r="Y200" s="1"/>
     </row>
     <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A201" s="49"/>
+      <c r="A201" s="51"/>
       <c r="B201" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C201" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>9</v>
@@ -9757,7 +9762,7 @@
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
@@ -9777,16 +9782,16 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A202" s="49"/>
+    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A202" s="51"/>
       <c r="B202" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C202" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>9</v>
@@ -9795,8 +9800,8 @@
         <v>22</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="15" t="s">
-        <v>337</v>
+      <c r="H202" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9817,15 +9822,15 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A203" s="49"/>
+      <c r="A203" s="51"/>
       <c r="B203" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>9</v>
@@ -9835,7 +9840,7 @@
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9855,16 +9860,16 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="49"/>
+    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A204" s="51"/>
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>9</v>
@@ -9873,8 +9878,8 @@
         <v>22</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="16" t="s">
-        <v>341</v>
+      <c r="H204" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9894,16 +9899,16 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A205" s="49"/>
+    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A205" s="51"/>
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>9</v>
@@ -9912,8 +9917,8 @@
         <v>22</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="15" t="s">
-        <v>343</v>
+      <c r="H205" s="16" t="s">
+        <v>340</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9934,15 +9939,15 @@
       <c r="Y205" s="1"/>
     </row>
     <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A206" s="49"/>
+      <c r="A206" s="51"/>
       <c r="B206" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C206" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>9</v>
@@ -9952,7 +9957,7 @@
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -9972,16 +9977,16 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A207" s="49"/>
+    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A207" s="51"/>
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>9</v>
@@ -9990,8 +9995,8 @@
         <v>22</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="16" t="s">
-        <v>347</v>
+      <c r="H207" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -10012,15 +10017,15 @@
       <c r="Y207" s="1"/>
     </row>
     <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A208" s="49"/>
+      <c r="A208" s="51"/>
       <c r="B208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>9</v>
@@ -10030,7 +10035,7 @@
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -10050,16 +10055,16 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A209" s="49"/>
+    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A209" s="51"/>
       <c r="B209" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>9</v>
@@ -10068,8 +10073,8 @@
         <v>22</v>
       </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="15" t="s">
-        <v>351</v>
+      <c r="H209" s="16" t="s">
+        <v>348</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -10089,26 +10094,26 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A210" s="49"/>
+    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A210" s="51"/>
       <c r="B210" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F210" s="26" t="s">
-        <v>22</v>
+      <c r="F210" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="15" t="s">
-        <v>353</v>
+      <c r="H210" s="16" t="s">
+        <v>350</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
@@ -10129,25 +10134,25 @@
       <c r="Y210" s="1"/>
     </row>
     <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="49"/>
+      <c r="A211" s="51"/>
       <c r="B211" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F211" s="26" t="s">
-        <v>22</v>
+      <c r="F211" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
@@ -10168,15 +10173,15 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A212" s="49"/>
+      <c r="A212" s="51"/>
       <c r="B212" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>9</v>
@@ -10186,7 +10191,7 @@
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10206,16 +10211,16 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A213" s="49"/>
+    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A213" s="51"/>
       <c r="B213" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>9</v>
@@ -10224,8 +10229,8 @@
         <v>57</v>
       </c>
       <c r="G213" s="3"/>
-      <c r="H213" s="16" t="s">
-        <v>359</v>
+      <c r="H213" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10245,16 +10250,16 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A214" s="49"/>
+    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A214" s="51"/>
       <c r="B214" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>9</v>
@@ -10263,8 +10268,8 @@
         <v>57</v>
       </c>
       <c r="G214" s="3"/>
-      <c r="H214" s="16" t="s">
-        <v>361</v>
+      <c r="H214" s="15" t="s">
+        <v>358</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10284,16 +10289,16 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A215" s="49"/>
+    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A215" s="51"/>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
@@ -10302,8 +10307,8 @@
         <v>57</v>
       </c>
       <c r="G215" s="3"/>
-      <c r="H215" s="15" t="s">
-        <v>363</v>
+      <c r="H215" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10323,27 +10328,15 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A216" s="49"/>
-      <c r="B216" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C216" s="2">
-        <v>20</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E216" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F216" s="28" t="s">
-        <v>57</v>
-      </c>
+    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="1"/>
       <c r="G216" s="3"/>
-      <c r="H216" s="15" t="s">
-        <v>365</v>
-      </c>
+      <c r="H216" s="4"/>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -10363,26 +10356,14 @@
       <c r="Y216" s="1"/>
     </row>
     <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A217" s="49"/>
-      <c r="B217" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C217" s="2">
-        <v>21</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E217" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F217" s="28" t="s">
-        <v>57</v>
-      </c>
+      <c r="A217" s="1"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="1"/>
       <c r="G217" s="3"/>
-      <c r="H217" s="16" t="s">
-        <v>367</v>
-      </c>
+      <c r="H217" s="4"/>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -10402,14 +10383,28 @@
       <c r="Y217" s="1"/>
     </row>
     <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="1"/>
+      <c r="A218" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="B218" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C218" s="2">
+        <v>1</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E218" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G218" s="3"/>
-      <c r="H218" s="4"/>
+      <c r="H218" s="16" t="s">
+        <v>363</v>
+      </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -10428,15 +10423,27 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="1"/>
+    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A219" s="51"/>
+      <c r="B219" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C219" s="2">
+        <v>2</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G219" s="3"/>
-      <c r="H219" s="4"/>
+      <c r="H219" s="15" t="s">
+        <v>365</v>
+      </c>
       <c r="I219" s="3"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -10455,28 +10462,26 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="58" t="s">
-        <v>368</v>
-      </c>
+    <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A220" s="51"/>
       <c r="B220" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E220" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="E220" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F220" s="27" t="s">
-        <v>10</v>
+      <c r="F220" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G220" s="3"/>
-      <c r="H220" s="16" t="s">
-        <v>370</v>
+      <c r="H220" s="15" t="s">
+        <v>367</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
@@ -10497,15 +10502,15 @@
       <c r="Y220" s="1"/>
     </row>
     <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A221" s="49"/>
+      <c r="A221" s="51"/>
       <c r="B221" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C221" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>9</v>
@@ -10515,7 +10520,7 @@
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10536,15 +10541,15 @@
       <c r="Y221" s="1"/>
     </row>
     <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A222" s="49"/>
+      <c r="A222" s="51"/>
       <c r="B222" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C222" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>9</v>
@@ -10553,8 +10558,8 @@
         <v>22</v>
       </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="15" t="s">
-        <v>374</v>
+      <c r="H222" s="20" t="s">
+        <v>371</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
@@ -10575,25 +10580,25 @@
       <c r="Y222" s="1"/>
     </row>
     <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A223" s="49"/>
+      <c r="A223" s="51"/>
       <c r="B223" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C223" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="26" t="s">
-        <v>22</v>
+      <c r="F223" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
@@ -10613,27 +10618,15 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A224" s="49"/>
-      <c r="B224" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C224" s="2">
-        <v>5</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E224" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F224" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="1"/>
       <c r="G224" s="3"/>
-      <c r="H224" s="20" t="s">
-        <v>378</v>
-      </c>
+      <c r="H224" s="4"/>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -10652,27 +10645,15 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A225" s="49"/>
-      <c r="B225" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C225" s="2">
-        <v>6</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E225" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F225" s="28" t="s">
-        <v>57</v>
-      </c>
+    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="1"/>
       <c r="G225" s="3"/>
-      <c r="H225" s="15" t="s">
-        <v>380</v>
-      </c>
+      <c r="H225" s="4"/>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -10692,12 +10673,24 @@
       <c r="Y225" s="1"/>
     </row>
     <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="1"/>
+      <c r="A226" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E226" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="41" t="s">
+        <v>420</v>
+      </c>
       <c r="G226" s="3"/>
       <c r="H226" s="4"/>
       <c r="I226" s="3"/>
@@ -10719,12 +10712,22 @@
       <c r="Y226" s="1"/>
     </row>
     <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="1"/>
+      <c r="A227" s="51"/>
+      <c r="B227" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C227" s="2">
+        <v>2</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E227" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227" s="41" t="s">
+        <v>420</v>
+      </c>
       <c r="G227" s="3"/>
       <c r="H227" s="4"/>
       <c r="I227" s="3"/>
@@ -10746,23 +10749,21 @@
       <c r="Y227" s="1"/>
     </row>
     <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="55" t="s">
-        <v>417</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>430</v>
+      <c r="A228" s="51"/>
+      <c r="B228" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="C228" s="2">
-        <v>1</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>426</v>
+        <v>3</v>
+      </c>
+      <c r="D228" s="24" t="s">
+        <v>427</v>
       </c>
       <c r="E228" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F228" s="41" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G228" s="3"/>
       <c r="H228" s="4"/>
@@ -10785,21 +10786,21 @@
       <c r="Y228" s="1"/>
     </row>
     <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A229" s="49"/>
-      <c r="B229" s="1" t="s">
-        <v>430</v>
+      <c r="A229" s="51"/>
+      <c r="B229" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="C229" s="2">
-        <v>2</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>429</v>
+        <v>4</v>
+      </c>
+      <c r="D229" s="24" t="s">
+        <v>428</v>
       </c>
       <c r="E229" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F229" s="41" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="4"/>
@@ -10822,22 +10823,16 @@
       <c r="Y229" s="1"/>
     </row>
     <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A230" s="49"/>
+      <c r="A230" s="51"/>
       <c r="B230" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C230" s="2">
-        <v>3</v>
-      </c>
-      <c r="D230" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="E230" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F230" s="41" t="s">
-        <v>427</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D230" s="1"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="1"/>
       <c r="G230" s="3"/>
       <c r="H230" s="4"/>
       <c r="I230" s="3"/>
@@ -10859,22 +10854,16 @@
       <c r="Y230" s="1"/>
     </row>
     <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A231" s="49"/>
+      <c r="A231" s="51"/>
       <c r="B231" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C231" s="2">
-        <v>4</v>
-      </c>
-      <c r="D231" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="E231" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F231" s="41" t="s">
-        <v>427</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D231" s="1"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="1"/>
       <c r="G231" s="3"/>
       <c r="H231" s="4"/>
       <c r="I231" s="3"/>
@@ -10896,12 +10885,12 @@
       <c r="Y231" s="1"/>
     </row>
     <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A232" s="49"/>
+      <c r="A232" s="51"/>
       <c r="B232" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C232" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="3"/>
@@ -10927,12 +10916,12 @@
       <c r="Y232" s="1"/>
     </row>
     <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A233" s="49"/>
+      <c r="A233" s="51"/>
       <c r="B233" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C233" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="3"/>
@@ -10958,12 +10947,12 @@
       <c r="Y233" s="1"/>
     </row>
     <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A234" s="49"/>
+      <c r="A234" s="51"/>
       <c r="B234" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C234" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="3"/>
@@ -10989,12 +10978,12 @@
       <c r="Y234" s="1"/>
     </row>
     <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A235" s="49"/>
+      <c r="A235" s="51"/>
       <c r="B235" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C235" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="3"/>
@@ -11020,12 +11009,12 @@
       <c r="Y235" s="1"/>
     </row>
     <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="49"/>
+      <c r="A236" s="51"/>
       <c r="B236" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C236" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="3"/>
@@ -11051,12 +11040,12 @@
       <c r="Y236" s="1"/>
     </row>
     <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A237" s="49"/>
+      <c r="A237" s="51"/>
       <c r="B237" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C237" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="3"/>
@@ -11082,12 +11071,12 @@
       <c r="Y237" s="1"/>
     </row>
     <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="49"/>
+      <c r="A238" s="51"/>
       <c r="B238" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C238" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="3"/>
@@ -11113,12 +11102,12 @@
       <c r="Y238" s="1"/>
     </row>
     <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A239" s="49"/>
+      <c r="A239" s="51"/>
       <c r="B239" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C239" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="3"/>
@@ -11144,12 +11133,12 @@
       <c r="Y239" s="1"/>
     </row>
     <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="49"/>
+      <c r="A240" s="51"/>
       <c r="B240" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C240" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="3"/>
@@ -11175,13 +11164,9 @@
       <c r="Y240" s="1"/>
     </row>
     <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A241" s="49"/>
-      <c r="B241" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C241" s="2">
-        <v>14</v>
-      </c>
+      <c r="A241" s="51"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="2"/>
       <c r="D241" s="1"/>
       <c r="E241" s="3"/>
       <c r="F241" s="1"/>
@@ -11206,13 +11191,9 @@
       <c r="Y241" s="1"/>
     </row>
     <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A242" s="49"/>
-      <c r="B242" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C242" s="2">
-        <v>15</v>
-      </c>
+      <c r="A242" s="51"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="2"/>
       <c r="D242" s="1"/>
       <c r="E242" s="3"/>
       <c r="F242" s="1"/>
@@ -11237,7 +11218,7 @@
       <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A243" s="49"/>
+      <c r="A243" s="51"/>
       <c r="B243" s="1"/>
       <c r="C243" s="2"/>
       <c r="D243" s="1"/>
@@ -11264,7 +11245,7 @@
       <c r="Y243" s="1"/>
     </row>
     <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="49"/>
+      <c r="A244" s="51"/>
       <c r="B244" s="1"/>
       <c r="C244" s="2"/>
       <c r="D244" s="1"/>
@@ -11291,7 +11272,7 @@
       <c r="Y244" s="1"/>
     </row>
     <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="49"/>
+      <c r="A245" s="51"/>
       <c r="B245" s="1"/>
       <c r="C245" s="2"/>
       <c r="D245" s="1"/>
@@ -11318,7 +11299,7 @@
       <c r="Y245" s="1"/>
     </row>
     <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A246" s="49"/>
+      <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="2"/>
       <c r="D246" s="1"/>
@@ -11345,7 +11326,7 @@
       <c r="Y246" s="1"/>
     </row>
     <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A247" s="49"/>
+      <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="2"/>
       <c r="D247" s="1"/>
@@ -31783,79 +31764,25 @@
       <c r="X1003" s="1"/>
       <c r="Y1003" s="1"/>
     </row>
-    <row r="1004" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1004" s="1"/>
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="2"/>
-      <c r="D1004" s="1"/>
-      <c r="E1004" s="3"/>
-      <c r="F1004" s="1"/>
-      <c r="G1004" s="3"/>
-      <c r="H1004" s="4"/>
-      <c r="I1004" s="3"/>
-      <c r="J1004" s="1"/>
-      <c r="K1004" s="1"/>
-      <c r="L1004" s="1"/>
-      <c r="M1004" s="1"/>
-      <c r="N1004" s="1"/>
-      <c r="O1004" s="1"/>
-      <c r="P1004" s="1"/>
-      <c r="Q1004" s="1"/>
-      <c r="R1004" s="1"/>
-      <c r="S1004" s="1"/>
-      <c r="T1004" s="1"/>
-      <c r="U1004" s="1"/>
-      <c r="V1004" s="1"/>
-      <c r="W1004" s="1"/>
-      <c r="X1004" s="1"/>
-      <c r="Y1004" s="1"/>
-    </row>
-    <row r="1005" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1005" s="1"/>
-      <c r="B1005" s="1"/>
-      <c r="C1005" s="2"/>
-      <c r="D1005" s="1"/>
-      <c r="E1005" s="3"/>
-      <c r="F1005" s="1"/>
-      <c r="G1005" s="3"/>
-      <c r="H1005" s="4"/>
-      <c r="I1005" s="3"/>
-      <c r="J1005" s="1"/>
-      <c r="K1005" s="1"/>
-      <c r="L1005" s="1"/>
-      <c r="M1005" s="1"/>
-      <c r="N1005" s="1"/>
-      <c r="O1005" s="1"/>
-      <c r="P1005" s="1"/>
-      <c r="Q1005" s="1"/>
-      <c r="R1005" s="1"/>
-      <c r="S1005" s="1"/>
-      <c r="T1005" s="1"/>
-      <c r="U1005" s="1"/>
-      <c r="V1005" s="1"/>
-      <c r="W1005" s="1"/>
-      <c r="X1005" s="1"/>
-      <c r="Y1005" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A228:A247"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A7:A37"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A226:A245"/>
     <mergeCell ref="A46:A58"/>
     <mergeCell ref="A61:A72"/>
-    <mergeCell ref="A197:A217"/>
-    <mergeCell ref="A220:A225"/>
+    <mergeCell ref="A195:A215"/>
+    <mergeCell ref="A218:A223"/>
     <mergeCell ref="A75:A90"/>
     <mergeCell ref="A93:A107"/>
     <mergeCell ref="A110:A133"/>
     <mergeCell ref="A137:A151"/>
     <mergeCell ref="A154:A159"/>
     <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A169:A194"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A7:A37"/>
-    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A169:A192"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
@@ -32022,124 +31949,122 @@
     <hyperlink ref="E169" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
     <hyperlink ref="E170" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
     <hyperlink ref="E171" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E172" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E173" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E174" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E175" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E176" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E177" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E178" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E179" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E180" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E181" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E182" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E183" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E184" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E185" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E186" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E187" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E188" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E189" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E190" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E191" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E192" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E193" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E194" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E197" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E198" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E199" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E200" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E201" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E202" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E203" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E204" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E205" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E206" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E207" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E208" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E209" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E210" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E211" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E212" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E213" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E214" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E215" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E216" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E217" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E220" r:id="rId209" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E221" r:id="rId210" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E222" r:id="rId211" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E223" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E224" r:id="rId213" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E225" r:id="rId214" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E195" r:id="rId215" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E135" r:id="rId216" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E134" r:id="rId217" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
-    <hyperlink ref="G68" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E68" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E67" r:id="rId220" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
-    <hyperlink ref="E6" r:id="rId221" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
-    <hyperlink ref="E83" r:id="rId222" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
-    <hyperlink ref="E88" r:id="rId223" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
-    <hyperlink ref="E91" r:id="rId224" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
-    <hyperlink ref="E87" r:id="rId225" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
-    <hyperlink ref="E86" r:id="rId226" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
-    <hyperlink ref="E48" r:id="rId227" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
-    <hyperlink ref="E56" r:id="rId228" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
-    <hyperlink ref="E32" r:id="rId229" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
-    <hyperlink ref="E14" r:id="rId230" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
-    <hyperlink ref="E7" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId233" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="G37" r:id="rId234" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E37" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E36" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G35" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E35" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G34" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E34" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E33" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G31" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E31" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G29" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E29" r:id="rId245" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E28" r:id="rId246" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E27" r:id="rId247" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E26" r:id="rId248" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E25" r:id="rId249" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G23" r:id="rId250" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E23" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G22" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E22" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E20" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G18" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E18" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G17" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E17" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G16" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E16" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G15" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E15" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G13" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E13" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G10" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E10" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G9" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E9" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G8" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E228" r:id="rId272" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
-    <hyperlink ref="E21" r:id="rId273" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E229" r:id="rId274" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
-    <hyperlink ref="E30" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E12" r:id="rId276" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E230" r:id="rId277" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E231" r:id="rId278" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
-    <hyperlink ref="E24" r:id="rId279" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
-    <hyperlink ref="E19" r:id="rId280" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
+    <hyperlink ref="E172" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E173" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E174" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E175" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E176" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E177" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E178" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E179" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E180" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E181" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E182" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E183" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E184" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E185" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E186" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E188" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E189" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E190" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E191" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E192" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E195" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E196" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E197" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E198" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E199" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E200" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E201" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E202" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E203" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E204" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E205" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E206" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E207" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E208" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E209" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E210" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E211" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E212" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E213" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E214" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E215" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E218" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E219" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E220" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E221" r:id="rId209" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E222" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E223" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E193" r:id="rId212" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E135" r:id="rId213" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E134" r:id="rId214" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G68" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E68" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E67" r:id="rId217" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="E6" r:id="rId218" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
+    <hyperlink ref="E83" r:id="rId219" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
+    <hyperlink ref="E88" r:id="rId220" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
+    <hyperlink ref="E91" r:id="rId221" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
+    <hyperlink ref="E87" r:id="rId222" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
+    <hyperlink ref="E86" r:id="rId223" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
+    <hyperlink ref="E48" r:id="rId224" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
+    <hyperlink ref="E56" r:id="rId225" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
+    <hyperlink ref="E32" r:id="rId226" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
+    <hyperlink ref="E14" r:id="rId227" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
+    <hyperlink ref="E7" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E11" r:id="rId230" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
+    <hyperlink ref="G37" r:id="rId231" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E37" r:id="rId232" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E36" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G35" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E35" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G34" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E34" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E33" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G31" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E31" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G29" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E29" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E28" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E27" r:id="rId244" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E26" r:id="rId245" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E25" r:id="rId246" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G23" r:id="rId247" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E23" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G22" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E22" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E20" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G18" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E18" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G17" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E17" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G16" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E16" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G15" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E15" r:id="rId260" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G13" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E13" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G10" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E10" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G9" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E9" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G8" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E226" r:id="rId269" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E21" r:id="rId270" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
+    <hyperlink ref="E227" r:id="rId271" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E30" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E12" r:id="rId273" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
+    <hyperlink ref="E228" r:id="rId274" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E229" r:id="rId275" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E24" r:id="rId276" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
+    <hyperlink ref="E19" r:id="rId277" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
+    <hyperlink ref="E187" r:id="rId278" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId281"/>
+  <pageSetup orientation="portrait" r:id="rId279"/>
 </worksheet>
 </file>
--- a/DSA for PLACEMENTS.xlsx
+++ b/DSA for PLACEMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B21258-2C54-4BAC-9BDF-3BFACD7A8246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ACD837-D8EC-4873-94C8-AB4F9CD86C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="441">
   <si>
     <t>Mark as Done</t>
   </si>
@@ -489,9 +489,6 @@
   </si>
   <si>
     <t>Rotten Oranges</t>
-  </si>
-  <si>
-    <t>amazon, google, microsoft, meta, oracle, adobe, cisco, Infosys , Salesforce ,BNY Mellon</t>
   </si>
   <si>
     <t>Stock Span</t>
@@ -1384,6 +1381,24 @@
   </si>
   <si>
     <t>Topoplogical Sorting (BFS)(Khans Algorithm)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-eventual-safe-states/</t>
+  </si>
+  <si>
+    <t>Find eventual safe states</t>
+  </si>
+  <si>
+    <t>Shortest distance in DAG</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/shortest-path-in-undirected-graph/1</t>
+  </si>
+  <si>
+    <t>Word ladder</t>
+  </si>
+  <si>
+    <t>https://neetcode.io/problems/word-ladder?list=neetcode150</t>
   </si>
 </sst>
 </file>
@@ -1800,26 +1815,10 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1827,6 +1826,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2048,11 +2063,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1003"/>
+  <dimension ref="A1:Y1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D190" sqref="D190"/>
+      <pane ySplit="4" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2071,8 +2086,8 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="57" t="s">
-        <v>424</v>
+      <c r="D1" s="50" t="s">
+        <v>423</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -2100,13 +2115,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="58" t="s">
-        <v>418</v>
+      <c r="D2" s="52" t="s">
+        <v>417</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="59"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="51"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2223,19 +2238,19 @@
     <row r="6" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34"/>
@@ -2258,11 +2273,11 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="54" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C7" s="30">
         <v>2</v>
@@ -2303,9 +2318,9 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C8" s="30">
         <v>3</v>
@@ -2346,9 +2361,9 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C9" s="30">
         <v>4</v>
@@ -2385,9 +2400,9 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C10" s="30">
         <v>5</v>
@@ -2426,15 +2441,15 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C11" s="30">
         <v>6</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>9</v>
@@ -2463,13 +2478,13 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>9</v>
@@ -2498,9 +2513,9 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C13" s="30">
         <v>7</v>
@@ -2539,15 +2554,15 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C14" s="30">
         <v>8</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>9</v>
@@ -2576,9 +2591,9 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C15" s="30">
         <v>9</v>
@@ -2615,9 +2630,9 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C16" s="30">
         <v>10</v>
@@ -2656,9 +2671,9 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C17" s="30">
         <v>11</v>
@@ -2699,9 +2714,9 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C18" s="30">
         <v>12</v>
@@ -2742,13 +2757,13 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>9</v>
@@ -2777,9 +2792,9 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C20" s="30">
         <v>13</v>
@@ -2818,15 +2833,15 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C21" s="30">
         <v>14</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>9</v>
@@ -2855,9 +2870,9 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="30">
         <v>15</v>
@@ -2896,9 +2911,9 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C23" s="30">
         <v>16</v>
@@ -2939,15 +2954,15 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C24" s="30">
         <v>17</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>9</v>
@@ -2976,9 +2991,9 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C25" s="30">
         <v>18</v>
@@ -3017,9 +3032,9 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C26" s="30">
         <v>19</v>
@@ -3058,9 +3073,9 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C27" s="30">
         <v>20</v>
@@ -3099,9 +3114,9 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C28" s="30">
         <v>21</v>
@@ -3140,9 +3155,9 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C29" s="30">
         <v>22</v>
@@ -3181,9 +3196,9 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C30" s="30">
         <v>23</v>
@@ -3220,9 +3235,9 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C31" s="30">
         <v>24</v>
@@ -3263,15 +3278,15 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C32" s="30">
         <v>25</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>9</v>
@@ -3300,7 +3315,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="33" t="b">
         <v>0</v>
       </c>
@@ -3341,7 +3356,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="33" t="b">
         <v>0</v>
       </c>
@@ -3382,7 +3397,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="33" t="b">
         <v>0</v>
       </c>
@@ -3425,7 +3440,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="33" t="b">
         <v>0</v>
       </c>
@@ -3464,7 +3479,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="33" t="b">
         <v>0</v>
       </c>
@@ -3557,7 +3572,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="33" t="b">
@@ -3600,7 +3615,7 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="33" t="b">
         <v>1</v>
       </c>
@@ -3639,7 +3654,7 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="33" t="b">
         <v>1</v>
       </c>
@@ -3678,7 +3693,7 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="33" t="b">
         <v>0</v>
       </c>
@@ -3769,7 +3784,7 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="58" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="33" t="b">
@@ -3812,7 +3827,7 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="33" t="b">
         <v>1</v>
       </c>
@@ -3851,7 +3866,7 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="33" t="b">
         <v>1</v>
       </c>
@@ -3859,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>9</v>
@@ -3888,7 +3903,7 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="33" t="b">
         <v>1</v>
       </c>
@@ -3927,7 +3942,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="33" t="b">
         <v>1</v>
       </c>
@@ -3966,7 +3981,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="33" t="b">
         <v>1</v>
       </c>
@@ -4005,7 +4020,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="33" t="b">
         <v>0</v>
       </c>
@@ -4046,7 +4061,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="33" t="b">
         <v>1</v>
       </c>
@@ -4085,7 +4100,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="33" t="b">
         <v>1</v>
       </c>
@@ -4124,7 +4139,7 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="33" t="b">
         <v>0</v>
       </c>
@@ -4163,7 +4178,7 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="53"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="33" t="b">
         <v>0</v>
       </c>
@@ -4171,7 +4186,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>9</v>
@@ -4200,7 +4215,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="53"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="33" t="b">
         <v>0</v>
       </c>
@@ -4237,7 +4252,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="33" t="b">
         <v>0</v>
       </c>
@@ -4324,7 +4339,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="59" t="s">
         <v>88</v>
       </c>
       <c r="B61" s="3" t="b">
@@ -4581,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>9</v>
@@ -4870,7 +4885,7 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="55" t="s">
         <v>108</v>
       </c>
       <c r="B75" s="33" t="b">
@@ -4880,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E75" s="43" t="s">
         <v>9</v>
@@ -4913,7 +4928,7 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="53"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="33" t="b">
         <v>1</v>
       </c>
@@ -4921,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E76" s="43" t="s">
         <v>9</v>
@@ -4954,7 +4969,7 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="53"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="33" t="b">
         <v>1</v>
       </c>
@@ -4962,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E77" s="43" t="s">
         <v>9</v>
@@ -4995,7 +5010,7 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="53"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="33" t="b">
         <v>1</v>
       </c>
@@ -5003,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E78" s="43" t="s">
         <v>9</v>
@@ -5034,7 +5049,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="53"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="33" t="b">
         <v>1</v>
       </c>
@@ -5042,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E79" s="43" t="s">
         <v>9</v>
@@ -5075,7 +5090,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="53"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="33" t="b">
         <v>1</v>
       </c>
@@ -5083,7 +5098,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>9</v>
@@ -5116,7 +5131,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="53"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="33" t="b">
         <v>1</v>
       </c>
@@ -5124,7 +5139,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E81" s="43" t="s">
         <v>9</v>
@@ -5157,7 +5172,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="53"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="33" t="b">
         <v>1</v>
       </c>
@@ -5198,7 +5213,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="53"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="33" t="b">
         <v>1</v>
       </c>
@@ -5206,7 +5221,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E83" s="31" t="s">
         <v>9</v>
@@ -5235,7 +5250,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="53"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="33" t="b">
         <v>1</v>
       </c>
@@ -5274,7 +5289,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="53"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="33" t="b">
         <v>1</v>
       </c>
@@ -5313,7 +5328,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="53"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="33" t="b">
         <v>1</v>
       </c>
@@ -5321,7 +5336,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E86" s="31" t="s">
         <v>9</v>
@@ -5350,7 +5365,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="53"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="33" t="b">
         <v>1</v>
       </c>
@@ -5358,7 +5373,7 @@
         <v>14</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E87" s="31" t="s">
         <v>9</v>
@@ -5387,7 +5402,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="53"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="33" t="b">
         <v>1</v>
       </c>
@@ -5395,7 +5410,7 @@
         <v>15</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E88" s="31" t="s">
         <v>9</v>
@@ -5424,7 +5439,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="53"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="33" t="b">
         <v>1</v>
       </c>
@@ -5463,7 +5478,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="53"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="33" t="b">
         <v>1</v>
       </c>
@@ -5512,7 +5527,7 @@
         <v>18</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>9</v>
@@ -5568,7 +5583,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="52" t="s">
+      <c r="A93" s="58" t="s">
         <v>126</v>
       </c>
       <c r="B93" s="33" t="b">
@@ -5611,7 +5626,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="53"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="33" t="b">
         <v>0</v>
       </c>
@@ -5652,7 +5667,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="53"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="33" t="b">
         <v>0</v>
       </c>
@@ -5693,7 +5708,7 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="53"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="33" t="b">
         <v>0</v>
       </c>
@@ -5734,7 +5749,7 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="53"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="33" t="b">
         <v>0</v>
       </c>
@@ -5775,7 +5790,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="53"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="33" t="b">
         <v>0</v>
       </c>
@@ -5814,7 +5829,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="53"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="33" t="b">
         <v>0</v>
       </c>
@@ -5853,7 +5868,7 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="53"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="33" t="b">
         <v>0</v>
       </c>
@@ -5894,7 +5909,7 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="53"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="33" t="b">
         <v>0</v>
       </c>
@@ -5935,7 +5950,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="53"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="33" t="b">
         <v>0</v>
       </c>
@@ -5976,7 +5991,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="53"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="33" t="b">
         <v>0</v>
       </c>
@@ -6017,7 +6032,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="53"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="33" t="b">
         <v>0</v>
       </c>
@@ -6058,15 +6073,15 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="53"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="33" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E105" s="43" t="s">
         <v>9</v>
@@ -6074,9 +6089,11 @@
       <c r="F105" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="33"/>
+      <c r="G105" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H105" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1"/>
@@ -6097,27 +6114,27 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="53"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="33" t="b">
         <v>0</v>
       </c>
       <c r="C106" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="37" t="s">
-        <v>22</v>
+      <c r="F106" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="G106" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H106" s="45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1"/>
@@ -6137,29 +6154,15 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="53"/>
-      <c r="B107" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C107" s="30">
-        <v>15</v>
-      </c>
-      <c r="D107" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E107" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G107" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" s="45" t="s">
-        <v>156</v>
-      </c>
+    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="11"/>
       <c r="I107" s="3"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -6186,7 +6189,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="1"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="11"/>
+      <c r="H108" s="4"/>
       <c r="I108" s="3"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -6205,15 +6208,31 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="4"/>
+    <row r="109" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="30">
+        <v>1</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="E109" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="45" t="s">
+        <v>157</v>
+      </c>
       <c r="I109" s="3"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -6233,14 +6252,12 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="52" t="s">
-        <v>157</v>
-      </c>
+      <c r="A110" s="56"/>
       <c r="B110" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C110" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" s="29" t="s">
         <v>386</v>
@@ -6276,12 +6293,12 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="53"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C111" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111" s="29" t="s">
         <v>387</v>
@@ -6317,12 +6334,12 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="53"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C112" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D112" s="29" t="s">
         <v>388</v>
@@ -6333,9 +6350,7 @@
       <c r="F112" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G112" s="33"/>
       <c r="H112" s="45" t="s">
         <v>160</v>
       </c>
@@ -6358,12 +6373,12 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="53"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C113" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D113" s="29" t="s">
         <v>389</v>
@@ -6374,9 +6389,11 @@
       <c r="F113" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G113" s="33"/>
+      <c r="G113" s="35" t="s">
+        <v>161</v>
+      </c>
       <c r="H113" s="45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1"/>
@@ -6397,12 +6414,12 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="53"/>
+      <c r="A114" s="56"/>
       <c r="B114" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C114" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D114" s="29" t="s">
         <v>390</v>
@@ -6414,7 +6431,7 @@
         <v>10</v>
       </c>
       <c r="G114" s="35" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="H114" s="45" t="s">
         <v>163</v>
@@ -6438,12 +6455,12 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="53"/>
+      <c r="A115" s="56"/>
       <c r="B115" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C115" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D115" s="29" t="s">
         <v>391</v>
@@ -6479,12 +6496,12 @@
       <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="53"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C116" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D116" s="29" t="s">
         <v>392</v>
@@ -6520,12 +6537,12 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="53"/>
+      <c r="A117" s="56"/>
       <c r="B117" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C117" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="29" t="s">
         <v>393</v>
@@ -6536,9 +6553,7 @@
       <c r="F117" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G117" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G117" s="33"/>
       <c r="H117" s="45" t="s">
         <v>166</v>
       </c>
@@ -6561,12 +6576,12 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="53"/>
+      <c r="A118" s="56"/>
       <c r="B118" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C118" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" s="29" t="s">
         <v>394</v>
@@ -6577,7 +6592,9 @@
       <c r="F118" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="33"/>
+      <c r="G118" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H118" s="45" t="s">
         <v>167</v>
       </c>
@@ -6600,12 +6617,12 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="53"/>
+      <c r="A119" s="56"/>
       <c r="B119" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C119" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D119" s="29" t="s">
         <v>395</v>
@@ -6616,9 +6633,7 @@
       <c r="F119" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G119" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G119" s="33"/>
       <c r="H119" s="45" t="s">
         <v>168</v>
       </c>
@@ -6641,12 +6656,12 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="53"/>
+      <c r="A120" s="56"/>
       <c r="B120" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C120" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="29" t="s">
         <v>396</v>
@@ -6654,10 +6669,12 @@
       <c r="E120" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="33"/>
+      <c r="F120" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H120" s="45" t="s">
         <v>169</v>
       </c>
@@ -6680,12 +6697,12 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="53"/>
+      <c r="A121" s="56"/>
       <c r="B121" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C121" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D121" s="29" t="s">
         <v>397</v>
@@ -6696,9 +6713,7 @@
       <c r="F121" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G121" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G121" s="33"/>
       <c r="H121" s="45" t="s">
         <v>170</v>
       </c>
@@ -6721,12 +6736,12 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="53"/>
+      <c r="A122" s="56"/>
       <c r="B122" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C122" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D122" s="29" t="s">
         <v>398</v>
@@ -6760,12 +6775,12 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="53"/>
+      <c r="A123" s="56"/>
       <c r="B123" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C123" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>399</v>
@@ -6776,7 +6791,9 @@
       <c r="F123" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G123" s="33"/>
+      <c r="G123" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H123" s="45" t="s">
         <v>172</v>
       </c>
@@ -6799,15 +6816,15 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="53"/>
+      <c r="A124" s="56"/>
       <c r="B124" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C124" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>9</v>
@@ -6819,7 +6836,7 @@
         <v>11</v>
       </c>
       <c r="H124" s="45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1"/>
@@ -6840,15 +6857,15 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="53"/>
+      <c r="A125" s="56"/>
       <c r="B125" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C125" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>174</v>
+        <v>400</v>
       </c>
       <c r="E125" s="43" t="s">
         <v>9</v>
@@ -6881,15 +6898,15 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="53"/>
+      <c r="A126" s="56"/>
       <c r="B126" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C126" s="30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>401</v>
+        <v>176</v>
       </c>
       <c r="E126" s="43" t="s">
         <v>9</v>
@@ -6901,7 +6918,7 @@
         <v>11</v>
       </c>
       <c r="H126" s="45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1"/>
@@ -6922,15 +6939,15 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="53"/>
+      <c r="A127" s="56"/>
       <c r="B127" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C127" s="30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E127" s="43" t="s">
         <v>9</v>
@@ -6938,11 +6955,9 @@
       <c r="F127" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G127" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G127" s="33"/>
       <c r="H127" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1"/>
@@ -6963,15 +6978,15 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="53"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C128" s="30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>179</v>
+        <v>401</v>
       </c>
       <c r="E128" s="43" t="s">
         <v>9</v>
@@ -6979,7 +6994,9 @@
       <c r="F128" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G128" s="33"/>
+      <c r="G128" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H128" s="45" t="s">
         <v>180</v>
       </c>
@@ -7002,15 +7019,15 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="53"/>
+      <c r="A129" s="56"/>
       <c r="B129" s="33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" s="30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>402</v>
+        <v>181</v>
       </c>
       <c r="E129" s="43" t="s">
         <v>9</v>
@@ -7022,7 +7039,7 @@
         <v>11</v>
       </c>
       <c r="H129" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1"/>
@@ -7043,15 +7060,15 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="53"/>
+      <c r="A130" s="56"/>
       <c r="B130" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E130" s="43" t="s">
         <v>9</v>
@@ -7059,11 +7076,9 @@
       <c r="F130" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G130" s="35" t="s">
-        <v>11</v>
-      </c>
+      <c r="G130" s="33"/>
       <c r="H130" s="45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1"/>
@@ -7084,21 +7099,21 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="53"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="33" t="b">
         <v>1</v>
       </c>
       <c r="C131" s="30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>184</v>
+        <v>402</v>
       </c>
       <c r="E131" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="37" t="s">
-        <v>22</v>
+      <c r="F131" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="G131" s="33"/>
       <c r="H131" s="45" t="s">
@@ -7123,15 +7138,15 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="53"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" s="30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>403</v>
+        <v>186</v>
       </c>
       <c r="E132" s="43" t="s">
         <v>9</v>
@@ -7141,7 +7156,7 @@
       </c>
       <c r="G132" s="33"/>
       <c r="H132" s="45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1"/>
@@ -7162,26 +7177,24 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="53"/>
+      <c r="A133" s="44"/>
       <c r="B133" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" s="30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="E133" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="E133" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="40" t="s">
-        <v>57</v>
+      <c r="F133" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="G133" s="33"/>
-      <c r="H133" s="45" t="s">
-        <v>188</v>
-      </c>
+      <c r="H133" s="45"/>
       <c r="I133" s="3"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -7206,10 +7219,10 @@
         <v>1</v>
       </c>
       <c r="C134" s="30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="E134" s="31" t="s">
         <v>9</v>
@@ -7237,25 +7250,15 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="44"/>
-      <c r="B135" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C135" s="30">
-        <v>26</v>
-      </c>
-      <c r="D135" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="E135" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" s="33"/>
-      <c r="H135" s="45"/>
+    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
       <c r="I135" s="3"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -7274,15 +7277,29 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="1"/>
+    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A136" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="B136" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G136" s="3"/>
-      <c r="H136" s="4"/>
+      <c r="H136" s="15" t="s">
+        <v>190</v>
+      </c>
       <c r="I136" s="3"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -7301,18 +7318,16 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A137" s="55" t="s">
-        <v>189</v>
-      </c>
+    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A137" s="51"/>
       <c r="B137" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>9</v>
@@ -7320,9 +7335,11 @@
       <c r="F137" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="15" t="s">
-        <v>191</v>
+      <c r="G137" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1"/>
@@ -7342,28 +7359,28 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A138" s="51"/>
       <c r="B138" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C138" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="27" t="s">
-        <v>10</v>
+      <c r="F138" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H138" s="16" t="s">
-        <v>193</v>
+      <c r="H138" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1"/>
@@ -7389,10 +7406,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>9</v>
@@ -7404,7 +7421,7 @@
         <v>11</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1"/>
@@ -7427,13 +7444,13 @@
     <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" s="51"/>
       <c r="B140" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>9</v>
@@ -7445,7 +7462,7 @@
         <v>11</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1"/>
@@ -7465,18 +7482,18 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="51"/>
       <c r="B141" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E141" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E141" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F141" s="26" t="s">
@@ -7485,8 +7502,8 @@
       <c r="G141" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H141" s="15" t="s">
-        <v>199</v>
+      <c r="H141" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1"/>
@@ -7509,15 +7526,15 @@
     <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="51"/>
       <c r="B142" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E142" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E142" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="26" t="s">
@@ -7527,7 +7544,7 @@
         <v>11</v>
       </c>
       <c r="H142" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1"/>
@@ -7547,16 +7564,16 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" s="51"/>
       <c r="B143" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>9</v>
@@ -7567,8 +7584,8 @@
       <c r="G143" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H143" s="16" t="s">
-        <v>203</v>
+      <c r="H143" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1"/>
@@ -7588,16 +7605,16 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="51"/>
       <c r="B144" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C144" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>9</v>
@@ -7608,8 +7625,8 @@
       <c r="G144" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H144" s="15" t="s">
-        <v>205</v>
+      <c r="H144" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1"/>
@@ -7629,16 +7646,16 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A145" s="51"/>
       <c r="B145" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C145" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>9</v>
@@ -7646,11 +7663,9 @@
       <c r="F145" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G145" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" s="16" t="s">
-        <v>207</v>
+      <c r="G145" s="3"/>
+      <c r="H145" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="1"/>
@@ -7673,13 +7688,13 @@
     <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A146" s="51"/>
       <c r="B146" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>9</v>
@@ -7687,9 +7702,11 @@
       <c r="F146" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G146" s="3"/>
+      <c r="G146" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H146" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="1"/>
@@ -7715,10 +7732,10 @@
         <v>0</v>
       </c>
       <c r="C147" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>9</v>
@@ -7730,7 +7747,7 @@
         <v>11</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1"/>
@@ -7750,28 +7767,28 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="51"/>
       <c r="B148" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C148" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F148" s="26" t="s">
-        <v>22</v>
+      <c r="F148" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H148" s="15" t="s">
-        <v>213</v>
+      <c r="H148" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1"/>
@@ -7797,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="C149" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>9</v>
@@ -7808,11 +7825,9 @@
       <c r="F149" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G149" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G149" s="3"/>
       <c r="H149" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1"/>
@@ -7832,16 +7847,16 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A150" s="51"/>
       <c r="B150" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C150" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>9</v>
@@ -7849,9 +7864,11 @@
       <c r="F150" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="16" t="s">
-        <v>217</v>
+      <c r="G150" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1"/>
@@ -7871,29 +7888,15 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A151" s="51"/>
-      <c r="B151" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C151" s="2">
-        <v>15</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H151" s="15" t="s">
-        <v>219</v>
-      </c>
+    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="4"/>
       <c r="I151" s="3"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -7939,15 +7942,29 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="1"/>
+    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A153" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B153" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E153" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F153" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G153" s="3"/>
-      <c r="H153" s="4"/>
+      <c r="H153" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="I153" s="3"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -7967,27 +7984,25 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A154" s="55" t="s">
-        <v>220</v>
-      </c>
+      <c r="A154" s="51"/>
       <c r="B154" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C154" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E154" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="F154" s="27" t="s">
-        <v>10</v>
+        <v>223</v>
+      </c>
+      <c r="E154" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F154" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1"/>
@@ -8013,20 +8028,20 @@
         <v>1</v>
       </c>
       <c r="C155" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F155" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1"/>
@@ -8052,20 +8067,20 @@
         <v>1</v>
       </c>
       <c r="C156" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E156" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="E156" s="23" t="s">
+        <v>230</v>
       </c>
       <c r="F156" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1"/>
@@ -8088,23 +8103,23 @@
     <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A157" s="51"/>
       <c r="B157" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E157" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="F157" s="26" t="s">
-        <v>22</v>
+        <v>232</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F157" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1"/>
@@ -8124,26 +8139,26 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="51"/>
       <c r="B158" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C158" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F158" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G158" s="3"/>
-      <c r="H158" s="15" t="s">
-        <v>235</v>
+      <c r="H158" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1"/>
@@ -8164,26 +8179,14 @@
       <c r="Y158" s="1"/>
     </row>
     <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="51"/>
-      <c r="B159" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C159" s="2">
-        <v>6</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E159" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F159" s="28" t="s">
-        <v>57</v>
-      </c>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="1"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="16" t="s">
-        <v>238</v>
-      </c>
+      <c r="H159" s="4"/>
       <c r="I159" s="3"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -8229,15 +8232,29 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="1"/>
+    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A161" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="B161" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F161" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G161" s="3"/>
-      <c r="H161" s="4"/>
+      <c r="H161" s="15" t="s">
+        <v>240</v>
+      </c>
       <c r="I161" s="3"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -8257,27 +8274,25 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="55" t="s">
-        <v>239</v>
-      </c>
+      <c r="A162" s="51"/>
       <c r="B162" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C162" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="F162" s="27" t="s">
-        <v>10</v>
+        <v>242</v>
+      </c>
+      <c r="F162" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="1"/>
@@ -8297,26 +8312,26 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="51"/>
       <c r="B163" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C163" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E163" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F163" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G163" s="3"/>
-      <c r="H163" s="15" t="s">
-        <v>244</v>
+      <c r="H163" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1"/>
@@ -8336,26 +8351,26 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A164" s="51"/>
       <c r="B164" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C164" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F164" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G164" s="3"/>
-      <c r="H164" s="16" t="s">
-        <v>247</v>
+      <c r="H164" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1"/>
@@ -8375,26 +8390,26 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="51"/>
       <c r="B165" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C165" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F165" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G165" s="3"/>
-      <c r="H165" s="15" t="s">
-        <v>250</v>
+      <c r="H165" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1"/>
@@ -8415,26 +8430,14 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="51"/>
-      <c r="B166" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C166" s="2">
-        <v>5</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E166" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F166" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="A166" s="17"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="1"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="16" t="s">
-        <v>247</v>
-      </c>
+      <c r="H166" s="4"/>
       <c r="I166" s="3"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -8454,7 +8457,7 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="17"/>
+      <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="2"/>
       <c r="D167" s="1"/>
@@ -8480,15 +8483,29 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="1"/>
+    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A168" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B168" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F168" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="G168" s="3"/>
-      <c r="H168" s="4"/>
+      <c r="H168" s="15" t="s">
+        <v>255</v>
+      </c>
       <c r="I168" s="3"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -8508,28 +8525,24 @@
       <c r="Y168" s="1"/>
     </row>
     <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A169" s="55" t="s">
-        <v>253</v>
-      </c>
+      <c r="A169" s="60"/>
       <c r="B169" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C169" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E169" s="18" t="s">
-        <v>255</v>
+        <v>437</v>
+      </c>
+      <c r="E169" s="23" t="s">
+        <v>438</v>
       </c>
       <c r="F169" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="3"/>
-      <c r="H169" s="15" t="s">
-        <v>256</v>
-      </c>
+      <c r="H169" s="15"/>
       <c r="I169" s="3"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -8554,20 +8567,20 @@
         <v>1</v>
       </c>
       <c r="C170" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E170" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="E170" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="F170" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="1"/>
@@ -8593,20 +8606,20 @@
         <v>1</v>
       </c>
       <c r="C171" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E171" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F171" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1"/>
@@ -8635,17 +8648,17 @@
         <v>5</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F172" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1"/>
@@ -8671,20 +8684,20 @@
         <v>1</v>
       </c>
       <c r="C173" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E173" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F173" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1"/>
@@ -8710,20 +8723,20 @@
         <v>1</v>
       </c>
       <c r="C174" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D174" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E174" s="23" t="s">
         <v>268</v>
-      </c>
-      <c r="E174" s="23" t="s">
-        <v>269</v>
       </c>
       <c r="F174" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1"/>
@@ -8749,20 +8762,20 @@
         <v>0</v>
       </c>
       <c r="C175" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E175" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="E175" s="18" t="s">
-        <v>272</v>
       </c>
       <c r="F175" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1"/>
@@ -8788,20 +8801,20 @@
         <v>0</v>
       </c>
       <c r="C176" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D176" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E176" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="E176" s="18" t="s">
-        <v>275</v>
       </c>
       <c r="F176" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1"/>
@@ -8827,20 +8840,20 @@
         <v>0</v>
       </c>
       <c r="C177" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D177" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E177" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="E177" s="18" t="s">
-        <v>278</v>
       </c>
       <c r="F177" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1"/>
@@ -8866,20 +8879,20 @@
         <v>1</v>
       </c>
       <c r="C178" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D178" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E178" s="23" t="s">
         <v>280</v>
-      </c>
-      <c r="E178" s="23" t="s">
-        <v>281</v>
       </c>
       <c r="F178" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1"/>
@@ -8905,20 +8918,20 @@
         <v>1</v>
       </c>
       <c r="C179" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D179" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E179" s="18" t="s">
         <v>283</v>
-      </c>
-      <c r="E179" s="18" t="s">
-        <v>284</v>
       </c>
       <c r="F179" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1"/>
@@ -8944,20 +8957,20 @@
         <v>1</v>
       </c>
       <c r="C180" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E180" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F180" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1"/>
@@ -8983,20 +8996,20 @@
         <v>1</v>
       </c>
       <c r="C181" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D181" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E181" s="18" t="s">
         <v>288</v>
-      </c>
-      <c r="E181" s="18" t="s">
-        <v>289</v>
       </c>
       <c r="F181" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1"/>
@@ -9022,20 +9035,20 @@
         <v>1</v>
       </c>
       <c r="C182" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D182" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E182" s="18" t="s">
         <v>291</v>
-      </c>
-      <c r="E182" s="18" t="s">
-        <v>292</v>
       </c>
       <c r="F182" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1"/>
@@ -9061,20 +9074,20 @@
         <v>1</v>
       </c>
       <c r="C183" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D183" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E183" s="18" t="s">
         <v>294</v>
-      </c>
-      <c r="E183" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="F183" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1"/>
@@ -9100,20 +9113,20 @@
         <v>0</v>
       </c>
       <c r="C184" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E184" s="18" t="s">
         <v>297</v>
-      </c>
-      <c r="E184" s="18" t="s">
-        <v>298</v>
       </c>
       <c r="F184" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1"/>
@@ -9139,21 +9152,19 @@
         <v>1</v>
       </c>
       <c r="C185" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E185" s="18" t="s">
-        <v>258</v>
+        <v>436</v>
+      </c>
+      <c r="E185" s="23" t="s">
+        <v>435</v>
       </c>
       <c r="F185" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" s="15" t="s">
-        <v>301</v>
-      </c>
+      <c r="H185" s="15"/>
       <c r="I185" s="3"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -9175,23 +9186,23 @@
     <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A186" s="51"/>
       <c r="B186" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E186" s="18" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="F186" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1"/>
@@ -9217,13 +9228,13 @@
         <v>1</v>
       </c>
       <c r="C187" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E187" s="23" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F187" s="26" t="s">
         <v>22</v>
@@ -9251,23 +9262,23 @@
     <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A188" s="51"/>
       <c r="B188" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E188" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1"/>
@@ -9287,27 +9298,25 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A189" s="51"/>
       <c r="B189" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E189" s="18" t="s">
-        <v>309</v>
+        <v>432</v>
+      </c>
+      <c r="E189" s="23" t="s">
+        <v>433</v>
       </c>
       <c r="F189" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="3"/>
-      <c r="H189" s="16" t="s">
-        <v>310</v>
-      </c>
+      <c r="H189" s="15"/>
       <c r="I189" s="3"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -9326,26 +9335,26 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A190" s="51"/>
       <c r="B190" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C190" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>435</v>
+        <v>304</v>
       </c>
       <c r="E190" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="F190" s="28" t="s">
-        <v>57</v>
+        <v>305</v>
+      </c>
+      <c r="F190" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G190" s="3"/>
-      <c r="H190" s="16" t="s">
-        <v>312</v>
+      <c r="H190" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1"/>
@@ -9371,20 +9380,20 @@
         <v>0</v>
       </c>
       <c r="C191" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="F191" s="28" t="s">
-        <v>57</v>
+        <v>308</v>
+      </c>
+      <c r="F191" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1"/>
@@ -9404,26 +9413,26 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="51"/>
       <c r="B192" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>316</v>
+        <v>434</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="F192" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" s="15" t="s">
-        <v>317</v>
+      <c r="H192" s="16" t="s">
+        <v>311</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1"/>
@@ -9444,24 +9453,26 @@
       <c r="Y192" s="1"/>
     </row>
     <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1" t="s">
-        <v>378</v>
+      <c r="A193" s="51"/>
+      <c r="B193" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C193" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E193" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="F193" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="E193" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F193" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="4"/>
+      <c r="H193" s="16" t="s">
+        <v>314</v>
+      </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -9480,15 +9491,27 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="1"/>
+    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A194" s="51"/>
+      <c r="B194" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C194" s="2">
+        <v>27</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E194" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F194" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G194" s="3"/>
-      <c r="H194" s="4"/>
+      <c r="H194" s="15" t="s">
+        <v>316</v>
+      </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -9507,29 +9530,25 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A195" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="B195" s="3" t="b">
-        <v>0</v>
+    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="C195" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F195" s="27" t="s">
-        <v>10</v>
+        <v>375</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F195" s="49" t="s">
+        <v>57</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" s="15" t="s">
-        <v>320</v>
-      </c>
+      <c r="H195" s="4"/>
       <c r="I195" s="3"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -9548,27 +9567,15 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A196" s="51"/>
-      <c r="B196" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C196" s="2">
-        <v>2</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="1"/>
       <c r="G196" s="3"/>
-      <c r="H196" s="15" t="s">
-        <v>322</v>
-      </c>
+      <c r="H196" s="4"/>
       <c r="I196" s="3"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -9587,26 +9594,28 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A197" s="51"/>
+    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A197" s="60" t="s">
+        <v>317</v>
+      </c>
       <c r="B197" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C197" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E197" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="E197" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F197" s="26" t="s">
-        <v>22</v>
+      <c r="F197" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G197" s="3"/>
-      <c r="H197" s="16" t="s">
-        <v>324</v>
+      <c r="H197" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="1"/>
@@ -9626,16 +9635,16 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A198" s="51"/>
       <c r="B198" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C198" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>9</v>
@@ -9644,8 +9653,8 @@
         <v>22</v>
       </c>
       <c r="G198" s="3"/>
-      <c r="H198" s="16" t="s">
-        <v>326</v>
+      <c r="H198" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1"/>
@@ -9665,26 +9674,26 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="51"/>
       <c r="B199" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C199" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E199" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E199" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F199" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="15" t="s">
-        <v>328</v>
+      <c r="H199" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1"/>
@@ -9704,16 +9713,16 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="51"/>
       <c r="B200" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C200" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>9</v>
@@ -9722,8 +9731,8 @@
         <v>22</v>
       </c>
       <c r="G200" s="3"/>
-      <c r="H200" s="15" t="s">
-        <v>330</v>
+      <c r="H200" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1"/>
@@ -9749,10 +9758,10 @@
         <v>0</v>
       </c>
       <c r="C201" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>9</v>
@@ -9762,7 +9771,7 @@
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="15" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
@@ -9782,16 +9791,16 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A202" s="51"/>
       <c r="B202" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C202" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>9</v>
@@ -9800,8 +9809,8 @@
         <v>22</v>
       </c>
       <c r="G202" s="3"/>
-      <c r="H202" s="16" t="s">
-        <v>334</v>
+      <c r="H202" s="15" t="s">
+        <v>329</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1"/>
@@ -9827,10 +9836,10 @@
         <v>0</v>
       </c>
       <c r="C203" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>9</v>
@@ -9840,7 +9849,7 @@
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="15" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1"/>
@@ -9860,16 +9869,16 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="51"/>
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C204" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>9</v>
@@ -9878,8 +9887,8 @@
         <v>22</v>
       </c>
       <c r="G204" s="3"/>
-      <c r="H204" s="15" t="s">
-        <v>338</v>
+      <c r="H204" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1"/>
@@ -9899,16 +9908,16 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A205" s="51"/>
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C205" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>9</v>
@@ -9917,8 +9926,8 @@
         <v>22</v>
       </c>
       <c r="G205" s="3"/>
-      <c r="H205" s="16" t="s">
-        <v>340</v>
+      <c r="H205" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1"/>
@@ -9944,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="C206" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>9</v>
@@ -9957,7 +9966,7 @@
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="15" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1"/>
@@ -9977,16 +9986,16 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="51"/>
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C207" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>9</v>
@@ -9995,8 +10004,8 @@
         <v>22</v>
       </c>
       <c r="G207" s="3"/>
-      <c r="H207" s="15" t="s">
-        <v>344</v>
+      <c r="H207" s="16" t="s">
+        <v>339</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1"/>
@@ -10022,10 +10031,10 @@
         <v>0</v>
       </c>
       <c r="C208" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>9</v>
@@ -10035,7 +10044,7 @@
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="15" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1"/>
@@ -10055,16 +10064,16 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A209" s="51"/>
       <c r="B209" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C209" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>9</v>
@@ -10073,8 +10082,8 @@
         <v>22</v>
       </c>
       <c r="G209" s="3"/>
-      <c r="H209" s="16" t="s">
-        <v>348</v>
+      <c r="H209" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1"/>
@@ -10094,26 +10103,26 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A210" s="51"/>
       <c r="B210" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F210" s="28" t="s">
-        <v>57</v>
+      <c r="F210" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G210" s="3"/>
-      <c r="H210" s="16" t="s">
-        <v>350</v>
+      <c r="H210" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1"/>
@@ -10139,20 +10148,20 @@
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F211" s="28" t="s">
-        <v>57</v>
+      <c r="F211" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1"/>
@@ -10178,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="C212" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>9</v>
@@ -10191,7 +10200,7 @@
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1"/>
@@ -10211,16 +10220,16 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="51"/>
       <c r="B213" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C213" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>9</v>
@@ -10229,8 +10238,8 @@
         <v>57</v>
       </c>
       <c r="G213" s="3"/>
-      <c r="H213" s="15" t="s">
-        <v>356</v>
+      <c r="H213" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1"/>
@@ -10250,16 +10259,16 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="51"/>
       <c r="B214" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C214" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>9</v>
@@ -10268,8 +10277,8 @@
         <v>57</v>
       </c>
       <c r="G214" s="3"/>
-      <c r="H214" s="15" t="s">
-        <v>358</v>
+      <c r="H214" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1"/>
@@ -10289,16 +10298,16 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A215" s="51"/>
       <c r="B215" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>9</v>
@@ -10307,8 +10316,8 @@
         <v>57</v>
       </c>
       <c r="G215" s="3"/>
-      <c r="H215" s="16" t="s">
-        <v>360</v>
+      <c r="H215" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1"/>
@@ -10328,15 +10337,27 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="1"/>
+    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A216" s="51"/>
+      <c r="B216" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C216" s="2">
+        <v>20</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="4"/>
+      <c r="H216" s="15" t="s">
+        <v>357</v>
+      </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -10356,14 +10377,26 @@
       <c r="Y216" s="1"/>
     </row>
     <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="1"/>
+      <c r="A217" s="51"/>
+      <c r="B217" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C217" s="2">
+        <v>21</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="4"/>
+      <c r="H217" s="16" t="s">
+        <v>359</v>
+      </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -10383,28 +10416,14 @@
       <c r="Y217" s="1"/>
     </row>
     <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="B218" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C218" s="2">
-        <v>1</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E218" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F218" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="A218" s="1"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="1"/>
       <c r="G218" s="3"/>
-      <c r="H218" s="16" t="s">
-        <v>363</v>
-      </c>
+      <c r="H218" s="4"/>
       <c r="I218" s="3"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -10423,27 +10442,15 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A219" s="51"/>
-      <c r="B219" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C219" s="2">
-        <v>2</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F219" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="1"/>
       <c r="G219" s="3"/>
-      <c r="H219" s="15" t="s">
-        <v>365</v>
-      </c>
+      <c r="H219" s="4"/>
       <c r="I219" s="3"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -10462,26 +10469,28 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A220" s="51"/>
+    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A220" s="60" t="s">
+        <v>360</v>
+      </c>
       <c r="B220" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E220" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E220" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F220" s="26" t="s">
-        <v>22</v>
+      <c r="F220" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="G220" s="3"/>
-      <c r="H220" s="15" t="s">
-        <v>367</v>
+      <c r="H220" s="16" t="s">
+        <v>362</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1"/>
@@ -10507,10 +10516,10 @@
         <v>0</v>
       </c>
       <c r="C221" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>9</v>
@@ -10520,7 +10529,7 @@
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="15" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1"/>
@@ -10546,10 +10555,10 @@
         <v>0</v>
       </c>
       <c r="C222" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>9</v>
@@ -10558,8 +10567,8 @@
         <v>22</v>
       </c>
       <c r="G222" s="3"/>
-      <c r="H222" s="20" t="s">
-        <v>371</v>
+      <c r="H222" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1"/>
@@ -10585,20 +10594,20 @@
         <v>0</v>
       </c>
       <c r="C223" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="28" t="s">
-        <v>57</v>
+      <c r="F223" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="15" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1"/>
@@ -10618,15 +10627,27 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="1"/>
+    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A224" s="51"/>
+      <c r="B224" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C224" s="2">
+        <v>5</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="G224" s="3"/>
-      <c r="H224" s="4"/>
+      <c r="H224" s="20" t="s">
+        <v>370</v>
+      </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -10645,15 +10666,27 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="1"/>
+    <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="A225" s="51"/>
+      <c r="B225" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C225" s="2">
+        <v>6</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="G225" s="3"/>
-      <c r="H225" s="4"/>
+      <c r="H225" s="15" t="s">
+        <v>372</v>
+      </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -10673,24 +10706,12 @@
       <c r="Y225" s="1"/>
     </row>
     <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A226" s="50" t="s">
-        <v>410</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C226" s="2">
-        <v>1</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E226" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F226" s="41" t="s">
-        <v>420</v>
-      </c>
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="1"/>
       <c r="G226" s="3"/>
       <c r="H226" s="4"/>
       <c r="I226" s="3"/>
@@ -10712,22 +10733,12 @@
       <c r="Y226" s="1"/>
     </row>
     <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A227" s="51"/>
-      <c r="B227" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C227" s="2">
-        <v>2</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E227" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F227" s="41" t="s">
-        <v>420</v>
-      </c>
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="1"/>
       <c r="G227" s="3"/>
       <c r="H227" s="4"/>
       <c r="I227" s="3"/>
@@ -10749,21 +10760,23 @@
       <c r="Y227" s="1"/>
     </row>
     <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="51"/>
-      <c r="B228" s="1" t="b">
-        <v>0</v>
+      <c r="A228" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="C228" s="2">
-        <v>3</v>
-      </c>
-      <c r="D228" s="24" t="s">
-        <v>427</v>
+        <v>1</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="E228" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F228" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G228" s="3"/>
       <c r="H228" s="4"/>
@@ -10787,20 +10800,20 @@
     </row>
     <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="51"/>
-      <c r="B229" s="1" t="b">
-        <v>0</v>
+      <c r="B229" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="C229" s="2">
-        <v>4</v>
-      </c>
-      <c r="D229" s="24" t="s">
-        <v>428</v>
+        <v>2</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="E229" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F229" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="4"/>
@@ -10828,11 +10841,17 @@
         <v>0</v>
       </c>
       <c r="C230" s="2">
-        <v>5</v>
-      </c>
-      <c r="D230" s="1"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D230" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E230" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="41" t="s">
+        <v>419</v>
+      </c>
       <c r="G230" s="3"/>
       <c r="H230" s="4"/>
       <c r="I230" s="3"/>
@@ -10859,11 +10878,17 @@
         <v>0</v>
       </c>
       <c r="C231" s="2">
-        <v>6</v>
-      </c>
-      <c r="D231" s="1"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D231" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="E231" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="41" t="s">
+        <v>419</v>
+      </c>
       <c r="G231" s="3"/>
       <c r="H231" s="4"/>
       <c r="I231" s="3"/>
@@ -10890,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="C232" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="3"/>
@@ -10921,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="C233" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="3"/>
@@ -10952,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="C234" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="3"/>
@@ -10983,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="C235" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="3"/>
@@ -11014,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="C236" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="3"/>
@@ -11045,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="C237" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="3"/>
@@ -11076,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="C238" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="3"/>
@@ -11107,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="C239" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="3"/>
@@ -11138,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="C240" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="3"/>
@@ -11165,8 +11190,12 @@
     </row>
     <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="51"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="2"/>
+      <c r="B241" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C241" s="2">
+        <v>14</v>
+      </c>
       <c r="D241" s="1"/>
       <c r="E241" s="3"/>
       <c r="F241" s="1"/>
@@ -11192,8 +11221,12 @@
     </row>
     <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="51"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="2"/>
+      <c r="B242" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C242" s="2">
+        <v>15</v>
+      </c>
       <c r="D242" s="1"/>
       <c r="E242" s="3"/>
       <c r="F242" s="1"/>
@@ -11299,7 +11332,7 @@
       <c r="Y245" s="1"/>
     </row>
     <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
+      <c r="A246" s="51"/>
       <c r="B246" s="1"/>
       <c r="C246" s="2"/>
       <c r="D246" s="1"/>
@@ -11326,7 +11359,7 @@
       <c r="Y246" s="1"/>
     </row>
     <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
+      <c r="A247" s="51"/>
       <c r="B247" s="1"/>
       <c r="C247" s="2"/>
       <c r="D247" s="1"/>
@@ -31764,25 +31797,79 @@
       <c r="X1003" s="1"/>
       <c r="Y1003" s="1"/>
     </row>
+    <row r="1004" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="3"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="3"/>
+      <c r="H1004" s="4"/>
+      <c r="I1004" s="3"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+    </row>
+    <row r="1005" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="1"/>
+      <c r="E1005" s="3"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="3"/>
+      <c r="H1005" s="4"/>
+      <c r="I1005" s="3"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A228:A247"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="A197:A217"/>
+    <mergeCell ref="A220:A225"/>
+    <mergeCell ref="A75:A90"/>
+    <mergeCell ref="A93:A106"/>
+    <mergeCell ref="A109:A132"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A168:A194"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A7:A37"/>
     <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A226:A245"/>
-    <mergeCell ref="A46:A58"/>
-    <mergeCell ref="A61:A72"/>
-    <mergeCell ref="A195:A215"/>
-    <mergeCell ref="A218:A223"/>
-    <mergeCell ref="A75:A90"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="A110:A133"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A169:A192"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
@@ -31864,207 +31951,209 @@
     <hyperlink ref="G103" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
     <hyperlink ref="E104" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="G104" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E105" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E106" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G106" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G107" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E110" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G110" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E111" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G111" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E112" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G112" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E113" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E114" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G114" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E115" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="G115" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E116" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="G116" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E117" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G117" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E118" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E119" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G119" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E120" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E121" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="G121" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E122" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E123" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E124" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G124" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E125" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="G125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E126" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G126" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E127" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G127" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E128" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E129" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="G130" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E131" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E132" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E133" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E137" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E138" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G138" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E139" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G139" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E140" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="G140" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E141" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="G141" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E142" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G142" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E143" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="G143" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E144" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G144" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E145" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G145" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E146" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E147" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G147" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E148" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="G148" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E149" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="G151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E154" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E155" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E156" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E157" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E158" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E159" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="E162" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E163" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E164" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E165" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E166" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E169" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E170" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E171" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E172" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E173" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E174" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E175" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E176" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E177" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E178" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E179" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E180" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E181" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E182" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="E183" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="E184" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E185" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="E186" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E188" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E189" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="E190" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E191" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="E192" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E195" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E196" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="E197" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E198" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="E199" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E200" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="E201" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E202" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="E203" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E204" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E205" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E206" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E207" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E208" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="E209" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E210" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="E211" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E212" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E213" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E214" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E215" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E218" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="E219" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="E220" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E221" r:id="rId209" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E222" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="E223" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E193" r:id="rId212" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
-    <hyperlink ref="E135" r:id="rId213" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
-    <hyperlink ref="E134" r:id="rId214" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
-    <hyperlink ref="G68" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E68" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E67" r:id="rId217" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
-    <hyperlink ref="E6" r:id="rId218" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
-    <hyperlink ref="E83" r:id="rId219" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
-    <hyperlink ref="E88" r:id="rId220" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
-    <hyperlink ref="E91" r:id="rId221" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
-    <hyperlink ref="E87" r:id="rId222" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
-    <hyperlink ref="E86" r:id="rId223" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
-    <hyperlink ref="E48" r:id="rId224" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
-    <hyperlink ref="E56" r:id="rId225" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
-    <hyperlink ref="E32" r:id="rId226" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
-    <hyperlink ref="E14" r:id="rId227" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
-    <hyperlink ref="E7" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId230" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
-    <hyperlink ref="G37" r:id="rId231" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E37" r:id="rId232" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E36" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G35" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E35" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G34" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E34" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E33" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G31" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E31" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G29" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E29" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E28" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E27" r:id="rId244" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E26" r:id="rId245" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E25" r:id="rId246" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G23" r:id="rId247" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E23" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G22" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E22" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E20" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G18" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E18" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G17" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E17" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G16" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E16" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G15" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E15" r:id="rId260" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G13" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E13" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G10" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E10" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G9" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E9" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G8" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E8" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E226" r:id="rId269" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
-    <hyperlink ref="E21" r:id="rId270" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
-    <hyperlink ref="E227" r:id="rId271" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
-    <hyperlink ref="E30" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E12" r:id="rId273" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
-    <hyperlink ref="E228" r:id="rId274" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
-    <hyperlink ref="E229" r:id="rId275" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
-    <hyperlink ref="E24" r:id="rId276" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
-    <hyperlink ref="E19" r:id="rId277" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
-    <hyperlink ref="E187" r:id="rId278" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E105" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G105" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E106" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G106" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E109" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G109" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E110" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G110" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E111" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G111" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E112" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E113" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G113" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E114" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G114" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E115" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G115" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E116" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G116" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E117" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E118" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G118" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E119" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E120" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G120" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E121" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E122" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E123" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G123" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E124" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G124" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G125" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E126" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G126" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E127" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E128" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G129" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E130" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E131" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E132" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E136" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E137" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G137" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E138" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G138" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E139" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G139" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E140" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="G140" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E141" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G141" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E142" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G142" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E143" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G143" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E144" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G144" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E145" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E146" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G146" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E147" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G147" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E148" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G148" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E153" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E154" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E155" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E156" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E157" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E158" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E161" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E162" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E163" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E164" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E165" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E168" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E170" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E171" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E172" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E173" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E174" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E175" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E176" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E177" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E178" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E179" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E180" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E181" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E182" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E183" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E184" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E186" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E188" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E190" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E191" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E192" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E193" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E194" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E197" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E198" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E199" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E200" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E201" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E202" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E203" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="E204" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E205" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E206" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E207" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E208" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E209" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E210" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E211" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E212" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E213" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E214" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E215" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E216" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E217" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E220" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="E221" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="E222" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E223" r:id="rId208" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E224" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E225" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E195" r:id="rId211" xr:uid="{38535620-DA2F-45B6-BE53-7BE35BAD917E}"/>
+    <hyperlink ref="E134" r:id="rId212" xr:uid="{52A62708-7A1B-4947-8125-51CD78E69CDC}"/>
+    <hyperlink ref="E133" r:id="rId213" xr:uid="{90A2CCC4-C963-4688-BF93-898F1AB744EB}"/>
+    <hyperlink ref="G68" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E68" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E67" r:id="rId216" xr:uid="{DDFE149F-872D-40D3-A981-8A2101FAC9BF}"/>
+    <hyperlink ref="E6" r:id="rId217" xr:uid="{793562B4-2093-4C06-A400-8B7875FB547E}"/>
+    <hyperlink ref="E83" r:id="rId218" xr:uid="{B257C977-A47D-4DB0-A09F-C2D9543F22CA}"/>
+    <hyperlink ref="E88" r:id="rId219" xr:uid="{6740D30D-5122-4656-A3AE-0D0EDF0D3361}"/>
+    <hyperlink ref="E91" r:id="rId220" xr:uid="{E6A8EC51-88D3-49C6-B2C4-B1697B469A5B}"/>
+    <hyperlink ref="E87" r:id="rId221" xr:uid="{EE0FF2EF-5A82-4BD2-B997-460C3B05BAF9}"/>
+    <hyperlink ref="E86" r:id="rId222" xr:uid="{8D25C723-BF91-42D1-890E-9CA1BE036008}"/>
+    <hyperlink ref="E48" r:id="rId223" xr:uid="{30B8FDFC-E2BE-4DA3-8FA6-1249AA92CF95}"/>
+    <hyperlink ref="E56" r:id="rId224" xr:uid="{688A3619-4809-464A-A057-9B9FE946F793}"/>
+    <hyperlink ref="E32" r:id="rId225" xr:uid="{0372EC8E-7BC7-4EAC-B994-9672654B43D3}"/>
+    <hyperlink ref="E14" r:id="rId226" xr:uid="{86CAF600-E17D-4EA7-98D0-61A6B60486E9}"/>
+    <hyperlink ref="E7" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E11" r:id="rId229" xr:uid="{5942F87D-4C29-438D-B078-6CCBD6F5DD87}"/>
+    <hyperlink ref="G37" r:id="rId230" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E37" r:id="rId231" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E36" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G35" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E35" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G34" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E34" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E33" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G31" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E31" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G29" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E29" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E28" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E27" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E26" r:id="rId244" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E25" r:id="rId245" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G23" r:id="rId246" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E23" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G22" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E22" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E20" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G18" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E18" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G17" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E17" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G16" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E16" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G15" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E15" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G13" r:id="rId260" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E13" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G10" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E10" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G9" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E9" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G8" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E228" r:id="rId268" xr:uid="{49C446A4-86D9-438E-8C85-C2CBF2D0C601}"/>
+    <hyperlink ref="E21" r:id="rId269" xr:uid="{15B4076B-7C29-451C-A0E0-E0CDB84955C7}"/>
+    <hyperlink ref="E229" r:id="rId270" xr:uid="{5897208F-5F6C-4E1B-8B0F-03D62428448A}"/>
+    <hyperlink ref="E30" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E12" r:id="rId272" xr:uid="{36657CEA-F972-477D-AC24-77B031A0C947}"/>
+    <hyperlink ref="E230" r:id="rId273" xr:uid="{0B318E6F-5375-45A5-A623-A5D070F4F786}"/>
+    <hyperlink ref="E231" r:id="rId274" xr:uid="{28A35100-95C6-4598-8EAE-4903F97A507B}"/>
+    <hyperlink ref="E24" r:id="rId275" xr:uid="{A642EB9F-9B4D-467C-AA82-CE1A728B251C}"/>
+    <hyperlink ref="E19" r:id="rId276" xr:uid="{A1884A7B-6025-4BC0-B0A7-10DF9BA889E7}"/>
+    <hyperlink ref="E189" r:id="rId277" xr:uid="{DD148482-9331-495D-A315-B2667528DE27}"/>
+    <hyperlink ref="E185" r:id="rId278" xr:uid="{9AFBA357-2FAE-42C6-BAC6-9567300CA7EB}"/>
+    <hyperlink ref="E169" r:id="rId279" xr:uid="{222EEF32-42E7-41DB-92A2-B7E1E19CBDFD}"/>
+    <hyperlink ref="E187" r:id="rId280" xr:uid="{7EFFF805-CE73-433D-8429-8C55CEC7C072}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId279"/>
+  <pageSetup orientation="portrait" r:id="rId281"/>
 </worksheet>
 </file>